--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D6386-B914-4E59-A7DF-DC07D6665205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4E1929-70DC-4B26-B262-9063E52F55EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="60">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -212,9 +212,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>作成完了</t>
-  </si>
-  <si>
     <t>24h</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -229,6 +226,115 @@
   <si>
     <t>16h</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログイン設計書レビュー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウト設計書レビュー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メニュー設計書レビュー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログイン設計書レビュー指摘事項取り込み</t>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウト設計書レビュー指摘事項取り込み</t>
+    <rPh sb="12" eb="14">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メニュー設計書レビュー指摘事項取り込み</t>
+    <rPh sb="11" eb="13">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログイン設計書再レビュー</t>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウト設計書再レビュー</t>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メニュー設計書再レビュー</t>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レビュー完了</t>
+  </si>
+  <si>
+    <t>コードレビュー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成中</t>
+  </si>
+  <si>
+    <t>未着手</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1208,10 +1314,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,21 +1547,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1012"/>
+  <dimension ref="A1:AL1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25:B26"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="38" width="3.28515625" customWidth="1"/>
   </cols>
@@ -2543,13 +2659,13 @@
         <v>31</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>13</v>
@@ -2637,13 +2753,13 @@
         <v>32</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>13</v>
@@ -2731,13 +2847,13 @@
         <v>33</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>13</v>
@@ -2825,13 +2941,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>13</v>
@@ -2884,7 +3000,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
-      <c r="M32" s="92"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -2919,13 +3035,13 @@
         <v>35</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>13</v>
@@ -2978,7 +3094,7 @@
       <c r="J34" s="65"/>
       <c r="K34" s="65"/>
       <c r="L34" s="65"/>
-      <c r="M34" s="93"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -3013,13 +3129,13 @@
         <v>36</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>13</v>
@@ -3072,7 +3188,7 @@
       <c r="J36" s="63"/>
       <c r="K36" s="63"/>
       <c r="L36" s="63"/>
-      <c r="M36" s="94"/>
+      <c r="M36" s="40"/>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
@@ -3107,13 +3223,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>13</v>
@@ -3166,7 +3282,7 @@
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
-      <c r="M38" s="92"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
@@ -3201,13 +3317,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>13</v>
@@ -3260,7 +3376,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
-      <c r="M40" s="93"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
@@ -3295,13 +3411,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>13</v>
@@ -3354,7 +3470,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
       <c r="L42" s="63"/>
-      <c r="M42" s="94"/>
+      <c r="M42" s="40"/>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -3382,1594 +3498,1650 @@
       <c r="AL42" s="30"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="66">
+        <v>10</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+    </row>
+    <row r="44" spans="1:38" ht="12" customHeight="1">
+      <c r="A44" s="67"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="95"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="40"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+    </row>
+    <row r="45" spans="1:38" ht="12" customHeight="1">
+      <c r="A45" s="66">
+        <v>11</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="24"/>
+      <c r="AH45" s="24"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+    </row>
+    <row r="46" spans="1:38" ht="12" customHeight="1">
+      <c r="A46" s="67"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="95"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+    </row>
+    <row r="47" spans="1:38" ht="12" customHeight="1">
+      <c r="A47" s="66">
+        <v>12</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="92"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26"/>
+    </row>
+    <row r="48" spans="1:38" ht="12" customHeight="1">
+      <c r="A48" s="67"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="95"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="40"/>
+      <c r="AF48" s="40"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="40"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+    </row>
+    <row r="49" spans="1:38" ht="12" customHeight="1">
+      <c r="A49" s="66">
+        <v>12</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="92"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="26"/>
+    </row>
+    <row r="50" spans="1:38" ht="12" customHeight="1">
+      <c r="A50" s="67"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="95"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="40"/>
+      <c r="AF50" s="40"/>
+      <c r="AG50" s="40"/>
+      <c r="AH50" s="40"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="30"/>
+    </row>
+    <row r="51" spans="1:38" ht="12" customHeight="1">
+      <c r="A51" s="66">
+        <v>12</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="92"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26"/>
+    </row>
+    <row r="52" spans="1:38" ht="12" customHeight="1">
+      <c r="A52" s="67"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="95"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="40"/>
+      <c r="AE52" s="40"/>
+      <c r="AF52" s="40"/>
+      <c r="AG52" s="40"/>
+      <c r="AH52" s="40"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="30"/>
+    </row>
+    <row r="53" spans="1:38" ht="12" customHeight="1">
+      <c r="A53" s="66">
+        <v>12</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="92"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="26"/>
+      <c r="AJ53" s="26"/>
+      <c r="AK53" s="26"/>
+      <c r="AL53" s="26"/>
+    </row>
+    <row r="54" spans="1:38" ht="12" customHeight="1">
+      <c r="A54" s="67"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="95"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="30"/>
+      <c r="AJ54" s="30"/>
+      <c r="AK54" s="30"/>
+      <c r="AL54" s="30"/>
+    </row>
+    <row r="55" spans="1:38" ht="12" customHeight="1">
+      <c r="A55" s="66">
+        <v>12</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="92"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="24"/>
+      <c r="AI55" s="26"/>
+      <c r="AJ55" s="26"/>
+      <c r="AK55" s="26"/>
+      <c r="AL55" s="26"/>
+    </row>
+    <row r="56" spans="1:38" ht="12" customHeight="1">
+      <c r="A56" s="67"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="95"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="40"/>
+      <c r="AE56" s="40"/>
+      <c r="AF56" s="40"/>
+      <c r="AG56" s="40"/>
+      <c r="AH56" s="40"/>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="30"/>
+      <c r="AK56" s="30"/>
+      <c r="AL56" s="30"/>
+    </row>
+    <row r="57" spans="1:38" ht="12" customHeight="1">
+      <c r="A57" s="66">
+        <v>12</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="92"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="24"/>
+      <c r="AH57" s="24"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="26"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+    </row>
+    <row r="58" spans="1:38" ht="12" customHeight="1">
+      <c r="A58" s="67"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="95"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="97"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+      <c r="AB58" s="40"/>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="40"/>
+      <c r="AE58" s="40"/>
+      <c r="AF58" s="40"/>
+      <c r="AG58" s="40"/>
+      <c r="AH58" s="40"/>
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
+      <c r="AL58" s="30"/>
+    </row>
+    <row r="59" spans="1:38" ht="12" customHeight="1">
+      <c r="A59" s="66">
+        <v>12</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="92"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="24"/>
+      <c r="AI59" s="26"/>
+      <c r="AJ59" s="26"/>
+      <c r="AK59" s="26"/>
+      <c r="AL59" s="26"/>
+    </row>
+    <row r="60" spans="1:38" ht="12" customHeight="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="95"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="97"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="30"/>
+      <c r="AJ60" s="30"/>
+      <c r="AK60" s="30"/>
+      <c r="AL60" s="30"/>
+    </row>
+    <row r="61" spans="1:38" ht="12" customHeight="1">
+      <c r="A61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-    </row>
-    <row r="44" spans="1:38" ht="12" customHeight="1">
-      <c r="A44" s="66">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="20"/>
+      <c r="AK61" s="20"/>
+      <c r="AL61" s="20"/>
+    </row>
+    <row r="62" spans="1:38" ht="12" customHeight="1">
+      <c r="A62" s="66">
         <v>1</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B62" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="70" t="s">
-        <v>43</v>
+      <c r="C62" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="21" t="s">
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="24"/>
-      <c r="AD44" s="24"/>
-      <c r="AE44" s="24"/>
-      <c r="AF44" s="24"/>
-      <c r="AG44" s="24"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-    </row>
-    <row r="45" spans="1:38" ht="12" customHeight="1">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="27" t="s">
+      <c r="G62" s="25"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="24"/>
+      <c r="AI62" s="26"/>
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="26"/>
+      <c r="AL62" s="26"/>
+    </row>
+    <row r="63" spans="1:38" ht="12" customHeight="1">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-    </row>
-    <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="66">
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="29"/>
+      <c r="AI63" s="30"/>
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="30"/>
+    </row>
+    <row r="64" spans="1:38" ht="12" customHeight="1">
+      <c r="A64" s="66">
         <v>2</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B64" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="70" t="s">
-        <v>43</v>
+      <c r="C64" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="31" t="s">
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-    </row>
-    <row r="47" spans="1:38" ht="12" customHeight="1">
-      <c r="A47" s="67"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="34" t="s">
+      <c r="G64" s="33"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="32"/>
+      <c r="AH64" s="32"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+    </row>
+    <row r="65" spans="1:38" ht="12" customHeight="1">
+      <c r="A65" s="67"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37"/>
-    </row>
-    <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="66">
+      <c r="G65" s="35"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="37"/>
+      <c r="AJ65" s="37"/>
+      <c r="AK65" s="37"/>
+      <c r="AL65" s="37"/>
+    </row>
+    <row r="66" spans="1:38" ht="12" customHeight="1">
+      <c r="A66" s="66">
         <v>3</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B66" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="70" t="s">
-        <v>43</v>
+      <c r="C66" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="21" t="s">
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-    </row>
-    <row r="49" spans="1:38" ht="12" customHeight="1">
-      <c r="A49" s="67"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="38" t="s">
+      <c r="G66" s="25"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="24"/>
+      <c r="AI66" s="26"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="26"/>
+    </row>
+    <row r="67" spans="1:38" ht="12" customHeight="1">
+      <c r="A67" s="67"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="40"/>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="40"/>
-      <c r="AH49" s="40"/>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="30"/>
-    </row>
-    <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="66">
+      <c r="G67" s="39"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
+      <c r="AB67" s="40"/>
+      <c r="AC67" s="40"/>
+      <c r="AD67" s="40"/>
+      <c r="AE67" s="40"/>
+      <c r="AF67" s="40"/>
+      <c r="AG67" s="40"/>
+      <c r="AH67" s="40"/>
+      <c r="AI67" s="30"/>
+      <c r="AJ67" s="30"/>
+      <c r="AK67" s="30"/>
+      <c r="AL67" s="30"/>
+    </row>
+    <row r="68" spans="1:38" ht="12" customHeight="1">
+      <c r="A68" s="66">
         <v>4</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B68" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="70" t="s">
-        <v>43</v>
+      <c r="C68" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="31" t="s">
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-    </row>
-    <row r="51" spans="1:38" ht="12" customHeight="1">
-      <c r="A51" s="67"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="34" t="s">
+      <c r="G68" s="33"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="32"/>
+      <c r="AA68" s="32"/>
+      <c r="AB68" s="32"/>
+      <c r="AC68" s="32"/>
+      <c r="AD68" s="32"/>
+      <c r="AE68" s="32"/>
+      <c r="AF68" s="32"/>
+      <c r="AG68" s="32"/>
+      <c r="AH68" s="32"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+    </row>
+    <row r="69" spans="1:38" ht="12" customHeight="1">
+      <c r="A69" s="67"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="36"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="37"/>
-      <c r="AJ51" s="37"/>
-      <c r="AK51" s="37"/>
-      <c r="AL51" s="37"/>
-    </row>
-    <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="66">
+      <c r="G69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
+      <c r="AC69" s="36"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="36"/>
+      <c r="AG69" s="36"/>
+      <c r="AH69" s="36"/>
+      <c r="AI69" s="37"/>
+      <c r="AJ69" s="37"/>
+      <c r="AK69" s="37"/>
+      <c r="AL69" s="37"/>
+    </row>
+    <row r="70" spans="1:38" ht="12" customHeight="1">
+      <c r="A70" s="66">
         <v>5</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B70" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="70" t="s">
-        <v>43</v>
+      <c r="C70" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="21" t="s">
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-      <c r="AA52" s="24"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="24"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="24"/>
-      <c r="AH52" s="24"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="26"/>
-      <c r="AL52" s="26"/>
-    </row>
-    <row r="53" spans="1:38" ht="12" customHeight="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="27" t="s">
+      <c r="G70" s="25"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="26"/>
+      <c r="AJ70" s="26"/>
+      <c r="AK70" s="26"/>
+      <c r="AL70" s="26"/>
+    </row>
+    <row r="71" spans="1:38" ht="12" customHeight="1">
+      <c r="A71" s="67"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="30"/>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="30"/>
-    </row>
-    <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="66">
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="29"/>
+      <c r="AF71" s="29"/>
+      <c r="AG71" s="29"/>
+      <c r="AH71" s="29"/>
+      <c r="AI71" s="30"/>
+      <c r="AJ71" s="30"/>
+      <c r="AK71" s="30"/>
+      <c r="AL71" s="30"/>
+    </row>
+    <row r="72" spans="1:38" ht="12" customHeight="1">
+      <c r="A72" s="66">
         <v>6</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B72" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="70" t="s">
-        <v>43</v>
+      <c r="C72" s="70" t="s">
+        <v>42</v>
       </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="31" t="s">
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="32"/>
-      <c r="AH54" s="32"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-    </row>
-    <row r="55" spans="1:38" ht="12" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="34" t="s">
+      <c r="G72" s="33"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="32"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="32"/>
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="32"/>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="32"/>
+      <c r="AI72" s="10"/>
+      <c r="AJ72" s="10"/>
+      <c r="AK72" s="10"/>
+      <c r="AL72" s="10"/>
+    </row>
+    <row r="73" spans="1:38" ht="12" customHeight="1">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37"/>
-      <c r="AK55" s="37"/>
-      <c r="AL55" s="37"/>
-    </row>
-    <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="66">
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="36"/>
+      <c r="AC73" s="36"/>
+      <c r="AD73" s="36"/>
+      <c r="AE73" s="36"/>
+      <c r="AF73" s="36"/>
+      <c r="AG73" s="36"/>
+      <c r="AH73" s="36"/>
+      <c r="AI73" s="37"/>
+      <c r="AJ73" s="37"/>
+      <c r="AK73" s="37"/>
+      <c r="AL73" s="37"/>
+    </row>
+    <row r="74" spans="1:38" ht="12" customHeight="1">
+      <c r="A74" s="66">
         <v>7</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="21" t="s">
+      <c r="B74" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="24"/>
-      <c r="AI56" s="26"/>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="26"/>
-    </row>
-    <row r="57" spans="1:38" ht="12" customHeight="1">
-      <c r="A57" s="67"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="38" t="s">
+      <c r="G74" s="25"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="24"/>
+      <c r="AI74" s="26"/>
+      <c r="AJ74" s="26"/>
+      <c r="AK74" s="26"/>
+      <c r="AL74" s="26"/>
+    </row>
+    <row r="75" spans="1:38" ht="12" customHeight="1">
+      <c r="A75" s="67"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
-      <c r="AC57" s="40"/>
-      <c r="AD57" s="40"/>
-      <c r="AE57" s="40"/>
-      <c r="AF57" s="40"/>
-      <c r="AG57" s="40"/>
-      <c r="AH57" s="40"/>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-    </row>
-    <row r="58" spans="1:38" ht="12" customHeight="1">
-      <c r="A58" s="66">
+      <c r="G75" s="39"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="40"/>
+      <c r="AB75" s="40"/>
+      <c r="AC75" s="40"/>
+      <c r="AD75" s="40"/>
+      <c r="AE75" s="40"/>
+      <c r="AF75" s="40"/>
+      <c r="AG75" s="40"/>
+      <c r="AH75" s="40"/>
+      <c r="AI75" s="30"/>
+      <c r="AJ75" s="30"/>
+      <c r="AK75" s="30"/>
+      <c r="AL75" s="30"/>
+    </row>
+    <row r="76" spans="1:38" ht="12" customHeight="1">
+      <c r="A76" s="66">
         <v>8</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="32"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="32"/>
-      <c r="AH58" s="32"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-    </row>
-    <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="67"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="36"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="36"/>
-      <c r="AH59" s="36"/>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="37"/>
-    </row>
-    <row r="60" spans="1:38" ht="12" customHeight="1">
-      <c r="A60" s="66">
-        <v>9</v>
-      </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="26"/>
-      <c r="AJ60" s="26"/>
-      <c r="AK60" s="26"/>
-      <c r="AL60" s="26"/>
-    </row>
-    <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="29"/>
-      <c r="AF61" s="29"/>
-      <c r="AG61" s="29"/>
-      <c r="AH61" s="29"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="41"/>
-      <c r="AK61" s="41"/>
-      <c r="AL61" s="41"/>
-    </row>
-    <row r="62" spans="1:38" ht="12" customHeight="1">
-      <c r="A62" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="16"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="16"/>
-      <c r="AI62" s="20"/>
-      <c r="AJ62" s="20"/>
-      <c r="AK62" s="20"/>
-      <c r="AL62" s="20"/>
-    </row>
-    <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="66">
-        <v>1</v>
-      </c>
-      <c r="B63" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
-      <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="23"/>
-      <c r="AF63" s="23"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="26"/>
-      <c r="AJ63" s="26"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="26"/>
-    </row>
-    <row r="64" spans="1:38" ht="12" customHeight="1">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
-      <c r="AE64" s="29"/>
-      <c r="AF64" s="29"/>
-      <c r="AG64" s="29"/>
-      <c r="AH64" s="29"/>
-      <c r="AI64" s="30"/>
-      <c r="AJ64" s="30"/>
-      <c r="AK64" s="30"/>
-      <c r="AL64" s="30"/>
-    </row>
-    <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="66">
-        <v>2</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="57"/>
-      <c r="Z65" s="57"/>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="32"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="23"/>
-      <c r="AF65" s="23"/>
-      <c r="AG65" s="32"/>
-      <c r="AH65" s="32"/>
-      <c r="AI65" s="10"/>
-      <c r="AJ65" s="10"/>
-      <c r="AK65" s="10"/>
-      <c r="AL65" s="10"/>
-    </row>
-    <row r="66" spans="1:38" ht="12" customHeight="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="36"/>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
-      <c r="AI66" s="37"/>
-      <c r="AJ66" s="37"/>
-      <c r="AK66" s="37"/>
-      <c r="AL66" s="37"/>
-    </row>
-    <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="66">
-        <v>3</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="57"/>
-      <c r="Z67" s="57"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="23"/>
-      <c r="AF67" s="23"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="26"/>
-      <c r="AJ67" s="26"/>
-      <c r="AK67" s="26"/>
-      <c r="AL67" s="26"/>
-    </row>
-    <row r="68" spans="1:38" ht="12" customHeight="1">
-      <c r="A68" s="67"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="40"/>
-      <c r="AB68" s="40"/>
-      <c r="AC68" s="40"/>
-      <c r="AD68" s="40"/>
-      <c r="AE68" s="40"/>
-      <c r="AF68" s="40"/>
-      <c r="AG68" s="40"/>
-      <c r="AH68" s="40"/>
-      <c r="AI68" s="30"/>
-      <c r="AJ68" s="30"/>
-      <c r="AK68" s="30"/>
-      <c r="AL68" s="30"/>
-    </row>
-    <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="66">
-        <v>4</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="33"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="61"/>
-      <c r="AA69" s="61"/>
-      <c r="AB69" s="61"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
-      <c r="AG69" s="32"/>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="10"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="10"/>
-    </row>
-    <row r="70" spans="1:38" ht="12" customHeight="1">
-      <c r="A70" s="67"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="36"/>
-      <c r="AD70" s="36"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="37"/>
-      <c r="AJ70" s="37"/>
-      <c r="AK70" s="37"/>
-      <c r="AL70" s="37"/>
-    </row>
-    <row r="71" spans="1:38" ht="12" customHeight="1">
-      <c r="A71" s="66">
-        <v>5</v>
-      </c>
-      <c r="B71" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
-      <c r="AF71" s="56"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="26"/>
-      <c r="AJ71" s="26"/>
-      <c r="AK71" s="26"/>
-      <c r="AL71" s="26"/>
-    </row>
-    <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
-      <c r="AC72" s="29"/>
-      <c r="AD72" s="29"/>
-      <c r="AE72" s="29"/>
-      <c r="AF72" s="29"/>
-      <c r="AG72" s="29"/>
-      <c r="AH72" s="29"/>
-      <c r="AI72" s="41"/>
-      <c r="AJ72" s="41"/>
-      <c r="AK72" s="41"/>
-      <c r="AL72" s="41"/>
-    </row>
-    <row r="73" spans="1:38" ht="12" customHeight="1">
-      <c r="A73" s="66">
-        <v>6</v>
-      </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="33"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="32"/>
-      <c r="V73" s="32"/>
-      <c r="W73" s="32"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="32"/>
-      <c r="Z73" s="32"/>
-      <c r="AA73" s="32"/>
-      <c r="AB73" s="32"/>
-      <c r="AC73" s="32"/>
-      <c r="AD73" s="32"/>
-      <c r="AE73" s="32"/>
-      <c r="AF73" s="32"/>
-      <c r="AG73" s="32"/>
-      <c r="AH73" s="32"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
-      <c r="AL73" s="10"/>
-    </row>
-    <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="51"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="43"/>
-      <c r="AF74" s="43"/>
-      <c r="AG74" s="43"/>
-      <c r="AH74" s="43"/>
-      <c r="AI74" s="12"/>
-      <c r="AJ74" s="12"/>
-      <c r="AK74" s="12"/>
-      <c r="AL74" s="12"/>
-    </row>
-    <row r="75" spans="1:38" ht="12" customHeight="1">
-      <c r="A75" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="16"/>
-      <c r="AE75" s="16"/>
-      <c r="AF75" s="16"/>
-      <c r="AG75" s="16"/>
-      <c r="AH75" s="16"/>
-      <c r="AI75" s="20"/>
-      <c r="AJ75" s="20"/>
-      <c r="AK75" s="20"/>
-      <c r="AL75" s="20"/>
-    </row>
-    <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="66">
-        <v>1</v>
-      </c>
-      <c r="B76" s="70"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="70"/>
       <c r="D76" s="70"/>
       <c r="E76" s="70"/>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="24"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="23"/>
-      <c r="AB76" s="23"/>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="24"/>
-      <c r="AE76" s="24"/>
-      <c r="AF76" s="24"/>
-      <c r="AG76" s="23"/>
-      <c r="AH76" s="23"/>
-      <c r="AI76" s="26"/>
-      <c r="AJ76" s="26"/>
-      <c r="AK76" s="26"/>
-      <c r="AL76" s="26"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="32"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="32"/>
+      <c r="Z76" s="32"/>
+      <c r="AA76" s="32"/>
+      <c r="AB76" s="32"/>
+      <c r="AC76" s="32"/>
+      <c r="AD76" s="32"/>
+      <c r="AE76" s="32"/>
+      <c r="AF76" s="32"/>
+      <c r="AG76" s="32"/>
+      <c r="AH76" s="32"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
       <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="67"/>
       <c r="D77" s="67"/>
       <c r="E77" s="67"/>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-      <c r="AE77" s="29"/>
-      <c r="AF77" s="29"/>
-      <c r="AG77" s="29"/>
-      <c r="AH77" s="29"/>
-      <c r="AI77" s="30"/>
-      <c r="AJ77" s="30"/>
-      <c r="AK77" s="30"/>
-      <c r="AL77" s="30"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="53"/>
+      <c r="S77" s="49"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="36"/>
+      <c r="AB77" s="36"/>
+      <c r="AC77" s="36"/>
+      <c r="AD77" s="36"/>
+      <c r="AE77" s="36"/>
+      <c r="AF77" s="36"/>
+      <c r="AG77" s="36"/>
+      <c r="AH77" s="36"/>
+      <c r="AI77" s="37"/>
+      <c r="AJ77" s="37"/>
+      <c r="AK77" s="37"/>
+      <c r="AL77" s="37"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
       <c r="A78" s="66">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B78" s="70"/>
       <c r="C78" s="70"/>
       <c r="D78" s="70"/>
       <c r="E78" s="70"/>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="48"/>
-      <c r="T78" s="32"/>
-      <c r="U78" s="32"/>
-      <c r="V78" s="32"/>
-      <c r="W78" s="32"/>
-      <c r="X78" s="32"/>
-      <c r="Y78" s="32"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="44"/>
-      <c r="AB78" s="44"/>
-      <c r="AC78" s="32"/>
-      <c r="AD78" s="32"/>
-      <c r="AE78" s="32"/>
-      <c r="AF78" s="32"/>
-      <c r="AG78" s="44"/>
-      <c r="AH78" s="44"/>
-      <c r="AI78" s="10"/>
-      <c r="AJ78" s="10"/>
-      <c r="AK78" s="10"/>
-      <c r="AL78" s="10"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="26"/>
+      <c r="AJ78" s="26"/>
+      <c r="AK78" s="26"/>
+      <c r="AL78" s="26"/>
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
       <c r="A79" s="67"/>
@@ -4977,432 +5149,454 @@
       <c r="C79" s="67"/>
       <c r="D79" s="67"/>
       <c r="E79" s="67"/>
-      <c r="F79" s="34" t="s">
+      <c r="F79" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
-      <c r="AB79" s="36"/>
-      <c r="AC79" s="36"/>
-      <c r="AD79" s="36"/>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="36"/>
-      <c r="AH79" s="36"/>
-      <c r="AI79" s="37"/>
-      <c r="AJ79" s="37"/>
-      <c r="AK79" s="37"/>
-      <c r="AL79" s="37"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="29"/>
+      <c r="AH79" s="29"/>
+      <c r="AI79" s="41"/>
+      <c r="AJ79" s="41"/>
+      <c r="AK79" s="41"/>
+      <c r="AL79" s="41"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="66">
+      <c r="A80" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
+      <c r="AC80" s="16"/>
+      <c r="AD80" s="16"/>
+      <c r="AE80" s="16"/>
+      <c r="AF80" s="16"/>
+      <c r="AG80" s="16"/>
+      <c r="AH80" s="16"/>
+      <c r="AI80" s="20"/>
+      <c r="AJ80" s="20"/>
+      <c r="AK80" s="20"/>
+      <c r="AL80" s="20"/>
+    </row>
+    <row r="81" spans="1:38" ht="12" customHeight="1">
+      <c r="A81" s="66">
+        <v>1</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="25"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="24"/>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="57"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="24"/>
+      <c r="AE81" s="23"/>
+      <c r="AF81" s="23"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="24"/>
+      <c r="AI81" s="26"/>
+      <c r="AJ81" s="26"/>
+      <c r="AK81" s="26"/>
+      <c r="AL81" s="26"/>
+    </row>
+    <row r="82" spans="1:38" ht="12" customHeight="1">
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="28"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="30"/>
+      <c r="AJ82" s="30"/>
+      <c r="AK82" s="30"/>
+      <c r="AL82" s="30"/>
+    </row>
+    <row r="83" spans="1:38" ht="12" customHeight="1">
+      <c r="A83" s="66">
+        <v>2</v>
+      </c>
+      <c r="B83" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="33"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="48"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="57"/>
+      <c r="Z83" s="57"/>
+      <c r="AA83" s="61"/>
+      <c r="AB83" s="61"/>
+      <c r="AC83" s="32"/>
+      <c r="AD83" s="32"/>
+      <c r="AE83" s="23"/>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="32"/>
+      <c r="AH83" s="32"/>
+      <c r="AI83" s="10"/>
+      <c r="AJ83" s="10"/>
+      <c r="AK83" s="10"/>
+      <c r="AL83" s="10"/>
+    </row>
+    <row r="84" spans="1:38" ht="12" customHeight="1">
+      <c r="A84" s="67"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="35"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="36"/>
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="36"/>
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="36"/>
+      <c r="AI84" s="37"/>
+      <c r="AJ84" s="37"/>
+      <c r="AK84" s="37"/>
+      <c r="AL84" s="37"/>
+    </row>
+    <row r="85" spans="1:38" ht="12" customHeight="1">
+      <c r="A85" s="66">
         <v>3</v>
       </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="21" t="s">
+      <c r="B85" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="23"/>
-      <c r="AH80" s="23"/>
-      <c r="AI80" s="26"/>
-      <c r="AJ80" s="26"/>
-      <c r="AK80" s="26"/>
-      <c r="AL80" s="26"/>
-    </row>
-    <row r="81" spans="1:38" ht="12" customHeight="1">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="38" t="s">
+      <c r="G85" s="25"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="24"/>
+      <c r="U85" s="24"/>
+      <c r="V85" s="24"/>
+      <c r="W85" s="24"/>
+      <c r="X85" s="24"/>
+      <c r="Y85" s="57"/>
+      <c r="Z85" s="57"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="24"/>
+      <c r="AD85" s="24"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="24"/>
+      <c r="AI85" s="26"/>
+      <c r="AJ85" s="26"/>
+      <c r="AK85" s="26"/>
+      <c r="AL85" s="26"/>
+    </row>
+    <row r="86" spans="1:38" ht="12" customHeight="1">
+      <c r="A86" s="67"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="40"/>
-      <c r="AA81" s="40"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="40"/>
-      <c r="AD81" s="40"/>
-      <c r="AE81" s="40"/>
-      <c r="AF81" s="40"/>
-      <c r="AG81" s="40"/>
-      <c r="AH81" s="40"/>
-      <c r="AI81" s="30"/>
-      <c r="AJ81" s="30"/>
-      <c r="AK81" s="30"/>
-      <c r="AL81" s="30"/>
-    </row>
-    <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="66">
+      <c r="G86" s="39"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="54"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
+      <c r="AB86" s="40"/>
+      <c r="AC86" s="40"/>
+      <c r="AD86" s="40"/>
+      <c r="AE86" s="40"/>
+      <c r="AF86" s="40"/>
+      <c r="AG86" s="40"/>
+      <c r="AH86" s="40"/>
+      <c r="AI86" s="30"/>
+      <c r="AJ86" s="30"/>
+      <c r="AK86" s="30"/>
+      <c r="AL86" s="30"/>
+    </row>
+    <row r="87" spans="1:38" ht="12" customHeight="1">
+      <c r="A87" s="66">
         <v>4</v>
       </c>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="31" t="s">
+      <c r="B87" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
-      <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
-      <c r="AG82" s="32"/>
-      <c r="AH82" s="32"/>
-      <c r="AI82" s="10"/>
-      <c r="AJ82" s="10"/>
-      <c r="AK82" s="10"/>
-      <c r="AL82" s="10"/>
-    </row>
-    <row r="83" spans="1:38" ht="12" customHeight="1">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="34" t="s">
+      <c r="G87" s="33"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="61"/>
+      <c r="Z87" s="61"/>
+      <c r="AA87" s="61"/>
+      <c r="AB87" s="61"/>
+      <c r="AC87" s="32"/>
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="32"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="32"/>
+      <c r="AH87" s="32"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="10"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+    </row>
+    <row r="88" spans="1:38" ht="12" customHeight="1">
+      <c r="A88" s="67"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
-      <c r="AB83" s="36"/>
-      <c r="AC83" s="36"/>
-      <c r="AD83" s="36"/>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="36"/>
-      <c r="AG83" s="36"/>
-      <c r="AH83" s="36"/>
-      <c r="AI83" s="37"/>
-      <c r="AJ83" s="37"/>
-      <c r="AK83" s="37"/>
-      <c r="AL83" s="37"/>
-    </row>
-    <row r="84" spans="1:38" ht="12" customHeight="1">
-      <c r="A84" s="66">
+      <c r="G88" s="35"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="53"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="36"/>
+      <c r="Z88" s="36"/>
+      <c r="AA88" s="36"/>
+      <c r="AB88" s="36"/>
+      <c r="AC88" s="36"/>
+      <c r="AD88" s="36"/>
+      <c r="AE88" s="36"/>
+      <c r="AF88" s="36"/>
+      <c r="AG88" s="36"/>
+      <c r="AH88" s="36"/>
+      <c r="AI88" s="37"/>
+      <c r="AJ88" s="37"/>
+      <c r="AK88" s="37"/>
+      <c r="AL88" s="37"/>
+    </row>
+    <row r="89" spans="1:38" ht="12" customHeight="1">
+      <c r="A89" s="66">
         <v>5</v>
       </c>
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="21" t="s">
-        <v>13</v>
+      <c r="B89" s="70" t="s">
+        <v>23</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="23"/>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="24"/>
-      <c r="AI84" s="26"/>
-      <c r="AJ84" s="26"/>
-      <c r="AK84" s="26"/>
-      <c r="AL84" s="26"/>
-    </row>
-    <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="38" t="s">
-        <v>14</v>
+      <c r="C89" s="70" t="s">
+        <v>43</v>
       </c>
-      <c r="G85" s="28"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
-      <c r="AE85" s="29"/>
-      <c r="AF85" s="29"/>
-      <c r="AG85" s="29"/>
-      <c r="AH85" s="29"/>
-      <c r="AI85" s="41"/>
-      <c r="AJ85" s="41"/>
-      <c r="AK85" s="41"/>
-      <c r="AL85" s="41"/>
-    </row>
-    <row r="86" spans="1:38" ht="12" customHeight="1">
-      <c r="A86" s="66">
-        <v>6</v>
-      </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="33"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="48"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
-      <c r="AD86" s="32"/>
-      <c r="AE86" s="32"/>
-      <c r="AF86" s="32"/>
-      <c r="AG86" s="32"/>
-      <c r="AH86" s="32"/>
-      <c r="AI86" s="10"/>
-      <c r="AJ86" s="10"/>
-      <c r="AK86" s="10"/>
-      <c r="AL86" s="10"/>
-    </row>
-    <row r="87" spans="1:38" ht="12" customHeight="1">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="42"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="51"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="43"/>
-      <c r="Y87" s="43"/>
-      <c r="Z87" s="43"/>
-      <c r="AA87" s="43"/>
-      <c r="AB87" s="43"/>
-      <c r="AC87" s="43"/>
-      <c r="AD87" s="43"/>
-      <c r="AE87" s="43"/>
-      <c r="AF87" s="43"/>
-      <c r="AG87" s="43"/>
-      <c r="AH87" s="43"/>
-      <c r="AI87" s="12"/>
-      <c r="AJ87" s="12"/>
-      <c r="AK87" s="12"/>
-      <c r="AL87" s="12"/>
-    </row>
-    <row r="88" spans="1:38" ht="12" customHeight="1">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="16"/>
-      <c r="AD88" s="16"/>
-      <c r="AE88" s="16"/>
-      <c r="AF88" s="16"/>
-      <c r="AG88" s="16"/>
-      <c r="AH88" s="16"/>
-      <c r="AI88" s="20"/>
-      <c r="AJ88" s="20"/>
-      <c r="AK88" s="20"/>
-      <c r="AL88" s="20"/>
-    </row>
-    <row r="89" spans="1:38" ht="12" customHeight="1">
-      <c r="A89" s="66">
-        <v>1</v>
-      </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
       <c r="D89" s="70"/>
       <c r="E89" s="70"/>
       <c r="F89" s="21" t="s">
@@ -5430,10 +5624,10 @@
       <c r="Z89" s="24"/>
       <c r="AA89" s="24"/>
       <c r="AB89" s="24"/>
-      <c r="AC89" s="24"/>
-      <c r="AD89" s="24"/>
-      <c r="AE89" s="24"/>
-      <c r="AF89" s="24"/>
+      <c r="AC89" s="56"/>
+      <c r="AD89" s="56"/>
+      <c r="AE89" s="56"/>
+      <c r="AF89" s="56"/>
       <c r="AG89" s="24"/>
       <c r="AH89" s="24"/>
       <c r="AI89" s="26"/>
@@ -5447,7 +5641,7 @@
       <c r="C90" s="67"/>
       <c r="D90" s="67"/>
       <c r="E90" s="67"/>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="28"/>
@@ -5478,14 +5672,14 @@
       <c r="AF90" s="29"/>
       <c r="AG90" s="29"/>
       <c r="AH90" s="29"/>
-      <c r="AI90" s="30"/>
-      <c r="AJ90" s="30"/>
-      <c r="AK90" s="30"/>
-      <c r="AL90" s="30"/>
+      <c r="AI90" s="41"/>
+      <c r="AJ90" s="41"/>
+      <c r="AK90" s="41"/>
+      <c r="AL90" s="41"/>
     </row>
     <row r="91" spans="1:38" ht="12" customHeight="1">
       <c r="A91" s="66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B91" s="70"/>
       <c r="C91" s="70"/>
@@ -5536,930 +5730,980 @@
       <c r="F92" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="53"/>
-      <c r="S92" s="49"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
-      <c r="AB92" s="36"/>
-      <c r="AC92" s="36"/>
-      <c r="AD92" s="36"/>
-      <c r="AE92" s="36"/>
-      <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="36"/>
-      <c r="AI92" s="37"/>
-      <c r="AJ92" s="37"/>
-      <c r="AK92" s="37"/>
-      <c r="AL92" s="37"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="43"/>
+      <c r="AA92" s="43"/>
+      <c r="AB92" s="43"/>
+      <c r="AC92" s="43"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="43"/>
+      <c r="AF92" s="43"/>
+      <c r="AG92" s="43"/>
+      <c r="AH92" s="43"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
     </row>
     <row r="93" spans="1:38" ht="12" customHeight="1">
-      <c r="A93" s="66">
+      <c r="A93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+      <c r="Z93" s="16"/>
+      <c r="AA93" s="16"/>
+      <c r="AB93" s="16"/>
+      <c r="AC93" s="16"/>
+      <c r="AD93" s="16"/>
+      <c r="AE93" s="16"/>
+      <c r="AF93" s="16"/>
+      <c r="AG93" s="16"/>
+      <c r="AH93" s="16"/>
+      <c r="AI93" s="20"/>
+      <c r="AJ93" s="20"/>
+      <c r="AK93" s="20"/>
+      <c r="AL93" s="20"/>
+    </row>
+    <row r="94" spans="1:38" ht="12" customHeight="1">
+      <c r="A94" s="66">
+        <v>1</v>
+      </c>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="46"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
+      <c r="V94" s="24"/>
+      <c r="W94" s="24"/>
+      <c r="X94" s="24"/>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="24"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="24"/>
+      <c r="AD94" s="24"/>
+      <c r="AE94" s="24"/>
+      <c r="AF94" s="24"/>
+      <c r="AG94" s="23"/>
+      <c r="AH94" s="23"/>
+      <c r="AI94" s="26"/>
+      <c r="AJ94" s="26"/>
+      <c r="AK94" s="26"/>
+      <c r="AL94" s="26"/>
+    </row>
+    <row r="95" spans="1:38" ht="12" customHeight="1">
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
+      <c r="AE95" s="29"/>
+      <c r="AF95" s="29"/>
+      <c r="AG95" s="29"/>
+      <c r="AH95" s="29"/>
+      <c r="AI95" s="30"/>
+      <c r="AJ95" s="30"/>
+      <c r="AK95" s="30"/>
+      <c r="AL95" s="30"/>
+    </row>
+    <row r="96" spans="1:38" ht="12" customHeight="1">
+      <c r="A96" s="66">
+        <v>2</v>
+      </c>
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="32"/>
+      <c r="U96" s="32"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="32"/>
+      <c r="X96" s="32"/>
+      <c r="Y96" s="32"/>
+      <c r="Z96" s="32"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="32"/>
+      <c r="AD96" s="32"/>
+      <c r="AE96" s="32"/>
+      <c r="AF96" s="32"/>
+      <c r="AG96" s="44"/>
+      <c r="AH96" s="44"/>
+      <c r="AI96" s="10"/>
+      <c r="AJ96" s="10"/>
+      <c r="AK96" s="10"/>
+      <c r="AL96" s="10"/>
+    </row>
+    <row r="97" spans="1:38" ht="12" customHeight="1">
+      <c r="A97" s="67"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="35"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="53"/>
+      <c r="S97" s="49"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="36"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
+      <c r="Z97" s="36"/>
+      <c r="AA97" s="36"/>
+      <c r="AB97" s="36"/>
+      <c r="AC97" s="36"/>
+      <c r="AD97" s="36"/>
+      <c r="AE97" s="36"/>
+      <c r="AF97" s="36"/>
+      <c r="AG97" s="36"/>
+      <c r="AH97" s="36"/>
+      <c r="AI97" s="37"/>
+      <c r="AJ97" s="37"/>
+      <c r="AK97" s="37"/>
+      <c r="AL97" s="37"/>
+    </row>
+    <row r="98" spans="1:38" ht="12" customHeight="1">
+      <c r="A98" s="66">
         <v>3</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="21" t="s">
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="24"/>
-      <c r="U93" s="24"/>
-      <c r="V93" s="24"/>
-      <c r="W93" s="24"/>
-      <c r="X93" s="24"/>
-      <c r="Y93" s="24"/>
-      <c r="Z93" s="24"/>
-      <c r="AA93" s="24"/>
-      <c r="AB93" s="24"/>
-      <c r="AC93" s="24"/>
-      <c r="AD93" s="24"/>
-      <c r="AE93" s="24"/>
-      <c r="AF93" s="24"/>
-      <c r="AG93" s="24"/>
-      <c r="AH93" s="24"/>
-      <c r="AI93" s="26"/>
-      <c r="AJ93" s="26"/>
-      <c r="AK93" s="26"/>
-      <c r="AL93" s="26"/>
-    </row>
-    <row r="94" spans="1:38" ht="12" customHeight="1">
-      <c r="A94" s="67"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="38" t="s">
+      <c r="G98" s="25"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="24"/>
+      <c r="U98" s="24"/>
+      <c r="V98" s="24"/>
+      <c r="W98" s="24"/>
+      <c r="X98" s="24"/>
+      <c r="Y98" s="24"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="24"/>
+      <c r="AD98" s="24"/>
+      <c r="AE98" s="24"/>
+      <c r="AF98" s="24"/>
+      <c r="AG98" s="23"/>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="26"/>
+      <c r="AJ98" s="26"/>
+      <c r="AK98" s="26"/>
+      <c r="AL98" s="26"/>
+    </row>
+    <row r="99" spans="1:38" ht="12" customHeight="1">
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="54"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="30"/>
-      <c r="AJ94" s="30"/>
-      <c r="AK94" s="30"/>
-      <c r="AL94" s="30"/>
-    </row>
-    <row r="95" spans="1:38" ht="12" customHeight="1">
-      <c r="A95" s="66">
+      <c r="G99" s="39"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="54"/>
+      <c r="S99" s="50"/>
+      <c r="T99" s="40"/>
+      <c r="U99" s="40"/>
+      <c r="V99" s="40"/>
+      <c r="W99" s="40"/>
+      <c r="X99" s="40"/>
+      <c r="Y99" s="40"/>
+      <c r="Z99" s="40"/>
+      <c r="AA99" s="40"/>
+      <c r="AB99" s="40"/>
+      <c r="AC99" s="40"/>
+      <c r="AD99" s="40"/>
+      <c r="AE99" s="40"/>
+      <c r="AF99" s="40"/>
+      <c r="AG99" s="40"/>
+      <c r="AH99" s="40"/>
+      <c r="AI99" s="30"/>
+      <c r="AJ99" s="30"/>
+      <c r="AK99" s="30"/>
+      <c r="AL99" s="30"/>
+    </row>
+    <row r="100" spans="1:38" ht="12" customHeight="1">
+      <c r="A100" s="66">
         <v>4</v>
       </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="31" t="s">
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="33"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="48"/>
-      <c r="T95" s="32"/>
-      <c r="U95" s="32"/>
-      <c r="V95" s="32"/>
-      <c r="W95" s="32"/>
-      <c r="X95" s="32"/>
-      <c r="Y95" s="32"/>
-      <c r="Z95" s="32"/>
-      <c r="AA95" s="32"/>
-      <c r="AB95" s="32"/>
-      <c r="AC95" s="32"/>
-      <c r="AD95" s="32"/>
-      <c r="AE95" s="32"/>
-      <c r="AF95" s="32"/>
-      <c r="AG95" s="32"/>
-      <c r="AH95" s="32"/>
-      <c r="AI95" s="10"/>
-      <c r="AJ95" s="10"/>
-      <c r="AK95" s="10"/>
-      <c r="AL95" s="10"/>
-    </row>
-    <row r="96" spans="1:38" ht="12" customHeight="1">
-      <c r="A96" s="67"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="38" t="s">
+      <c r="G100" s="33"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="32"/>
+      <c r="U100" s="32"/>
+      <c r="V100" s="32"/>
+      <c r="W100" s="32"/>
+      <c r="X100" s="32"/>
+      <c r="Y100" s="32"/>
+      <c r="Z100" s="32"/>
+      <c r="AA100" s="32"/>
+      <c r="AB100" s="32"/>
+      <c r="AC100" s="32"/>
+      <c r="AD100" s="32"/>
+      <c r="AE100" s="32"/>
+      <c r="AF100" s="32"/>
+      <c r="AG100" s="32"/>
+      <c r="AH100" s="32"/>
+      <c r="AI100" s="10"/>
+      <c r="AJ100" s="10"/>
+      <c r="AK100" s="10"/>
+      <c r="AL100" s="10"/>
+    </row>
+    <row r="101" spans="1:38" ht="12" customHeight="1">
+      <c r="A101" s="67"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="39"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="40"/>
-      <c r="AI96" s="30"/>
-      <c r="AJ96" s="30"/>
-      <c r="AK96" s="30"/>
-      <c r="AL96" s="30"/>
-    </row>
-    <row r="97" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="2"/>
-      <c r="AF97" s="2"/>
-      <c r="AG97" s="2"/>
-      <c r="AH97" s="2"/>
-      <c r="AI97" s="2"/>
-      <c r="AJ97" s="2"/>
-      <c r="AK97" s="2"/>
-      <c r="AL97" s="2"/>
-    </row>
-    <row r="98" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
-      <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="2"/>
-      <c r="AF98" s="2"/>
-      <c r="AG98" s="2"/>
-      <c r="AH98" s="2"/>
-      <c r="AI98" s="2"/>
-      <c r="AJ98" s="2"/>
-      <c r="AK98" s="2"/>
-      <c r="AL98" s="2"/>
-    </row>
-    <row r="99" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="2"/>
-      <c r="AG99" s="2"/>
-      <c r="AH99" s="2"/>
-      <c r="AI99" s="2"/>
-      <c r="AJ99" s="2"/>
-      <c r="AK99" s="2"/>
-      <c r="AL99" s="2"/>
-    </row>
-    <row r="100" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
-      <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="2"/>
-      <c r="AF100" s="2"/>
-      <c r="AG100" s="2"/>
-      <c r="AH100" s="2"/>
-      <c r="AI100" s="2"/>
-      <c r="AJ100" s="2"/>
-      <c r="AK100" s="2"/>
-      <c r="AL100" s="2"/>
-    </row>
-    <row r="101" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="2"/>
-      <c r="AG101" s="2"/>
-      <c r="AH101" s="2"/>
-      <c r="AI101" s="2"/>
-      <c r="AJ101" s="2"/>
-      <c r="AK101" s="2"/>
-      <c r="AL101" s="2"/>
-    </row>
-    <row r="102" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
-      <c r="AA102" s="2"/>
-      <c r="AB102" s="2"/>
-      <c r="AC102" s="2"/>
-      <c r="AD102" s="2"/>
-      <c r="AE102" s="2"/>
-      <c r="AF102" s="2"/>
-      <c r="AG102" s="2"/>
-      <c r="AH102" s="2"/>
-      <c r="AI102" s="2"/>
-      <c r="AJ102" s="2"/>
-      <c r="AK102" s="2"/>
-      <c r="AL102" s="2"/>
-    </row>
-    <row r="103" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
-      <c r="AB103" s="2"/>
-      <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="2"/>
-      <c r="AF103" s="2"/>
-      <c r="AG103" s="2"/>
-      <c r="AH103" s="2"/>
-      <c r="AI103" s="2"/>
-      <c r="AJ103" s="2"/>
-      <c r="AK103" s="2"/>
-      <c r="AL103" s="2"/>
-    </row>
-    <row r="104" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-      <c r="AB104" s="2"/>
-      <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="2"/>
-      <c r="AG104" s="2"/>
-      <c r="AH104" s="2"/>
-      <c r="AI104" s="2"/>
-      <c r="AJ104" s="2"/>
-      <c r="AK104" s="2"/>
-      <c r="AL104" s="2"/>
-    </row>
-    <row r="105" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
-      <c r="AA105" s="2"/>
-      <c r="AB105" s="2"/>
-      <c r="AC105" s="2"/>
-      <c r="AD105" s="2"/>
-      <c r="AE105" s="2"/>
-      <c r="AF105" s="2"/>
-      <c r="AG105" s="2"/>
-      <c r="AH105" s="2"/>
-      <c r="AI105" s="2"/>
-      <c r="AJ105" s="2"/>
-      <c r="AK105" s="2"/>
-      <c r="AL105" s="2"/>
-    </row>
-    <row r="106" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
-      <c r="AA106" s="2"/>
-      <c r="AB106" s="2"/>
-      <c r="AC106" s="2"/>
-      <c r="AD106" s="2"/>
-      <c r="AE106" s="2"/>
-      <c r="AF106" s="2"/>
-      <c r="AG106" s="2"/>
-      <c r="AH106" s="2"/>
-      <c r="AI106" s="2"/>
-      <c r="AJ106" s="2"/>
-      <c r="AK106" s="2"/>
-      <c r="AL106" s="2"/>
-    </row>
-    <row r="107" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A107" s="6"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
-      <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="2"/>
-      <c r="AG107" s="2"/>
-      <c r="AH107" s="2"/>
-      <c r="AI107" s="2"/>
-      <c r="AJ107" s="2"/>
-      <c r="AK107" s="2"/>
-      <c r="AL107" s="2"/>
-    </row>
-    <row r="108" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
-      <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="2"/>
-      <c r="AG108" s="2"/>
-      <c r="AH108" s="2"/>
-      <c r="AI108" s="2"/>
-      <c r="AJ108" s="2"/>
-      <c r="AK108" s="2"/>
-      <c r="AL108" s="2"/>
-    </row>
-    <row r="109" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A109" s="6"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
-      <c r="AC109" s="2"/>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="2"/>
-      <c r="AF109" s="2"/>
-      <c r="AG109" s="2"/>
-      <c r="AH109" s="2"/>
-      <c r="AI109" s="2"/>
-      <c r="AJ109" s="2"/>
-      <c r="AK109" s="2"/>
-      <c r="AL109" s="2"/>
-    </row>
-    <row r="110" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="2"/>
-      <c r="AF110" s="2"/>
-      <c r="AG110" s="2"/>
-      <c r="AH110" s="2"/>
-      <c r="AI110" s="2"/>
-      <c r="AJ110" s="2"/>
-      <c r="AK110" s="2"/>
-      <c r="AL110" s="2"/>
-    </row>
-    <row r="111" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="2"/>
-      <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="2"/>
-      <c r="AF111" s="2"/>
-      <c r="AG111" s="2"/>
-      <c r="AH111" s="2"/>
-      <c r="AI111" s="2"/>
-      <c r="AJ111" s="2"/>
-      <c r="AK111" s="2"/>
-      <c r="AL111" s="2"/>
-    </row>
-    <row r="112" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A112" s="6"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="2"/>
-      <c r="AG112" s="2"/>
-      <c r="AH112" s="2"/>
-      <c r="AI112" s="2"/>
-      <c r="AJ112" s="2"/>
-      <c r="AK112" s="2"/>
-      <c r="AL112" s="2"/>
-    </row>
-    <row r="113" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A113" s="6"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
-      <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="2"/>
-      <c r="AF113" s="2"/>
-      <c r="AG113" s="2"/>
-      <c r="AH113" s="2"/>
-      <c r="AI113" s="2"/>
-      <c r="AJ113" s="2"/>
-      <c r="AK113" s="2"/>
-      <c r="AL113" s="2"/>
-    </row>
-    <row r="114" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A114" s="6"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AF114" s="2"/>
-      <c r="AG114" s="2"/>
-      <c r="AH114" s="2"/>
-      <c r="AI114" s="2"/>
-      <c r="AJ114" s="2"/>
-      <c r="AK114" s="2"/>
-      <c r="AL114" s="2"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="53"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="36"/>
+      <c r="AB101" s="36"/>
+      <c r="AC101" s="36"/>
+      <c r="AD101" s="36"/>
+      <c r="AE101" s="36"/>
+      <c r="AF101" s="36"/>
+      <c r="AG101" s="36"/>
+      <c r="AH101" s="36"/>
+      <c r="AI101" s="37"/>
+      <c r="AJ101" s="37"/>
+      <c r="AK101" s="37"/>
+      <c r="AL101" s="37"/>
+    </row>
+    <row r="102" spans="1:38" ht="12" customHeight="1">
+      <c r="A102" s="66">
+        <v>5</v>
+      </c>
+      <c r="B102" s="70"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="25"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="24"/>
+      <c r="W102" s="24"/>
+      <c r="X102" s="24"/>
+      <c r="Y102" s="24"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="24"/>
+      <c r="AB102" s="24"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="23"/>
+      <c r="AE102" s="24"/>
+      <c r="AF102" s="24"/>
+      <c r="AG102" s="24"/>
+      <c r="AH102" s="24"/>
+      <c r="AI102" s="26"/>
+      <c r="AJ102" s="26"/>
+      <c r="AK102" s="26"/>
+      <c r="AL102" s="26"/>
+    </row>
+    <row r="103" spans="1:38" ht="12" customHeight="1">
+      <c r="A103" s="67"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="47"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="29"/>
+      <c r="AI103" s="41"/>
+      <c r="AJ103" s="41"/>
+      <c r="AK103" s="41"/>
+      <c r="AL103" s="41"/>
+    </row>
+    <row r="104" spans="1:38" ht="12" customHeight="1">
+      <c r="A104" s="66">
+        <v>6</v>
+      </c>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="32"/>
+      <c r="AA104" s="32"/>
+      <c r="AB104" s="32"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="32"/>
+      <c r="AE104" s="32"/>
+      <c r="AF104" s="32"/>
+      <c r="AG104" s="32"/>
+      <c r="AH104" s="32"/>
+      <c r="AI104" s="10"/>
+      <c r="AJ104" s="10"/>
+      <c r="AK104" s="10"/>
+      <c r="AL104" s="10"/>
+    </row>
+    <row r="105" spans="1:38" ht="12" customHeight="1">
+      <c r="A105" s="67"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="42"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43"/>
+      <c r="Q105" s="43"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="43"/>
+      <c r="V105" s="43"/>
+      <c r="W105" s="43"/>
+      <c r="X105" s="43"/>
+      <c r="Y105" s="43"/>
+      <c r="Z105" s="43"/>
+      <c r="AA105" s="43"/>
+      <c r="AB105" s="43"/>
+      <c r="AC105" s="43"/>
+      <c r="AD105" s="43"/>
+      <c r="AE105" s="43"/>
+      <c r="AF105" s="43"/>
+      <c r="AG105" s="43"/>
+      <c r="AH105" s="43"/>
+      <c r="AI105" s="12"/>
+      <c r="AJ105" s="12"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="12"/>
+    </row>
+    <row r="106" spans="1:38" ht="12" customHeight="1">
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="45"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="16"/>
+      <c r="W106" s="16"/>
+      <c r="X106" s="16"/>
+      <c r="Y106" s="16"/>
+      <c r="Z106" s="16"/>
+      <c r="AA106" s="16"/>
+      <c r="AB106" s="16"/>
+      <c r="AC106" s="16"/>
+      <c r="AD106" s="16"/>
+      <c r="AE106" s="16"/>
+      <c r="AF106" s="16"/>
+      <c r="AG106" s="16"/>
+      <c r="AH106" s="16"/>
+      <c r="AI106" s="20"/>
+      <c r="AJ106" s="20"/>
+      <c r="AK106" s="20"/>
+      <c r="AL106" s="20"/>
+    </row>
+    <row r="107" spans="1:38" ht="12" customHeight="1">
+      <c r="A107" s="66">
+        <v>1</v>
+      </c>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="25"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="46"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+      <c r="V107" s="24"/>
+      <c r="W107" s="24"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="24"/>
+      <c r="AB107" s="24"/>
+      <c r="AC107" s="24"/>
+      <c r="AD107" s="24"/>
+      <c r="AE107" s="24"/>
+      <c r="AF107" s="24"/>
+      <c r="AG107" s="24"/>
+      <c r="AH107" s="24"/>
+      <c r="AI107" s="26"/>
+      <c r="AJ107" s="26"/>
+      <c r="AK107" s="26"/>
+      <c r="AL107" s="26"/>
+    </row>
+    <row r="108" spans="1:38" ht="12" customHeight="1">
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="28"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="47"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="29"/>
+      <c r="AA108" s="29"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
+      <c r="AE108" s="29"/>
+      <c r="AF108" s="29"/>
+      <c r="AG108" s="29"/>
+      <c r="AH108" s="29"/>
+      <c r="AI108" s="30"/>
+      <c r="AJ108" s="30"/>
+      <c r="AK108" s="30"/>
+      <c r="AL108" s="30"/>
+    </row>
+    <row r="109" spans="1:38" ht="12" customHeight="1">
+      <c r="A109" s="66">
+        <v>2</v>
+      </c>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="33"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="32"/>
+      <c r="U109" s="32"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="32"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="32"/>
+      <c r="Z109" s="32"/>
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="32"/>
+      <c r="AD109" s="32"/>
+      <c r="AE109" s="32"/>
+      <c r="AF109" s="32"/>
+      <c r="AG109" s="32"/>
+      <c r="AH109" s="32"/>
+      <c r="AI109" s="10"/>
+      <c r="AJ109" s="10"/>
+      <c r="AK109" s="10"/>
+      <c r="AL109" s="10"/>
+    </row>
+    <row r="110" spans="1:38" ht="12" customHeight="1">
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="35"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="53"/>
+      <c r="S110" s="49"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="36"/>
+      <c r="W110" s="36"/>
+      <c r="X110" s="36"/>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="36"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
+      <c r="AD110" s="36"/>
+      <c r="AE110" s="36"/>
+      <c r="AF110" s="36"/>
+      <c r="AG110" s="36"/>
+      <c r="AH110" s="36"/>
+      <c r="AI110" s="37"/>
+      <c r="AJ110" s="37"/>
+      <c r="AK110" s="37"/>
+      <c r="AL110" s="37"/>
+    </row>
+    <row r="111" spans="1:38" ht="12" customHeight="1">
+      <c r="A111" s="66">
+        <v>3</v>
+      </c>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="25"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="46"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="24"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
+      <c r="AB111" s="24"/>
+      <c r="AC111" s="24"/>
+      <c r="AD111" s="24"/>
+      <c r="AE111" s="24"/>
+      <c r="AF111" s="24"/>
+      <c r="AG111" s="24"/>
+      <c r="AH111" s="24"/>
+      <c r="AI111" s="26"/>
+      <c r="AJ111" s="26"/>
+      <c r="AK111" s="26"/>
+      <c r="AL111" s="26"/>
+    </row>
+    <row r="112" spans="1:38" ht="12" customHeight="1">
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="39"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="40"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="40"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="40"/>
+      <c r="R112" s="54"/>
+      <c r="S112" s="50"/>
+      <c r="T112" s="40"/>
+      <c r="U112" s="40"/>
+      <c r="V112" s="40"/>
+      <c r="W112" s="40"/>
+      <c r="X112" s="40"/>
+      <c r="Y112" s="40"/>
+      <c r="Z112" s="40"/>
+      <c r="AA112" s="40"/>
+      <c r="AB112" s="40"/>
+      <c r="AC112" s="40"/>
+      <c r="AD112" s="40"/>
+      <c r="AE112" s="40"/>
+      <c r="AF112" s="40"/>
+      <c r="AG112" s="40"/>
+      <c r="AH112" s="40"/>
+      <c r="AI112" s="30"/>
+      <c r="AJ112" s="30"/>
+      <c r="AK112" s="30"/>
+      <c r="AL112" s="30"/>
+    </row>
+    <row r="113" spans="1:38" ht="12" customHeight="1">
+      <c r="A113" s="66">
+        <v>4</v>
+      </c>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="33"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="48"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="10"/>
+      <c r="AJ113" s="10"/>
+      <c r="AK113" s="10"/>
+      <c r="AL113" s="10"/>
+    </row>
+    <row r="114" spans="1:38" ht="12" customHeight="1">
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="39"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="40"/>
+      <c r="R114" s="54"/>
+      <c r="S114" s="50"/>
+      <c r="T114" s="40"/>
+      <c r="U114" s="40"/>
+      <c r="V114" s="40"/>
+      <c r="W114" s="40"/>
+      <c r="X114" s="40"/>
+      <c r="Y114" s="40"/>
+      <c r="Z114" s="40"/>
+      <c r="AA114" s="40"/>
+      <c r="AB114" s="40"/>
+      <c r="AC114" s="40"/>
+      <c r="AD114" s="40"/>
+      <c r="AE114" s="40"/>
+      <c r="AF114" s="40"/>
+      <c r="AG114" s="40"/>
+      <c r="AH114" s="40"/>
+      <c r="AI114" s="30"/>
+      <c r="AJ114" s="30"/>
+      <c r="AK114" s="30"/>
+      <c r="AL114" s="30"/>
     </row>
     <row r="115" spans="1:38" ht="13.5" customHeight="1">
       <c r="A115" s="6"/>
@@ -42381,71 +42625,836 @@
       <c r="AK1012" s="2"/>
       <c r="AL1012" s="2"/>
     </row>
+    <row r="1013" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1013" s="6"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="3"/>
+      <c r="D1013" s="4"/>
+      <c r="E1013" s="4"/>
+      <c r="F1013" s="4"/>
+      <c r="G1013" s="2"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2"/>
+      <c r="J1013" s="2"/>
+      <c r="K1013" s="2"/>
+      <c r="L1013" s="2"/>
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="2"/>
+      <c r="O1013" s="2"/>
+      <c r="P1013" s="2"/>
+      <c r="Q1013" s="2"/>
+      <c r="R1013" s="2"/>
+      <c r="S1013" s="2"/>
+      <c r="T1013" s="2"/>
+      <c r="U1013" s="2"/>
+      <c r="V1013" s="2"/>
+      <c r="W1013" s="2"/>
+      <c r="X1013" s="2"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+      <c r="AA1013" s="2"/>
+      <c r="AB1013" s="2"/>
+      <c r="AC1013" s="2"/>
+      <c r="AD1013" s="2"/>
+      <c r="AE1013" s="2"/>
+      <c r="AF1013" s="2"/>
+      <c r="AG1013" s="2"/>
+      <c r="AH1013" s="2"/>
+      <c r="AI1013" s="2"/>
+      <c r="AJ1013" s="2"/>
+      <c r="AK1013" s="2"/>
+      <c r="AL1013" s="2"/>
+    </row>
+    <row r="1014" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1014" s="6"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="3"/>
+      <c r="D1014" s="4"/>
+      <c r="E1014" s="4"/>
+      <c r="F1014" s="4"/>
+      <c r="G1014" s="2"/>
+      <c r="H1014" s="2"/>
+      <c r="I1014" s="2"/>
+      <c r="J1014" s="2"/>
+      <c r="K1014" s="2"/>
+      <c r="L1014" s="2"/>
+      <c r="M1014" s="2"/>
+      <c r="N1014" s="2"/>
+      <c r="O1014" s="2"/>
+      <c r="P1014" s="2"/>
+      <c r="Q1014" s="2"/>
+      <c r="R1014" s="2"/>
+      <c r="S1014" s="2"/>
+      <c r="T1014" s="2"/>
+      <c r="U1014" s="2"/>
+      <c r="V1014" s="2"/>
+      <c r="W1014" s="2"/>
+      <c r="X1014" s="2"/>
+      <c r="Y1014" s="2"/>
+      <c r="Z1014" s="2"/>
+      <c r="AA1014" s="2"/>
+      <c r="AB1014" s="2"/>
+      <c r="AC1014" s="2"/>
+      <c r="AD1014" s="2"/>
+      <c r="AE1014" s="2"/>
+      <c r="AF1014" s="2"/>
+      <c r="AG1014" s="2"/>
+      <c r="AH1014" s="2"/>
+      <c r="AI1014" s="2"/>
+      <c r="AJ1014" s="2"/>
+      <c r="AK1014" s="2"/>
+      <c r="AL1014" s="2"/>
+    </row>
+    <row r="1015" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1015" s="6"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="3"/>
+      <c r="D1015" s="4"/>
+      <c r="E1015" s="4"/>
+      <c r="F1015" s="4"/>
+      <c r="G1015" s="2"/>
+      <c r="H1015" s="2"/>
+      <c r="I1015" s="2"/>
+      <c r="J1015" s="2"/>
+      <c r="K1015" s="2"/>
+      <c r="L1015" s="2"/>
+      <c r="M1015" s="2"/>
+      <c r="N1015" s="2"/>
+      <c r="O1015" s="2"/>
+      <c r="P1015" s="2"/>
+      <c r="Q1015" s="2"/>
+      <c r="R1015" s="2"/>
+      <c r="S1015" s="2"/>
+      <c r="T1015" s="2"/>
+      <c r="U1015" s="2"/>
+      <c r="V1015" s="2"/>
+      <c r="W1015" s="2"/>
+      <c r="X1015" s="2"/>
+      <c r="Y1015" s="2"/>
+      <c r="Z1015" s="2"/>
+      <c r="AA1015" s="2"/>
+      <c r="AB1015" s="2"/>
+      <c r="AC1015" s="2"/>
+      <c r="AD1015" s="2"/>
+      <c r="AE1015" s="2"/>
+      <c r="AF1015" s="2"/>
+      <c r="AG1015" s="2"/>
+      <c r="AH1015" s="2"/>
+      <c r="AI1015" s="2"/>
+      <c r="AJ1015" s="2"/>
+      <c r="AK1015" s="2"/>
+      <c r="AL1015" s="2"/>
+    </row>
+    <row r="1016" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1016" s="6"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="3"/>
+      <c r="D1016" s="4"/>
+      <c r="E1016" s="4"/>
+      <c r="F1016" s="4"/>
+      <c r="G1016" s="2"/>
+      <c r="H1016" s="2"/>
+      <c r="I1016" s="2"/>
+      <c r="J1016" s="2"/>
+      <c r="K1016" s="2"/>
+      <c r="L1016" s="2"/>
+      <c r="M1016" s="2"/>
+      <c r="N1016" s="2"/>
+      <c r="O1016" s="2"/>
+      <c r="P1016" s="2"/>
+      <c r="Q1016" s="2"/>
+      <c r="R1016" s="2"/>
+      <c r="S1016" s="2"/>
+      <c r="T1016" s="2"/>
+      <c r="U1016" s="2"/>
+      <c r="V1016" s="2"/>
+      <c r="W1016" s="2"/>
+      <c r="X1016" s="2"/>
+      <c r="Y1016" s="2"/>
+      <c r="Z1016" s="2"/>
+      <c r="AA1016" s="2"/>
+      <c r="AB1016" s="2"/>
+      <c r="AC1016" s="2"/>
+      <c r="AD1016" s="2"/>
+      <c r="AE1016" s="2"/>
+      <c r="AF1016" s="2"/>
+      <c r="AG1016" s="2"/>
+      <c r="AH1016" s="2"/>
+      <c r="AI1016" s="2"/>
+      <c r="AJ1016" s="2"/>
+      <c r="AK1016" s="2"/>
+      <c r="AL1016" s="2"/>
+    </row>
+    <row r="1017" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1017" s="6"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="3"/>
+      <c r="D1017" s="4"/>
+      <c r="E1017" s="4"/>
+      <c r="F1017" s="4"/>
+      <c r="G1017" s="2"/>
+      <c r="H1017" s="2"/>
+      <c r="I1017" s="2"/>
+      <c r="J1017" s="2"/>
+      <c r="K1017" s="2"/>
+      <c r="L1017" s="2"/>
+      <c r="M1017" s="2"/>
+      <c r="N1017" s="2"/>
+      <c r="O1017" s="2"/>
+      <c r="P1017" s="2"/>
+      <c r="Q1017" s="2"/>
+      <c r="R1017" s="2"/>
+      <c r="S1017" s="2"/>
+      <c r="T1017" s="2"/>
+      <c r="U1017" s="2"/>
+      <c r="V1017" s="2"/>
+      <c r="W1017" s="2"/>
+      <c r="X1017" s="2"/>
+      <c r="Y1017" s="2"/>
+      <c r="Z1017" s="2"/>
+      <c r="AA1017" s="2"/>
+      <c r="AB1017" s="2"/>
+      <c r="AC1017" s="2"/>
+      <c r="AD1017" s="2"/>
+      <c r="AE1017" s="2"/>
+      <c r="AF1017" s="2"/>
+      <c r="AG1017" s="2"/>
+      <c r="AH1017" s="2"/>
+      <c r="AI1017" s="2"/>
+      <c r="AJ1017" s="2"/>
+      <c r="AK1017" s="2"/>
+      <c r="AL1017" s="2"/>
+    </row>
+    <row r="1018" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1018" s="6"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="3"/>
+      <c r="D1018" s="4"/>
+      <c r="E1018" s="4"/>
+      <c r="F1018" s="4"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2"/>
+      <c r="J1018" s="2"/>
+      <c r="K1018" s="2"/>
+      <c r="L1018" s="2"/>
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="2"/>
+      <c r="O1018" s="2"/>
+      <c r="P1018" s="2"/>
+      <c r="Q1018" s="2"/>
+      <c r="R1018" s="2"/>
+      <c r="S1018" s="2"/>
+      <c r="T1018" s="2"/>
+      <c r="U1018" s="2"/>
+      <c r="V1018" s="2"/>
+      <c r="W1018" s="2"/>
+      <c r="X1018" s="2"/>
+      <c r="Y1018" s="2"/>
+      <c r="Z1018" s="2"/>
+      <c r="AA1018" s="2"/>
+      <c r="AB1018" s="2"/>
+      <c r="AC1018" s="2"/>
+      <c r="AD1018" s="2"/>
+      <c r="AE1018" s="2"/>
+      <c r="AF1018" s="2"/>
+      <c r="AG1018" s="2"/>
+      <c r="AH1018" s="2"/>
+      <c r="AI1018" s="2"/>
+      <c r="AJ1018" s="2"/>
+      <c r="AK1018" s="2"/>
+      <c r="AL1018" s="2"/>
+    </row>
+    <row r="1019" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1019" s="6"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="3"/>
+      <c r="D1019" s="4"/>
+      <c r="E1019" s="4"/>
+      <c r="F1019" s="4"/>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2"/>
+      <c r="J1019" s="2"/>
+      <c r="K1019" s="2"/>
+      <c r="L1019" s="2"/>
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="2"/>
+      <c r="O1019" s="2"/>
+      <c r="P1019" s="2"/>
+      <c r="Q1019" s="2"/>
+      <c r="R1019" s="2"/>
+      <c r="S1019" s="2"/>
+      <c r="T1019" s="2"/>
+      <c r="U1019" s="2"/>
+      <c r="V1019" s="2"/>
+      <c r="W1019" s="2"/>
+      <c r="X1019" s="2"/>
+      <c r="Y1019" s="2"/>
+      <c r="Z1019" s="2"/>
+      <c r="AA1019" s="2"/>
+      <c r="AB1019" s="2"/>
+      <c r="AC1019" s="2"/>
+      <c r="AD1019" s="2"/>
+      <c r="AE1019" s="2"/>
+      <c r="AF1019" s="2"/>
+      <c r="AG1019" s="2"/>
+      <c r="AH1019" s="2"/>
+      <c r="AI1019" s="2"/>
+      <c r="AJ1019" s="2"/>
+      <c r="AK1019" s="2"/>
+      <c r="AL1019" s="2"/>
+    </row>
+    <row r="1020" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1020" s="6"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="3"/>
+      <c r="D1020" s="4"/>
+      <c r="E1020" s="4"/>
+      <c r="F1020" s="4"/>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2"/>
+      <c r="J1020" s="2"/>
+      <c r="K1020" s="2"/>
+      <c r="L1020" s="2"/>
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="2"/>
+      <c r="O1020" s="2"/>
+      <c r="P1020" s="2"/>
+      <c r="Q1020" s="2"/>
+      <c r="R1020" s="2"/>
+      <c r="S1020" s="2"/>
+      <c r="T1020" s="2"/>
+      <c r="U1020" s="2"/>
+      <c r="V1020" s="2"/>
+      <c r="W1020" s="2"/>
+      <c r="X1020" s="2"/>
+      <c r="Y1020" s="2"/>
+      <c r="Z1020" s="2"/>
+      <c r="AA1020" s="2"/>
+      <c r="AB1020" s="2"/>
+      <c r="AC1020" s="2"/>
+      <c r="AD1020" s="2"/>
+      <c r="AE1020" s="2"/>
+      <c r="AF1020" s="2"/>
+      <c r="AG1020" s="2"/>
+      <c r="AH1020" s="2"/>
+      <c r="AI1020" s="2"/>
+      <c r="AJ1020" s="2"/>
+      <c r="AK1020" s="2"/>
+      <c r="AL1020" s="2"/>
+    </row>
+    <row r="1021" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1021" s="6"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="3"/>
+      <c r="D1021" s="4"/>
+      <c r="E1021" s="4"/>
+      <c r="F1021" s="4"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+      <c r="S1021" s="2"/>
+      <c r="T1021" s="2"/>
+      <c r="U1021" s="2"/>
+      <c r="V1021" s="2"/>
+      <c r="W1021" s="2"/>
+      <c r="X1021" s="2"/>
+      <c r="Y1021" s="2"/>
+      <c r="Z1021" s="2"/>
+      <c r="AA1021" s="2"/>
+      <c r="AB1021" s="2"/>
+      <c r="AC1021" s="2"/>
+      <c r="AD1021" s="2"/>
+      <c r="AE1021" s="2"/>
+      <c r="AF1021" s="2"/>
+      <c r="AG1021" s="2"/>
+      <c r="AH1021" s="2"/>
+      <c r="AI1021" s="2"/>
+      <c r="AJ1021" s="2"/>
+      <c r="AK1021" s="2"/>
+      <c r="AL1021" s="2"/>
+    </row>
+    <row r="1022" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1022" s="6"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="3"/>
+      <c r="D1022" s="4"/>
+      <c r="E1022" s="4"/>
+      <c r="F1022" s="4"/>
+      <c r="G1022" s="2"/>
+      <c r="H1022" s="2"/>
+      <c r="I1022" s="2"/>
+      <c r="J1022" s="2"/>
+      <c r="K1022" s="2"/>
+      <c r="L1022" s="2"/>
+      <c r="M1022" s="2"/>
+      <c r="N1022" s="2"/>
+      <c r="O1022" s="2"/>
+      <c r="P1022" s="2"/>
+      <c r="Q1022" s="2"/>
+      <c r="R1022" s="2"/>
+      <c r="S1022" s="2"/>
+      <c r="T1022" s="2"/>
+      <c r="U1022" s="2"/>
+      <c r="V1022" s="2"/>
+      <c r="W1022" s="2"/>
+      <c r="X1022" s="2"/>
+      <c r="Y1022" s="2"/>
+      <c r="Z1022" s="2"/>
+      <c r="AA1022" s="2"/>
+      <c r="AB1022" s="2"/>
+      <c r="AC1022" s="2"/>
+      <c r="AD1022" s="2"/>
+      <c r="AE1022" s="2"/>
+      <c r="AF1022" s="2"/>
+      <c r="AG1022" s="2"/>
+      <c r="AH1022" s="2"/>
+      <c r="AI1022" s="2"/>
+      <c r="AJ1022" s="2"/>
+      <c r="AK1022" s="2"/>
+      <c r="AL1022" s="2"/>
+    </row>
+    <row r="1023" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1023" s="6"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="3"/>
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="4"/>
+      <c r="F1023" s="4"/>
+      <c r="G1023" s="2"/>
+      <c r="H1023" s="2"/>
+      <c r="I1023" s="2"/>
+      <c r="J1023" s="2"/>
+      <c r="K1023" s="2"/>
+      <c r="L1023" s="2"/>
+      <c r="M1023" s="2"/>
+      <c r="N1023" s="2"/>
+      <c r="O1023" s="2"/>
+      <c r="P1023" s="2"/>
+      <c r="Q1023" s="2"/>
+      <c r="R1023" s="2"/>
+      <c r="S1023" s="2"/>
+      <c r="T1023" s="2"/>
+      <c r="U1023" s="2"/>
+      <c r="V1023" s="2"/>
+      <c r="W1023" s="2"/>
+      <c r="X1023" s="2"/>
+      <c r="Y1023" s="2"/>
+      <c r="Z1023" s="2"/>
+      <c r="AA1023" s="2"/>
+      <c r="AB1023" s="2"/>
+      <c r="AC1023" s="2"/>
+      <c r="AD1023" s="2"/>
+      <c r="AE1023" s="2"/>
+      <c r="AF1023" s="2"/>
+      <c r="AG1023" s="2"/>
+      <c r="AH1023" s="2"/>
+      <c r="AI1023" s="2"/>
+      <c r="AJ1023" s="2"/>
+      <c r="AK1023" s="2"/>
+      <c r="AL1023" s="2"/>
+    </row>
+    <row r="1024" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1024" s="6"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="3"/>
+      <c r="D1024" s="4"/>
+      <c r="E1024" s="4"/>
+      <c r="F1024" s="4"/>
+      <c r="G1024" s="2"/>
+      <c r="H1024" s="2"/>
+      <c r="I1024" s="2"/>
+      <c r="J1024" s="2"/>
+      <c r="K1024" s="2"/>
+      <c r="L1024" s="2"/>
+      <c r="M1024" s="2"/>
+      <c r="N1024" s="2"/>
+      <c r="O1024" s="2"/>
+      <c r="P1024" s="2"/>
+      <c r="Q1024" s="2"/>
+      <c r="R1024" s="2"/>
+      <c r="S1024" s="2"/>
+      <c r="T1024" s="2"/>
+      <c r="U1024" s="2"/>
+      <c r="V1024" s="2"/>
+      <c r="W1024" s="2"/>
+      <c r="X1024" s="2"/>
+      <c r="Y1024" s="2"/>
+      <c r="Z1024" s="2"/>
+      <c r="AA1024" s="2"/>
+      <c r="AB1024" s="2"/>
+      <c r="AC1024" s="2"/>
+      <c r="AD1024" s="2"/>
+      <c r="AE1024" s="2"/>
+      <c r="AF1024" s="2"/>
+      <c r="AG1024" s="2"/>
+      <c r="AH1024" s="2"/>
+      <c r="AI1024" s="2"/>
+      <c r="AJ1024" s="2"/>
+      <c r="AK1024" s="2"/>
+      <c r="AL1024" s="2"/>
+    </row>
+    <row r="1025" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1025" s="6"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="3"/>
+      <c r="D1025" s="4"/>
+      <c r="E1025" s="4"/>
+      <c r="F1025" s="4"/>
+      <c r="G1025" s="2"/>
+      <c r="H1025" s="2"/>
+      <c r="I1025" s="2"/>
+      <c r="J1025" s="2"/>
+      <c r="K1025" s="2"/>
+      <c r="L1025" s="2"/>
+      <c r="M1025" s="2"/>
+      <c r="N1025" s="2"/>
+      <c r="O1025" s="2"/>
+      <c r="P1025" s="2"/>
+      <c r="Q1025" s="2"/>
+      <c r="R1025" s="2"/>
+      <c r="S1025" s="2"/>
+      <c r="T1025" s="2"/>
+      <c r="U1025" s="2"/>
+      <c r="V1025" s="2"/>
+      <c r="W1025" s="2"/>
+      <c r="X1025" s="2"/>
+      <c r="Y1025" s="2"/>
+      <c r="Z1025" s="2"/>
+      <c r="AA1025" s="2"/>
+      <c r="AB1025" s="2"/>
+      <c r="AC1025" s="2"/>
+      <c r="AD1025" s="2"/>
+      <c r="AE1025" s="2"/>
+      <c r="AF1025" s="2"/>
+      <c r="AG1025" s="2"/>
+      <c r="AH1025" s="2"/>
+      <c r="AI1025" s="2"/>
+      <c r="AJ1025" s="2"/>
+      <c r="AK1025" s="2"/>
+      <c r="AL1025" s="2"/>
+    </row>
+    <row r="1026" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1026" s="6"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="3"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="4"/>
+      <c r="F1026" s="4"/>
+      <c r="G1026" s="2"/>
+      <c r="H1026" s="2"/>
+      <c r="I1026" s="2"/>
+      <c r="J1026" s="2"/>
+      <c r="K1026" s="2"/>
+      <c r="L1026" s="2"/>
+      <c r="M1026" s="2"/>
+      <c r="N1026" s="2"/>
+      <c r="O1026" s="2"/>
+      <c r="P1026" s="2"/>
+      <c r="Q1026" s="2"/>
+      <c r="R1026" s="2"/>
+      <c r="S1026" s="2"/>
+      <c r="T1026" s="2"/>
+      <c r="U1026" s="2"/>
+      <c r="V1026" s="2"/>
+      <c r="W1026" s="2"/>
+      <c r="X1026" s="2"/>
+      <c r="Y1026" s="2"/>
+      <c r="Z1026" s="2"/>
+      <c r="AA1026" s="2"/>
+      <c r="AB1026" s="2"/>
+      <c r="AC1026" s="2"/>
+      <c r="AD1026" s="2"/>
+      <c r="AE1026" s="2"/>
+      <c r="AF1026" s="2"/>
+      <c r="AG1026" s="2"/>
+      <c r="AH1026" s="2"/>
+      <c r="AI1026" s="2"/>
+      <c r="AJ1026" s="2"/>
+      <c r="AK1026" s="2"/>
+      <c r="AL1026" s="2"/>
+    </row>
+    <row r="1027" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1027" s="6"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="3"/>
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="4"/>
+      <c r="F1027" s="4"/>
+      <c r="G1027" s="2"/>
+      <c r="H1027" s="2"/>
+      <c r="I1027" s="2"/>
+      <c r="J1027" s="2"/>
+      <c r="K1027" s="2"/>
+      <c r="L1027" s="2"/>
+      <c r="M1027" s="2"/>
+      <c r="N1027" s="2"/>
+      <c r="O1027" s="2"/>
+      <c r="P1027" s="2"/>
+      <c r="Q1027" s="2"/>
+      <c r="R1027" s="2"/>
+      <c r="S1027" s="2"/>
+      <c r="T1027" s="2"/>
+      <c r="U1027" s="2"/>
+      <c r="V1027" s="2"/>
+      <c r="W1027" s="2"/>
+      <c r="X1027" s="2"/>
+      <c r="Y1027" s="2"/>
+      <c r="Z1027" s="2"/>
+      <c r="AA1027" s="2"/>
+      <c r="AB1027" s="2"/>
+      <c r="AC1027" s="2"/>
+      <c r="AD1027" s="2"/>
+      <c r="AE1027" s="2"/>
+      <c r="AF1027" s="2"/>
+      <c r="AG1027" s="2"/>
+      <c r="AH1027" s="2"/>
+      <c r="AI1027" s="2"/>
+      <c r="AJ1027" s="2"/>
+      <c r="AK1027" s="2"/>
+      <c r="AL1027" s="2"/>
+    </row>
+    <row r="1028" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1028" s="6"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="3"/>
+      <c r="D1028" s="4"/>
+      <c r="E1028" s="4"/>
+      <c r="F1028" s="4"/>
+      <c r="G1028" s="2"/>
+      <c r="H1028" s="2"/>
+      <c r="I1028" s="2"/>
+      <c r="J1028" s="2"/>
+      <c r="K1028" s="2"/>
+      <c r="L1028" s="2"/>
+      <c r="M1028" s="2"/>
+      <c r="N1028" s="2"/>
+      <c r="O1028" s="2"/>
+      <c r="P1028" s="2"/>
+      <c r="Q1028" s="2"/>
+      <c r="R1028" s="2"/>
+      <c r="S1028" s="2"/>
+      <c r="T1028" s="2"/>
+      <c r="U1028" s="2"/>
+      <c r="V1028" s="2"/>
+      <c r="W1028" s="2"/>
+      <c r="X1028" s="2"/>
+      <c r="Y1028" s="2"/>
+      <c r="Z1028" s="2"/>
+      <c r="AA1028" s="2"/>
+      <c r="AB1028" s="2"/>
+      <c r="AC1028" s="2"/>
+      <c r="AD1028" s="2"/>
+      <c r="AE1028" s="2"/>
+      <c r="AF1028" s="2"/>
+      <c r="AG1028" s="2"/>
+      <c r="AH1028" s="2"/>
+      <c r="AI1028" s="2"/>
+      <c r="AJ1028" s="2"/>
+      <c r="AK1028" s="2"/>
+      <c r="AL1028" s="2"/>
+    </row>
+    <row r="1029" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1029" s="6"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="3"/>
+      <c r="D1029" s="4"/>
+      <c r="E1029" s="4"/>
+      <c r="F1029" s="4"/>
+      <c r="G1029" s="2"/>
+      <c r="H1029" s="2"/>
+      <c r="I1029" s="2"/>
+      <c r="J1029" s="2"/>
+      <c r="K1029" s="2"/>
+      <c r="L1029" s="2"/>
+      <c r="M1029" s="2"/>
+      <c r="N1029" s="2"/>
+      <c r="O1029" s="2"/>
+      <c r="P1029" s="2"/>
+      <c r="Q1029" s="2"/>
+      <c r="R1029" s="2"/>
+      <c r="S1029" s="2"/>
+      <c r="T1029" s="2"/>
+      <c r="U1029" s="2"/>
+      <c r="V1029" s="2"/>
+      <c r="W1029" s="2"/>
+      <c r="X1029" s="2"/>
+      <c r="Y1029" s="2"/>
+      <c r="Z1029" s="2"/>
+      <c r="AA1029" s="2"/>
+      <c r="AB1029" s="2"/>
+      <c r="AC1029" s="2"/>
+      <c r="AD1029" s="2"/>
+      <c r="AE1029" s="2"/>
+      <c r="AF1029" s="2"/>
+      <c r="AG1029" s="2"/>
+      <c r="AH1029" s="2"/>
+      <c r="AI1029" s="2"/>
+      <c r="AJ1029" s="2"/>
+      <c r="AK1029" s="2"/>
+      <c r="AL1029" s="2"/>
+    </row>
+    <row r="1030" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1030" s="6"/>
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="3"/>
+      <c r="D1030" s="4"/>
+      <c r="E1030" s="4"/>
+      <c r="F1030" s="4"/>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2"/>
+      <c r="J1030" s="2"/>
+      <c r="K1030" s="2"/>
+      <c r="L1030" s="2"/>
+      <c r="M1030" s="2"/>
+      <c r="N1030" s="2"/>
+      <c r="O1030" s="2"/>
+      <c r="P1030" s="2"/>
+      <c r="Q1030" s="2"/>
+      <c r="R1030" s="2"/>
+      <c r="S1030" s="2"/>
+      <c r="T1030" s="2"/>
+      <c r="U1030" s="2"/>
+      <c r="V1030" s="2"/>
+      <c r="W1030" s="2"/>
+      <c r="X1030" s="2"/>
+      <c r="Y1030" s="2"/>
+      <c r="Z1030" s="2"/>
+      <c r="AA1030" s="2"/>
+      <c r="AB1030" s="2"/>
+      <c r="AC1030" s="2"/>
+      <c r="AD1030" s="2"/>
+      <c r="AE1030" s="2"/>
+      <c r="AF1030" s="2"/>
+      <c r="AG1030" s="2"/>
+      <c r="AH1030" s="2"/>
+      <c r="AI1030" s="2"/>
+      <c r="AJ1030" s="2"/>
+      <c r="AK1030" s="2"/>
+      <c r="AL1030" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="245">
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
+  <mergeCells count="290">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
@@ -42453,11 +43462,11 @@
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -42514,8 +43523,8 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A85:A86"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D22:D23"/>
@@ -42531,73 +43540,73 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -42631,7 +43640,7 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E25 E27 E29 E44 E46 E48 E50 E60 E63 E65 E67 E69 E71 E73 E76 E78 E80 E82 E84 E86 E89 E91 E93 E95 E52 E54 E56 E58 E31 E33 E35 E37 E39 E41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E64 E66 E68 E78 E81 E83 E85 E87 E89 E91 E94 E96 E98 E100 E102 E104 E107 E109 E111 E113 E70 E72 E74 E76 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E27 E29 E31 E33 E35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未着手,作成中,作成完了,レビュー中,レビュー完了,FIX"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4E1929-70DC-4B26-B262-9063E52F55EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E27105C-1F0A-46B9-85DD-3552CF2DE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="59">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -331,10 +331,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>作成中</t>
-  </si>
-  <si>
-    <t>未着手</t>
+    <t>作成完了</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,20 +1239,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,23 +1305,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,10 +1529,10 @@
   <dimension ref="A1:AL1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59:E60"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1650,162 +1629,162 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="85">
+      <c r="G3" s="83">
         <v>45627</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="87"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="85"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="90"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="88"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="84">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="82">
         <v>3</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73">
+      <c r="H5" s="72"/>
+      <c r="I5" s="71">
         <v>4</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="73">
+      <c r="J5" s="77"/>
+      <c r="K5" s="71">
         <v>5</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="73">
+      <c r="L5" s="77"/>
+      <c r="M5" s="71">
         <v>6</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73">
+      <c r="N5" s="77"/>
+      <c r="O5" s="71">
         <v>9</v>
       </c>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="73">
+      <c r="P5" s="77"/>
+      <c r="Q5" s="71">
         <v>10</v>
       </c>
-      <c r="R5" s="79"/>
-      <c r="S5" s="73">
+      <c r="R5" s="77"/>
+      <c r="S5" s="71">
         <v>11</v>
       </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="73">
+      <c r="T5" s="77"/>
+      <c r="U5" s="71">
         <v>12</v>
       </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="73">
+      <c r="V5" s="77"/>
+      <c r="W5" s="71">
         <v>13</v>
       </c>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="73">
+      <c r="X5" s="77"/>
+      <c r="Y5" s="71">
         <v>16</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="73">
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="71">
         <v>17</v>
       </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="73">
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="71">
         <v>18</v>
       </c>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="73">
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="71">
         <v>19</v>
       </c>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="73">
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="71">
         <v>20</v>
       </c>
-      <c r="AH5" s="74"/>
+      <c r="AH5" s="72"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
@@ -1817,63 +1796,63 @@
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="72"/>
+      <c r="I6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="80" t="s">
+      <c r="J6" s="72"/>
+      <c r="K6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="80" t="s">
+      <c r="L6" s="72"/>
+      <c r="M6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="73" t="s">
+      <c r="N6" s="72"/>
+      <c r="O6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="73" t="s">
+      <c r="P6" s="72"/>
+      <c r="Q6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="74"/>
-      <c r="S6" s="73" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="72"/>
+      <c r="U6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="74"/>
-      <c r="W6" s="73" t="s">
+      <c r="V6" s="72"/>
+      <c r="W6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="73" t="s">
+      <c r="X6" s="72"/>
+      <c r="Y6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="73" t="s">
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="73" t="s">
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="73" t="s">
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="74"/>
+      <c r="AH6" s="72"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -2655,7 +2634,7 @@
       <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="70" t="s">
@@ -2705,7 +2684,7 @@
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
       <c r="A26" s="67"/>
-      <c r="B26" s="69"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
@@ -2749,7 +2728,7 @@
       <c r="A27" s="66">
         <v>2</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="90" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="70" t="s">
@@ -2799,7 +2778,7 @@
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="69"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -2843,7 +2822,7 @@
       <c r="A29" s="66">
         <v>3</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="68" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="70" t="s">
@@ -2893,7 +2872,7 @@
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="72"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
@@ -2937,7 +2916,7 @@
       <c r="A31" s="66">
         <v>4</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="90" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -2987,7 +2966,7 @@
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
       <c r="A32" s="67"/>
-      <c r="B32" s="69"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -3031,7 +3010,7 @@
       <c r="A33" s="66">
         <v>5</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="90" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -3081,7 +3060,7 @@
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
       <c r="A34" s="67"/>
-      <c r="B34" s="69"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
@@ -3125,7 +3104,7 @@
       <c r="A35" s="66">
         <v>6</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="68" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -3175,7 +3154,7 @@
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
       <c r="A36" s="67"/>
-      <c r="B36" s="72"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
@@ -3219,7 +3198,7 @@
       <c r="A37" s="66">
         <v>7</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -3269,7 +3248,7 @@
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
       <c r="A38" s="67"/>
-      <c r="B38" s="69"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -3313,7 +3292,7 @@
       <c r="A39" s="66">
         <v>8</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="90" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -3363,7 +3342,7 @@
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
       <c r="A40" s="67"/>
-      <c r="B40" s="69"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
@@ -3407,7 +3386,7 @@
       <c r="A41" s="66">
         <v>9</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="68" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="70" t="s">
@@ -3457,7 +3436,7 @@
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="72"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
@@ -3501,7 +3480,7 @@
       <c r="A43" s="66">
         <v>10</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -3516,13 +3495,13 @@
       <c r="F43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="92"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="93"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="56"/>
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
@@ -3551,20 +3530,20 @@
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
       <c r="A44" s="67"/>
-      <c r="B44" s="72"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
       <c r="F44" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
       <c r="N44" s="63"/>
       <c r="O44" s="40"/>
       <c r="P44" s="40"/>
@@ -3595,7 +3574,7 @@
       <c r="A45" s="66">
         <v>11</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="70" t="s">
@@ -3610,13 +3589,13 @@
       <c r="F45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="92"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="93"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="56"/>
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
@@ -3645,20 +3624,20 @@
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
       <c r="A46" s="67"/>
-      <c r="B46" s="72"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
       <c r="E46" s="67"/>
       <c r="F46" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
       <c r="N46" s="63"/>
       <c r="O46" s="40"/>
       <c r="P46" s="40"/>
@@ -3689,7 +3668,7 @@
       <c r="A47" s="66">
         <v>12</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="68" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="70" t="s">
@@ -3704,13 +3683,13 @@
       <c r="F47" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="92"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="93"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
       <c r="N47" s="56"/>
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
@@ -3739,19 +3718,19 @@
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
       <c r="A48" s="67"/>
-      <c r="B48" s="72"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
       <c r="F48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
       <c r="M48" s="40"/>
       <c r="N48" s="63"/>
       <c r="O48" s="40"/>
@@ -3783,7 +3762,7 @@
       <c r="A49" s="66">
         <v>12</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="70" t="s">
@@ -3793,18 +3772,18 @@
         <v>19</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="92"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="93"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="24"/>
       <c r="N49" s="56"/>
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
@@ -3833,19 +3812,19 @@
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
       <c r="A50" s="67"/>
-      <c r="B50" s="72"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
       <c r="E50" s="67"/>
       <c r="F50" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="95"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
       <c r="M50" s="40"/>
       <c r="N50" s="63"/>
       <c r="O50" s="40"/>
@@ -3877,7 +3856,7 @@
       <c r="A51" s="66">
         <v>12</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="68" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="70" t="s">
@@ -3887,18 +3866,18 @@
         <v>19</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="92"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="93"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="24"/>
       <c r="N51" s="56"/>
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
@@ -3927,19 +3906,19 @@
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
       <c r="A52" s="67"/>
-      <c r="B52" s="72"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
       <c r="F52" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
       <c r="M52" s="40"/>
       <c r="N52" s="63"/>
       <c r="O52" s="40"/>
@@ -3971,7 +3950,7 @@
       <c r="A53" s="66">
         <v>12</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="68" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="70" t="s">
@@ -3986,13 +3965,13 @@
       <c r="F53" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="92"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="93"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="24"/>
       <c r="N53" s="56"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
@@ -4021,19 +4000,19 @@
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="72"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
       <c r="F54" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
       <c r="M54" s="40"/>
       <c r="N54" s="63"/>
       <c r="O54" s="40"/>
@@ -4065,7 +4044,7 @@
       <c r="A55" s="66">
         <v>12</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="70" t="s">
@@ -4080,13 +4059,13 @@
       <c r="F55" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="92"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="93"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="24"/>
       <c r="N55" s="56"/>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -4115,19 +4094,19 @@
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="72"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
       <c r="E56" s="67"/>
       <c r="F56" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
       <c r="M56" s="40"/>
       <c r="N56" s="63"/>
       <c r="O56" s="40"/>
@@ -4159,7 +4138,7 @@
       <c r="A57" s="66">
         <v>12</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="68" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="70" t="s">
@@ -4174,13 +4153,13 @@
       <c r="F57" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="92"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="93"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24"/>
       <c r="N57" s="56"/>
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
@@ -4209,19 +4188,19 @@
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="72"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="67"/>
       <c r="D58" s="67"/>
       <c r="E58" s="67"/>
       <c r="F58" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="95"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
       <c r="M58" s="40"/>
       <c r="N58" s="63"/>
       <c r="O58" s="40"/>
@@ -4253,7 +4232,7 @@
       <c r="A59" s="66">
         <v>12</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="68" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="70" t="s">
@@ -4263,18 +4242,18 @@
         <v>19</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="92"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="93"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
       <c r="N59" s="56"/>
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
@@ -4303,19 +4282,19 @@
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
       <c r="A60" s="67"/>
-      <c r="B60" s="72"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="67"/>
       <c r="D60" s="67"/>
       <c r="E60" s="67"/>
       <c r="F60" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="95"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
       <c r="M60" s="40"/>
       <c r="N60" s="63"/>
       <c r="O60" s="40"/>
@@ -4479,7 +4458,7 @@
       <c r="A64" s="66">
         <v>2</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="70" t="s">
@@ -4525,7 +4504,7 @@
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
       <c r="A65" s="67"/>
-      <c r="B65" s="72"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="67"/>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
@@ -4569,7 +4548,7 @@
       <c r="A66" s="66">
         <v>3</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="68" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="70" t="s">
@@ -4615,7 +4594,7 @@
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
       <c r="A67" s="67"/>
-      <c r="B67" s="72"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
@@ -4659,7 +4638,7 @@
       <c r="A68" s="66">
         <v>4</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="68" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="70" t="s">
@@ -4705,7 +4684,7 @@
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
       <c r="A69" s="67"/>
-      <c r="B69" s="72"/>
+      <c r="B69" s="69"/>
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
@@ -4749,7 +4728,7 @@
       <c r="A70" s="66">
         <v>5</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="68" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="70" t="s">
@@ -4795,7 +4774,7 @@
     </row>
     <row r="71" spans="1:38" ht="12" customHeight="1">
       <c r="A71" s="67"/>
-      <c r="B71" s="72"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="67"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -4929,7 +4908,7 @@
       <c r="A74" s="66">
         <v>7</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="68" t="s">
         <v>57</v>
       </c>
       <c r="C74" s="70"/>
@@ -4973,7 +4952,7 @@
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
       <c r="A75" s="67"/>
-      <c r="B75" s="72"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="67"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>
@@ -5017,7 +4996,7 @@
       <c r="A76" s="66">
         <v>8</v>
       </c>
-      <c r="B76" s="71"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="70"/>
       <c r="D76" s="70"/>
       <c r="E76" s="70"/>
@@ -5059,7 +5038,7 @@
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
       <c r="A77" s="67"/>
-      <c r="B77" s="72"/>
+      <c r="B77" s="69"/>
       <c r="C77" s="67"/>
       <c r="D77" s="67"/>
       <c r="E77" s="67"/>
@@ -5321,7 +5300,7 @@
       <c r="A83" s="66">
         <v>2</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="68" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="70" t="s">
@@ -5367,7 +5346,7 @@
     </row>
     <row r="84" spans="1:38" ht="12" customHeight="1">
       <c r="A84" s="67"/>
-      <c r="B84" s="72"/>
+      <c r="B84" s="69"/>
       <c r="C84" s="67"/>
       <c r="D84" s="67"/>
       <c r="E84" s="67"/>
@@ -5411,7 +5390,7 @@
       <c r="A85" s="66">
         <v>3</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="68" t="s">
         <v>25</v>
       </c>
       <c r="C85" s="70" t="s">
@@ -5457,7 +5436,7 @@
     </row>
     <row r="86" spans="1:38" ht="12" customHeight="1">
       <c r="A86" s="67"/>
-      <c r="B86" s="72"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="67"/>
       <c r="D86" s="67"/>
       <c r="E86" s="67"/>
@@ -5501,7 +5480,7 @@
       <c r="A87" s="66">
         <v>4</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="68" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="70" t="s">
@@ -5547,7 +5526,7 @@
     </row>
     <row r="88" spans="1:38" ht="12" customHeight="1">
       <c r="A88" s="67"/>
-      <c r="B88" s="72"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="67"/>
       <c r="D88" s="67"/>
       <c r="E88" s="67"/>
@@ -43347,90 +43326,188 @@
     </row>
   </sheetData>
   <mergeCells count="290">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="A68:A69"/>
@@ -43455,188 +43532,90 @@
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="D81:D82"/>
     <mergeCell ref="E81:E82"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E27105C-1F0A-46B9-85DD-3552CF2DE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EE033-A3D7-4F37-B97B-188310F3780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -97,20 +97,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ログインJSP作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログインServlet作成</t>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -135,34 +121,6 @@
     <t>単体テスト（メニュー）</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログインDAO作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログインBean作成</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログアウトJSP作成</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>メニューJSP作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -217,10 +175,6 @@
   </si>
   <si>
     <t>27h</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>8h</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -332,6 +286,77 @@
   </si>
   <si>
     <t>作成完了</t>
+  </si>
+  <si>
+    <t>UserDAO作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>UserBean作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログイン認証Servlet作成</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>１ｈ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログイン成功・失敗画面JSP作成</t>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウト画面JSP作成</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メニュー画面JSP作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ConnectionManager作成</t>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1034,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1239,14 +1264,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,11 +1336,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,10 +1572,10 @@
   <dimension ref="A1:AL1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59:B60"/>
+      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1629,162 +1672,162 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="83">
+      <c r="G3" s="85">
         <v>45627</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="87"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="90"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="82">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="84">
         <v>3</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71">
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <v>4</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="71">
+      <c r="J5" s="79"/>
+      <c r="K5" s="73">
         <v>5</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="71">
+      <c r="L5" s="79"/>
+      <c r="M5" s="73">
         <v>6</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="71">
+      <c r="N5" s="79"/>
+      <c r="O5" s="73">
         <v>9</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="71">
+      <c r="P5" s="79"/>
+      <c r="Q5" s="73">
         <v>10</v>
       </c>
-      <c r="R5" s="77"/>
-      <c r="S5" s="71">
+      <c r="R5" s="79"/>
+      <c r="S5" s="73">
         <v>11</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="71">
+      <c r="T5" s="79"/>
+      <c r="U5" s="73">
         <v>12</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="71">
+      <c r="V5" s="79"/>
+      <c r="W5" s="73">
         <v>13</v>
       </c>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="71">
+      <c r="X5" s="79"/>
+      <c r="Y5" s="73">
         <v>16</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="71">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="73">
         <v>17</v>
       </c>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="71">
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="73">
         <v>18</v>
       </c>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="71">
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="73">
         <v>19</v>
       </c>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="71">
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="73">
         <v>20</v>
       </c>
-      <c r="AH5" s="72"/>
+      <c r="AH5" s="74"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
@@ -1796,63 +1839,63 @@
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="78" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="78" t="s">
+      <c r="H6" s="74"/>
+      <c r="I6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="78" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="78" t="s">
+      <c r="L6" s="74"/>
+      <c r="M6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="71" t="s">
+      <c r="N6" s="74"/>
+      <c r="O6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="71" t="s">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="71" t="s">
+      <c r="R6" s="74"/>
+      <c r="S6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="71" t="s">
+      <c r="T6" s="74"/>
+      <c r="U6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="72"/>
-      <c r="W6" s="71" t="s">
+      <c r="V6" s="74"/>
+      <c r="W6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="71" t="s">
+      <c r="X6" s="74"/>
+      <c r="Y6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="71" t="s">
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="71" t="s">
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="71" t="s">
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="71" t="s">
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="72"/>
+      <c r="AH6" s="74"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -1900,7 +1943,7 @@
       <c r="AK7" s="20"/>
       <c r="AL7" s="20"/>
     </row>
-    <row r="8" spans="1:38" ht="12" customHeight="1">
+    <row r="8" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A8" s="66">
         <v>1</v>
       </c>
@@ -1944,7 +1987,7 @@
       <c r="AK8" s="26"/>
       <c r="AL8" s="26"/>
     </row>
-    <row r="9" spans="1:38" ht="12" customHeight="1">
+    <row r="9" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A9" s="67"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -1986,7 +2029,7 @@
       <c r="AK9" s="30"/>
       <c r="AL9" s="30"/>
     </row>
-    <row r="10" spans="1:38" ht="12" customHeight="1">
+    <row r="10" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A10" s="66">
         <v>2</v>
       </c>
@@ -2030,7 +2073,7 @@
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
     </row>
-    <row r="11" spans="1:38" ht="12" customHeight="1">
+    <row r="11" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A11" s="67"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -2072,7 +2115,7 @@
       <c r="AK11" s="37"/>
       <c r="AL11" s="37"/>
     </row>
-    <row r="12" spans="1:38" ht="12" customHeight="1">
+    <row r="12" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A12" s="66">
         <v>3</v>
       </c>
@@ -2116,7 +2159,7 @@
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
     </row>
-    <row r="13" spans="1:38" ht="12" customHeight="1">
+    <row r="13" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A13" s="67"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -2158,7 +2201,7 @@
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
     </row>
-    <row r="14" spans="1:38" ht="12" customHeight="1">
+    <row r="14" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A14" s="66">
         <v>4</v>
       </c>
@@ -2202,7 +2245,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:38" ht="12" customHeight="1">
+    <row r="15" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A15" s="67"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -2244,7 +2287,7 @@
       <c r="AK15" s="37"/>
       <c r="AL15" s="37"/>
     </row>
-    <row r="16" spans="1:38" ht="12" customHeight="1">
+    <row r="16" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A16" s="66">
         <v>5</v>
       </c>
@@ -2288,7 +2331,7 @@
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
     </row>
-    <row r="17" spans="1:38" ht="12" customHeight="1">
+    <row r="17" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A17" s="67"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -2330,7 +2373,7 @@
       <c r="AK17" s="41"/>
       <c r="AL17" s="41"/>
     </row>
-    <row r="18" spans="1:38" ht="12" customHeight="1">
+    <row r="18" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A18" s="66">
         <v>6</v>
       </c>
@@ -2374,7 +2417,7 @@
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
     </row>
-    <row r="19" spans="1:38" ht="12" customHeight="1">
+    <row r="19" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -2416,7 +2459,7 @@
       <c r="AK19" s="41"/>
       <c r="AL19" s="41"/>
     </row>
-    <row r="20" spans="1:38" ht="12" customHeight="1">
+    <row r="20" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A20" s="66">
         <v>7</v>
       </c>
@@ -2460,7 +2503,7 @@
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
     </row>
-    <row r="21" spans="1:38" ht="12" customHeight="1">
+    <row r="21" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A21" s="67"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -2502,7 +2545,7 @@
       <c r="AK21" s="41"/>
       <c r="AL21" s="41"/>
     </row>
-    <row r="22" spans="1:38" ht="12" customHeight="1">
+    <row r="22" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A22" s="66">
         <v>8</v>
       </c>
@@ -2546,7 +2589,7 @@
       <c r="AK22" s="26"/>
       <c r="AL22" s="26"/>
     </row>
-    <row r="23" spans="1:38" ht="12" customHeight="1">
+    <row r="23" spans="1:38" ht="12" hidden="1" customHeight="1">
       <c r="A23" s="67"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -2634,17 +2677,17 @@
       <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="90" t="s">
-        <v>31</v>
+      <c r="B25" s="68" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>13</v>
@@ -2684,7 +2727,7 @@
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
       <c r="A26" s="67"/>
-      <c r="B26" s="91"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
@@ -2728,17 +2771,17 @@
       <c r="A27" s="66">
         <v>2</v>
       </c>
-      <c r="B27" s="90" t="s">
-        <v>32</v>
+      <c r="B27" s="68" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D27" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>13</v>
@@ -2778,7 +2821,7 @@
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="91"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -2822,17 +2865,17 @@
       <c r="A29" s="66">
         <v>3</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>33</v>
+      <c r="B29" s="71" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D29" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>13</v>
@@ -2872,7 +2915,7 @@
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="69"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
@@ -2916,17 +2959,17 @@
       <c r="A31" s="66">
         <v>4</v>
       </c>
-      <c r="B31" s="90" t="s">
-        <v>34</v>
+      <c r="B31" s="68" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D31" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>13</v>
@@ -2966,7 +3009,7 @@
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
       <c r="A32" s="67"/>
-      <c r="B32" s="91"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -3010,17 +3053,17 @@
       <c r="A33" s="66">
         <v>5</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>35</v>
+      <c r="B33" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D33" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>13</v>
@@ -3060,7 +3103,7 @@
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
       <c r="A34" s="67"/>
-      <c r="B34" s="91"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
@@ -3104,17 +3147,17 @@
       <c r="A35" s="66">
         <v>6</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>36</v>
+      <c r="B35" s="71" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>13</v>
@@ -3154,7 +3197,7 @@
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
       <c r="A36" s="67"/>
-      <c r="B36" s="69"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
@@ -3198,17 +3241,17 @@
       <c r="A37" s="66">
         <v>7</v>
       </c>
-      <c r="B37" s="90" t="s">
-        <v>37</v>
+      <c r="B37" s="68" t="s">
+        <v>31</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>13</v>
@@ -3248,7 +3291,7 @@
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
       <c r="A38" s="67"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -3292,17 +3335,17 @@
       <c r="A39" s="66">
         <v>8</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>38</v>
+      <c r="B39" s="68" t="s">
+        <v>32</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>13</v>
@@ -3342,7 +3385,7 @@
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
       <c r="A40" s="67"/>
-      <c r="B40" s="91"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
@@ -3386,17 +3429,17 @@
       <c r="A41" s="66">
         <v>9</v>
       </c>
-      <c r="B41" s="68" t="s">
-        <v>39</v>
+      <c r="B41" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>13</v>
@@ -3436,7 +3479,7 @@
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="69"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
@@ -3480,17 +3523,17 @@
       <c r="A43" s="66">
         <v>10</v>
       </c>
-      <c r="B43" s="68" t="s">
-        <v>44</v>
+      <c r="B43" s="71" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D43" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>13</v>
@@ -3530,7 +3573,7 @@
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
       <c r="A44" s="67"/>
-      <c r="B44" s="69"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
@@ -3574,17 +3617,17 @@
       <c r="A45" s="66">
         <v>11</v>
       </c>
-      <c r="B45" s="68" t="s">
-        <v>45</v>
+      <c r="B45" s="71" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D45" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>13</v>
@@ -3624,7 +3667,7 @@
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
       <c r="A46" s="67"/>
-      <c r="B46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
       <c r="E46" s="67"/>
@@ -3668,17 +3711,17 @@
       <c r="A47" s="66">
         <v>12</v>
       </c>
-      <c r="B47" s="68" t="s">
-        <v>46</v>
+      <c r="B47" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D47" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>13</v>
@@ -3718,7 +3761,7 @@
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
       <c r="A48" s="67"/>
-      <c r="B48" s="69"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -3762,17 +3805,17 @@
       <c r="A49" s="66">
         <v>12</v>
       </c>
-      <c r="B49" s="68" t="s">
-        <v>47</v>
+      <c r="B49" s="71" t="s">
+        <v>40</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>13</v>
@@ -3812,7 +3855,7 @@
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
       <c r="A50" s="67"/>
-      <c r="B50" s="69"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
       <c r="E50" s="67"/>
@@ -3856,17 +3899,17 @@
       <c r="A51" s="66">
         <v>12</v>
       </c>
-      <c r="B51" s="68" t="s">
-        <v>48</v>
+      <c r="B51" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D51" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>13</v>
@@ -3906,7 +3949,7 @@
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
       <c r="A52" s="67"/>
-      <c r="B52" s="69"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
@@ -3950,17 +3993,17 @@
       <c r="A53" s="66">
         <v>12</v>
       </c>
-      <c r="B53" s="68" t="s">
-        <v>49</v>
+      <c r="B53" s="71" t="s">
+        <v>42</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D53" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>13</v>
@@ -4000,7 +4043,7 @@
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="69"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
@@ -4044,17 +4087,17 @@
       <c r="A55" s="66">
         <v>12</v>
       </c>
-      <c r="B55" s="68" t="s">
-        <v>50</v>
+      <c r="B55" s="71" t="s">
+        <v>43</v>
       </c>
       <c r="C55" s="70" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>13</v>
@@ -4094,7 +4137,7 @@
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="69"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
       <c r="E56" s="67"/>
@@ -4138,17 +4181,17 @@
       <c r="A57" s="66">
         <v>12</v>
       </c>
-      <c r="B57" s="68" t="s">
-        <v>51</v>
+      <c r="B57" s="71" t="s">
+        <v>44</v>
       </c>
       <c r="C57" s="70" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>13</v>
@@ -4188,7 +4231,7 @@
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="69"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="67"/>
       <c r="D58" s="67"/>
       <c r="E58" s="67"/>
@@ -4232,17 +4275,17 @@
       <c r="A59" s="66">
         <v>12</v>
       </c>
-      <c r="B59" s="68" t="s">
-        <v>52</v>
+      <c r="B59" s="71" t="s">
+        <v>45</v>
       </c>
       <c r="C59" s="70" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>13</v>
@@ -4282,7 +4325,7 @@
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
       <c r="A60" s="67"/>
-      <c r="B60" s="69"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="67"/>
       <c r="D60" s="67"/>
       <c r="E60" s="67"/>
@@ -4369,13 +4412,17 @@
         <v>1</v>
       </c>
       <c r="B62" s="70" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
+      <c r="D62" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F62" s="21" t="s">
         <v>13</v>
       </c>
@@ -4388,7 +4435,7 @@
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
       <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
+      <c r="P62" s="92"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
       <c r="S62" s="52"/>
@@ -4429,7 +4476,7 @@
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
+      <c r="O63" s="59"/>
       <c r="P63" s="29"/>
       <c r="Q63" s="29"/>
       <c r="R63" s="29"/>
@@ -4458,14 +4505,18 @@
       <c r="A64" s="66">
         <v>2</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>22</v>
+      <c r="B64" s="71" t="s">
+        <v>54</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
+      <c r="D64" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F64" s="31" t="s">
         <v>13</v>
       </c>
@@ -4504,7 +4555,7 @@
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
       <c r="A65" s="67"/>
-      <c r="B65" s="69"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="67"/>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
@@ -4519,7 +4570,7 @@
       <c r="L65" s="36"/>
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
+      <c r="O65" s="65"/>
       <c r="P65" s="36"/>
       <c r="Q65" s="36"/>
       <c r="R65" s="53"/>
@@ -4548,14 +4599,18 @@
       <c r="A66" s="66">
         <v>3</v>
       </c>
-      <c r="B66" s="68" t="s">
-        <v>27</v>
+      <c r="B66" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
+      <c r="D66" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F66" s="21" t="s">
         <v>13</v>
       </c>
@@ -4568,8 +4623,8 @@
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
       <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="24"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
       <c r="R66" s="24"/>
       <c r="S66" s="46"/>
       <c r="T66" s="24"/>
@@ -4594,7 +4649,7 @@
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
       <c r="A67" s="67"/>
-      <c r="B67" s="69"/>
+      <c r="B67" s="72"/>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
@@ -4609,9 +4664,9 @@
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
       <c r="R67" s="54"/>
       <c r="S67" s="50"/>
       <c r="T67" s="40"/>
@@ -4638,14 +4693,18 @@
       <c r="A68" s="66">
         <v>4</v>
       </c>
-      <c r="B68" s="68" t="s">
-        <v>28</v>
+      <c r="B68" s="71" t="s">
+        <v>53</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
+      <c r="D68" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F68" s="31" t="s">
         <v>13</v>
       </c>
@@ -4658,8 +4717,8 @@
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
       <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="32"/>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="95"/>
       <c r="R68" s="32"/>
       <c r="S68" s="48"/>
       <c r="T68" s="32"/>
@@ -4684,7 +4743,7 @@
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
       <c r="A69" s="67"/>
-      <c r="B69" s="69"/>
+      <c r="B69" s="72"/>
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
@@ -4699,9 +4758,9 @@
       <c r="L69" s="36"/>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
       <c r="R69" s="53"/>
       <c r="S69" s="49"/>
       <c r="T69" s="36"/>
@@ -4728,14 +4787,18 @@
       <c r="A70" s="66">
         <v>5</v>
       </c>
-      <c r="B70" s="68" t="s">
-        <v>29</v>
+      <c r="B70" s="71" t="s">
+        <v>57</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
+      <c r="D70" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F70" s="21" t="s">
         <v>13</v>
       </c>
@@ -4748,8 +4811,8 @@
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
       <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="23"/>
+      <c r="P70" s="92"/>
+      <c r="Q70" s="92"/>
       <c r="R70" s="23"/>
       <c r="S70" s="52"/>
       <c r="T70" s="23"/>
@@ -4774,7 +4837,7 @@
     </row>
     <row r="71" spans="1:38" ht="12" customHeight="1">
       <c r="A71" s="67"/>
-      <c r="B71" s="69"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="67"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -4789,9 +4852,9 @@
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="97"/>
+      <c r="Q71" s="97"/>
       <c r="R71" s="29"/>
       <c r="S71" s="47"/>
       <c r="T71" s="29"/>
@@ -4819,13 +4882,17 @@
         <v>6</v>
       </c>
       <c r="B72" s="70" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
+      <c r="D72" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F72" s="31" t="s">
         <v>13</v>
       </c>
@@ -4838,8 +4905,8 @@
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
       <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="23"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92"/>
       <c r="R72" s="23"/>
       <c r="S72" s="52"/>
       <c r="T72" s="23"/>
@@ -4879,9 +4946,9 @@
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
       <c r="R73" s="53"/>
       <c r="S73" s="49"/>
       <c r="T73" s="36"/>
@@ -4908,12 +4975,18 @@
       <c r="A74" s="66">
         <v>7</v>
       </c>
-      <c r="B74" s="68" t="s">
-        <v>57</v>
+      <c r="B74" s="71" t="s">
+        <v>59</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
+      <c r="C74" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="F74" s="21" t="s">
         <v>13</v>
       </c>
@@ -4925,7 +4998,7 @@
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
+      <c r="O74" s="57"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
@@ -4934,7 +5007,7 @@
       <c r="U74" s="24"/>
       <c r="V74" s="24"/>
       <c r="W74" s="24"/>
-      <c r="X74" s="56"/>
+      <c r="X74" s="93"/>
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
       <c r="AA74" s="24"/>
@@ -4952,7 +5025,7 @@
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
       <c r="A75" s="67"/>
-      <c r="B75" s="69"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="67"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>
@@ -4967,7 +5040,7 @@
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
       <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
+      <c r="O75" s="65"/>
       <c r="P75" s="40"/>
       <c r="Q75" s="40"/>
       <c r="R75" s="54"/>
@@ -4996,8 +5069,12 @@
       <c r="A76" s="66">
         <v>8</v>
       </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="70"/>
+      <c r="B76" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="D76" s="70"/>
       <c r="E76" s="70"/>
       <c r="F76" s="31" t="s">
@@ -5020,7 +5097,7 @@
       <c r="U76" s="32"/>
       <c r="V76" s="32"/>
       <c r="W76" s="32"/>
-      <c r="X76" s="32"/>
+      <c r="X76" s="56"/>
       <c r="Y76" s="32"/>
       <c r="Z76" s="32"/>
       <c r="AA76" s="32"/>
@@ -5038,7 +5115,7 @@
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
       <c r="A77" s="67"/>
-      <c r="B77" s="69"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="67"/>
       <c r="D77" s="67"/>
       <c r="E77" s="67"/>
@@ -5214,7 +5291,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D81" s="70"/>
       <c r="E81" s="70"/>
@@ -5300,11 +5377,11 @@
       <c r="A83" s="66">
         <v>2</v>
       </c>
-      <c r="B83" s="68" t="s">
-        <v>24</v>
+      <c r="B83" s="71" t="s">
+        <v>22</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D83" s="70"/>
       <c r="E83" s="70"/>
@@ -5346,7 +5423,7 @@
     </row>
     <row r="84" spans="1:38" ht="12" customHeight="1">
       <c r="A84" s="67"/>
-      <c r="B84" s="69"/>
+      <c r="B84" s="72"/>
       <c r="C84" s="67"/>
       <c r="D84" s="67"/>
       <c r="E84" s="67"/>
@@ -5390,11 +5467,11 @@
       <c r="A85" s="66">
         <v>3</v>
       </c>
-      <c r="B85" s="68" t="s">
-        <v>25</v>
+      <c r="B85" s="71" t="s">
+        <v>23</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D85" s="70"/>
       <c r="E85" s="70"/>
@@ -5436,7 +5513,7 @@
     </row>
     <row r="86" spans="1:38" ht="12" customHeight="1">
       <c r="A86" s="67"/>
-      <c r="B86" s="69"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="67"/>
       <c r="D86" s="67"/>
       <c r="E86" s="67"/>
@@ -5480,11 +5557,11 @@
       <c r="A87" s="66">
         <v>4</v>
       </c>
-      <c r="B87" s="68" t="s">
-        <v>26</v>
+      <c r="B87" s="71" t="s">
+        <v>24</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D87" s="70"/>
       <c r="E87" s="70"/>
@@ -5526,7 +5603,7 @@
     </row>
     <row r="88" spans="1:38" ht="12" customHeight="1">
       <c r="A88" s="67"/>
-      <c r="B88" s="69"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="67"/>
       <c r="D88" s="67"/>
       <c r="E88" s="67"/>
@@ -5571,10 +5648,10 @@
         <v>5</v>
       </c>
       <c r="B89" s="70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D89" s="70"/>
       <c r="E89" s="70"/>
@@ -43326,56 +43403,222 @@
     </row>
   </sheetData>
   <mergeCells count="290">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AE6:AF6"/>
@@ -43400,230 +43643,64 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E64 E66 E68 E78 E81 E83 E85 E87 E89 E91 E94 E96 E98 E100 E102 E104 E107 E109 E111 E113 E70 E72 E74 E76 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E27 E29 E31 E33 E35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E27 E29 E31 E78 E81 E83 E85 E87 E89 E91 E94 E96 E98 E100 E102 E104 E107 E109 E111 E113 E33 E35 E74 E76 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E64 E66 E68 E70 E72" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未着手,作成中,作成完了,レビュー中,レビュー完了,FIX"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283516" right="0.70866141732283516" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EE033-A3D7-4F37-B97B-188310F3780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D50464-F05E-4B4B-819C-67C6380D973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -355,6 +355,54 @@
     <t>ConnectionManager作成</t>
     <rPh sb="17" eb="19">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除処理Servlet作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>削除確認・成功・失敗画面JSP作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusDAO削除メソッド追加</t>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1059,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,20 +1312,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,22 +1378,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1030"/>
+  <dimension ref="A1:AL1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
+      <selection pane="bottomRight" activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1672,162 +1717,162 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="85">
+      <c r="G3" s="83">
         <v>45627</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="87"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="85"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="90"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="88"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="84">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="82">
         <v>3</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73">
+      <c r="H5" s="72"/>
+      <c r="I5" s="71">
         <v>4</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="73">
+      <c r="J5" s="77"/>
+      <c r="K5" s="71">
         <v>5</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="73">
+      <c r="L5" s="77"/>
+      <c r="M5" s="71">
         <v>6</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73">
+      <c r="N5" s="77"/>
+      <c r="O5" s="71">
         <v>9</v>
       </c>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="73">
+      <c r="P5" s="77"/>
+      <c r="Q5" s="71">
         <v>10</v>
       </c>
-      <c r="R5" s="79"/>
-      <c r="S5" s="73">
+      <c r="R5" s="77"/>
+      <c r="S5" s="71">
         <v>11</v>
       </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="73">
+      <c r="T5" s="77"/>
+      <c r="U5" s="71">
         <v>12</v>
       </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="73">
+      <c r="V5" s="77"/>
+      <c r="W5" s="71">
         <v>13</v>
       </c>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="73">
+      <c r="X5" s="77"/>
+      <c r="Y5" s="71">
         <v>16</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="73">
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="71">
         <v>17</v>
       </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="73">
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="71">
         <v>18</v>
       </c>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="73">
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="71">
         <v>19</v>
       </c>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="73">
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="71">
         <v>20</v>
       </c>
-      <c r="AH5" s="74"/>
+      <c r="AH5" s="72"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
@@ -1839,63 +1884,63 @@
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="72"/>
+      <c r="I6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="80" t="s">
+      <c r="J6" s="72"/>
+      <c r="K6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="80" t="s">
+      <c r="L6" s="72"/>
+      <c r="M6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="73" t="s">
+      <c r="N6" s="72"/>
+      <c r="O6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="73" t="s">
+      <c r="P6" s="72"/>
+      <c r="Q6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="74"/>
-      <c r="S6" s="73" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="72"/>
+      <c r="U6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="74"/>
-      <c r="W6" s="73" t="s">
+      <c r="V6" s="72"/>
+      <c r="W6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="73" t="s">
+      <c r="X6" s="72"/>
+      <c r="Y6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="73" t="s">
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="73" t="s">
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="73" t="s">
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="74"/>
+      <c r="AH6" s="72"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -2677,7 +2722,7 @@
       <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="90" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="70" t="s">
@@ -2727,7 +2772,7 @@
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
       <c r="A26" s="67"/>
-      <c r="B26" s="69"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
@@ -2771,7 +2816,7 @@
       <c r="A27" s="66">
         <v>2</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="90" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="70" t="s">
@@ -2821,7 +2866,7 @@
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="69"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -2865,7 +2910,7 @@
       <c r="A29" s="66">
         <v>3</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="68" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="70" t="s">
@@ -2915,7 +2960,7 @@
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="72"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
@@ -2959,7 +3004,7 @@
       <c r="A31" s="66">
         <v>4</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="90" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -3009,7 +3054,7 @@
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
       <c r="A32" s="67"/>
-      <c r="B32" s="69"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -3053,7 +3098,7 @@
       <c r="A33" s="66">
         <v>5</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="90" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -3103,7 +3148,7 @@
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
       <c r="A34" s="67"/>
-      <c r="B34" s="69"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
@@ -3147,7 +3192,7 @@
       <c r="A35" s="66">
         <v>6</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -3197,7 +3242,7 @@
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
       <c r="A36" s="67"/>
-      <c r="B36" s="72"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
@@ -3241,7 +3286,7 @@
       <c r="A37" s="66">
         <v>7</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -3291,7 +3336,7 @@
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
       <c r="A38" s="67"/>
-      <c r="B38" s="69"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -3335,7 +3380,7 @@
       <c r="A39" s="66">
         <v>8</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="90" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -3385,7 +3430,7 @@
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
       <c r="A40" s="67"/>
-      <c r="B40" s="69"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
@@ -3429,7 +3474,7 @@
       <c r="A41" s="66">
         <v>9</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="68" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="70" t="s">
@@ -3479,7 +3524,7 @@
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="72"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
@@ -3523,7 +3568,7 @@
       <c r="A43" s="66">
         <v>10</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="68" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -3573,7 +3618,7 @@
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
       <c r="A44" s="67"/>
-      <c r="B44" s="72"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
@@ -3617,7 +3662,7 @@
       <c r="A45" s="66">
         <v>11</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="70" t="s">
@@ -3667,7 +3712,7 @@
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
       <c r="A46" s="67"/>
-      <c r="B46" s="72"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
       <c r="E46" s="67"/>
@@ -3711,7 +3756,7 @@
       <c r="A47" s="66">
         <v>12</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="68" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="70" t="s">
@@ -3761,7 +3806,7 @@
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
       <c r="A48" s="67"/>
-      <c r="B48" s="72"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -3805,7 +3850,7 @@
       <c r="A49" s="66">
         <v>12</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="68" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="70" t="s">
@@ -3855,7 +3900,7 @@
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
       <c r="A50" s="67"/>
-      <c r="B50" s="72"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
       <c r="E50" s="67"/>
@@ -3899,7 +3944,7 @@
       <c r="A51" s="66">
         <v>12</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="68" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="70" t="s">
@@ -3949,7 +3994,7 @@
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
       <c r="A52" s="67"/>
-      <c r="B52" s="72"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
@@ -3993,7 +4038,7 @@
       <c r="A53" s="66">
         <v>12</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="68" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="70" t="s">
@@ -4043,7 +4088,7 @@
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="72"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
@@ -4087,7 +4132,7 @@
       <c r="A55" s="66">
         <v>12</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="68" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="70" t="s">
@@ -4137,7 +4182,7 @@
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="72"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
       <c r="E56" s="67"/>
@@ -4181,7 +4226,7 @@
       <c r="A57" s="66">
         <v>12</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="70" t="s">
@@ -4231,7 +4276,7 @@
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="72"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="67"/>
       <c r="D58" s="67"/>
       <c r="E58" s="67"/>
@@ -4275,7 +4320,7 @@
       <c r="A59" s="66">
         <v>12</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C59" s="70" t="s">
@@ -4325,7 +4370,7 @@
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
       <c r="A60" s="67"/>
-      <c r="B60" s="72"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="67"/>
       <c r="D60" s="67"/>
       <c r="E60" s="67"/>
@@ -4435,7 +4480,7 @@
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
       <c r="O62" s="57"/>
-      <c r="P62" s="92"/>
+      <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
       <c r="S62" s="52"/>
@@ -4505,7 +4550,7 @@
       <c r="A64" s="66">
         <v>2</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="70" t="s">
@@ -4555,7 +4600,7 @@
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
       <c r="A65" s="67"/>
-      <c r="B65" s="72"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="67"/>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
@@ -4599,7 +4644,7 @@
       <c r="A66" s="66">
         <v>3</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="68" t="s">
         <v>52</v>
       </c>
       <c r="C66" s="70" t="s">
@@ -4623,8 +4668,8 @@
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
       <c r="O66" s="56"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="46"/>
       <c r="T66" s="24"/>
@@ -4649,7 +4694,7 @@
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
       <c r="A67" s="67"/>
-      <c r="B67" s="72"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
@@ -4665,8 +4710,8 @@
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
       <c r="O67" s="63"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
       <c r="R67" s="54"/>
       <c r="S67" s="50"/>
       <c r="T67" s="40"/>
@@ -4693,7 +4738,7 @@
       <c r="A68" s="66">
         <v>4</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="68" t="s">
         <v>53</v>
       </c>
       <c r="C68" s="70" t="s">
@@ -4717,8 +4762,8 @@
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
       <c r="O68" s="61"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="48"/>
       <c r="T68" s="32"/>
@@ -4743,7 +4788,7 @@
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
       <c r="A69" s="67"/>
-      <c r="B69" s="72"/>
+      <c r="B69" s="69"/>
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
@@ -4759,8 +4804,8 @@
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
       <c r="O69" s="65"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
       <c r="R69" s="53"/>
       <c r="S69" s="49"/>
       <c r="T69" s="36"/>
@@ -4787,7 +4832,7 @@
       <c r="A70" s="66">
         <v>5</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="68" t="s">
         <v>57</v>
       </c>
       <c r="C70" s="70" t="s">
@@ -4811,8 +4856,8 @@
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
       <c r="O70" s="57"/>
-      <c r="P70" s="92"/>
-      <c r="Q70" s="92"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
       <c r="R70" s="23"/>
       <c r="S70" s="52"/>
       <c r="T70" s="23"/>
@@ -4837,7 +4882,7 @@
     </row>
     <row r="71" spans="1:38" ht="12" customHeight="1">
       <c r="A71" s="67"/>
-      <c r="B71" s="72"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="67"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -4853,8 +4898,8 @@
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
       <c r="O71" s="59"/>
-      <c r="P71" s="97"/>
-      <c r="Q71" s="97"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="47"/>
       <c r="T71" s="29"/>
@@ -4905,8 +4950,8 @@
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
       <c r="O72" s="57"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
       <c r="S72" s="52"/>
       <c r="T72" s="23"/>
@@ -4947,8 +4992,8 @@
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
       <c r="O73" s="65"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
       <c r="R73" s="53"/>
       <c r="S73" s="49"/>
       <c r="T73" s="36"/>
@@ -4975,7 +5020,7 @@
       <c r="A74" s="66">
         <v>7</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="70" t="s">
@@ -5007,7 +5052,7 @@
       <c r="U74" s="24"/>
       <c r="V74" s="24"/>
       <c r="W74" s="24"/>
-      <c r="X74" s="93"/>
+      <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
       <c r="AA74" s="24"/>
@@ -5025,7 +5070,7 @@
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
       <c r="A75" s="67"/>
-      <c r="B75" s="72"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="67"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>
@@ -5069,1099 +5114,1127 @@
       <c r="A76" s="66">
         <v>8</v>
       </c>
-      <c r="B76" s="71" t="s">
-        <v>50</v>
+      <c r="B76" s="70" t="s">
+        <v>62</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="31" t="s">
+      <c r="D76" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
-      <c r="X76" s="56"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-      <c r="AB76" s="32"/>
-      <c r="AC76" s="32"/>
-      <c r="AD76" s="32"/>
-      <c r="AE76" s="32"/>
-      <c r="AF76" s="32"/>
-      <c r="AG76" s="32"/>
-      <c r="AH76" s="32"/>
-      <c r="AI76" s="10"/>
-      <c r="AJ76" s="10"/>
-      <c r="AK76" s="10"/>
-      <c r="AL76" s="10"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="24"/>
+      <c r="AB76" s="24"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="26"/>
+      <c r="AJ76" s="26"/>
+      <c r="AK76" s="26"/>
+      <c r="AL76" s="26"/>
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
       <c r="A77" s="67"/>
-      <c r="B77" s="72"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="67"/>
       <c r="D77" s="67"/>
       <c r="E77" s="67"/>
-      <c r="F77" s="34" t="s">
+      <c r="F77" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="49"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="36"/>
-      <c r="AB77" s="36"/>
-      <c r="AC77" s="36"/>
-      <c r="AD77" s="36"/>
-      <c r="AE77" s="36"/>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="36"/>
-      <c r="AH77" s="36"/>
-      <c r="AI77" s="37"/>
-      <c r="AJ77" s="37"/>
-      <c r="AK77" s="37"/>
-      <c r="AL77" s="37"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="29"/>
+      <c r="AF77" s="29"/>
+      <c r="AG77" s="29"/>
+      <c r="AH77" s="29"/>
+      <c r="AI77" s="30"/>
+      <c r="AJ77" s="30"/>
+      <c r="AK77" s="30"/>
+      <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
       <c r="A78" s="66">
         <v>9</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="21" t="s">
+      <c r="B78" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="26"/>
-      <c r="AJ78" s="26"/>
-      <c r="AK78" s="26"/>
-      <c r="AL78" s="26"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="94"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="32"/>
+      <c r="Z78" s="32"/>
+      <c r="AA78" s="32"/>
+      <c r="AB78" s="32"/>
+      <c r="AC78" s="32"/>
+      <c r="AD78" s="32"/>
+      <c r="AE78" s="32"/>
+      <c r="AF78" s="32"/>
+      <c r="AG78" s="32"/>
+      <c r="AH78" s="32"/>
+      <c r="AI78" s="10"/>
+      <c r="AJ78" s="10"/>
+      <c r="AK78" s="10"/>
+      <c r="AL78" s="10"/>
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
       <c r="A79" s="67"/>
-      <c r="B79" s="67"/>
+      <c r="B79" s="69"/>
       <c r="C79" s="67"/>
       <c r="D79" s="67"/>
       <c r="E79" s="67"/>
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="28"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="29"/>
-      <c r="AG79" s="29"/>
-      <c r="AH79" s="29"/>
-      <c r="AI79" s="41"/>
-      <c r="AJ79" s="41"/>
-      <c r="AK79" s="41"/>
-      <c r="AL79" s="41"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
+      <c r="Z79" s="36"/>
+      <c r="AA79" s="36"/>
+      <c r="AB79" s="36"/>
+      <c r="AC79" s="36"/>
+      <c r="AD79" s="36"/>
+      <c r="AE79" s="36"/>
+      <c r="AF79" s="36"/>
+      <c r="AG79" s="36"/>
+      <c r="AH79" s="36"/>
+      <c r="AI79" s="37"/>
+      <c r="AJ79" s="37"/>
+      <c r="AK79" s="37"/>
+      <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="66">
+        <v>10</v>
+      </c>
+      <c r="B80" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="92"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="24"/>
+      <c r="V80" s="24"/>
+      <c r="W80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="24"/>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
+      <c r="AI80" s="26"/>
+      <c r="AJ80" s="26"/>
+      <c r="AK80" s="26"/>
+      <c r="AL80" s="26"/>
+    </row>
+    <row r="81" spans="1:38" ht="12" customHeight="1">
+      <c r="A81" s="67"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="96"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="50"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
+      <c r="AA81" s="40"/>
+      <c r="AB81" s="40"/>
+      <c r="AC81" s="40"/>
+      <c r="AD81" s="40"/>
+      <c r="AE81" s="40"/>
+      <c r="AF81" s="40"/>
+      <c r="AG81" s="40"/>
+      <c r="AH81" s="40"/>
+      <c r="AI81" s="30"/>
+      <c r="AJ81" s="30"/>
+      <c r="AK81" s="30"/>
+      <c r="AL81" s="30"/>
+    </row>
+    <row r="82" spans="1:38" ht="12" customHeight="1">
+      <c r="A82" s="66">
+        <v>11</v>
+      </c>
+      <c r="B82" s="68"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="33"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="92"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="32"/>
+      <c r="AF82" s="32"/>
+      <c r="AG82" s="32"/>
+      <c r="AH82" s="32"/>
+      <c r="AI82" s="10"/>
+      <c r="AJ82" s="10"/>
+      <c r="AK82" s="10"/>
+      <c r="AL82" s="10"/>
+    </row>
+    <row r="83" spans="1:38" ht="12" customHeight="1">
+      <c r="A83" s="67"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="35"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="53"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
+      <c r="AC83" s="36"/>
+      <c r="AD83" s="36"/>
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="36"/>
+      <c r="AG83" s="36"/>
+      <c r="AH83" s="36"/>
+      <c r="AI83" s="37"/>
+      <c r="AJ83" s="37"/>
+      <c r="AK83" s="37"/>
+      <c r="AL83" s="37"/>
+    </row>
+    <row r="84" spans="1:38" ht="12" customHeight="1">
+      <c r="A84" s="66">
+        <v>12</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="24"/>
+      <c r="V84" s="24"/>
+      <c r="W84" s="24"/>
+      <c r="X84" s="56"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="24"/>
+      <c r="AI84" s="26"/>
+      <c r="AJ84" s="26"/>
+      <c r="AK84" s="26"/>
+      <c r="AL84" s="26"/>
+    </row>
+    <row r="85" spans="1:38" ht="12" customHeight="1">
+      <c r="A85" s="67"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="41"/>
+      <c r="AJ85" s="41"/>
+      <c r="AK85" s="41"/>
+      <c r="AL85" s="41"/>
+    </row>
+    <row r="86" spans="1:38" ht="12" customHeight="1">
+      <c r="A86" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="16"/>
-      <c r="AE80" s="16"/>
-      <c r="AF80" s="16"/>
-      <c r="AG80" s="16"/>
-      <c r="AH80" s="16"/>
-      <c r="AI80" s="20"/>
-      <c r="AJ80" s="20"/>
-      <c r="AK80" s="20"/>
-      <c r="AL80" s="20"/>
-    </row>
-    <row r="81" spans="1:38" ht="12" customHeight="1">
-      <c r="A81" s="66">
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="16"/>
+      <c r="AC86" s="16"/>
+      <c r="AD86" s="16"/>
+      <c r="AE86" s="16"/>
+      <c r="AF86" s="16"/>
+      <c r="AG86" s="16"/>
+      <c r="AH86" s="16"/>
+      <c r="AI86" s="20"/>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="20"/>
+      <c r="AL86" s="20"/>
+    </row>
+    <row r="87" spans="1:38" ht="12" customHeight="1">
+      <c r="A87" s="66">
         <v>1</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B87" s="70" t="s">
         <v>20</v>
-      </c>
-      <c r="C81" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="25"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
-      <c r="X81" s="24"/>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="57"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="23"/>
-      <c r="AF81" s="23"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="24"/>
-      <c r="AI81" s="26"/>
-      <c r="AJ81" s="26"/>
-      <c r="AK81" s="26"/>
-      <c r="AL81" s="26"/>
-    </row>
-    <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="28"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29"/>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29"/>
-      <c r="AC82" s="29"/>
-      <c r="AD82" s="29"/>
-      <c r="AE82" s="29"/>
-      <c r="AF82" s="29"/>
-      <c r="AG82" s="29"/>
-      <c r="AH82" s="29"/>
-      <c r="AI82" s="30"/>
-      <c r="AJ82" s="30"/>
-      <c r="AK82" s="30"/>
-      <c r="AL82" s="30"/>
-    </row>
-    <row r="83" spans="1:38" ht="12" customHeight="1">
-      <c r="A83" s="66">
-        <v>2</v>
-      </c>
-      <c r="B83" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="48"/>
-      <c r="T83" s="32"/>
-      <c r="U83" s="32"/>
-      <c r="V83" s="32"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="57"/>
-      <c r="Z83" s="57"/>
-      <c r="AA83" s="61"/>
-      <c r="AB83" s="61"/>
-      <c r="AC83" s="32"/>
-      <c r="AD83" s="32"/>
-      <c r="AE83" s="23"/>
-      <c r="AF83" s="23"/>
-      <c r="AG83" s="32"/>
-      <c r="AH83" s="32"/>
-      <c r="AI83" s="10"/>
-      <c r="AJ83" s="10"/>
-      <c r="AK83" s="10"/>
-      <c r="AL83" s="10"/>
-    </row>
-    <row r="84" spans="1:38" ht="12" customHeight="1">
-      <c r="A84" s="67"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="35"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="53"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="36"/>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36"/>
-      <c r="AI84" s="37"/>
-      <c r="AJ84" s="37"/>
-      <c r="AK84" s="37"/>
-      <c r="AL84" s="37"/>
-    </row>
-    <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="66">
-        <v>3</v>
-      </c>
-      <c r="B85" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="25"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="57"/>
-      <c r="Z85" s="57"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="24"/>
-      <c r="AD85" s="24"/>
-      <c r="AE85" s="23"/>
-      <c r="AF85" s="23"/>
-      <c r="AG85" s="24"/>
-      <c r="AH85" s="24"/>
-      <c r="AI85" s="26"/>
-      <c r="AJ85" s="26"/>
-      <c r="AK85" s="26"/>
-      <c r="AL85" s="26"/>
-    </row>
-    <row r="86" spans="1:38" ht="12" customHeight="1">
-      <c r="A86" s="67"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="40"/>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="40"/>
-      <c r="AA86" s="40"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="40"/>
-      <c r="AD86" s="40"/>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="40"/>
-      <c r="AG86" s="40"/>
-      <c r="AH86" s="40"/>
-      <c r="AI86" s="30"/>
-      <c r="AJ86" s="30"/>
-      <c r="AK86" s="30"/>
-      <c r="AL86" s="30"/>
-    </row>
-    <row r="87" spans="1:38" ht="12" customHeight="1">
-      <c r="A87" s="66">
-        <v>4</v>
-      </c>
-      <c r="B87" s="71" t="s">
-        <v>24</v>
       </c>
       <c r="C87" s="70" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="70"/>
       <c r="E87" s="70"/>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="48"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="61"/>
-      <c r="Z87" s="61"/>
-      <c r="AA87" s="61"/>
-      <c r="AB87" s="61"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="32"/>
-      <c r="AH87" s="32"/>
-      <c r="AI87" s="10"/>
-      <c r="AJ87" s="10"/>
-      <c r="AK87" s="10"/>
-      <c r="AL87" s="10"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
+      <c r="Y87" s="57"/>
+      <c r="Z87" s="57"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="24"/>
+      <c r="AD87" s="24"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="24"/>
+      <c r="AH87" s="24"/>
+      <c r="AI87" s="26"/>
+      <c r="AJ87" s="26"/>
+      <c r="AK87" s="26"/>
+      <c r="AL87" s="26"/>
     </row>
     <row r="88" spans="1:38" ht="12" customHeight="1">
       <c r="A88" s="67"/>
-      <c r="B88" s="72"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="67"/>
       <c r="D88" s="67"/>
       <c r="E88" s="67"/>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
-      <c r="AB88" s="36"/>
-      <c r="AC88" s="36"/>
-      <c r="AD88" s="36"/>
-      <c r="AE88" s="36"/>
-      <c r="AF88" s="36"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="36"/>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="37"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
+      <c r="AE88" s="29"/>
+      <c r="AF88" s="29"/>
+      <c r="AG88" s="29"/>
+      <c r="AH88" s="29"/>
+      <c r="AI88" s="30"/>
+      <c r="AJ88" s="30"/>
+      <c r="AK88" s="30"/>
+      <c r="AL88" s="30"/>
     </row>
     <row r="89" spans="1:38" ht="12" customHeight="1">
       <c r="A89" s="66">
-        <v>5</v>
+        <v>2</v>
       </c>
-      <c r="B89" s="70" t="s">
-        <v>21</v>
+      <c r="B89" s="68" t="s">
+        <v>22</v>
       </c>
       <c r="C89" s="70" t="s">
         <v>36</v>
       </c>
       <c r="D89" s="70"/>
       <c r="E89" s="70"/>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="24"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="24"/>
-      <c r="AB89" s="24"/>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="56"/>
-      <c r="AE89" s="56"/>
-      <c r="AF89" s="56"/>
-      <c r="AG89" s="24"/>
-      <c r="AH89" s="24"/>
-      <c r="AI89" s="26"/>
-      <c r="AJ89" s="26"/>
-      <c r="AK89" s="26"/>
-      <c r="AL89" s="26"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="32"/>
+      <c r="R89" s="32"/>
+      <c r="S89" s="48"/>
+      <c r="T89" s="32"/>
+      <c r="U89" s="32"/>
+      <c r="V89" s="32"/>
+      <c r="W89" s="32"/>
+      <c r="X89" s="32"/>
+      <c r="Y89" s="57"/>
+      <c r="Z89" s="57"/>
+      <c r="AA89" s="61"/>
+      <c r="AB89" s="61"/>
+      <c r="AC89" s="32"/>
+      <c r="AD89" s="32"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="32"/>
+      <c r="AH89" s="32"/>
+      <c r="AI89" s="10"/>
+      <c r="AJ89" s="10"/>
+      <c r="AK89" s="10"/>
+      <c r="AL89" s="10"/>
     </row>
     <row r="90" spans="1:38" ht="12" customHeight="1">
       <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="67"/>
       <c r="D90" s="67"/>
       <c r="E90" s="67"/>
-      <c r="F90" s="38" t="s">
+      <c r="F90" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29"/>
-      <c r="AE90" s="29"/>
-      <c r="AF90" s="29"/>
-      <c r="AG90" s="29"/>
-      <c r="AH90" s="29"/>
-      <c r="AI90" s="41"/>
-      <c r="AJ90" s="41"/>
-      <c r="AK90" s="41"/>
-      <c r="AL90" s="41"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="53"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="36"/>
+      <c r="AB90" s="36"/>
+      <c r="AC90" s="36"/>
+      <c r="AD90" s="36"/>
+      <c r="AE90" s="36"/>
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="36"/>
+      <c r="AH90" s="36"/>
+      <c r="AI90" s="37"/>
+      <c r="AJ90" s="37"/>
+      <c r="AK90" s="37"/>
+      <c r="AL90" s="37"/>
     </row>
     <row r="91" spans="1:38" ht="12" customHeight="1">
       <c r="A91" s="66">
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
+      <c r="B91" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="70" t="s">
+        <v>36</v>
+      </c>
       <c r="D91" s="70"/>
       <c r="E91" s="70"/>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="32"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="48"/>
-      <c r="T91" s="32"/>
-      <c r="U91" s="32"/>
-      <c r="V91" s="32"/>
-      <c r="W91" s="32"/>
-      <c r="X91" s="32"/>
-      <c r="Y91" s="32"/>
-      <c r="Z91" s="32"/>
-      <c r="AA91" s="32"/>
-      <c r="AB91" s="32"/>
-      <c r="AC91" s="32"/>
-      <c r="AD91" s="32"/>
-      <c r="AE91" s="32"/>
-      <c r="AF91" s="32"/>
-      <c r="AG91" s="32"/>
-      <c r="AH91" s="32"/>
-      <c r="AI91" s="10"/>
-      <c r="AJ91" s="10"/>
-      <c r="AK91" s="10"/>
-      <c r="AL91" s="10"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="24"/>
+      <c r="U91" s="24"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="24"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="57"/>
+      <c r="Z91" s="57"/>
+      <c r="AA91" s="56"/>
+      <c r="AB91" s="56"/>
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="24"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="24"/>
+      <c r="AH91" s="24"/>
+      <c r="AI91" s="26"/>
+      <c r="AJ91" s="26"/>
+      <c r="AK91" s="26"/>
+      <c r="AL91" s="26"/>
     </row>
     <row r="92" spans="1:38" ht="12" customHeight="1">
       <c r="A92" s="67"/>
-      <c r="B92" s="67"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="67"/>
       <c r="D92" s="67"/>
       <c r="E92" s="67"/>
-      <c r="F92" s="34" t="s">
+      <c r="F92" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="42"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-      <c r="S92" s="51"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="43"/>
-      <c r="X92" s="43"/>
-      <c r="Y92" s="43"/>
-      <c r="Z92" s="43"/>
-      <c r="AA92" s="43"/>
-      <c r="AB92" s="43"/>
-      <c r="AC92" s="43"/>
-      <c r="AD92" s="43"/>
-      <c r="AE92" s="43"/>
-      <c r="AF92" s="43"/>
-      <c r="AG92" s="43"/>
-      <c r="AH92" s="43"/>
-      <c r="AI92" s="12"/>
-      <c r="AJ92" s="12"/>
-      <c r="AK92" s="12"/>
-      <c r="AL92" s="12"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="54"/>
+      <c r="S92" s="50"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
+      <c r="Z92" s="40"/>
+      <c r="AA92" s="40"/>
+      <c r="AB92" s="40"/>
+      <c r="AC92" s="40"/>
+      <c r="AD92" s="40"/>
+      <c r="AE92" s="40"/>
+      <c r="AF92" s="40"/>
+      <c r="AG92" s="40"/>
+      <c r="AH92" s="40"/>
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="30"/>
+      <c r="AK92" s="30"/>
+      <c r="AL92" s="30"/>
     </row>
     <row r="93" spans="1:38" ht="12" customHeight="1">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="66">
+        <v>4</v>
+      </c>
+      <c r="B93" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="33"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="32"/>
+      <c r="U93" s="32"/>
+      <c r="V93" s="32"/>
+      <c r="W93" s="32"/>
+      <c r="X93" s="32"/>
+      <c r="Y93" s="61"/>
+      <c r="Z93" s="61"/>
+      <c r="AA93" s="61"/>
+      <c r="AB93" s="61"/>
+      <c r="AC93" s="32"/>
+      <c r="AD93" s="32"/>
+      <c r="AE93" s="32"/>
+      <c r="AF93" s="32"/>
+      <c r="AG93" s="32"/>
+      <c r="AH93" s="32"/>
+      <c r="AI93" s="10"/>
+      <c r="AJ93" s="10"/>
+      <c r="AK93" s="10"/>
+      <c r="AL93" s="10"/>
+    </row>
+    <row r="94" spans="1:38" ht="12" customHeight="1">
+      <c r="A94" s="67"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="53"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="36"/>
+      <c r="AC94" s="36"/>
+      <c r="AD94" s="36"/>
+      <c r="AE94" s="36"/>
+      <c r="AF94" s="36"/>
+      <c r="AG94" s="36"/>
+      <c r="AH94" s="36"/>
+      <c r="AI94" s="37"/>
+      <c r="AJ94" s="37"/>
+      <c r="AK94" s="37"/>
+      <c r="AL94" s="37"/>
+    </row>
+    <row r="95" spans="1:38" ht="12" customHeight="1">
+      <c r="A95" s="66">
+        <v>5</v>
+      </c>
+      <c r="B95" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="25"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="46"/>
+      <c r="T95" s="24"/>
+      <c r="U95" s="24"/>
+      <c r="V95" s="24"/>
+      <c r="W95" s="24"/>
+      <c r="X95" s="24"/>
+      <c r="Y95" s="24"/>
+      <c r="Z95" s="24"/>
+      <c r="AA95" s="24"/>
+      <c r="AB95" s="24"/>
+      <c r="AC95" s="56"/>
+      <c r="AD95" s="56"/>
+      <c r="AE95" s="56"/>
+      <c r="AF95" s="56"/>
+      <c r="AG95" s="24"/>
+      <c r="AH95" s="24"/>
+      <c r="AI95" s="26"/>
+      <c r="AJ95" s="26"/>
+      <c r="AK95" s="26"/>
+      <c r="AL95" s="26"/>
+    </row>
+    <row r="96" spans="1:38" ht="12" customHeight="1">
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="29"/>
+      <c r="Z96" s="29"/>
+      <c r="AA96" s="29"/>
+      <c r="AB96" s="29"/>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="29"/>
+      <c r="AE96" s="29"/>
+      <c r="AF96" s="29"/>
+      <c r="AG96" s="29"/>
+      <c r="AH96" s="29"/>
+      <c r="AI96" s="41"/>
+      <c r="AJ96" s="41"/>
+      <c r="AK96" s="41"/>
+      <c r="AL96" s="41"/>
+    </row>
+    <row r="97" spans="1:38" ht="12" customHeight="1">
+      <c r="A97" s="66">
+        <v>6</v>
+      </c>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="33"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="32"/>
+      <c r="U97" s="32"/>
+      <c r="V97" s="32"/>
+      <c r="W97" s="32"/>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="32"/>
+      <c r="AC97" s="32"/>
+      <c r="AD97" s="32"/>
+      <c r="AE97" s="32"/>
+      <c r="AF97" s="32"/>
+      <c r="AG97" s="32"/>
+      <c r="AH97" s="32"/>
+      <c r="AI97" s="10"/>
+      <c r="AJ97" s="10"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="10"/>
+    </row>
+    <row r="98" spans="1:38" ht="12" customHeight="1">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="42"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="43"/>
+      <c r="U98" s="43"/>
+      <c r="V98" s="43"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="43"/>
+      <c r="Y98" s="43"/>
+      <c r="Z98" s="43"/>
+      <c r="AA98" s="43"/>
+      <c r="AB98" s="43"/>
+      <c r="AC98" s="43"/>
+      <c r="AD98" s="43"/>
+      <c r="AE98" s="43"/>
+      <c r="AF98" s="43"/>
+      <c r="AG98" s="43"/>
+      <c r="AH98" s="43"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+    </row>
+    <row r="99" spans="1:38" ht="12" customHeight="1">
+      <c r="A99" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="45"/>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="16"/>
-      <c r="W93" s="16"/>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="16"/>
-      <c r="AA93" s="16"/>
-      <c r="AB93" s="16"/>
-      <c r="AC93" s="16"/>
-      <c r="AD93" s="16"/>
-      <c r="AE93" s="16"/>
-      <c r="AF93" s="16"/>
-      <c r="AG93" s="16"/>
-      <c r="AH93" s="16"/>
-      <c r="AI93" s="20"/>
-      <c r="AJ93" s="20"/>
-      <c r="AK93" s="20"/>
-      <c r="AL93" s="20"/>
-    </row>
-    <row r="94" spans="1:38" ht="12" customHeight="1">
-      <c r="A94" s="66">
-        <v>1</v>
-      </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="24"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="23"/>
-      <c r="AB94" s="23"/>
-      <c r="AC94" s="24"/>
-      <c r="AD94" s="24"/>
-      <c r="AE94" s="24"/>
-      <c r="AF94" s="24"/>
-      <c r="AG94" s="23"/>
-      <c r="AH94" s="23"/>
-      <c r="AI94" s="26"/>
-      <c r="AJ94" s="26"/>
-      <c r="AK94" s="26"/>
-      <c r="AL94" s="26"/>
-    </row>
-    <row r="95" spans="1:38" ht="12" customHeight="1">
-      <c r="A95" s="67"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="28"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="29"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="29"/>
-      <c r="AD95" s="29"/>
-      <c r="AE95" s="29"/>
-      <c r="AF95" s="29"/>
-      <c r="AG95" s="29"/>
-      <c r="AH95" s="29"/>
-      <c r="AI95" s="30"/>
-      <c r="AJ95" s="30"/>
-      <c r="AK95" s="30"/>
-      <c r="AL95" s="30"/>
-    </row>
-    <row r="96" spans="1:38" ht="12" customHeight="1">
-      <c r="A96" s="66">
-        <v>2</v>
-      </c>
-      <c r="B96" s="70"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="32"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="48"/>
-      <c r="T96" s="32"/>
-      <c r="U96" s="32"/>
-      <c r="V96" s="32"/>
-      <c r="W96" s="32"/>
-      <c r="X96" s="32"/>
-      <c r="Y96" s="32"/>
-      <c r="Z96" s="32"/>
-      <c r="AA96" s="44"/>
-      <c r="AB96" s="44"/>
-      <c r="AC96" s="32"/>
-      <c r="AD96" s="32"/>
-      <c r="AE96" s="32"/>
-      <c r="AF96" s="32"/>
-      <c r="AG96" s="44"/>
-      <c r="AH96" s="44"/>
-      <c r="AI96" s="10"/>
-      <c r="AJ96" s="10"/>
-      <c r="AK96" s="10"/>
-      <c r="AL96" s="10"/>
-    </row>
-    <row r="97" spans="1:38" ht="12" customHeight="1">
-      <c r="A97" s="67"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="49"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="36"/>
-      <c r="Y97" s="36"/>
-      <c r="Z97" s="36"/>
-      <c r="AA97" s="36"/>
-      <c r="AB97" s="36"/>
-      <c r="AC97" s="36"/>
-      <c r="AD97" s="36"/>
-      <c r="AE97" s="36"/>
-      <c r="AF97" s="36"/>
-      <c r="AG97" s="36"/>
-      <c r="AH97" s="36"/>
-      <c r="AI97" s="37"/>
-      <c r="AJ97" s="37"/>
-      <c r="AK97" s="37"/>
-      <c r="AL97" s="37"/>
-    </row>
-    <row r="98" spans="1:38" ht="12" customHeight="1">
-      <c r="A98" s="66">
-        <v>3</v>
-      </c>
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="25"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="46"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="23"/>
-      <c r="AB98" s="23"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="23"/>
-      <c r="AH98" s="23"/>
-      <c r="AI98" s="26"/>
-      <c r="AJ98" s="26"/>
-      <c r="AK98" s="26"/>
-      <c r="AL98" s="26"/>
-    </row>
-    <row r="99" spans="1:38" ht="12" customHeight="1">
-      <c r="A99" s="67"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="50"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
-      <c r="Z99" s="40"/>
-      <c r="AA99" s="40"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="40"/>
-      <c r="AD99" s="40"/>
-      <c r="AE99" s="40"/>
-      <c r="AF99" s="40"/>
-      <c r="AG99" s="40"/>
-      <c r="AH99" s="40"/>
-      <c r="AI99" s="30"/>
-      <c r="AJ99" s="30"/>
-      <c r="AK99" s="30"/>
-      <c r="AL99" s="30"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="45"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+      <c r="Z99" s="16"/>
+      <c r="AA99" s="16"/>
+      <c r="AB99" s="16"/>
+      <c r="AC99" s="16"/>
+      <c r="AD99" s="16"/>
+      <c r="AE99" s="16"/>
+      <c r="AF99" s="16"/>
+      <c r="AG99" s="16"/>
+      <c r="AH99" s="16"/>
+      <c r="AI99" s="20"/>
+      <c r="AJ99" s="20"/>
+      <c r="AK99" s="20"/>
+      <c r="AL99" s="20"/>
     </row>
     <row r="100" spans="1:38" ht="12" customHeight="1">
       <c r="A100" s="66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B100" s="70"/>
       <c r="C100" s="70"/>
       <c r="D100" s="70"/>
       <c r="E100" s="70"/>
-      <c r="F100" s="31" t="s">
+      <c r="F100" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32"/>
-      <c r="R100" s="32"/>
-      <c r="S100" s="48"/>
-      <c r="T100" s="32"/>
-      <c r="U100" s="32"/>
-      <c r="V100" s="32"/>
-      <c r="W100" s="32"/>
-      <c r="X100" s="32"/>
-      <c r="Y100" s="32"/>
-      <c r="Z100" s="32"/>
-      <c r="AA100" s="32"/>
-      <c r="AB100" s="32"/>
-      <c r="AC100" s="32"/>
-      <c r="AD100" s="32"/>
-      <c r="AE100" s="32"/>
-      <c r="AF100" s="32"/>
-      <c r="AG100" s="32"/>
-      <c r="AH100" s="32"/>
-      <c r="AI100" s="10"/>
-      <c r="AJ100" s="10"/>
-      <c r="AK100" s="10"/>
-      <c r="AL100" s="10"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="24"/>
+      <c r="W100" s="24"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24"/>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="26"/>
+      <c r="AJ100" s="26"/>
+      <c r="AK100" s="26"/>
+      <c r="AL100" s="26"/>
     </row>
     <row r="101" spans="1:38" ht="12" customHeight="1">
       <c r="A101" s="67"/>
@@ -6169,85 +6242,85 @@
       <c r="C101" s="67"/>
       <c r="D101" s="67"/>
       <c r="E101" s="67"/>
-      <c r="F101" s="34" t="s">
+      <c r="F101" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="36"/>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
-      <c r="X101" s="36"/>
-      <c r="Y101" s="36"/>
-      <c r="Z101" s="36"/>
-      <c r="AA101" s="36"/>
-      <c r="AB101" s="36"/>
-      <c r="AC101" s="36"/>
-      <c r="AD101" s="36"/>
-      <c r="AE101" s="36"/>
-      <c r="AF101" s="36"/>
-      <c r="AG101" s="36"/>
-      <c r="AH101" s="36"/>
-      <c r="AI101" s="37"/>
-      <c r="AJ101" s="37"/>
-      <c r="AK101" s="37"/>
-      <c r="AL101" s="37"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="47"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="X101" s="29"/>
+      <c r="Y101" s="29"/>
+      <c r="Z101" s="29"/>
+      <c r="AA101" s="29"/>
+      <c r="AB101" s="29"/>
+      <c r="AC101" s="29"/>
+      <c r="AD101" s="29"/>
+      <c r="AE101" s="29"/>
+      <c r="AF101" s="29"/>
+      <c r="AG101" s="29"/>
+      <c r="AH101" s="29"/>
+      <c r="AI101" s="30"/>
+      <c r="AJ101" s="30"/>
+      <c r="AK101" s="30"/>
+      <c r="AL101" s="30"/>
     </row>
     <row r="102" spans="1:38" ht="12" customHeight="1">
       <c r="A102" s="66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B102" s="70"/>
       <c r="C102" s="70"/>
       <c r="D102" s="70"/>
       <c r="E102" s="70"/>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="46"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24"/>
-      <c r="Y102" s="24"/>
-      <c r="Z102" s="24"/>
-      <c r="AA102" s="24"/>
-      <c r="AB102" s="24"/>
-      <c r="AC102" s="23"/>
-      <c r="AD102" s="23"/>
-      <c r="AE102" s="24"/>
-      <c r="AF102" s="24"/>
-      <c r="AG102" s="24"/>
-      <c r="AH102" s="24"/>
-      <c r="AI102" s="26"/>
-      <c r="AJ102" s="26"/>
-      <c r="AK102" s="26"/>
-      <c r="AL102" s="26"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="32"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="44"/>
+      <c r="AB102" s="44"/>
+      <c r="AC102" s="32"/>
+      <c r="AD102" s="32"/>
+      <c r="AE102" s="32"/>
+      <c r="AF102" s="32"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="44"/>
+      <c r="AI102" s="10"/>
+      <c r="AJ102" s="10"/>
+      <c r="AK102" s="10"/>
+      <c r="AL102" s="10"/>
     </row>
     <row r="103" spans="1:38" ht="12" customHeight="1">
       <c r="A103" s="67"/>
@@ -6255,85 +6328,85 @@
       <c r="C103" s="67"/>
       <c r="D103" s="67"/>
       <c r="E103" s="67"/>
-      <c r="F103" s="38" t="s">
+      <c r="F103" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="47"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="29"/>
-      <c r="AE103" s="29"/>
-      <c r="AF103" s="29"/>
-      <c r="AG103" s="29"/>
-      <c r="AH103" s="29"/>
-      <c r="AI103" s="41"/>
-      <c r="AJ103" s="41"/>
-      <c r="AK103" s="41"/>
-      <c r="AL103" s="41"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="53"/>
+      <c r="S103" s="49"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="36"/>
+      <c r="AI103" s="37"/>
+      <c r="AJ103" s="37"/>
+      <c r="AK103" s="37"/>
+      <c r="AL103" s="37"/>
     </row>
     <row r="104" spans="1:38" ht="12" customHeight="1">
       <c r="A104" s="66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B104" s="70"/>
       <c r="C104" s="70"/>
       <c r="D104" s="70"/>
       <c r="E104" s="70"/>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="33"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="48"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="32"/>
-      <c r="AI104" s="10"/>
-      <c r="AJ104" s="10"/>
-      <c r="AK104" s="10"/>
-      <c r="AL104" s="10"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="46"/>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+      <c r="V104" s="24"/>
+      <c r="W104" s="24"/>
+      <c r="X104" s="24"/>
+      <c r="Y104" s="24"/>
+      <c r="Z104" s="24"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="24"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="26"/>
+      <c r="AJ104" s="26"/>
+      <c r="AK104" s="26"/>
+      <c r="AL104" s="26"/>
     </row>
     <row r="105" spans="1:38" ht="12" customHeight="1">
       <c r="A105" s="67"/>
@@ -6341,383 +6414,383 @@
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
       <c r="E105" s="67"/>
-      <c r="F105" s="34" t="s">
+      <c r="F105" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="43"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
-      <c r="Q105" s="43"/>
-      <c r="R105" s="43"/>
-      <c r="S105" s="51"/>
-      <c r="T105" s="43"/>
-      <c r="U105" s="43"/>
-      <c r="V105" s="43"/>
-      <c r="W105" s="43"/>
-      <c r="X105" s="43"/>
-      <c r="Y105" s="43"/>
-      <c r="Z105" s="43"/>
-      <c r="AA105" s="43"/>
-      <c r="AB105" s="43"/>
-      <c r="AC105" s="43"/>
-      <c r="AD105" s="43"/>
-      <c r="AE105" s="43"/>
-      <c r="AF105" s="43"/>
-      <c r="AG105" s="43"/>
-      <c r="AH105" s="43"/>
-      <c r="AI105" s="12"/>
-      <c r="AJ105" s="12"/>
-      <c r="AK105" s="12"/>
-      <c r="AL105" s="12"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="40"/>
+      <c r="R105" s="54"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="40"/>
+      <c r="U105" s="40"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="40"/>
+      <c r="X105" s="40"/>
+      <c r="Y105" s="40"/>
+      <c r="Z105" s="40"/>
+      <c r="AA105" s="40"/>
+      <c r="AB105" s="40"/>
+      <c r="AC105" s="40"/>
+      <c r="AD105" s="40"/>
+      <c r="AE105" s="40"/>
+      <c r="AF105" s="40"/>
+      <c r="AG105" s="40"/>
+      <c r="AH105" s="40"/>
+      <c r="AI105" s="30"/>
+      <c r="AJ105" s="30"/>
+      <c r="AK105" s="30"/>
+      <c r="AL105" s="30"/>
     </row>
     <row r="106" spans="1:38" ht="12" customHeight="1">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="45"/>
-      <c r="T106" s="16"/>
-      <c r="U106" s="16"/>
-      <c r="V106" s="16"/>
-      <c r="W106" s="16"/>
-      <c r="X106" s="16"/>
-      <c r="Y106" s="16"/>
-      <c r="Z106" s="16"/>
-      <c r="AA106" s="16"/>
-      <c r="AB106" s="16"/>
-      <c r="AC106" s="16"/>
-      <c r="AD106" s="16"/>
-      <c r="AE106" s="16"/>
-      <c r="AF106" s="16"/>
-      <c r="AG106" s="16"/>
-      <c r="AH106" s="16"/>
-      <c r="AI106" s="20"/>
-      <c r="AJ106" s="20"/>
-      <c r="AK106" s="20"/>
-      <c r="AL106" s="20"/>
-    </row>
-    <row r="107" spans="1:38" ht="12" customHeight="1">
-      <c r="A107" s="66">
-        <v>1</v>
+      <c r="A106" s="66">
+        <v>4</v>
       </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="21" t="s">
+      <c r="B106" s="70"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="25"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="24"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="24"/>
-      <c r="X107" s="24"/>
-      <c r="Y107" s="24"/>
-      <c r="Z107" s="24"/>
-      <c r="AA107" s="24"/>
-      <c r="AB107" s="24"/>
-      <c r="AC107" s="24"/>
-      <c r="AD107" s="24"/>
-      <c r="AE107" s="24"/>
-      <c r="AF107" s="24"/>
-      <c r="AG107" s="24"/>
-      <c r="AH107" s="24"/>
-      <c r="AI107" s="26"/>
-      <c r="AJ107" s="26"/>
-      <c r="AK107" s="26"/>
-      <c r="AL107" s="26"/>
-    </row>
-    <row r="108" spans="1:38" ht="12" customHeight="1">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="27" t="s">
+      <c r="G106" s="33"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="48"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+      <c r="X106" s="32"/>
+      <c r="Y106" s="32"/>
+      <c r="Z106" s="32"/>
+      <c r="AA106" s="32"/>
+      <c r="AB106" s="32"/>
+      <c r="AC106" s="32"/>
+      <c r="AD106" s="32"/>
+      <c r="AE106" s="32"/>
+      <c r="AF106" s="32"/>
+      <c r="AG106" s="32"/>
+      <c r="AH106" s="32"/>
+      <c r="AI106" s="10"/>
+      <c r="AJ106" s="10"/>
+      <c r="AK106" s="10"/>
+      <c r="AL106" s="10"/>
+    </row>
+    <row r="107" spans="1:38" ht="12" customHeight="1">
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="28"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="47"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
-      <c r="V108" s="29"/>
-      <c r="W108" s="29"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="29"/>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="29"/>
-      <c r="AD108" s="29"/>
-      <c r="AE108" s="29"/>
-      <c r="AF108" s="29"/>
-      <c r="AG108" s="29"/>
-      <c r="AH108" s="29"/>
-      <c r="AI108" s="30"/>
-      <c r="AJ108" s="30"/>
-      <c r="AK108" s="30"/>
-      <c r="AL108" s="30"/>
-    </row>
-    <row r="109" spans="1:38" ht="12" customHeight="1">
-      <c r="A109" s="66">
-        <v>2</v>
+      <c r="G107" s="35"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="53"/>
+      <c r="S107" s="49"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="36"/>
+      <c r="W107" s="36"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="36"/>
+      <c r="AE107" s="36"/>
+      <c r="AF107" s="36"/>
+      <c r="AG107" s="36"/>
+      <c r="AH107" s="36"/>
+      <c r="AI107" s="37"/>
+      <c r="AJ107" s="37"/>
+      <c r="AK107" s="37"/>
+      <c r="AL107" s="37"/>
+    </row>
+    <row r="108" spans="1:38" ht="12" customHeight="1">
+      <c r="A108" s="66">
+        <v>5</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="31" t="s">
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="33"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="32"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="32"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32"/>
-      <c r="R109" s="32"/>
-      <c r="S109" s="48"/>
-      <c r="T109" s="32"/>
-      <c r="U109" s="32"/>
-      <c r="V109" s="32"/>
-      <c r="W109" s="32"/>
-      <c r="X109" s="32"/>
-      <c r="Y109" s="32"/>
-      <c r="Z109" s="32"/>
-      <c r="AA109" s="32"/>
-      <c r="AB109" s="32"/>
-      <c r="AC109" s="32"/>
-      <c r="AD109" s="32"/>
-      <c r="AE109" s="32"/>
-      <c r="AF109" s="32"/>
-      <c r="AG109" s="32"/>
-      <c r="AH109" s="32"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
-      <c r="AL109" s="10"/>
-    </row>
-    <row r="110" spans="1:38" ht="12" customHeight="1">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="34" t="s">
+      <c r="G108" s="25"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="24"/>
+      <c r="S108" s="46"/>
+      <c r="T108" s="24"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="24"/>
+      <c r="W108" s="24"/>
+      <c r="X108" s="24"/>
+      <c r="Y108" s="24"/>
+      <c r="Z108" s="24"/>
+      <c r="AA108" s="24"/>
+      <c r="AB108" s="24"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="24"/>
+      <c r="AF108" s="24"/>
+      <c r="AG108" s="24"/>
+      <c r="AH108" s="24"/>
+      <c r="AI108" s="26"/>
+      <c r="AJ108" s="26"/>
+      <c r="AK108" s="26"/>
+      <c r="AL108" s="26"/>
+    </row>
+    <row r="109" spans="1:38" ht="12" customHeight="1">
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="35"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="53"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="36"/>
-      <c r="U110" s="36"/>
-      <c r="V110" s="36"/>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="36"/>
-      <c r="AA110" s="36"/>
-      <c r="AB110" s="36"/>
-      <c r="AC110" s="36"/>
-      <c r="AD110" s="36"/>
-      <c r="AE110" s="36"/>
-      <c r="AF110" s="36"/>
-      <c r="AG110" s="36"/>
-      <c r="AH110" s="36"/>
-      <c r="AI110" s="37"/>
-      <c r="AJ110" s="37"/>
-      <c r="AK110" s="37"/>
-      <c r="AL110" s="37"/>
-    </row>
-    <row r="111" spans="1:38" ht="12" customHeight="1">
-      <c r="A111" s="66">
-        <v>3</v>
+      <c r="G109" s="28"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="47"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="29"/>
+      <c r="AA109" s="29"/>
+      <c r="AB109" s="29"/>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="29"/>
+      <c r="AE109" s="29"/>
+      <c r="AF109" s="29"/>
+      <c r="AG109" s="29"/>
+      <c r="AH109" s="29"/>
+      <c r="AI109" s="41"/>
+      <c r="AJ109" s="41"/>
+      <c r="AK109" s="41"/>
+      <c r="AL109" s="41"/>
+    </row>
+    <row r="110" spans="1:38" ht="12" customHeight="1">
+      <c r="A110" s="66">
+        <v>6</v>
       </c>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="21" t="s">
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="24"/>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="24"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="24"/>
-      <c r="U111" s="24"/>
-      <c r="V111" s="24"/>
-      <c r="W111" s="24"/>
-      <c r="X111" s="24"/>
-      <c r="Y111" s="24"/>
-      <c r="Z111" s="24"/>
-      <c r="AA111" s="24"/>
-      <c r="AB111" s="24"/>
-      <c r="AC111" s="24"/>
-      <c r="AD111" s="24"/>
-      <c r="AE111" s="24"/>
-      <c r="AF111" s="24"/>
-      <c r="AG111" s="24"/>
-      <c r="AH111" s="24"/>
-      <c r="AI111" s="26"/>
-      <c r="AJ111" s="26"/>
-      <c r="AK111" s="26"/>
-      <c r="AL111" s="26"/>
-    </row>
-    <row r="112" spans="1:38" ht="12" customHeight="1">
-      <c r="A112" s="67"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="38" t="s">
+      <c r="G110" s="33"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+      <c r="X110" s="32"/>
+      <c r="Y110" s="32"/>
+      <c r="Z110" s="32"/>
+      <c r="AA110" s="32"/>
+      <c r="AB110" s="32"/>
+      <c r="AC110" s="32"/>
+      <c r="AD110" s="32"/>
+      <c r="AE110" s="32"/>
+      <c r="AF110" s="32"/>
+      <c r="AG110" s="32"/>
+      <c r="AH110" s="32"/>
+      <c r="AI110" s="10"/>
+      <c r="AJ110" s="10"/>
+      <c r="AK110" s="10"/>
+      <c r="AL110" s="10"/>
+    </row>
+    <row r="111" spans="1:38" ht="12" customHeight="1">
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="39"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
-      <c r="L112" s="40"/>
-      <c r="M112" s="40"/>
-      <c r="N112" s="40"/>
-      <c r="O112" s="40"/>
-      <c r="P112" s="40"/>
-      <c r="Q112" s="40"/>
-      <c r="R112" s="54"/>
-      <c r="S112" s="50"/>
-      <c r="T112" s="40"/>
-      <c r="U112" s="40"/>
-      <c r="V112" s="40"/>
-      <c r="W112" s="40"/>
-      <c r="X112" s="40"/>
-      <c r="Y112" s="40"/>
-      <c r="Z112" s="40"/>
-      <c r="AA112" s="40"/>
-      <c r="AB112" s="40"/>
-      <c r="AC112" s="40"/>
-      <c r="AD112" s="40"/>
-      <c r="AE112" s="40"/>
-      <c r="AF112" s="40"/>
-      <c r="AG112" s="40"/>
-      <c r="AH112" s="40"/>
-      <c r="AI112" s="30"/>
-      <c r="AJ112" s="30"/>
-      <c r="AK112" s="30"/>
-      <c r="AL112" s="30"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
+      <c r="O111" s="43"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="43"/>
+      <c r="R111" s="43"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="43"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="43"/>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="43"/>
+      <c r="AB111" s="43"/>
+      <c r="AC111" s="43"/>
+      <c r="AD111" s="43"/>
+      <c r="AE111" s="43"/>
+      <c r="AF111" s="43"/>
+      <c r="AG111" s="43"/>
+      <c r="AH111" s="43"/>
+      <c r="AI111" s="12"/>
+      <c r="AJ111" s="12"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="12"/>
+    </row>
+    <row r="112" spans="1:38" ht="12" customHeight="1">
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="Q112" s="16"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="16"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="16"/>
+      <c r="W112" s="16"/>
+      <c r="X112" s="16"/>
+      <c r="Y112" s="16"/>
+      <c r="Z112" s="16"/>
+      <c r="AA112" s="16"/>
+      <c r="AB112" s="16"/>
+      <c r="AC112" s="16"/>
+      <c r="AD112" s="16"/>
+      <c r="AE112" s="16"/>
+      <c r="AF112" s="16"/>
+      <c r="AG112" s="16"/>
+      <c r="AH112" s="16"/>
+      <c r="AI112" s="20"/>
+      <c r="AJ112" s="20"/>
+      <c r="AK112" s="20"/>
+      <c r="AL112" s="20"/>
     </row>
     <row r="113" spans="1:38" ht="12" customHeight="1">
       <c r="A113" s="66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B113" s="70"/>
       <c r="C113" s="70"/>
       <c r="D113" s="70"/>
       <c r="E113" s="70"/>
-      <c r="F113" s="31" t="s">
+      <c r="F113" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G113" s="33"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="48"/>
-      <c r="T113" s="32"/>
-      <c r="U113" s="32"/>
-      <c r="V113" s="32"/>
-      <c r="W113" s="32"/>
-      <c r="X113" s="32"/>
-      <c r="Y113" s="32"/>
-      <c r="Z113" s="32"/>
-      <c r="AA113" s="32"/>
-      <c r="AB113" s="32"/>
-      <c r="AC113" s="32"/>
-      <c r="AD113" s="32"/>
-      <c r="AE113" s="32"/>
-      <c r="AF113" s="32"/>
-      <c r="AG113" s="32"/>
-      <c r="AH113" s="32"/>
-      <c r="AI113" s="10"/>
-      <c r="AJ113" s="10"/>
-      <c r="AK113" s="10"/>
-      <c r="AL113" s="10"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="24"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="24"/>
+      <c r="W113" s="24"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="24"/>
+      <c r="Z113" s="24"/>
+      <c r="AA113" s="24"/>
+      <c r="AB113" s="24"/>
+      <c r="AC113" s="24"/>
+      <c r="AD113" s="24"/>
+      <c r="AE113" s="24"/>
+      <c r="AF113" s="24"/>
+      <c r="AG113" s="24"/>
+      <c r="AH113" s="24"/>
+      <c r="AI113" s="26"/>
+      <c r="AJ113" s="26"/>
+      <c r="AK113" s="26"/>
+      <c r="AL113" s="26"/>
     </row>
     <row r="114" spans="1:38" ht="12" customHeight="1">
       <c r="A114" s="67"/>
@@ -6725,281 +6798,299 @@
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>
       <c r="E114" s="67"/>
-      <c r="F114" s="38" t="s">
+      <c r="F114" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="39"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
-      <c r="L114" s="40"/>
-      <c r="M114" s="40"/>
-      <c r="N114" s="40"/>
-      <c r="O114" s="40"/>
-      <c r="P114" s="40"/>
-      <c r="Q114" s="40"/>
-      <c r="R114" s="54"/>
-      <c r="S114" s="50"/>
-      <c r="T114" s="40"/>
-      <c r="U114" s="40"/>
-      <c r="V114" s="40"/>
-      <c r="W114" s="40"/>
-      <c r="X114" s="40"/>
-      <c r="Y114" s="40"/>
-      <c r="Z114" s="40"/>
-      <c r="AA114" s="40"/>
-      <c r="AB114" s="40"/>
-      <c r="AC114" s="40"/>
-      <c r="AD114" s="40"/>
-      <c r="AE114" s="40"/>
-      <c r="AF114" s="40"/>
-      <c r="AG114" s="40"/>
-      <c r="AH114" s="40"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="47"/>
+      <c r="T114" s="29"/>
+      <c r="U114" s="29"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="29"/>
+      <c r="AA114" s="29"/>
+      <c r="AB114" s="29"/>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="29"/>
+      <c r="AE114" s="29"/>
+      <c r="AF114" s="29"/>
+      <c r="AG114" s="29"/>
+      <c r="AH114" s="29"/>
       <c r="AI114" s="30"/>
       <c r="AJ114" s="30"/>
       <c r="AK114" s="30"/>
       <c r="AL114" s="30"/>
     </row>
-    <row r="115" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A115" s="6"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
-      <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
-      <c r="AC115" s="2"/>
-      <c r="AD115" s="2"/>
-      <c r="AE115" s="2"/>
-      <c r="AF115" s="2"/>
-      <c r="AG115" s="2"/>
-      <c r="AH115" s="2"/>
-      <c r="AI115" s="2"/>
-      <c r="AJ115" s="2"/>
-      <c r="AK115" s="2"/>
-      <c r="AL115" s="2"/>
-    </row>
-    <row r="116" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A116" s="6"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
-      <c r="AB116" s="2"/>
-      <c r="AC116" s="2"/>
-      <c r="AD116" s="2"/>
-      <c r="AE116" s="2"/>
-      <c r="AF116" s="2"/>
-      <c r="AG116" s="2"/>
-      <c r="AH116" s="2"/>
-      <c r="AI116" s="2"/>
-      <c r="AJ116" s="2"/>
-      <c r="AK116" s="2"/>
-      <c r="AL116" s="2"/>
-    </row>
-    <row r="117" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
-      <c r="AB117" s="2"/>
-      <c r="AC117" s="2"/>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="2"/>
-      <c r="AF117" s="2"/>
-      <c r="AG117" s="2"/>
-      <c r="AH117" s="2"/>
-      <c r="AI117" s="2"/>
-      <c r="AJ117" s="2"/>
-      <c r="AK117" s="2"/>
-      <c r="AL117" s="2"/>
-    </row>
-    <row r="118" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
-      <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
-      <c r="AC118" s="2"/>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="2"/>
-      <c r="AF118" s="2"/>
-      <c r="AG118" s="2"/>
-      <c r="AH118" s="2"/>
-      <c r="AI118" s="2"/>
-      <c r="AJ118" s="2"/>
-      <c r="AK118" s="2"/>
-      <c r="AL118" s="2"/>
-    </row>
-    <row r="119" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A119" s="6"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
-      <c r="AB119" s="2"/>
-      <c r="AC119" s="2"/>
-      <c r="AD119" s="2"/>
-      <c r="AE119" s="2"/>
-      <c r="AF119" s="2"/>
-      <c r="AG119" s="2"/>
-      <c r="AH119" s="2"/>
-      <c r="AI119" s="2"/>
-      <c r="AJ119" s="2"/>
-      <c r="AK119" s="2"/>
-      <c r="AL119" s="2"/>
-    </row>
-    <row r="120" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2"/>
-      <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
-      <c r="AA120" s="2"/>
-      <c r="AB120" s="2"/>
-      <c r="AC120" s="2"/>
-      <c r="AD120" s="2"/>
-      <c r="AE120" s="2"/>
-      <c r="AF120" s="2"/>
-      <c r="AG120" s="2"/>
-      <c r="AH120" s="2"/>
-      <c r="AI120" s="2"/>
-      <c r="AJ120" s="2"/>
-      <c r="AK120" s="2"/>
-      <c r="AL120" s="2"/>
+    <row r="115" spans="1:38" ht="12" customHeight="1">
+      <c r="A115" s="66">
+        <v>2</v>
+      </c>
+      <c r="B115" s="70"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="33"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="32"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="48"/>
+      <c r="T115" s="32"/>
+      <c r="U115" s="32"/>
+      <c r="V115" s="32"/>
+      <c r="W115" s="32"/>
+      <c r="X115" s="32"/>
+      <c r="Y115" s="32"/>
+      <c r="Z115" s="32"/>
+      <c r="AA115" s="32"/>
+      <c r="AB115" s="32"/>
+      <c r="AC115" s="32"/>
+      <c r="AD115" s="32"/>
+      <c r="AE115" s="32"/>
+      <c r="AF115" s="32"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+      <c r="AI115" s="10"/>
+      <c r="AJ115" s="10"/>
+      <c r="AK115" s="10"/>
+      <c r="AL115" s="10"/>
+    </row>
+    <row r="116" spans="1:38" ht="12" customHeight="1">
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="35"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="36"/>
+      <c r="R116" s="53"/>
+      <c r="S116" s="49"/>
+      <c r="T116" s="36"/>
+      <c r="U116" s="36"/>
+      <c r="V116" s="36"/>
+      <c r="W116" s="36"/>
+      <c r="X116" s="36"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="36"/>
+      <c r="AA116" s="36"/>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="36"/>
+      <c r="AE116" s="36"/>
+      <c r="AF116" s="36"/>
+      <c r="AG116" s="36"/>
+      <c r="AH116" s="36"/>
+      <c r="AI116" s="37"/>
+      <c r="AJ116" s="37"/>
+      <c r="AK116" s="37"/>
+      <c r="AL116" s="37"/>
+    </row>
+    <row r="117" spans="1:38" ht="12" customHeight="1">
+      <c r="A117" s="66">
+        <v>3</v>
+      </c>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="25"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+      <c r="R117" s="24"/>
+      <c r="S117" s="46"/>
+      <c r="T117" s="24"/>
+      <c r="U117" s="24"/>
+      <c r="V117" s="24"/>
+      <c r="W117" s="24"/>
+      <c r="X117" s="24"/>
+      <c r="Y117" s="24"/>
+      <c r="Z117" s="24"/>
+      <c r="AA117" s="24"/>
+      <c r="AB117" s="24"/>
+      <c r="AC117" s="24"/>
+      <c r="AD117" s="24"/>
+      <c r="AE117" s="24"/>
+      <c r="AF117" s="24"/>
+      <c r="AG117" s="24"/>
+      <c r="AH117" s="24"/>
+      <c r="AI117" s="26"/>
+      <c r="AJ117" s="26"/>
+      <c r="AK117" s="26"/>
+      <c r="AL117" s="26"/>
+    </row>
+    <row r="118" spans="1:38" ht="12" customHeight="1">
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="39"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="54"/>
+      <c r="S118" s="50"/>
+      <c r="T118" s="40"/>
+      <c r="U118" s="40"/>
+      <c r="V118" s="40"/>
+      <c r="W118" s="40"/>
+      <c r="X118" s="40"/>
+      <c r="Y118" s="40"/>
+      <c r="Z118" s="40"/>
+      <c r="AA118" s="40"/>
+      <c r="AB118" s="40"/>
+      <c r="AC118" s="40"/>
+      <c r="AD118" s="40"/>
+      <c r="AE118" s="40"/>
+      <c r="AF118" s="40"/>
+      <c r="AG118" s="40"/>
+      <c r="AH118" s="40"/>
+      <c r="AI118" s="30"/>
+      <c r="AJ118" s="30"/>
+      <c r="AK118" s="30"/>
+      <c r="AL118" s="30"/>
+    </row>
+    <row r="119" spans="1:38" ht="12" customHeight="1">
+      <c r="A119" s="66">
+        <v>4</v>
+      </c>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="33"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="32"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="32"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="48"/>
+      <c r="T119" s="32"/>
+      <c r="U119" s="32"/>
+      <c r="V119" s="32"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="32"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="32"/>
+      <c r="AD119" s="32"/>
+      <c r="AE119" s="32"/>
+      <c r="AF119" s="32"/>
+      <c r="AG119" s="32"/>
+      <c r="AH119" s="32"/>
+      <c r="AI119" s="10"/>
+      <c r="AJ119" s="10"/>
+      <c r="AK119" s="10"/>
+      <c r="AL119" s="10"/>
+    </row>
+    <row r="120" spans="1:38" ht="12" customHeight="1">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="39"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="40"/>
+      <c r="Q120" s="40"/>
+      <c r="R120" s="54"/>
+      <c r="S120" s="50"/>
+      <c r="T120" s="40"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="40"/>
+      <c r="X120" s="40"/>
+      <c r="Y120" s="40"/>
+      <c r="Z120" s="40"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="40"/>
+      <c r="AD120" s="40"/>
+      <c r="AE120" s="40"/>
+      <c r="AF120" s="40"/>
+      <c r="AG120" s="40"/>
+      <c r="AH120" s="40"/>
+      <c r="AI120" s="30"/>
+      <c r="AJ120" s="30"/>
+      <c r="AK120" s="30"/>
+      <c r="AL120" s="30"/>
     </row>
     <row r="121" spans="1:38" ht="13.5" customHeight="1">
       <c r="A121" s="6"/>
@@ -43401,128 +43492,409 @@
       <c r="AK1030" s="2"/>
       <c r="AL1030" s="2"/>
     </row>
+    <row r="1031" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1031" s="6"/>
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="3"/>
+      <c r="D1031" s="4"/>
+      <c r="E1031" s="4"/>
+      <c r="F1031" s="4"/>
+      <c r="G1031" s="2"/>
+      <c r="H1031" s="2"/>
+      <c r="I1031" s="2"/>
+      <c r="J1031" s="2"/>
+      <c r="K1031" s="2"/>
+      <c r="L1031" s="2"/>
+      <c r="M1031" s="2"/>
+      <c r="N1031" s="2"/>
+      <c r="O1031" s="2"/>
+      <c r="P1031" s="2"/>
+      <c r="Q1031" s="2"/>
+      <c r="R1031" s="2"/>
+      <c r="S1031" s="2"/>
+      <c r="T1031" s="2"/>
+      <c r="U1031" s="2"/>
+      <c r="V1031" s="2"/>
+      <c r="W1031" s="2"/>
+      <c r="X1031" s="2"/>
+      <c r="Y1031" s="2"/>
+      <c r="Z1031" s="2"/>
+      <c r="AA1031" s="2"/>
+      <c r="AB1031" s="2"/>
+      <c r="AC1031" s="2"/>
+      <c r="AD1031" s="2"/>
+      <c r="AE1031" s="2"/>
+      <c r="AF1031" s="2"/>
+      <c r="AG1031" s="2"/>
+      <c r="AH1031" s="2"/>
+      <c r="AI1031" s="2"/>
+      <c r="AJ1031" s="2"/>
+      <c r="AK1031" s="2"/>
+      <c r="AL1031" s="2"/>
+    </row>
+    <row r="1032" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1032" s="6"/>
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="3"/>
+      <c r="D1032" s="4"/>
+      <c r="E1032" s="4"/>
+      <c r="F1032" s="4"/>
+      <c r="G1032" s="2"/>
+      <c r="H1032" s="2"/>
+      <c r="I1032" s="2"/>
+      <c r="J1032" s="2"/>
+      <c r="K1032" s="2"/>
+      <c r="L1032" s="2"/>
+      <c r="M1032" s="2"/>
+      <c r="N1032" s="2"/>
+      <c r="O1032" s="2"/>
+      <c r="P1032" s="2"/>
+      <c r="Q1032" s="2"/>
+      <c r="R1032" s="2"/>
+      <c r="S1032" s="2"/>
+      <c r="T1032" s="2"/>
+      <c r="U1032" s="2"/>
+      <c r="V1032" s="2"/>
+      <c r="W1032" s="2"/>
+      <c r="X1032" s="2"/>
+      <c r="Y1032" s="2"/>
+      <c r="Z1032" s="2"/>
+      <c r="AA1032" s="2"/>
+      <c r="AB1032" s="2"/>
+      <c r="AC1032" s="2"/>
+      <c r="AD1032" s="2"/>
+      <c r="AE1032" s="2"/>
+      <c r="AF1032" s="2"/>
+      <c r="AG1032" s="2"/>
+      <c r="AH1032" s="2"/>
+      <c r="AI1032" s="2"/>
+      <c r="AJ1032" s="2"/>
+      <c r="AK1032" s="2"/>
+      <c r="AL1032" s="2"/>
+    </row>
+    <row r="1033" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1033" s="6"/>
+      <c r="B1033" s="2"/>
+      <c r="C1033" s="3"/>
+      <c r="D1033" s="4"/>
+      <c r="E1033" s="4"/>
+      <c r="F1033" s="4"/>
+      <c r="G1033" s="2"/>
+      <c r="H1033" s="2"/>
+      <c r="I1033" s="2"/>
+      <c r="J1033" s="2"/>
+      <c r="K1033" s="2"/>
+      <c r="L1033" s="2"/>
+      <c r="M1033" s="2"/>
+      <c r="N1033" s="2"/>
+      <c r="O1033" s="2"/>
+      <c r="P1033" s="2"/>
+      <c r="Q1033" s="2"/>
+      <c r="R1033" s="2"/>
+      <c r="S1033" s="2"/>
+      <c r="T1033" s="2"/>
+      <c r="U1033" s="2"/>
+      <c r="V1033" s="2"/>
+      <c r="W1033" s="2"/>
+      <c r="X1033" s="2"/>
+      <c r="Y1033" s="2"/>
+      <c r="Z1033" s="2"/>
+      <c r="AA1033" s="2"/>
+      <c r="AB1033" s="2"/>
+      <c r="AC1033" s="2"/>
+      <c r="AD1033" s="2"/>
+      <c r="AE1033" s="2"/>
+      <c r="AF1033" s="2"/>
+      <c r="AG1033" s="2"/>
+      <c r="AH1033" s="2"/>
+      <c r="AI1033" s="2"/>
+      <c r="AJ1033" s="2"/>
+      <c r="AK1033" s="2"/>
+      <c r="AL1033" s="2"/>
+    </row>
+    <row r="1034" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1034" s="6"/>
+      <c r="B1034" s="2"/>
+      <c r="C1034" s="3"/>
+      <c r="D1034" s="4"/>
+      <c r="E1034" s="4"/>
+      <c r="F1034" s="4"/>
+      <c r="G1034" s="2"/>
+      <c r="H1034" s="2"/>
+      <c r="I1034" s="2"/>
+      <c r="J1034" s="2"/>
+      <c r="K1034" s="2"/>
+      <c r="L1034" s="2"/>
+      <c r="M1034" s="2"/>
+      <c r="N1034" s="2"/>
+      <c r="O1034" s="2"/>
+      <c r="P1034" s="2"/>
+      <c r="Q1034" s="2"/>
+      <c r="R1034" s="2"/>
+      <c r="S1034" s="2"/>
+      <c r="T1034" s="2"/>
+      <c r="U1034" s="2"/>
+      <c r="V1034" s="2"/>
+      <c r="W1034" s="2"/>
+      <c r="X1034" s="2"/>
+      <c r="Y1034" s="2"/>
+      <c r="Z1034" s="2"/>
+      <c r="AA1034" s="2"/>
+      <c r="AB1034" s="2"/>
+      <c r="AC1034" s="2"/>
+      <c r="AD1034" s="2"/>
+      <c r="AE1034" s="2"/>
+      <c r="AF1034" s="2"/>
+      <c r="AG1034" s="2"/>
+      <c r="AH1034" s="2"/>
+      <c r="AI1034" s="2"/>
+      <c r="AJ1034" s="2"/>
+      <c r="AK1034" s="2"/>
+      <c r="AL1034" s="2"/>
+    </row>
+    <row r="1035" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1035" s="6"/>
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="3"/>
+      <c r="D1035" s="4"/>
+      <c r="E1035" s="4"/>
+      <c r="F1035" s="4"/>
+      <c r="G1035" s="2"/>
+      <c r="H1035" s="2"/>
+      <c r="I1035" s="2"/>
+      <c r="J1035" s="2"/>
+      <c r="K1035" s="2"/>
+      <c r="L1035" s="2"/>
+      <c r="M1035" s="2"/>
+      <c r="N1035" s="2"/>
+      <c r="O1035" s="2"/>
+      <c r="P1035" s="2"/>
+      <c r="Q1035" s="2"/>
+      <c r="R1035" s="2"/>
+      <c r="S1035" s="2"/>
+      <c r="T1035" s="2"/>
+      <c r="U1035" s="2"/>
+      <c r="V1035" s="2"/>
+      <c r="W1035" s="2"/>
+      <c r="X1035" s="2"/>
+      <c r="Y1035" s="2"/>
+      <c r="Z1035" s="2"/>
+      <c r="AA1035" s="2"/>
+      <c r="AB1035" s="2"/>
+      <c r="AC1035" s="2"/>
+      <c r="AD1035" s="2"/>
+      <c r="AE1035" s="2"/>
+      <c r="AF1035" s="2"/>
+      <c r="AG1035" s="2"/>
+      <c r="AH1035" s="2"/>
+      <c r="AI1035" s="2"/>
+      <c r="AJ1035" s="2"/>
+      <c r="AK1035" s="2"/>
+      <c r="AL1035" s="2"/>
+    </row>
+    <row r="1036" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1036" s="6"/>
+      <c r="B1036" s="2"/>
+      <c r="C1036" s="3"/>
+      <c r="D1036" s="4"/>
+      <c r="E1036" s="4"/>
+      <c r="F1036" s="4"/>
+      <c r="G1036" s="2"/>
+      <c r="H1036" s="2"/>
+      <c r="I1036" s="2"/>
+      <c r="J1036" s="2"/>
+      <c r="K1036" s="2"/>
+      <c r="L1036" s="2"/>
+      <c r="M1036" s="2"/>
+      <c r="N1036" s="2"/>
+      <c r="O1036" s="2"/>
+      <c r="P1036" s="2"/>
+      <c r="Q1036" s="2"/>
+      <c r="R1036" s="2"/>
+      <c r="S1036" s="2"/>
+      <c r="T1036" s="2"/>
+      <c r="U1036" s="2"/>
+      <c r="V1036" s="2"/>
+      <c r="W1036" s="2"/>
+      <c r="X1036" s="2"/>
+      <c r="Y1036" s="2"/>
+      <c r="Z1036" s="2"/>
+      <c r="AA1036" s="2"/>
+      <c r="AB1036" s="2"/>
+      <c r="AC1036" s="2"/>
+      <c r="AD1036" s="2"/>
+      <c r="AE1036" s="2"/>
+      <c r="AF1036" s="2"/>
+      <c r="AG1036" s="2"/>
+      <c r="AH1036" s="2"/>
+      <c r="AI1036" s="2"/>
+      <c r="AJ1036" s="2"/>
+      <c r="AK1036" s="2"/>
+      <c r="AL1036" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="290">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A87:A88"/>
+  <mergeCells count="305">
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="B100:B101"/>
     <mergeCell ref="E100:E101"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
     <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -43547,156 +43919,130 @@
     <mergeCell ref="G3:AL4"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E27 E29 E31 E78 E81 E83 E85 E87 E89 E91 E94 E96 E98 E100 E102 E104 E107 E109 E111 E113 E33 E35 E74 E76 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E64 E66 E68 E70 E72" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E27 E29 E31 E84 E87 E89 E91 E93 E95 E97 E100 E102 E104 E106 E108 E110 E113 E115 E117 E119 E33 E35 E74 E82 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E64 E66 E68 E70 E72 E76 E78 E80" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未着手,作成中,作成完了,レビュー中,レビュー完了,FIX"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D50464-F05E-4B4B-819C-67C6380D973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80B919-2278-4253-8324-C862F276AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="67">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -406,6 +406,45 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>削除確認・成功・失敗画面JSP修正</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除処理Servlet修正</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1103,6 +1142,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1306,20 +1388,26 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,25 +1466,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,13 +1696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1036"/>
+  <dimension ref="A1:AL1038"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P81" sqref="P81"/>
+      <selection pane="bottomRight" activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1717,162 +1799,162 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="83">
+      <c r="G3" s="85">
         <v>45627</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="87"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="90"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="82">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="84">
         <v>3</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71">
+      <c r="H5" s="74"/>
+      <c r="I5" s="73">
         <v>4</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="71">
+      <c r="J5" s="79"/>
+      <c r="K5" s="73">
         <v>5</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="71">
+      <c r="L5" s="79"/>
+      <c r="M5" s="73">
         <v>6</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="71">
+      <c r="N5" s="79"/>
+      <c r="O5" s="73">
         <v>9</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="71">
+      <c r="P5" s="79"/>
+      <c r="Q5" s="73">
         <v>10</v>
       </c>
-      <c r="R5" s="77"/>
-      <c r="S5" s="71">
+      <c r="R5" s="79"/>
+      <c r="S5" s="73">
         <v>11</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="71">
+      <c r="T5" s="79"/>
+      <c r="U5" s="73">
         <v>12</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="71">
+      <c r="V5" s="79"/>
+      <c r="W5" s="73">
         <v>13</v>
       </c>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="71">
+      <c r="X5" s="79"/>
+      <c r="Y5" s="73">
         <v>16</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="71">
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="73">
         <v>17</v>
       </c>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="71">
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="73">
         <v>18</v>
       </c>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="71">
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="73">
         <v>19</v>
       </c>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="71">
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="73">
         <v>20</v>
       </c>
-      <c r="AH5" s="72"/>
+      <c r="AH5" s="74"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
@@ -1884,63 +1966,63 @@
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="78" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="78" t="s">
+      <c r="H6" s="74"/>
+      <c r="I6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="78" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="78" t="s">
+      <c r="L6" s="74"/>
+      <c r="M6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="71" t="s">
+      <c r="N6" s="74"/>
+      <c r="O6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="71" t="s">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="71" t="s">
+      <c r="R6" s="74"/>
+      <c r="S6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="71" t="s">
+      <c r="T6" s="74"/>
+      <c r="U6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="72"/>
-      <c r="W6" s="71" t="s">
+      <c r="V6" s="74"/>
+      <c r="W6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="71" t="s">
+      <c r="X6" s="74"/>
+      <c r="Y6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="71" t="s">
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="71" t="s">
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="71" t="s">
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="71" t="s">
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="72"/>
+      <c r="AH6" s="74"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -1989,13 +2071,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A8" s="66">
+      <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -2075,13 +2157,13 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A10" s="66">
+      <c r="A10" s="68">
         <v>2</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="31" t="s">
         <v>13</v>
       </c>
@@ -2161,13 +2243,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="68">
         <v>3</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2247,13 +2329,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A14" s="66">
+      <c r="A14" s="68">
         <v>4</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2333,13 +2415,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A16" s="66">
+      <c r="A16" s="68">
         <v>5</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2419,13 +2501,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A18" s="66">
+      <c r="A18" s="68">
         <v>6</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2505,13 +2587,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A20" s="66">
+      <c r="A20" s="68">
         <v>7</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2591,13 +2673,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A22" s="66">
+      <c r="A22" s="68">
         <v>8</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2719,19 +2801,19 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="66">
+      <c r="A25" s="68">
         <v>1</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -2772,7 +2854,7 @@
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
       <c r="A26" s="67"/>
-      <c r="B26" s="91"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
@@ -2813,19 +2895,19 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="66">
+      <c r="A27" s="68">
         <v>2</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2866,7 +2948,7 @@
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
       <c r="A28" s="67"/>
-      <c r="B28" s="91"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -2907,19 +2989,19 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="66">
+      <c r="A29" s="68">
         <v>3</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -2960,7 +3042,7 @@
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="69"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
@@ -3001,19 +3083,19 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="66">
+      <c r="A31" s="68">
         <v>4</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="21" t="s">
@@ -3054,7 +3136,7 @@
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
       <c r="A32" s="67"/>
-      <c r="B32" s="91"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -3095,19 +3177,19 @@
       <c r="AL32" s="30"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="66">
+      <c r="A33" s="68">
         <v>5</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="31" t="s">
@@ -3148,7 +3230,7 @@
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
       <c r="A34" s="67"/>
-      <c r="B34" s="91"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
@@ -3189,19 +3271,19 @@
       <c r="AL34" s="37"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="66">
+      <c r="A35" s="68">
         <v>6</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -3242,7 +3324,7 @@
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
       <c r="A36" s="67"/>
-      <c r="B36" s="69"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
@@ -3283,19 +3365,19 @@
       <c r="AL36" s="30"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="66">
+      <c r="A37" s="68">
         <v>7</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -3336,7 +3418,7 @@
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
       <c r="A38" s="67"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
@@ -3377,19 +3459,19 @@
       <c r="AL38" s="30"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="66">
+      <c r="A39" s="68">
         <v>8</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="31" t="s">
@@ -3430,7 +3512,7 @@
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
       <c r="A40" s="67"/>
-      <c r="B40" s="91"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
@@ -3471,19 +3553,19 @@
       <c r="AL40" s="37"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="66">
+      <c r="A41" s="68">
         <v>9</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="21" t="s">
@@ -3524,7 +3606,7 @@
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
       <c r="A42" s="67"/>
-      <c r="B42" s="69"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
@@ -3565,19 +3647,19 @@
       <c r="AL42" s="30"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="66">
+      <c r="A43" s="68">
         <v>10</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="21" t="s">
@@ -3618,7 +3700,7 @@
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
       <c r="A44" s="67"/>
-      <c r="B44" s="69"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
@@ -3659,19 +3741,19 @@
       <c r="AL44" s="30"/>
     </row>
     <row r="45" spans="1:38" ht="12" customHeight="1">
-      <c r="A45" s="66">
+      <c r="A45" s="68">
         <v>11</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -3712,7 +3794,7 @@
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
       <c r="A46" s="67"/>
-      <c r="B46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
       <c r="E46" s="67"/>
@@ -3753,19 +3835,19 @@
       <c r="AL46" s="30"/>
     </row>
     <row r="47" spans="1:38" ht="12" customHeight="1">
-      <c r="A47" s="66">
+      <c r="A47" s="68">
         <v>12</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="21" t="s">
@@ -3806,7 +3888,7 @@
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
       <c r="A48" s="67"/>
-      <c r="B48" s="69"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -3847,19 +3929,19 @@
       <c r="AL48" s="30"/>
     </row>
     <row r="49" spans="1:38" ht="12" customHeight="1">
-      <c r="A49" s="66">
+      <c r="A49" s="68">
         <v>12</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F49" s="21" t="s">
@@ -3900,7 +3982,7 @@
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
       <c r="A50" s="67"/>
-      <c r="B50" s="69"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
       <c r="E50" s="67"/>
@@ -3941,19 +4023,19 @@
       <c r="AL50" s="30"/>
     </row>
     <row r="51" spans="1:38" ht="12" customHeight="1">
-      <c r="A51" s="66">
+      <c r="A51" s="68">
         <v>12</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E51" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -3994,7 +4076,7 @@
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
       <c r="A52" s="67"/>
-      <c r="B52" s="69"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="67"/>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
@@ -4035,19 +4117,19 @@
       <c r="AL52" s="30"/>
     </row>
     <row r="53" spans="1:38" ht="12" customHeight="1">
-      <c r="A53" s="66">
+      <c r="A53" s="68">
         <v>12</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -4088,7 +4170,7 @@
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="69"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
@@ -4129,19 +4211,19 @@
       <c r="AL54" s="30"/>
     </row>
     <row r="55" spans="1:38" ht="12" customHeight="1">
-      <c r="A55" s="66">
+      <c r="A55" s="68">
         <v>12</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -4182,7 +4264,7 @@
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="69"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
       <c r="E56" s="67"/>
@@ -4223,19 +4305,19 @@
       <c r="AL56" s="30"/>
     </row>
     <row r="57" spans="1:38" ht="12" customHeight="1">
-      <c r="A57" s="66">
+      <c r="A57" s="68">
         <v>12</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -4276,7 +4358,7 @@
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="69"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="67"/>
       <c r="D58" s="67"/>
       <c r="E58" s="67"/>
@@ -4317,19 +4399,19 @@
       <c r="AL58" s="30"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="66">
+      <c r="A59" s="68">
         <v>12</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="70" t="s">
+      <c r="E59" s="66" t="s">
         <v>49</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -4370,7 +4452,7 @@
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
       <c r="A60" s="67"/>
-      <c r="B60" s="69"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="67"/>
       <c r="D60" s="67"/>
       <c r="E60" s="67"/>
@@ -4453,19 +4535,19 @@
       <c r="AL61" s="20"/>
     </row>
     <row r="62" spans="1:38" ht="12" customHeight="1">
-      <c r="A62" s="66">
+      <c r="A62" s="68">
         <v>1</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="70" t="s">
+      <c r="E62" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -4547,19 +4629,19 @@
       <c r="AL63" s="30"/>
     </row>
     <row r="64" spans="1:38" ht="12" customHeight="1">
-      <c r="A64" s="66">
+      <c r="A64" s="68">
         <v>2</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="D64" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E64" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="31" t="s">
@@ -4600,7 +4682,7 @@
     </row>
     <row r="65" spans="1:38" ht="12" customHeight="1">
       <c r="A65" s="67"/>
-      <c r="B65" s="69"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="67"/>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
@@ -4641,19 +4723,19 @@
       <c r="AL65" s="37"/>
     </row>
     <row r="66" spans="1:38" ht="12" customHeight="1">
-      <c r="A66" s="66">
+      <c r="A66" s="68">
         <v>3</v>
       </c>
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="21" t="s">
@@ -4694,7 +4776,7 @@
     </row>
     <row r="67" spans="1:38" ht="12" customHeight="1">
       <c r="A67" s="67"/>
-      <c r="B67" s="69"/>
+      <c r="B67" s="72"/>
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
@@ -4735,19 +4817,19 @@
       <c r="AL67" s="30"/>
     </row>
     <row r="68" spans="1:38" ht="12" customHeight="1">
-      <c r="A68" s="66">
+      <c r="A68" s="68">
         <v>4</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="31" t="s">
@@ -4788,7 +4870,7 @@
     </row>
     <row r="69" spans="1:38" ht="12" customHeight="1">
       <c r="A69" s="67"/>
-      <c r="B69" s="69"/>
+      <c r="B69" s="72"/>
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
@@ -4829,19 +4911,19 @@
       <c r="AL69" s="37"/>
     </row>
     <row r="70" spans="1:38" ht="12" customHeight="1">
-      <c r="A70" s="66">
+      <c r="A70" s="68">
         <v>5</v>
       </c>
-      <c r="B70" s="68" t="s">
+      <c r="B70" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="70" t="s">
+      <c r="E70" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F70" s="21" t="s">
@@ -4882,7 +4964,7 @@
     </row>
     <row r="71" spans="1:38" ht="12" customHeight="1">
       <c r="A71" s="67"/>
-      <c r="B71" s="69"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="67"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -4923,19 +5005,19 @@
       <c r="AL71" s="30"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="66">
+      <c r="A72" s="68">
         <v>6</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="70" t="s">
+      <c r="D72" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="70" t="s">
+      <c r="E72" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F72" s="31" t="s">
@@ -5017,19 +5099,19 @@
       <c r="AL73" s="37"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="66">
+      <c r="A74" s="68">
         <v>7</v>
       </c>
-      <c r="B74" s="68" t="s">
+      <c r="B74" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D74" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="E74" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -5070,7 +5152,7 @@
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
       <c r="A75" s="67"/>
-      <c r="B75" s="69"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="67"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>
@@ -5111,19 +5193,19 @@
       <c r="AL75" s="30"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="66">
+      <c r="A76" s="68">
         <v>8</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="70" t="s">
+      <c r="E76" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F76" s="21" t="s">
@@ -5137,7 +5219,7 @@
       <c r="L76" s="24"/>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
-      <c r="O76" s="94"/>
+      <c r="O76" s="23"/>
       <c r="P76" s="57"/>
       <c r="Q76" s="23"/>
       <c r="R76" s="23"/>
@@ -5179,7 +5261,7 @@
       <c r="L77" s="29"/>
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
-      <c r="O77" s="93"/>
+      <c r="O77" s="29"/>
       <c r="P77" s="59"/>
       <c r="Q77" s="29"/>
       <c r="R77" s="29"/>
@@ -5205,19 +5287,19 @@
       <c r="AL77" s="30"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="66">
+      <c r="A78" s="68">
         <v>9</v>
       </c>
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="70" t="s">
+      <c r="C78" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F78" s="31" t="s">
@@ -5231,7 +5313,7 @@
       <c r="L78" s="32"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
-      <c r="O78" s="94"/>
+      <c r="O78" s="23"/>
       <c r="P78" s="57"/>
       <c r="Q78" s="23"/>
       <c r="R78" s="23"/>
@@ -5258,7 +5340,7 @@
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
       <c r="A79" s="67"/>
-      <c r="B79" s="69"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="67"/>
       <c r="D79" s="67"/>
       <c r="E79" s="67"/>
@@ -5273,7 +5355,7 @@
       <c r="L79" s="36"/>
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
-      <c r="O79" s="95"/>
+      <c r="O79" s="36"/>
       <c r="P79" s="65"/>
       <c r="Q79" s="36"/>
       <c r="R79" s="53"/>
@@ -5299,19 +5381,19 @@
       <c r="AL79" s="37"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="66">
+      <c r="A80" s="68">
         <v>10</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="70" t="s">
+      <c r="D80" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="70" t="s">
+      <c r="E80" s="66" t="s">
         <v>51</v>
       </c>
       <c r="F80" s="21" t="s">
@@ -5325,7 +5407,7 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
-      <c r="O80" s="92"/>
+      <c r="O80" s="24"/>
       <c r="P80" s="56"/>
       <c r="Q80" s="24"/>
       <c r="R80" s="24"/>
@@ -5352,7 +5434,7 @@
     </row>
     <row r="81" spans="1:38" ht="12" customHeight="1">
       <c r="A81" s="67"/>
-      <c r="B81" s="69"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="67"/>
       <c r="D81" s="67"/>
       <c r="E81" s="67"/>
@@ -5367,7 +5449,7 @@
       <c r="L81" s="40"/>
       <c r="M81" s="40"/>
       <c r="N81" s="40"/>
-      <c r="O81" s="96"/>
+      <c r="O81" s="40"/>
       <c r="P81" s="63"/>
       <c r="Q81" s="40"/>
       <c r="R81" s="54"/>
@@ -5393,13 +5475,21 @@
       <c r="AL81" s="30"/>
     </row>
     <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="66">
+      <c r="A82" s="68">
         <v>11</v>
       </c>
-      <c r="B82" s="68"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
+      <c r="B82" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="66" t="s">
+        <v>51</v>
+      </c>
       <c r="F82" s="31" t="s">
         <v>13</v>
       </c>
@@ -5414,13 +5504,13 @@
       <c r="O82" s="32"/>
       <c r="P82" s="32"/>
       <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
+      <c r="R82" s="61"/>
       <c r="S82" s="48"/>
       <c r="T82" s="32"/>
       <c r="U82" s="32"/>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
-      <c r="X82" s="92"/>
+      <c r="X82" s="24"/>
       <c r="Y82" s="32"/>
       <c r="Z82" s="32"/>
       <c r="AA82" s="32"/>
@@ -5438,675 +5528,683 @@
     </row>
     <row r="83" spans="1:38" ht="12" customHeight="1">
       <c r="A83" s="67"/>
-      <c r="B83" s="69"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="67"/>
       <c r="D83" s="67"/>
       <c r="E83" s="67"/>
       <c r="F83" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
-      <c r="AB83" s="36"/>
-      <c r="AC83" s="36"/>
-      <c r="AD83" s="36"/>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="36"/>
-      <c r="AG83" s="36"/>
-      <c r="AH83" s="36"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="93"/>
+      <c r="M83" s="93"/>
+      <c r="N83" s="93"/>
+      <c r="O83" s="93"/>
+      <c r="P83" s="93"/>
+      <c r="Q83" s="93"/>
+      <c r="R83" s="95"/>
+      <c r="S83" s="94"/>
+      <c r="T83" s="93"/>
+      <c r="U83" s="93"/>
+      <c r="V83" s="93"/>
+      <c r="W83" s="93"/>
+      <c r="X83" s="93"/>
+      <c r="Y83" s="93"/>
+      <c r="Z83" s="93"/>
+      <c r="AA83" s="93"/>
+      <c r="AB83" s="93"/>
+      <c r="AC83" s="93"/>
+      <c r="AD83" s="93"/>
+      <c r="AE83" s="93"/>
+      <c r="AF83" s="93"/>
+      <c r="AG83" s="93"/>
+      <c r="AH83" s="93"/>
       <c r="AI83" s="37"/>
       <c r="AJ83" s="37"/>
       <c r="AK83" s="37"/>
       <c r="AL83" s="37"/>
     </row>
     <row r="84" spans="1:38" ht="12" customHeight="1">
-      <c r="A84" s="66">
-        <v>12</v>
+      <c r="A84" s="68">
+        <v>11</v>
       </c>
-      <c r="B84" s="68" t="s">
-        <v>50</v>
+      <c r="B84" s="71" t="s">
+        <v>66</v>
       </c>
-      <c r="C84" s="70" t="s">
-        <v>55</v>
+      <c r="C84" s="66" t="s">
+        <v>65</v>
       </c>
-      <c r="D84" s="70" t="s">
+      <c r="D84" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="70" t="s">
-        <v>61</v>
+      <c r="E84" s="66" t="s">
+        <v>51</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="56"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="24"/>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="24"/>
-      <c r="AI84" s="26"/>
-      <c r="AJ84" s="26"/>
-      <c r="AK84" s="26"/>
-      <c r="AL84" s="26"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="48"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="32"/>
+      <c r="AE84" s="32"/>
+      <c r="AF84" s="32"/>
+      <c r="AG84" s="32"/>
+      <c r="AH84" s="32"/>
+      <c r="AI84" s="10"/>
+      <c r="AJ84" s="10"/>
+      <c r="AK84" s="10"/>
+      <c r="AL84" s="10"/>
     </row>
     <row r="85" spans="1:38" ht="12" customHeight="1">
       <c r="A85" s="67"/>
-      <c r="B85" s="69"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="67"/>
       <c r="D85" s="67"/>
       <c r="E85" s="67"/>
-      <c r="F85" s="38" t="s">
+      <c r="F85" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="28"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
-      <c r="AE85" s="29"/>
-      <c r="AF85" s="29"/>
-      <c r="AG85" s="29"/>
-      <c r="AH85" s="29"/>
-      <c r="AI85" s="41"/>
-      <c r="AJ85" s="41"/>
-      <c r="AK85" s="41"/>
-      <c r="AL85" s="41"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="96"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36"/>
+      <c r="Z85" s="36"/>
+      <c r="AA85" s="36"/>
+      <c r="AB85" s="36"/>
+      <c r="AC85" s="36"/>
+      <c r="AD85" s="36"/>
+      <c r="AE85" s="36"/>
+      <c r="AF85" s="36"/>
+      <c r="AG85" s="36"/>
+      <c r="AH85" s="36"/>
+      <c r="AI85" s="37"/>
+      <c r="AJ85" s="37"/>
+      <c r="AK85" s="37"/>
+      <c r="AL85" s="37"/>
     </row>
     <row r="86" spans="1:38" ht="12" customHeight="1">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="68">
+        <v>12</v>
+      </c>
+      <c r="B86" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="24"/>
+      <c r="AA86" s="24"/>
+      <c r="AB86" s="24"/>
+      <c r="AC86" s="24"/>
+      <c r="AD86" s="24"/>
+      <c r="AE86" s="24"/>
+      <c r="AF86" s="24"/>
+      <c r="AG86" s="24"/>
+      <c r="AH86" s="24"/>
+      <c r="AI86" s="26"/>
+      <c r="AJ86" s="26"/>
+      <c r="AK86" s="26"/>
+      <c r="AL86" s="26"/>
+    </row>
+    <row r="87" spans="1:38" ht="12" customHeight="1">
+      <c r="A87" s="67"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="29"/>
+      <c r="AG87" s="29"/>
+      <c r="AH87" s="29"/>
+      <c r="AI87" s="41"/>
+      <c r="AJ87" s="41"/>
+      <c r="AK87" s="41"/>
+      <c r="AL87" s="41"/>
+    </row>
+    <row r="88" spans="1:38" ht="12" customHeight="1">
+      <c r="A88" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
-      <c r="AA86" s="16"/>
-      <c r="AB86" s="16"/>
-      <c r="AC86" s="16"/>
-      <c r="AD86" s="16"/>
-      <c r="AE86" s="16"/>
-      <c r="AF86" s="16"/>
-      <c r="AG86" s="16"/>
-      <c r="AH86" s="16"/>
-      <c r="AI86" s="20"/>
-      <c r="AJ86" s="20"/>
-      <c r="AK86" s="20"/>
-      <c r="AL86" s="20"/>
-    </row>
-    <row r="87" spans="1:38" ht="12" customHeight="1">
-      <c r="A87" s="66">
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="16"/>
+      <c r="Z88" s="16"/>
+      <c r="AA88" s="16"/>
+      <c r="AB88" s="16"/>
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="16"/>
+      <c r="AE88" s="16"/>
+      <c r="AF88" s="16"/>
+      <c r="AG88" s="16"/>
+      <c r="AH88" s="16"/>
+      <c r="AI88" s="20"/>
+      <c r="AJ88" s="20"/>
+      <c r="AK88" s="20"/>
+      <c r="AL88" s="20"/>
+    </row>
+    <row r="89" spans="1:38" ht="12" customHeight="1">
+      <c r="A89" s="68">
         <v>1</v>
       </c>
-      <c r="B87" s="70" t="s">
+      <c r="B89" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="70" t="s">
+      <c r="C89" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="21" t="s">
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="25"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="57"/>
-      <c r="Z87" s="57"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="24"/>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="23"/>
-      <c r="AF87" s="23"/>
-      <c r="AG87" s="24"/>
-      <c r="AH87" s="24"/>
-      <c r="AI87" s="26"/>
-      <c r="AJ87" s="26"/>
-      <c r="AK87" s="26"/>
-      <c r="AL87" s="26"/>
-    </row>
-    <row r="88" spans="1:38" ht="12" customHeight="1">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="29"/>
-      <c r="V88" s="29"/>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="29"/>
-      <c r="AA88" s="29"/>
-      <c r="AB88" s="29"/>
-      <c r="AC88" s="29"/>
-      <c r="AD88" s="29"/>
-      <c r="AE88" s="29"/>
-      <c r="AF88" s="29"/>
-      <c r="AG88" s="29"/>
-      <c r="AH88" s="29"/>
-      <c r="AI88" s="30"/>
-      <c r="AJ88" s="30"/>
-      <c r="AK88" s="30"/>
-      <c r="AL88" s="30"/>
-    </row>
-    <row r="89" spans="1:38" ht="12" customHeight="1">
-      <c r="A89" s="66">
-        <v>2</v>
-      </c>
-      <c r="B89" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="33"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="48"/>
-      <c r="T89" s="32"/>
-      <c r="U89" s="32"/>
-      <c r="V89" s="32"/>
-      <c r="W89" s="32"/>
-      <c r="X89" s="32"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
       <c r="Y89" s="57"/>
       <c r="Z89" s="57"/>
-      <c r="AA89" s="61"/>
-      <c r="AB89" s="61"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="32"/>
+      <c r="AA89" s="56"/>
+      <c r="AB89" s="56"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
       <c r="AE89" s="23"/>
       <c r="AF89" s="23"/>
-      <c r="AG89" s="32"/>
-      <c r="AH89" s="32"/>
-      <c r="AI89" s="10"/>
-      <c r="AJ89" s="10"/>
-      <c r="AK89" s="10"/>
-      <c r="AL89" s="10"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="24"/>
+      <c r="AI89" s="26"/>
+      <c r="AJ89" s="26"/>
+      <c r="AK89" s="26"/>
+      <c r="AL89" s="26"/>
     </row>
     <row r="90" spans="1:38" ht="12" customHeight="1">
       <c r="A90" s="67"/>
-      <c r="B90" s="69"/>
+      <c r="B90" s="67"/>
       <c r="C90" s="67"/>
       <c r="D90" s="67"/>
       <c r="E90" s="67"/>
-      <c r="F90" s="34" t="s">
+      <c r="F90" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="53"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
-      <c r="Z90" s="36"/>
-      <c r="AA90" s="36"/>
-      <c r="AB90" s="36"/>
-      <c r="AC90" s="36"/>
-      <c r="AD90" s="36"/>
-      <c r="AE90" s="36"/>
-      <c r="AF90" s="36"/>
-      <c r="AG90" s="36"/>
-      <c r="AH90" s="36"/>
-      <c r="AI90" s="37"/>
-      <c r="AJ90" s="37"/>
-      <c r="AK90" s="37"/>
-      <c r="AL90" s="37"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="29"/>
+      <c r="AH90" s="29"/>
+      <c r="AI90" s="30"/>
+      <c r="AJ90" s="30"/>
+      <c r="AK90" s="30"/>
+      <c r="AL90" s="30"/>
     </row>
     <row r="91" spans="1:38" ht="12" customHeight="1">
-      <c r="A91" s="66">
-        <v>3</v>
+      <c r="A91" s="68">
+        <v>2</v>
       </c>
-      <c r="B91" s="68" t="s">
-        <v>23</v>
+      <c r="B91" s="71" t="s">
+        <v>22</v>
       </c>
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="21" t="s">
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="46"/>
-      <c r="T91" s="24"/>
-      <c r="U91" s="24"/>
-      <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="24"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="32"/>
+      <c r="W91" s="32"/>
+      <c r="X91" s="32"/>
       <c r="Y91" s="57"/>
       <c r="Z91" s="57"/>
-      <c r="AA91" s="56"/>
-      <c r="AB91" s="56"/>
-      <c r="AC91" s="24"/>
-      <c r="AD91" s="24"/>
+      <c r="AA91" s="61"/>
+      <c r="AB91" s="61"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="32"/>
       <c r="AE91" s="23"/>
       <c r="AF91" s="23"/>
-      <c r="AG91" s="24"/>
-      <c r="AH91" s="24"/>
-      <c r="AI91" s="26"/>
-      <c r="AJ91" s="26"/>
-      <c r="AK91" s="26"/>
-      <c r="AL91" s="26"/>
+      <c r="AG91" s="32"/>
+      <c r="AH91" s="32"/>
+      <c r="AI91" s="10"/>
+      <c r="AJ91" s="10"/>
+      <c r="AK91" s="10"/>
+      <c r="AL91" s="10"/>
     </row>
     <row r="92" spans="1:38" ht="12" customHeight="1">
       <c r="A92" s="67"/>
-      <c r="B92" s="69"/>
+      <c r="B92" s="72"/>
       <c r="C92" s="67"/>
       <c r="D92" s="67"/>
       <c r="E92" s="67"/>
-      <c r="F92" s="38" t="s">
+      <c r="F92" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="40"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="54"/>
-      <c r="S92" s="50"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
-      <c r="Z92" s="40"/>
-      <c r="AA92" s="40"/>
-      <c r="AB92" s="40"/>
-      <c r="AC92" s="40"/>
-      <c r="AD92" s="40"/>
-      <c r="AE92" s="40"/>
-      <c r="AF92" s="40"/>
-      <c r="AG92" s="40"/>
-      <c r="AH92" s="40"/>
-      <c r="AI92" s="30"/>
-      <c r="AJ92" s="30"/>
-      <c r="AK92" s="30"/>
-      <c r="AL92" s="30"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="53"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
+      <c r="AC92" s="36"/>
+      <c r="AD92" s="36"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36"/>
+      <c r="AH92" s="36"/>
+      <c r="AI92" s="37"/>
+      <c r="AJ92" s="37"/>
+      <c r="AK92" s="37"/>
+      <c r="AL92" s="37"/>
     </row>
     <row r="93" spans="1:38" ht="12" customHeight="1">
-      <c r="A93" s="66">
-        <v>4</v>
+      <c r="A93" s="68">
+        <v>3</v>
       </c>
-      <c r="B93" s="68" t="s">
-        <v>24</v>
+      <c r="B93" s="71" t="s">
+        <v>23</v>
       </c>
-      <c r="C93" s="70" t="s">
+      <c r="C93" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="31" t="s">
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="33"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="48"/>
-      <c r="T93" s="32"/>
-      <c r="U93" s="32"/>
-      <c r="V93" s="32"/>
-      <c r="W93" s="32"/>
-      <c r="X93" s="32"/>
-      <c r="Y93" s="61"/>
-      <c r="Z93" s="61"/>
-      <c r="AA93" s="61"/>
-      <c r="AB93" s="61"/>
-      <c r="AC93" s="32"/>
-      <c r="AD93" s="32"/>
-      <c r="AE93" s="32"/>
-      <c r="AF93" s="32"/>
-      <c r="AG93" s="32"/>
-      <c r="AH93" s="32"/>
-      <c r="AI93" s="10"/>
-      <c r="AJ93" s="10"/>
-      <c r="AK93" s="10"/>
-      <c r="AL93" s="10"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="24"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="57"/>
+      <c r="Z93" s="57"/>
+      <c r="AA93" s="56"/>
+      <c r="AB93" s="56"/>
+      <c r="AC93" s="24"/>
+      <c r="AD93" s="24"/>
+      <c r="AE93" s="23"/>
+      <c r="AF93" s="23"/>
+      <c r="AG93" s="24"/>
+      <c r="AH93" s="24"/>
+      <c r="AI93" s="26"/>
+      <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
+      <c r="AL93" s="26"/>
     </row>
     <row r="94" spans="1:38" ht="12" customHeight="1">
       <c r="A94" s="67"/>
-      <c r="B94" s="69"/>
+      <c r="B94" s="72"/>
       <c r="C94" s="67"/>
       <c r="D94" s="67"/>
       <c r="E94" s="67"/>
-      <c r="F94" s="34" t="s">
+      <c r="F94" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="49"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
-      <c r="AA94" s="36"/>
-      <c r="AB94" s="36"/>
-      <c r="AC94" s="36"/>
-      <c r="AD94" s="36"/>
-      <c r="AE94" s="36"/>
-      <c r="AF94" s="36"/>
-      <c r="AG94" s="36"/>
-      <c r="AH94" s="36"/>
-      <c r="AI94" s="37"/>
-      <c r="AJ94" s="37"/>
-      <c r="AK94" s="37"/>
-      <c r="AL94" s="37"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="54"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="40"/>
+      <c r="U94" s="40"/>
+      <c r="V94" s="40"/>
+      <c r="W94" s="40"/>
+      <c r="X94" s="40"/>
+      <c r="Y94" s="40"/>
+      <c r="Z94" s="40"/>
+      <c r="AA94" s="40"/>
+      <c r="AB94" s="40"/>
+      <c r="AC94" s="40"/>
+      <c r="AD94" s="40"/>
+      <c r="AE94" s="40"/>
+      <c r="AF94" s="40"/>
+      <c r="AG94" s="40"/>
+      <c r="AH94" s="40"/>
+      <c r="AI94" s="30"/>
+      <c r="AJ94" s="30"/>
+      <c r="AK94" s="30"/>
+      <c r="AL94" s="30"/>
     </row>
     <row r="95" spans="1:38" ht="12" customHeight="1">
-      <c r="A95" s="66">
-        <v>5</v>
+      <c r="A95" s="68">
+        <v>4</v>
       </c>
-      <c r="B95" s="70" t="s">
-        <v>21</v>
+      <c r="B95" s="71" t="s">
+        <v>24</v>
       </c>
-      <c r="C95" s="70" t="s">
+      <c r="C95" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="21" t="s">
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="25"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="24"/>
-      <c r="U95" s="24"/>
-      <c r="V95" s="24"/>
-      <c r="W95" s="24"/>
-      <c r="X95" s="24"/>
-      <c r="Y95" s="24"/>
-      <c r="Z95" s="24"/>
-      <c r="AA95" s="24"/>
-      <c r="AB95" s="24"/>
-      <c r="AC95" s="56"/>
-      <c r="AD95" s="56"/>
-      <c r="AE95" s="56"/>
-      <c r="AF95" s="56"/>
-      <c r="AG95" s="24"/>
-      <c r="AH95" s="24"/>
-      <c r="AI95" s="26"/>
-      <c r="AJ95" s="26"/>
-      <c r="AK95" s="26"/>
-      <c r="AL95" s="26"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="32"/>
+      <c r="U95" s="32"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="32"/>
+      <c r="X95" s="32"/>
+      <c r="Y95" s="61"/>
+      <c r="Z95" s="61"/>
+      <c r="AA95" s="61"/>
+      <c r="AB95" s="61"/>
+      <c r="AC95" s="32"/>
+      <c r="AD95" s="32"/>
+      <c r="AE95" s="32"/>
+      <c r="AF95" s="32"/>
+      <c r="AG95" s="32"/>
+      <c r="AH95" s="32"/>
+      <c r="AI95" s="10"/>
+      <c r="AJ95" s="10"/>
+      <c r="AK95" s="10"/>
+      <c r="AL95" s="10"/>
     </row>
     <row r="96" spans="1:38" ht="12" customHeight="1">
       <c r="A96" s="67"/>
-      <c r="B96" s="67"/>
+      <c r="B96" s="72"/>
       <c r="C96" s="67"/>
       <c r="D96" s="67"/>
       <c r="E96" s="67"/>
-      <c r="F96" s="38" t="s">
+      <c r="F96" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="28"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="29"/>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="29"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="29"/>
-      <c r="AC96" s="29"/>
-      <c r="AD96" s="29"/>
-      <c r="AE96" s="29"/>
-      <c r="AF96" s="29"/>
-      <c r="AG96" s="29"/>
-      <c r="AH96" s="29"/>
-      <c r="AI96" s="41"/>
-      <c r="AJ96" s="41"/>
-      <c r="AK96" s="41"/>
-      <c r="AL96" s="41"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="53"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="36"/>
+      <c r="AE96" s="36"/>
+      <c r="AF96" s="36"/>
+      <c r="AG96" s="36"/>
+      <c r="AH96" s="36"/>
+      <c r="AI96" s="37"/>
+      <c r="AJ96" s="37"/>
+      <c r="AK96" s="37"/>
+      <c r="AL96" s="37"/>
     </row>
     <row r="97" spans="1:38" ht="12" customHeight="1">
-      <c r="A97" s="66">
-        <v>6</v>
+      <c r="A97" s="68">
+        <v>5</v>
       </c>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="31" t="s">
+      <c r="B97" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="33"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="32"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="32"/>
-      <c r="O97" s="32"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="32"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="48"/>
-      <c r="T97" s="32"/>
-      <c r="U97" s="32"/>
-      <c r="V97" s="32"/>
-      <c r="W97" s="32"/>
-      <c r="X97" s="32"/>
-      <c r="Y97" s="32"/>
-      <c r="Z97" s="32"/>
-      <c r="AA97" s="32"/>
-      <c r="AB97" s="32"/>
-      <c r="AC97" s="32"/>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="32"/>
-      <c r="AF97" s="32"/>
-      <c r="AG97" s="32"/>
-      <c r="AH97" s="32"/>
-      <c r="AI97" s="10"/>
-      <c r="AJ97" s="10"/>
-      <c r="AK97" s="10"/>
-      <c r="AL97" s="10"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="24"/>
+      <c r="U97" s="24"/>
+      <c r="V97" s="24"/>
+      <c r="W97" s="24"/>
+      <c r="X97" s="24"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="24"/>
+      <c r="AB97" s="24"/>
+      <c r="AC97" s="56"/>
+      <c r="AD97" s="56"/>
+      <c r="AE97" s="56"/>
+      <c r="AF97" s="56"/>
+      <c r="AG97" s="24"/>
+      <c r="AH97" s="24"/>
+      <c r="AI97" s="26"/>
+      <c r="AJ97" s="26"/>
+      <c r="AK97" s="26"/>
+      <c r="AL97" s="26"/>
     </row>
     <row r="98" spans="1:38" ht="12" customHeight="1">
       <c r="A98" s="67"/>
@@ -6114,213 +6212,213 @@
       <c r="C98" s="67"/>
       <c r="D98" s="67"/>
       <c r="E98" s="67"/>
-      <c r="F98" s="34" t="s">
+      <c r="F98" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
-      <c r="R98" s="43"/>
-      <c r="S98" s="51"/>
-      <c r="T98" s="43"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="43"/>
-      <c r="Y98" s="43"/>
-      <c r="Z98" s="43"/>
-      <c r="AA98" s="43"/>
-      <c r="AB98" s="43"/>
-      <c r="AC98" s="43"/>
-      <c r="AD98" s="43"/>
-      <c r="AE98" s="43"/>
-      <c r="AF98" s="43"/>
-      <c r="AG98" s="43"/>
-      <c r="AH98" s="43"/>
-      <c r="AI98" s="12"/>
-      <c r="AJ98" s="12"/>
-      <c r="AK98" s="12"/>
-      <c r="AL98" s="12"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="47"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="X98" s="29"/>
+      <c r="Y98" s="29"/>
+      <c r="Z98" s="29"/>
+      <c r="AA98" s="29"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="29"/>
+      <c r="AE98" s="29"/>
+      <c r="AF98" s="29"/>
+      <c r="AG98" s="29"/>
+      <c r="AH98" s="29"/>
+      <c r="AI98" s="41"/>
+      <c r="AJ98" s="41"/>
+      <c r="AK98" s="41"/>
+      <c r="AL98" s="41"/>
     </row>
     <row r="99" spans="1:38" ht="12" customHeight="1">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="68">
+        <v>6</v>
+      </c>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="33"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="48"/>
+      <c r="T99" s="32"/>
+      <c r="U99" s="32"/>
+      <c r="V99" s="32"/>
+      <c r="W99" s="32"/>
+      <c r="X99" s="32"/>
+      <c r="Y99" s="32"/>
+      <c r="Z99" s="32"/>
+      <c r="AA99" s="32"/>
+      <c r="AB99" s="32"/>
+      <c r="AC99" s="32"/>
+      <c r="AD99" s="32"/>
+      <c r="AE99" s="32"/>
+      <c r="AF99" s="32"/>
+      <c r="AG99" s="32"/>
+      <c r="AH99" s="32"/>
+      <c r="AI99" s="10"/>
+      <c r="AJ99" s="10"/>
+      <c r="AK99" s="10"/>
+      <c r="AL99" s="10"/>
+    </row>
+    <row r="100" spans="1:38" ht="12" customHeight="1">
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="42"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="43"/>
+      <c r="Z100" s="43"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="43"/>
+      <c r="AC100" s="43"/>
+      <c r="AD100" s="43"/>
+      <c r="AE100" s="43"/>
+      <c r="AF100" s="43"/>
+      <c r="AG100" s="43"/>
+      <c r="AH100" s="43"/>
+      <c r="AI100" s="12"/>
+      <c r="AJ100" s="12"/>
+      <c r="AK100" s="12"/>
+      <c r="AL100" s="12"/>
+    </row>
+    <row r="101" spans="1:38" ht="12" customHeight="1">
+      <c r="A101" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="45"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-      <c r="Z99" s="16"/>
-      <c r="AA99" s="16"/>
-      <c r="AB99" s="16"/>
-      <c r="AC99" s="16"/>
-      <c r="AD99" s="16"/>
-      <c r="AE99" s="16"/>
-      <c r="AF99" s="16"/>
-      <c r="AG99" s="16"/>
-      <c r="AH99" s="16"/>
-      <c r="AI99" s="20"/>
-      <c r="AJ99" s="20"/>
-      <c r="AK99" s="20"/>
-      <c r="AL99" s="20"/>
-    </row>
-    <row r="100" spans="1:38" ht="12" customHeight="1">
-      <c r="A100" s="66">
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+      <c r="Z101" s="16"/>
+      <c r="AA101" s="16"/>
+      <c r="AB101" s="16"/>
+      <c r="AC101" s="16"/>
+      <c r="AD101" s="16"/>
+      <c r="AE101" s="16"/>
+      <c r="AF101" s="16"/>
+      <c r="AG101" s="16"/>
+      <c r="AH101" s="16"/>
+      <c r="AI101" s="20"/>
+      <c r="AJ101" s="20"/>
+      <c r="AK101" s="20"/>
+      <c r="AL101" s="20"/>
+    </row>
+    <row r="102" spans="1:38" ht="12" customHeight="1">
+      <c r="A102" s="68">
         <v>1</v>
       </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="21" t="s">
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="46"/>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24"/>
-      <c r="Y100" s="24"/>
-      <c r="Z100" s="24"/>
-      <c r="AA100" s="23"/>
-      <c r="AB100" s="23"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24"/>
-      <c r="AE100" s="24"/>
-      <c r="AF100" s="24"/>
-      <c r="AG100" s="23"/>
-      <c r="AH100" s="23"/>
-      <c r="AI100" s="26"/>
-      <c r="AJ100" s="26"/>
-      <c r="AK100" s="26"/>
-      <c r="AL100" s="26"/>
-    </row>
-    <row r="101" spans="1:38" ht="12" customHeight="1">
-      <c r="A101" s="67"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="47"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="29"/>
-      <c r="AA101" s="29"/>
-      <c r="AB101" s="29"/>
-      <c r="AC101" s="29"/>
-      <c r="AD101" s="29"/>
-      <c r="AE101" s="29"/>
-      <c r="AF101" s="29"/>
-      <c r="AG101" s="29"/>
-      <c r="AH101" s="29"/>
-      <c r="AI101" s="30"/>
-      <c r="AJ101" s="30"/>
-      <c r="AK101" s="30"/>
-      <c r="AL101" s="30"/>
-    </row>
-    <row r="102" spans="1:38" ht="12" customHeight="1">
-      <c r="A102" s="66">
-        <v>2</v>
-      </c>
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="33"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="48"/>
-      <c r="T102" s="32"/>
-      <c r="U102" s="32"/>
-      <c r="V102" s="32"/>
-      <c r="W102" s="32"/>
-      <c r="X102" s="32"/>
-      <c r="Y102" s="32"/>
-      <c r="Z102" s="32"/>
-      <c r="AA102" s="44"/>
-      <c r="AB102" s="44"/>
-      <c r="AC102" s="32"/>
-      <c r="AD102" s="32"/>
-      <c r="AE102" s="32"/>
-      <c r="AF102" s="32"/>
-      <c r="AG102" s="44"/>
-      <c r="AH102" s="44"/>
-      <c r="AI102" s="10"/>
-      <c r="AJ102" s="10"/>
-      <c r="AK102" s="10"/>
-      <c r="AL102" s="10"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="24"/>
+      <c r="W102" s="24"/>
+      <c r="X102" s="24"/>
+      <c r="Y102" s="24"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="24"/>
+      <c r="AD102" s="24"/>
+      <c r="AE102" s="24"/>
+      <c r="AF102" s="24"/>
+      <c r="AG102" s="23"/>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="26"/>
+      <c r="AJ102" s="26"/>
+      <c r="AK102" s="26"/>
+      <c r="AL102" s="26"/>
     </row>
     <row r="103" spans="1:38" ht="12" customHeight="1">
       <c r="A103" s="67"/>
@@ -6328,85 +6426,85 @@
       <c r="C103" s="67"/>
       <c r="D103" s="67"/>
       <c r="E103" s="67"/>
-      <c r="F103" s="34" t="s">
+      <c r="F103" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="49"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="36"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="36"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
-      <c r="AI103" s="37"/>
-      <c r="AJ103" s="37"/>
-      <c r="AK103" s="37"/>
-      <c r="AL103" s="37"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="47"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="29"/>
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="29"/>
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="30"/>
+      <c r="AL103" s="30"/>
     </row>
     <row r="104" spans="1:38" ht="12" customHeight="1">
-      <c r="A104" s="66">
-        <v>3</v>
+      <c r="A104" s="68">
+        <v>2</v>
       </c>
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="21" t="s">
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="46"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
-      <c r="X104" s="24"/>
-      <c r="Y104" s="24"/>
-      <c r="Z104" s="24"/>
-      <c r="AA104" s="23"/>
-      <c r="AB104" s="23"/>
-      <c r="AC104" s="24"/>
-      <c r="AD104" s="24"/>
-      <c r="AE104" s="24"/>
-      <c r="AF104" s="24"/>
-      <c r="AG104" s="23"/>
-      <c r="AH104" s="23"/>
-      <c r="AI104" s="26"/>
-      <c r="AJ104" s="26"/>
-      <c r="AK104" s="26"/>
-      <c r="AL104" s="26"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="32"/>
+      <c r="AA104" s="44"/>
+      <c r="AB104" s="44"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="32"/>
+      <c r="AE104" s="32"/>
+      <c r="AF104" s="32"/>
+      <c r="AG104" s="44"/>
+      <c r="AH104" s="44"/>
+      <c r="AI104" s="10"/>
+      <c r="AJ104" s="10"/>
+      <c r="AK104" s="10"/>
+      <c r="AL104" s="10"/>
     </row>
     <row r="105" spans="1:38" ht="12" customHeight="1">
       <c r="A105" s="67"/>
@@ -6414,85 +6512,85 @@
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
       <c r="E105" s="67"/>
-      <c r="F105" s="38" t="s">
+      <c r="F105" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
-      <c r="N105" s="40"/>
-      <c r="O105" s="40"/>
-      <c r="P105" s="40"/>
-      <c r="Q105" s="40"/>
-      <c r="R105" s="54"/>
-      <c r="S105" s="50"/>
-      <c r="T105" s="40"/>
-      <c r="U105" s="40"/>
-      <c r="V105" s="40"/>
-      <c r="W105" s="40"/>
-      <c r="X105" s="40"/>
-      <c r="Y105" s="40"/>
-      <c r="Z105" s="40"/>
-      <c r="AA105" s="40"/>
-      <c r="AB105" s="40"/>
-      <c r="AC105" s="40"/>
-      <c r="AD105" s="40"/>
-      <c r="AE105" s="40"/>
-      <c r="AF105" s="40"/>
-      <c r="AG105" s="40"/>
-      <c r="AH105" s="40"/>
-      <c r="AI105" s="30"/>
-      <c r="AJ105" s="30"/>
-      <c r="AK105" s="30"/>
-      <c r="AL105" s="30"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="53"/>
+      <c r="S105" s="49"/>
+      <c r="T105" s="36"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="36"/>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="36"/>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="36"/>
+      <c r="AH105" s="36"/>
+      <c r="AI105" s="37"/>
+      <c r="AJ105" s="37"/>
+      <c r="AK105" s="37"/>
+      <c r="AL105" s="37"/>
     </row>
     <row r="106" spans="1:38" ht="12" customHeight="1">
-      <c r="A106" s="66">
-        <v>4</v>
+      <c r="A106" s="68">
+        <v>3</v>
       </c>
-      <c r="B106" s="70"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="31" t="s">
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="33"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="32"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="48"/>
-      <c r="T106" s="32"/>
-      <c r="U106" s="32"/>
-      <c r="V106" s="32"/>
-      <c r="W106" s="32"/>
-      <c r="X106" s="32"/>
-      <c r="Y106" s="32"/>
-      <c r="Z106" s="32"/>
-      <c r="AA106" s="32"/>
-      <c r="AB106" s="32"/>
-      <c r="AC106" s="32"/>
-      <c r="AD106" s="32"/>
-      <c r="AE106" s="32"/>
-      <c r="AF106" s="32"/>
-      <c r="AG106" s="32"/>
-      <c r="AH106" s="32"/>
-      <c r="AI106" s="10"/>
-      <c r="AJ106" s="10"/>
-      <c r="AK106" s="10"/>
-      <c r="AL106" s="10"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="24"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="24"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="46"/>
+      <c r="T106" s="24"/>
+      <c r="U106" s="24"/>
+      <c r="V106" s="24"/>
+      <c r="W106" s="24"/>
+      <c r="X106" s="24"/>
+      <c r="Y106" s="24"/>
+      <c r="Z106" s="24"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+      <c r="AC106" s="24"/>
+      <c r="AD106" s="24"/>
+      <c r="AE106" s="24"/>
+      <c r="AF106" s="24"/>
+      <c r="AG106" s="23"/>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="26"/>
+      <c r="AJ106" s="26"/>
+      <c r="AK106" s="26"/>
+      <c r="AL106" s="26"/>
     </row>
     <row r="107" spans="1:38" ht="12" customHeight="1">
       <c r="A107" s="67"/>
@@ -6500,85 +6598,85 @@
       <c r="C107" s="67"/>
       <c r="D107" s="67"/>
       <c r="E107" s="67"/>
-      <c r="F107" s="34" t="s">
+      <c r="F107" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="35"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="36"/>
-      <c r="P107" s="36"/>
-      <c r="Q107" s="36"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="49"/>
-      <c r="T107" s="36"/>
-      <c r="U107" s="36"/>
-      <c r="V107" s="36"/>
-      <c r="W107" s="36"/>
-      <c r="X107" s="36"/>
-      <c r="Y107" s="36"/>
-      <c r="Z107" s="36"/>
-      <c r="AA107" s="36"/>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="36"/>
-      <c r="AD107" s="36"/>
-      <c r="AE107" s="36"/>
-      <c r="AF107" s="36"/>
-      <c r="AG107" s="36"/>
-      <c r="AH107" s="36"/>
-      <c r="AI107" s="37"/>
-      <c r="AJ107" s="37"/>
-      <c r="AK107" s="37"/>
-      <c r="AL107" s="37"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="54"/>
+      <c r="S107" s="50"/>
+      <c r="T107" s="40"/>
+      <c r="U107" s="40"/>
+      <c r="V107" s="40"/>
+      <c r="W107" s="40"/>
+      <c r="X107" s="40"/>
+      <c r="Y107" s="40"/>
+      <c r="Z107" s="40"/>
+      <c r="AA107" s="40"/>
+      <c r="AB107" s="40"/>
+      <c r="AC107" s="40"/>
+      <c r="AD107" s="40"/>
+      <c r="AE107" s="40"/>
+      <c r="AF107" s="40"/>
+      <c r="AG107" s="40"/>
+      <c r="AH107" s="40"/>
+      <c r="AI107" s="30"/>
+      <c r="AJ107" s="30"/>
+      <c r="AK107" s="30"/>
+      <c r="AL107" s="30"/>
     </row>
     <row r="108" spans="1:38" ht="12" customHeight="1">
-      <c r="A108" s="66">
-        <v>5</v>
+      <c r="A108" s="68">
+        <v>4</v>
       </c>
-      <c r="B108" s="70"/>
-      <c r="C108" s="70"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="21" t="s">
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
-      <c r="R108" s="24"/>
-      <c r="S108" s="46"/>
-      <c r="T108" s="24"/>
-      <c r="U108" s="24"/>
-      <c r="V108" s="24"/>
-      <c r="W108" s="24"/>
-      <c r="X108" s="24"/>
-      <c r="Y108" s="24"/>
-      <c r="Z108" s="24"/>
-      <c r="AA108" s="24"/>
-      <c r="AB108" s="24"/>
-      <c r="AC108" s="23"/>
-      <c r="AD108" s="23"/>
-      <c r="AE108" s="24"/>
-      <c r="AF108" s="24"/>
-      <c r="AG108" s="24"/>
-      <c r="AH108" s="24"/>
-      <c r="AI108" s="26"/>
-      <c r="AJ108" s="26"/>
-      <c r="AK108" s="26"/>
-      <c r="AL108" s="26"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="48"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32"/>
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32"/>
+      <c r="AI108" s="10"/>
+      <c r="AJ108" s="10"/>
+      <c r="AK108" s="10"/>
+      <c r="AL108" s="10"/>
     </row>
     <row r="109" spans="1:38" ht="12" customHeight="1">
       <c r="A109" s="67"/>
@@ -6586,85 +6684,85 @@
       <c r="C109" s="67"/>
       <c r="D109" s="67"/>
       <c r="E109" s="67"/>
-      <c r="F109" s="38" t="s">
+      <c r="F109" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="28"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="47"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="29"/>
-      <c r="AA109" s="29"/>
-      <c r="AB109" s="29"/>
-      <c r="AC109" s="29"/>
-      <c r="AD109" s="29"/>
-      <c r="AE109" s="29"/>
-      <c r="AF109" s="29"/>
-      <c r="AG109" s="29"/>
-      <c r="AH109" s="29"/>
-      <c r="AI109" s="41"/>
-      <c r="AJ109" s="41"/>
-      <c r="AK109" s="41"/>
-      <c r="AL109" s="41"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="53"/>
+      <c r="S109" s="49"/>
+      <c r="T109" s="36"/>
+      <c r="U109" s="36"/>
+      <c r="V109" s="36"/>
+      <c r="W109" s="36"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="36"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="36"/>
+      <c r="AE109" s="36"/>
+      <c r="AF109" s="36"/>
+      <c r="AG109" s="36"/>
+      <c r="AH109" s="36"/>
+      <c r="AI109" s="37"/>
+      <c r="AJ109" s="37"/>
+      <c r="AK109" s="37"/>
+      <c r="AL109" s="37"/>
     </row>
     <row r="110" spans="1:38" ht="12" customHeight="1">
-      <c r="A110" s="66">
-        <v>6</v>
+      <c r="A110" s="68">
+        <v>5</v>
       </c>
-      <c r="B110" s="70"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="31" t="s">
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G110" s="33"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="32"/>
-      <c r="L110" s="32"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="48"/>
-      <c r="T110" s="32"/>
-      <c r="U110" s="32"/>
-      <c r="V110" s="32"/>
-      <c r="W110" s="32"/>
-      <c r="X110" s="32"/>
-      <c r="Y110" s="32"/>
-      <c r="Z110" s="32"/>
-      <c r="AA110" s="32"/>
-      <c r="AB110" s="32"/>
-      <c r="AC110" s="32"/>
-      <c r="AD110" s="32"/>
-      <c r="AE110" s="32"/>
-      <c r="AF110" s="32"/>
-      <c r="AG110" s="32"/>
-      <c r="AH110" s="32"/>
-      <c r="AI110" s="10"/>
-      <c r="AJ110" s="10"/>
-      <c r="AK110" s="10"/>
-      <c r="AL110" s="10"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="24"/>
+      <c r="S110" s="46"/>
+      <c r="T110" s="24"/>
+      <c r="U110" s="24"/>
+      <c r="V110" s="24"/>
+      <c r="W110" s="24"/>
+      <c r="X110" s="24"/>
+      <c r="Y110" s="24"/>
+      <c r="Z110" s="24"/>
+      <c r="AA110" s="24"/>
+      <c r="AB110" s="24"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23"/>
+      <c r="AE110" s="24"/>
+      <c r="AF110" s="24"/>
+      <c r="AG110" s="24"/>
+      <c r="AH110" s="24"/>
+      <c r="AI110" s="26"/>
+      <c r="AJ110" s="26"/>
+      <c r="AK110" s="26"/>
+      <c r="AL110" s="26"/>
     </row>
     <row r="111" spans="1:38" ht="12" customHeight="1">
       <c r="A111" s="67"/>
@@ -6672,211 +6770,211 @@
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
       <c r="E111" s="67"/>
-      <c r="F111" s="34" t="s">
+      <c r="F111" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="42"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="43"/>
-      <c r="O111" s="43"/>
-      <c r="P111" s="43"/>
-      <c r="Q111" s="43"/>
-      <c r="R111" s="43"/>
-      <c r="S111" s="51"/>
-      <c r="T111" s="43"/>
-      <c r="U111" s="43"/>
-      <c r="V111" s="43"/>
-      <c r="W111" s="43"/>
-      <c r="X111" s="43"/>
-      <c r="Y111" s="43"/>
-      <c r="Z111" s="43"/>
-      <c r="AA111" s="43"/>
-      <c r="AB111" s="43"/>
-      <c r="AC111" s="43"/>
-      <c r="AD111" s="43"/>
-      <c r="AE111" s="43"/>
-      <c r="AF111" s="43"/>
-      <c r="AG111" s="43"/>
-      <c r="AH111" s="43"/>
-      <c r="AI111" s="12"/>
-      <c r="AJ111" s="12"/>
-      <c r="AK111" s="12"/>
-      <c r="AL111" s="12"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="47"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="29"/>
+      <c r="Z111" s="29"/>
+      <c r="AA111" s="29"/>
+      <c r="AB111" s="29"/>
+      <c r="AC111" s="29"/>
+      <c r="AD111" s="29"/>
+      <c r="AE111" s="29"/>
+      <c r="AF111" s="29"/>
+      <c r="AG111" s="29"/>
+      <c r="AH111" s="29"/>
+      <c r="AI111" s="41"/>
+      <c r="AJ111" s="41"/>
+      <c r="AK111" s="41"/>
+      <c r="AL111" s="41"/>
     </row>
     <row r="112" spans="1:38" ht="12" customHeight="1">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="45"/>
-      <c r="T112" s="16"/>
-      <c r="U112" s="16"/>
-      <c r="V112" s="16"/>
-      <c r="W112" s="16"/>
-      <c r="X112" s="16"/>
-      <c r="Y112" s="16"/>
-      <c r="Z112" s="16"/>
-      <c r="AA112" s="16"/>
-      <c r="AB112" s="16"/>
-      <c r="AC112" s="16"/>
-      <c r="AD112" s="16"/>
-      <c r="AE112" s="16"/>
-      <c r="AF112" s="16"/>
-      <c r="AG112" s="16"/>
-      <c r="AH112" s="16"/>
-      <c r="AI112" s="20"/>
-      <c r="AJ112" s="20"/>
-      <c r="AK112" s="20"/>
-      <c r="AL112" s="20"/>
+      <c r="A112" s="68">
+        <v>6</v>
+      </c>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="33"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="48"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="32"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="32"/>
+      <c r="AE112" s="32"/>
+      <c r="AF112" s="32"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+      <c r="AI112" s="10"/>
+      <c r="AJ112" s="10"/>
+      <c r="AK112" s="10"/>
+      <c r="AL112" s="10"/>
     </row>
     <row r="113" spans="1:38" ht="12" customHeight="1">
-      <c r="A113" s="66">
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="43"/>
+      <c r="Q113" s="43"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="43"/>
+      <c r="U113" s="43"/>
+      <c r="V113" s="43"/>
+      <c r="W113" s="43"/>
+      <c r="X113" s="43"/>
+      <c r="Y113" s="43"/>
+      <c r="Z113" s="43"/>
+      <c r="AA113" s="43"/>
+      <c r="AB113" s="43"/>
+      <c r="AC113" s="43"/>
+      <c r="AD113" s="43"/>
+      <c r="AE113" s="43"/>
+      <c r="AF113" s="43"/>
+      <c r="AG113" s="43"/>
+      <c r="AH113" s="43"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+    </row>
+    <row r="114" spans="1:38" ht="12" customHeight="1">
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="45"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="16"/>
+      <c r="W114" s="16"/>
+      <c r="X114" s="16"/>
+      <c r="Y114" s="16"/>
+      <c r="Z114" s="16"/>
+      <c r="AA114" s="16"/>
+      <c r="AB114" s="16"/>
+      <c r="AC114" s="16"/>
+      <c r="AD114" s="16"/>
+      <c r="AE114" s="16"/>
+      <c r="AF114" s="16"/>
+      <c r="AG114" s="16"/>
+      <c r="AH114" s="16"/>
+      <c r="AI114" s="20"/>
+      <c r="AJ114" s="20"/>
+      <c r="AK114" s="20"/>
+      <c r="AL114" s="20"/>
+    </row>
+    <row r="115" spans="1:38" ht="12" customHeight="1">
+      <c r="A115" s="68">
         <v>1</v>
       </c>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="21" t="s">
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G113" s="25"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="24"/>
-      <c r="R113" s="24"/>
-      <c r="S113" s="46"/>
-      <c r="T113" s="24"/>
-      <c r="U113" s="24"/>
-      <c r="V113" s="24"/>
-      <c r="W113" s="24"/>
-      <c r="X113" s="24"/>
-      <c r="Y113" s="24"/>
-      <c r="Z113" s="24"/>
-      <c r="AA113" s="24"/>
-      <c r="AB113" s="24"/>
-      <c r="AC113" s="24"/>
-      <c r="AD113" s="24"/>
-      <c r="AE113" s="24"/>
-      <c r="AF113" s="24"/>
-      <c r="AG113" s="24"/>
-      <c r="AH113" s="24"/>
-      <c r="AI113" s="26"/>
-      <c r="AJ113" s="26"/>
-      <c r="AK113" s="26"/>
-      <c r="AL113" s="26"/>
-    </row>
-    <row r="114" spans="1:38" ht="12" customHeight="1">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="28"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="29"/>
-      <c r="Q114" s="29"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="47"/>
-      <c r="T114" s="29"/>
-      <c r="U114" s="29"/>
-      <c r="V114" s="29"/>
-      <c r="W114" s="29"/>
-      <c r="X114" s="29"/>
-      <c r="Y114" s="29"/>
-      <c r="Z114" s="29"/>
-      <c r="AA114" s="29"/>
-      <c r="AB114" s="29"/>
-      <c r="AC114" s="29"/>
-      <c r="AD114" s="29"/>
-      <c r="AE114" s="29"/>
-      <c r="AF114" s="29"/>
-      <c r="AG114" s="29"/>
-      <c r="AH114" s="29"/>
-      <c r="AI114" s="30"/>
-      <c r="AJ114" s="30"/>
-      <c r="AK114" s="30"/>
-      <c r="AL114" s="30"/>
-    </row>
-    <row r="115" spans="1:38" ht="12" customHeight="1">
-      <c r="A115" s="66">
-        <v>2</v>
-      </c>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="33"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="32"/>
-      <c r="L115" s="32"/>
-      <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32"/>
-      <c r="Q115" s="32"/>
-      <c r="R115" s="32"/>
-      <c r="S115" s="48"/>
-      <c r="T115" s="32"/>
-      <c r="U115" s="32"/>
-      <c r="V115" s="32"/>
-      <c r="W115" s="32"/>
-      <c r="X115" s="32"/>
-      <c r="Y115" s="32"/>
-      <c r="Z115" s="32"/>
-      <c r="AA115" s="32"/>
-      <c r="AB115" s="32"/>
-      <c r="AC115" s="32"/>
-      <c r="AD115" s="32"/>
-      <c r="AE115" s="32"/>
-      <c r="AF115" s="32"/>
-      <c r="AG115" s="32"/>
-      <c r="AH115" s="32"/>
-      <c r="AI115" s="10"/>
-      <c r="AJ115" s="10"/>
-      <c r="AK115" s="10"/>
-      <c r="AL115" s="10"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="24"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="24"/>
+      <c r="S115" s="46"/>
+      <c r="T115" s="24"/>
+      <c r="U115" s="24"/>
+      <c r="V115" s="24"/>
+      <c r="W115" s="24"/>
+      <c r="X115" s="24"/>
+      <c r="Y115" s="24"/>
+      <c r="Z115" s="24"/>
+      <c r="AA115" s="24"/>
+      <c r="AB115" s="24"/>
+      <c r="AC115" s="24"/>
+      <c r="AD115" s="24"/>
+      <c r="AE115" s="24"/>
+      <c r="AF115" s="24"/>
+      <c r="AG115" s="24"/>
+      <c r="AH115" s="24"/>
+      <c r="AI115" s="26"/>
+      <c r="AJ115" s="26"/>
+      <c r="AK115" s="26"/>
+      <c r="AL115" s="26"/>
     </row>
     <row r="116" spans="1:38" ht="12" customHeight="1">
       <c r="A116" s="67"/>
@@ -6884,85 +6982,85 @@
       <c r="C116" s="67"/>
       <c r="D116" s="67"/>
       <c r="E116" s="67"/>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="36"/>
-      <c r="R116" s="53"/>
-      <c r="S116" s="49"/>
-      <c r="T116" s="36"/>
-      <c r="U116" s="36"/>
-      <c r="V116" s="36"/>
-      <c r="W116" s="36"/>
-      <c r="X116" s="36"/>
-      <c r="Y116" s="36"/>
-      <c r="Z116" s="36"/>
-      <c r="AA116" s="36"/>
-      <c r="AB116" s="36"/>
-      <c r="AC116" s="36"/>
-      <c r="AD116" s="36"/>
-      <c r="AE116" s="36"/>
-      <c r="AF116" s="36"/>
-      <c r="AG116" s="36"/>
-      <c r="AH116" s="36"/>
-      <c r="AI116" s="37"/>
-      <c r="AJ116" s="37"/>
-      <c r="AK116" s="37"/>
-      <c r="AL116" s="37"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="47"/>
+      <c r="T116" s="29"/>
+      <c r="U116" s="29"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="29"/>
+      <c r="AA116" s="29"/>
+      <c r="AB116" s="29"/>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="29"/>
+      <c r="AE116" s="29"/>
+      <c r="AF116" s="29"/>
+      <c r="AG116" s="29"/>
+      <c r="AH116" s="29"/>
+      <c r="AI116" s="30"/>
+      <c r="AJ116" s="30"/>
+      <c r="AK116" s="30"/>
+      <c r="AL116" s="30"/>
     </row>
     <row r="117" spans="1:38" ht="12" customHeight="1">
-      <c r="A117" s="66">
-        <v>3</v>
+      <c r="A117" s="68">
+        <v>2</v>
       </c>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="21" t="s">
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="25"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="24"/>
-      <c r="N117" s="24"/>
-      <c r="O117" s="24"/>
-      <c r="P117" s="24"/>
-      <c r="Q117" s="24"/>
-      <c r="R117" s="24"/>
-      <c r="S117" s="46"/>
-      <c r="T117" s="24"/>
-      <c r="U117" s="24"/>
-      <c r="V117" s="24"/>
-      <c r="W117" s="24"/>
-      <c r="X117" s="24"/>
-      <c r="Y117" s="24"/>
-      <c r="Z117" s="24"/>
-      <c r="AA117" s="24"/>
-      <c r="AB117" s="24"/>
-      <c r="AC117" s="24"/>
-      <c r="AD117" s="24"/>
-      <c r="AE117" s="24"/>
-      <c r="AF117" s="24"/>
-      <c r="AG117" s="24"/>
-      <c r="AH117" s="24"/>
-      <c r="AI117" s="26"/>
-      <c r="AJ117" s="26"/>
-      <c r="AK117" s="26"/>
-      <c r="AL117" s="26"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="48"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="32"/>
+      <c r="AB117" s="32"/>
+      <c r="AC117" s="32"/>
+      <c r="AD117" s="32"/>
+      <c r="AE117" s="32"/>
+      <c r="AF117" s="32"/>
+      <c r="AG117" s="32"/>
+      <c r="AH117" s="32"/>
+      <c r="AI117" s="10"/>
+      <c r="AJ117" s="10"/>
+      <c r="AK117" s="10"/>
+      <c r="AL117" s="10"/>
     </row>
     <row r="118" spans="1:38" ht="12" customHeight="1">
       <c r="A118" s="67"/>
@@ -6970,85 +7068,85 @@
       <c r="C118" s="67"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
-      <c r="F118" s="38" t="s">
+      <c r="F118" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="39"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="40"/>
-      <c r="L118" s="40"/>
-      <c r="M118" s="40"/>
-      <c r="N118" s="40"/>
-      <c r="O118" s="40"/>
-      <c r="P118" s="40"/>
-      <c r="Q118" s="40"/>
-      <c r="R118" s="54"/>
-      <c r="S118" s="50"/>
-      <c r="T118" s="40"/>
-      <c r="U118" s="40"/>
-      <c r="V118" s="40"/>
-      <c r="W118" s="40"/>
-      <c r="X118" s="40"/>
-      <c r="Y118" s="40"/>
-      <c r="Z118" s="40"/>
-      <c r="AA118" s="40"/>
-      <c r="AB118" s="40"/>
-      <c r="AC118" s="40"/>
-      <c r="AD118" s="40"/>
-      <c r="AE118" s="40"/>
-      <c r="AF118" s="40"/>
-      <c r="AG118" s="40"/>
-      <c r="AH118" s="40"/>
-      <c r="AI118" s="30"/>
-      <c r="AJ118" s="30"/>
-      <c r="AK118" s="30"/>
-      <c r="AL118" s="30"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="53"/>
+      <c r="S118" s="49"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
+      <c r="AI118" s="37"/>
+      <c r="AJ118" s="37"/>
+      <c r="AK118" s="37"/>
+      <c r="AL118" s="37"/>
     </row>
     <row r="119" spans="1:38" ht="12" customHeight="1">
-      <c r="A119" s="66">
-        <v>4</v>
+      <c r="A119" s="68">
+        <v>3</v>
       </c>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="31" t="s">
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="33"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
-      <c r="L119" s="32"/>
-      <c r="M119" s="32"/>
-      <c r="N119" s="32"/>
-      <c r="O119" s="32"/>
-      <c r="P119" s="32"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="48"/>
-      <c r="T119" s="32"/>
-      <c r="U119" s="32"/>
-      <c r="V119" s="32"/>
-      <c r="W119" s="32"/>
-      <c r="X119" s="32"/>
-      <c r="Y119" s="32"/>
-      <c r="Z119" s="32"/>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
-      <c r="AD119" s="32"/>
-      <c r="AE119" s="32"/>
-      <c r="AF119" s="32"/>
-      <c r="AG119" s="32"/>
-      <c r="AH119" s="32"/>
-      <c r="AI119" s="10"/>
-      <c r="AJ119" s="10"/>
-      <c r="AK119" s="10"/>
-      <c r="AL119" s="10"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="24"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
+      <c r="R119" s="24"/>
+      <c r="S119" s="46"/>
+      <c r="T119" s="24"/>
+      <c r="U119" s="24"/>
+      <c r="V119" s="24"/>
+      <c r="W119" s="24"/>
+      <c r="X119" s="24"/>
+      <c r="Y119" s="24"/>
+      <c r="Z119" s="24"/>
+      <c r="AA119" s="24"/>
+      <c r="AB119" s="24"/>
+      <c r="AC119" s="24"/>
+      <c r="AD119" s="24"/>
+      <c r="AE119" s="24"/>
+      <c r="AF119" s="24"/>
+      <c r="AG119" s="24"/>
+      <c r="AH119" s="24"/>
+      <c r="AI119" s="26"/>
+      <c r="AJ119" s="26"/>
+      <c r="AK119" s="26"/>
+      <c r="AL119" s="26"/>
     </row>
     <row r="120" spans="1:38" ht="12" customHeight="1">
       <c r="A120" s="67"/>
@@ -7092,85 +7190,91 @@
       <c r="AK120" s="30"/>
       <c r="AL120" s="30"/>
     </row>
-    <row r="121" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A121" s="6"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-      <c r="AB121" s="2"/>
-      <c r="AC121" s="2"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="2"/>
-      <c r="AF121" s="2"/>
-      <c r="AG121" s="2"/>
-      <c r="AH121" s="2"/>
-      <c r="AI121" s="2"/>
-      <c r="AJ121" s="2"/>
-      <c r="AK121" s="2"/>
-      <c r="AL121" s="2"/>
-    </row>
-    <row r="122" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A122" s="6"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
-      <c r="AB122" s="2"/>
-      <c r="AC122" s="2"/>
-      <c r="AD122" s="2"/>
-      <c r="AE122" s="2"/>
-      <c r="AF122" s="2"/>
-      <c r="AG122" s="2"/>
-      <c r="AH122" s="2"/>
-      <c r="AI122" s="2"/>
-      <c r="AJ122" s="2"/>
-      <c r="AK122" s="2"/>
-      <c r="AL122" s="2"/>
+    <row r="121" spans="1:38" ht="12" customHeight="1">
+      <c r="A121" s="68">
+        <v>4</v>
+      </c>
+      <c r="B121" s="66"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="33"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="32"/>
+      <c r="S121" s="48"/>
+      <c r="T121" s="32"/>
+      <c r="U121" s="32"/>
+      <c r="V121" s="32"/>
+      <c r="W121" s="32"/>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="32"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="32"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="32"/>
+      <c r="AD121" s="32"/>
+      <c r="AE121" s="32"/>
+      <c r="AF121" s="32"/>
+      <c r="AG121" s="32"/>
+      <c r="AH121" s="32"/>
+      <c r="AI121" s="10"/>
+      <c r="AJ121" s="10"/>
+      <c r="AK121" s="10"/>
+      <c r="AL121" s="10"/>
+    </row>
+    <row r="122" spans="1:38" ht="12" customHeight="1">
+      <c r="A122" s="67"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="39"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="54"/>
+      <c r="S122" s="50"/>
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="40"/>
+      <c r="W122" s="40"/>
+      <c r="X122" s="40"/>
+      <c r="Y122" s="40"/>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="40"/>
+      <c r="AD122" s="40"/>
+      <c r="AE122" s="40"/>
+      <c r="AF122" s="40"/>
+      <c r="AG122" s="40"/>
+      <c r="AH122" s="40"/>
+      <c r="AI122" s="30"/>
+      <c r="AJ122" s="30"/>
+      <c r="AK122" s="30"/>
+      <c r="AL122" s="30"/>
     </row>
     <row r="123" spans="1:38" ht="13.5" customHeight="1">
       <c r="A123" s="6"/>
@@ -43732,164 +43836,203 @@
       <c r="AK1036" s="2"/>
       <c r="AL1036" s="2"/>
     </row>
+    <row r="1037" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1037" s="6"/>
+      <c r="B1037" s="2"/>
+      <c r="C1037" s="3"/>
+      <c r="D1037" s="4"/>
+      <c r="E1037" s="4"/>
+      <c r="F1037" s="4"/>
+      <c r="G1037" s="2"/>
+      <c r="H1037" s="2"/>
+      <c r="I1037" s="2"/>
+      <c r="J1037" s="2"/>
+      <c r="K1037" s="2"/>
+      <c r="L1037" s="2"/>
+      <c r="M1037" s="2"/>
+      <c r="N1037" s="2"/>
+      <c r="O1037" s="2"/>
+      <c r="P1037" s="2"/>
+      <c r="Q1037" s="2"/>
+      <c r="R1037" s="2"/>
+      <c r="S1037" s="2"/>
+      <c r="T1037" s="2"/>
+      <c r="U1037" s="2"/>
+      <c r="V1037" s="2"/>
+      <c r="W1037" s="2"/>
+      <c r="X1037" s="2"/>
+      <c r="Y1037" s="2"/>
+      <c r="Z1037" s="2"/>
+      <c r="AA1037" s="2"/>
+      <c r="AB1037" s="2"/>
+      <c r="AC1037" s="2"/>
+      <c r="AD1037" s="2"/>
+      <c r="AE1037" s="2"/>
+      <c r="AF1037" s="2"/>
+      <c r="AG1037" s="2"/>
+      <c r="AH1037" s="2"/>
+      <c r="AI1037" s="2"/>
+      <c r="AJ1037" s="2"/>
+      <c r="AK1037" s="2"/>
+      <c r="AL1037" s="2"/>
+    </row>
+    <row r="1038" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1038" s="6"/>
+      <c r="B1038" s="2"/>
+      <c r="C1038" s="3"/>
+      <c r="D1038" s="4"/>
+      <c r="E1038" s="4"/>
+      <c r="F1038" s="4"/>
+      <c r="G1038" s="2"/>
+      <c r="H1038" s="2"/>
+      <c r="I1038" s="2"/>
+      <c r="J1038" s="2"/>
+      <c r="K1038" s="2"/>
+      <c r="L1038" s="2"/>
+      <c r="M1038" s="2"/>
+      <c r="N1038" s="2"/>
+      <c r="O1038" s="2"/>
+      <c r="P1038" s="2"/>
+      <c r="Q1038" s="2"/>
+      <c r="R1038" s="2"/>
+      <c r="S1038" s="2"/>
+      <c r="T1038" s="2"/>
+      <c r="U1038" s="2"/>
+      <c r="V1038" s="2"/>
+      <c r="W1038" s="2"/>
+      <c r="X1038" s="2"/>
+      <c r="Y1038" s="2"/>
+      <c r="Z1038" s="2"/>
+      <c r="AA1038" s="2"/>
+      <c r="AB1038" s="2"/>
+      <c r="AC1038" s="2"/>
+      <c r="AD1038" s="2"/>
+      <c r="AE1038" s="2"/>
+      <c r="AF1038" s="2"/>
+      <c r="AG1038" s="2"/>
+      <c r="AH1038" s="2"/>
+      <c r="AI1038" s="2"/>
+      <c r="AJ1038" s="2"/>
+      <c r="AK1038" s="2"/>
+      <c r="AL1038" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="305">
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
+  <mergeCells count="310">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="E108:E109"/>
     <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -43914,135 +44057,181 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="E95:E96"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E27 E29 E31 E84 E87 E89 E91 E93 E95 E97 E100 E102 E104 E106 E108 E110 E113 E115 E117 E119 E33 E35 E74 E82 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E64 E66 E68 E70 E72 E76 E78 E80" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E27 E29 E31 E86 E89 E91 E93 E95 E97 E99 E102 E104 E106 E108 E110 E112 E115 E117 E119 E121 E33 E35 E74 E82 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E64 E66 E68 E70 E72 E76 E78 E80 E84" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未着手,作成中,作成完了,レビュー中,レビュー完了,FIX"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80B919-2278-4253-8324-C862F276AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA37441-1D45-4467-B09C-E2BFB1A8DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="72">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -372,9 +372,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>未着手</t>
-  </si>
-  <si>
     <t>削除確認・成功・失敗画面JSP作成</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -444,6 +441,46 @@
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除詳細クラス図</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>削除画面設計書</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>詳細画面詳細クラス図</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>詳細画面画面設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成中</t>
+  </si>
+  <si>
+    <t>未着手</t>
   </si>
 </sst>
 </file>
@@ -1388,14 +1425,29 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1442,9 +1494,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1466,19 +1515,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1696,13 +1733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1038"/>
+  <dimension ref="A1:AL1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S85" sqref="S85"/>
+      <selection pane="bottomRight" activeCell="AB104" sqref="AB104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1799,230 +1836,230 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="82" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="85">
+      <c r="G3" s="89">
         <v>45627</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="87"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="91"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="94"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="84">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="96">
         <v>3</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73">
+      <c r="H5" s="79"/>
+      <c r="I5" s="78">
         <v>4</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="73">
+      <c r="J5" s="84"/>
+      <c r="K5" s="78">
         <v>5</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="73">
+      <c r="L5" s="84"/>
+      <c r="M5" s="78">
         <v>6</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="73">
+      <c r="N5" s="84"/>
+      <c r="O5" s="78">
         <v>9</v>
       </c>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="73">
+      <c r="P5" s="84"/>
+      <c r="Q5" s="78">
         <v>10</v>
       </c>
-      <c r="R5" s="79"/>
-      <c r="S5" s="73">
+      <c r="R5" s="84"/>
+      <c r="S5" s="78">
         <v>11</v>
       </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="73">
+      <c r="T5" s="84"/>
+      <c r="U5" s="78">
         <v>12</v>
       </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="73">
+      <c r="V5" s="84"/>
+      <c r="W5" s="78">
         <v>13</v>
       </c>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="73">
+      <c r="X5" s="84"/>
+      <c r="Y5" s="78">
         <v>16</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="73">
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="78">
         <v>17</v>
       </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="73">
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="78">
         <v>18</v>
       </c>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="73">
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="78">
         <v>19</v>
       </c>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="73">
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="78">
         <v>20</v>
       </c>
-      <c r="AH5" s="74"/>
+      <c r="AH5" s="79"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="80" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="80" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="80" t="s">
+      <c r="L6" s="79"/>
+      <c r="M6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="73" t="s">
+      <c r="N6" s="79"/>
+      <c r="O6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="73" t="s">
+      <c r="P6" s="79"/>
+      <c r="Q6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="74"/>
-      <c r="S6" s="73" t="s">
+      <c r="R6" s="79"/>
+      <c r="S6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="79"/>
+      <c r="U6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="74"/>
-      <c r="W6" s="73" t="s">
+      <c r="V6" s="79"/>
+      <c r="W6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="73" t="s">
+      <c r="X6" s="79"/>
+      <c r="Y6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="73" t="s">
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="73" t="s">
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="73" t="s">
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="74"/>
+      <c r="AH6" s="79"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -2071,13 +2108,13 @@
       <c r="AL7" s="20"/>
     </row>
     <row r="8" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A8" s="68">
+      <c r="A8" s="71">
         <v>1</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -2115,11 +2152,11 @@
       <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="27" t="s">
         <v>14</v>
       </c>
@@ -2157,13 +2194,13 @@
       <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A10" s="68">
+      <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="31" t="s">
         <v>13</v>
       </c>
@@ -2201,11 +2238,11 @@
       <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="34" t="s">
         <v>14</v>
       </c>
@@ -2243,13 +2280,13 @@
       <c r="AL11" s="37"/>
     </row>
     <row r="12" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A12" s="68">
+      <c r="A12" s="71">
         <v>3</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2287,11 +2324,11 @@
       <c r="AL12" s="26"/>
     </row>
     <row r="13" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="38" t="s">
         <v>14</v>
       </c>
@@ -2329,13 +2366,13 @@
       <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A14" s="68">
+      <c r="A14" s="71">
         <v>4</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2373,11 +2410,11 @@
       <c r="AL14" s="10"/>
     </row>
     <row r="15" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="34" t="s">
         <v>14</v>
       </c>
@@ -2415,13 +2452,13 @@
       <c r="AL15" s="37"/>
     </row>
     <row r="16" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A16" s="68">
+      <c r="A16" s="71">
         <v>5</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2459,11 +2496,11 @@
       <c r="AL16" s="26"/>
     </row>
     <row r="17" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="38" t="s">
         <v>14</v>
       </c>
@@ -2501,13 +2538,13 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A18" s="68">
+      <c r="A18" s="71">
         <v>6</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2545,11 +2582,11 @@
       <c r="AL18" s="10"/>
     </row>
     <row r="19" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="27" t="s">
         <v>14</v>
       </c>
@@ -2587,13 +2624,13 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A20" s="68">
+      <c r="A20" s="71">
         <v>7</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2631,11 +2668,11 @@
       <c r="AL20" s="10"/>
     </row>
     <row r="21" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="27" t="s">
         <v>14</v>
       </c>
@@ -2673,13 +2710,13 @@
       <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A22" s="68">
+      <c r="A22" s="71">
         <v>8</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2717,11 +2754,11 @@
       <c r="AL22" s="26"/>
     </row>
     <row r="23" spans="1:38" ht="12" hidden="1" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="34" t="s">
         <v>14</v>
       </c>
@@ -2801,19 +2838,19 @@
       <c r="AL24" s="20"/>
     </row>
     <row r="25" spans="1:38" ht="12" customHeight="1">
-      <c r="A25" s="68">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -2853,11 +2890,11 @@
       <c r="AL25" s="26"/>
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="27" t="s">
         <v>14</v>
       </c>
@@ -2895,19 +2932,19 @@
       <c r="AL26" s="30"/>
     </row>
     <row r="27" spans="1:38" ht="12" customHeight="1">
-      <c r="A27" s="68">
+      <c r="A27" s="71">
         <v>2</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -2947,11 +2984,11 @@
       <c r="AL27" s="10"/>
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="34" t="s">
         <v>14</v>
       </c>
@@ -2989,19 +3026,19 @@
       <c r="AL28" s="37"/>
     </row>
     <row r="29" spans="1:38" ht="12" customHeight="1">
-      <c r="A29" s="68">
+      <c r="A29" s="71">
         <v>3</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -3041,11 +3078,11 @@
       <c r="AL29" s="26"/>
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="38" t="s">
         <v>14</v>
       </c>
@@ -3065,8 +3102,8 @@
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="40"/>
       <c r="AA30" s="40"/>
@@ -3083,19 +3120,19 @@
       <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="1:38" ht="12" customHeight="1">
-      <c r="A31" s="68">
+      <c r="A31" s="71">
         <v>4</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="21" t="s">
@@ -3135,11 +3172,11 @@
       <c r="AL31" s="26"/>
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="27" t="s">
         <v>14</v>
       </c>
@@ -3177,19 +3214,19 @@
       <c r="AL32" s="30"/>
     </row>
     <row r="33" spans="1:38" ht="12" customHeight="1">
-      <c r="A33" s="68">
+      <c r="A33" s="71">
         <v>5</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="31" t="s">
@@ -3229,11 +3266,11 @@
       <c r="AL33" s="10"/>
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="34" t="s">
         <v>14</v>
       </c>
@@ -3271,19 +3308,19 @@
       <c r="AL34" s="37"/>
     </row>
     <row r="35" spans="1:38" ht="12" customHeight="1">
-      <c r="A35" s="68">
+      <c r="A35" s="71">
         <v>6</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -3323,11 +3360,11 @@
       <c r="AL35" s="26"/>
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="38" t="s">
         <v>14</v>
       </c>
@@ -3347,8 +3384,8 @@
       <c r="T36" s="40"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
       <c r="AA36" s="40"/>
@@ -3365,19 +3402,19 @@
       <c r="AL36" s="30"/>
     </row>
     <row r="37" spans="1:38" ht="12" customHeight="1">
-      <c r="A37" s="68">
+      <c r="A37" s="71">
         <v>7</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -3417,11 +3454,11 @@
       <c r="AL37" s="26"/>
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
-      <c r="A38" s="67"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="27" t="s">
         <v>14</v>
       </c>
@@ -3459,19 +3496,19 @@
       <c r="AL38" s="30"/>
     </row>
     <row r="39" spans="1:38" ht="12" customHeight="1">
-      <c r="A39" s="68">
+      <c r="A39" s="71">
         <v>8</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="31" t="s">
@@ -3511,11 +3548,11 @@
       <c r="AL39" s="10"/>
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
-      <c r="A40" s="67"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="34" t="s">
         <v>14</v>
       </c>
@@ -3553,19 +3590,19 @@
       <c r="AL40" s="37"/>
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
-      <c r="A41" s="68">
+      <c r="A41" s="71">
         <v>9</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="21" t="s">
@@ -3605,11 +3642,11 @@
       <c r="AL41" s="26"/>
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
-      <c r="A42" s="67"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="38" t="s">
         <v>14</v>
       </c>
@@ -3629,8 +3666,8 @@
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
@@ -3647,126 +3684,126 @@
       <c r="AL42" s="30"/>
     </row>
     <row r="43" spans="1:38" ht="12" customHeight="1">
-      <c r="A43" s="68">
-        <v>10</v>
+      <c r="A43" s="71">
+        <v>8</v>
       </c>
-      <c r="B43" s="71" t="s">
-        <v>37</v>
+      <c r="B43" s="74" t="s">
+        <v>66</v>
       </c>
-      <c r="C43" s="66" t="s">
-        <v>46</v>
+      <c r="C43" s="73" t="s">
+        <v>35</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="24"/>
-      <c r="AH43" s="24"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
-      <c r="A44" s="67"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="38" t="s">
+      <c r="A44" s="72"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="40"/>
-      <c r="AH44" s="40"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
     </row>
     <row r="45" spans="1:38" ht="12" customHeight="1">
-      <c r="A45" s="68">
-        <v>11</v>
+      <c r="A45" s="71">
+        <v>9</v>
       </c>
-      <c r="B45" s="71" t="s">
-        <v>38</v>
+      <c r="B45" s="76" t="s">
+        <v>67</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>46</v>
+      <c r="C45" s="73" t="s">
+        <v>35</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="56"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="24"/>
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
@@ -3793,22 +3830,22 @@
       <c r="AL45" s="26"/>
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
       <c r="M46" s="40"/>
-      <c r="N46" s="63"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="40"/>
       <c r="P46" s="40"/>
       <c r="Q46" s="40"/>
@@ -3817,8 +3854,8 @@
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="63"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
@@ -3835,126 +3872,126 @@
       <c r="AL46" s="30"/>
     </row>
     <row r="47" spans="1:38" ht="12" customHeight="1">
-      <c r="A47" s="68">
-        <v>12</v>
+      <c r="A47" s="71">
+        <v>8</v>
       </c>
-      <c r="B47" s="71" t="s">
-        <v>39</v>
+      <c r="B47" s="74" t="s">
+        <v>68</v>
       </c>
-      <c r="C47" s="66" t="s">
-        <v>46</v>
+      <c r="C47" s="73" t="s">
+        <v>35</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
-      <c r="A48" s="67"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="38" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="40"/>
-      <c r="AF48" s="40"/>
-      <c r="AG48" s="40"/>
-      <c r="AH48" s="40"/>
-      <c r="AI48" s="30"/>
-      <c r="AJ48" s="30"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
     </row>
     <row r="49" spans="1:38" ht="12" customHeight="1">
-      <c r="A49" s="68">
-        <v>12</v>
+      <c r="A49" s="71">
+        <v>9</v>
       </c>
-      <c r="B49" s="71" t="s">
-        <v>40</v>
+      <c r="B49" s="76" t="s">
+        <v>69</v>
       </c>
-      <c r="C49" s="66" t="s">
-        <v>47</v>
+      <c r="C49" s="73" t="s">
+        <v>35</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="66" t="s">
-        <v>51</v>
+      <c r="E49" s="73" t="s">
+        <v>49</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="56"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="24"/>
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
@@ -3981,22 +4018,22 @@
       <c r="AL49" s="26"/>
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
-      <c r="A50" s="67"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
       <c r="F50" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
       <c r="M50" s="40"/>
-      <c r="N50" s="63"/>
+      <c r="N50" s="40"/>
       <c r="O50" s="40"/>
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
@@ -4005,8 +4042,8 @@
       <c r="T50" s="40"/>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
       <c r="Y50" s="40"/>
       <c r="Z50" s="40"/>
       <c r="AA50" s="40"/>
@@ -4023,20 +4060,20 @@
       <c r="AL50" s="30"/>
     </row>
     <row r="51" spans="1:38" ht="12" customHeight="1">
-      <c r="A51" s="68">
-        <v>12</v>
+      <c r="A51" s="71">
+        <v>10</v>
       </c>
-      <c r="B51" s="71" t="s">
-        <v>41</v>
+      <c r="B51" s="76" t="s">
+        <v>37</v>
       </c>
-      <c r="C51" s="66" t="s">
-        <v>47</v>
+      <c r="C51" s="73" t="s">
+        <v>46</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="66" t="s">
-        <v>51</v>
+      <c r="E51" s="73" t="s">
+        <v>49</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>13</v>
@@ -4075,11 +4112,11 @@
       <c r="AL51" s="26"/>
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
-      <c r="A52" s="67"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="38" t="s">
         <v>14</v>
       </c>
@@ -4117,20 +4154,20 @@
       <c r="AL52" s="30"/>
     </row>
     <row r="53" spans="1:38" ht="12" customHeight="1">
-      <c r="A53" s="68">
-        <v>12</v>
+      <c r="A53" s="71">
+        <v>11</v>
       </c>
-      <c r="B53" s="71" t="s">
-        <v>42</v>
+      <c r="B53" s="76" t="s">
+        <v>38</v>
       </c>
-      <c r="C53" s="66" t="s">
-        <v>47</v>
+      <c r="C53" s="73" t="s">
+        <v>46</v>
       </c>
-      <c r="D53" s="66" t="s">
+      <c r="D53" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="66" t="s">
-        <v>51</v>
+      <c r="E53" s="73" t="s">
+        <v>49</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>13</v>
@@ -4169,11 +4206,11 @@
       <c r="AL53" s="26"/>
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="38" t="s">
         <v>14</v>
       </c>
@@ -4211,19 +4248,19 @@
       <c r="AL54" s="30"/>
     </row>
     <row r="55" spans="1:38" ht="12" customHeight="1">
-      <c r="A55" s="68">
+      <c r="A55" s="71">
         <v>12</v>
       </c>
-      <c r="B55" s="71" t="s">
-        <v>43</v>
+      <c r="B55" s="76" t="s">
+        <v>39</v>
       </c>
-      <c r="C55" s="66" t="s">
-        <v>48</v>
+      <c r="C55" s="73" t="s">
+        <v>46</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -4263,11 +4300,11 @@
       <c r="AL55" s="26"/>
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="38" t="s">
         <v>14</v>
       </c>
@@ -4305,20 +4342,20 @@
       <c r="AL56" s="30"/>
     </row>
     <row r="57" spans="1:38" ht="12" customHeight="1">
-      <c r="A57" s="68">
+      <c r="A57" s="71">
         <v>12</v>
       </c>
-      <c r="B57" s="71" t="s">
-        <v>44</v>
+      <c r="B57" s="76" t="s">
+        <v>40</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>48</v>
+      <c r="C57" s="73" t="s">
+        <v>47</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="66" t="s">
-        <v>49</v>
+      <c r="E57" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>13</v>
@@ -4357,11 +4394,11 @@
       <c r="AL57" s="26"/>
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
       <c r="F58" s="38" t="s">
         <v>14</v>
       </c>
@@ -4399,20 +4436,20 @@
       <c r="AL58" s="30"/>
     </row>
     <row r="59" spans="1:38" ht="12" customHeight="1">
-      <c r="A59" s="68">
+      <c r="A59" s="71">
         <v>12</v>
       </c>
-      <c r="B59" s="71" t="s">
-        <v>45</v>
+      <c r="B59" s="76" t="s">
+        <v>41</v>
       </c>
-      <c r="C59" s="66" t="s">
-        <v>48</v>
+      <c r="C59" s="73" t="s">
+        <v>47</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="66" t="s">
-        <v>49</v>
+      <c r="E59" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>13</v>
@@ -4451,11 +4488,11 @@
       <c r="AL59" s="26"/>
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="38" t="s">
         <v>14</v>
       </c>
@@ -4493,437 +4530,437 @@
       <c r="AL60" s="30"/>
     </row>
     <row r="61" spans="1:38" ht="12" customHeight="1">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="71">
+        <v>12</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="24"/>
+      <c r="AI61" s="26"/>
+      <c r="AJ61" s="26"/>
+      <c r="AK61" s="26"/>
+      <c r="AL61" s="26"/>
+    </row>
+    <row r="62" spans="1:38" ht="12" customHeight="1">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="40"/>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="40"/>
+      <c r="AH62" s="40"/>
+      <c r="AI62" s="30"/>
+      <c r="AJ62" s="30"/>
+      <c r="AK62" s="30"/>
+      <c r="AL62" s="30"/>
+    </row>
+    <row r="63" spans="1:38" ht="12" customHeight="1">
+      <c r="A63" s="71">
+        <v>12</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
+      <c r="AI63" s="26"/>
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+    </row>
+    <row r="64" spans="1:38" ht="12" customHeight="1">
+      <c r="A64" s="72"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
+      <c r="AB64" s="40"/>
+      <c r="AC64" s="40"/>
+      <c r="AD64" s="40"/>
+      <c r="AE64" s="40"/>
+      <c r="AF64" s="40"/>
+      <c r="AG64" s="40"/>
+      <c r="AH64" s="40"/>
+      <c r="AI64" s="30"/>
+      <c r="AJ64" s="30"/>
+      <c r="AK64" s="30"/>
+      <c r="AL64" s="30"/>
+    </row>
+    <row r="65" spans="1:38" ht="12" customHeight="1">
+      <c r="A65" s="71">
+        <v>12</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="26"/>
+      <c r="AJ65" s="26"/>
+      <c r="AK65" s="26"/>
+      <c r="AL65" s="26"/>
+    </row>
+    <row r="66" spans="1:38" ht="12" customHeight="1">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="40"/>
+      <c r="AC66" s="40"/>
+      <c r="AD66" s="40"/>
+      <c r="AE66" s="40"/>
+      <c r="AF66" s="40"/>
+      <c r="AG66" s="40"/>
+      <c r="AH66" s="40"/>
+      <c r="AI66" s="30"/>
+      <c r="AJ66" s="30"/>
+      <c r="AK66" s="30"/>
+      <c r="AL66" s="30"/>
+    </row>
+    <row r="67" spans="1:38" ht="12" customHeight="1">
+      <c r="A67" s="71">
+        <v>12</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="26"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="26"/>
+      <c r="AL67" s="26"/>
+    </row>
+    <row r="68" spans="1:38" ht="12" customHeight="1">
+      <c r="A68" s="72"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
+      <c r="AB68" s="40"/>
+      <c r="AC68" s="40"/>
+      <c r="AD68" s="40"/>
+      <c r="AE68" s="40"/>
+      <c r="AF68" s="40"/>
+      <c r="AG68" s="40"/>
+      <c r="AH68" s="40"/>
+      <c r="AI68" s="30"/>
+      <c r="AJ68" s="30"/>
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="30"/>
+    </row>
+    <row r="69" spans="1:38" ht="12" customHeight="1">
+      <c r="A69" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16"/>
-      <c r="AH61" s="16"/>
-      <c r="AI61" s="20"/>
-      <c r="AJ61" s="20"/>
-      <c r="AK61" s="20"/>
-      <c r="AL61" s="20"/>
-    </row>
-    <row r="62" spans="1:38" ht="12" customHeight="1">
-      <c r="A62" s="68">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="16"/>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+      <c r="AL69" s="20"/>
+    </row>
+    <row r="70" spans="1:38" ht="12" customHeight="1">
+      <c r="A70" s="71">
         <v>1</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B70" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C70" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="66" t="s">
+      <c r="D70" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="24"/>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="24"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="26"/>
-      <c r="AJ62" s="26"/>
-      <c r="AK62" s="26"/>
-      <c r="AL62" s="26"/>
-    </row>
-    <row r="63" spans="1:38" ht="12" customHeight="1">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="29"/>
-      <c r="AG63" s="29"/>
-      <c r="AH63" s="29"/>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="30"/>
-    </row>
-    <row r="64" spans="1:38" ht="12" customHeight="1">
-      <c r="A64" s="68">
-        <v>2</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="33"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="10"/>
-      <c r="AJ64" s="10"/>
-      <c r="AK64" s="10"/>
-      <c r="AL64" s="10"/>
-    </row>
-    <row r="65" spans="1:38" ht="12" customHeight="1">
-      <c r="A65" s="67"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-      <c r="Z65" s="36"/>
-      <c r="AA65" s="36"/>
-      <c r="AB65" s="36"/>
-      <c r="AC65" s="36"/>
-      <c r="AD65" s="36"/>
-      <c r="AE65" s="36"/>
-      <c r="AF65" s="36"/>
-      <c r="AG65" s="36"/>
-      <c r="AH65" s="36"/>
-      <c r="AI65" s="37"/>
-      <c r="AJ65" s="37"/>
-      <c r="AK65" s="37"/>
-      <c r="AL65" s="37"/>
-    </row>
-    <row r="66" spans="1:38" ht="12" customHeight="1">
-      <c r="A66" s="68">
-        <v>3</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="26"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="26"/>
-    </row>
-    <row r="67" spans="1:38" ht="12" customHeight="1">
-      <c r="A67" s="67"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
-      <c r="AB67" s="40"/>
-      <c r="AC67" s="40"/>
-      <c r="AD67" s="40"/>
-      <c r="AE67" s="40"/>
-      <c r="AF67" s="40"/>
-      <c r="AG67" s="40"/>
-      <c r="AH67" s="40"/>
-      <c r="AI67" s="30"/>
-      <c r="AJ67" s="30"/>
-      <c r="AK67" s="30"/>
-      <c r="AL67" s="30"/>
-    </row>
-    <row r="68" spans="1:38" ht="12" customHeight="1">
-      <c r="A68" s="68">
-        <v>4</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="32"/>
-      <c r="W68" s="32"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-      <c r="AB68" s="32"/>
-      <c r="AC68" s="32"/>
-      <c r="AD68" s="32"/>
-      <c r="AE68" s="32"/>
-      <c r="AF68" s="32"/>
-      <c r="AG68" s="32"/>
-      <c r="AH68" s="32"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-    </row>
-    <row r="69" spans="1:38" ht="12" customHeight="1">
-      <c r="A69" s="67"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="65"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="36"/>
-      <c r="AI69" s="37"/>
-      <c r="AJ69" s="37"/>
-      <c r="AK69" s="37"/>
-      <c r="AL69" s="37"/>
-    </row>
-    <row r="70" spans="1:38" ht="12" customHeight="1">
-      <c r="A70" s="68">
-        <v>5</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="73" t="s">
         <v>51</v>
       </c>
       <c r="F70" s="21" t="s">
@@ -4963,11 +5000,11 @@
       <c r="AL70" s="26"/>
     </row>
     <row r="71" spans="1:38" ht="12" customHeight="1">
-      <c r="A71" s="67"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="72"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="27" t="s">
         <v>14</v>
       </c>
@@ -5005,19 +5042,19 @@
       <c r="AL71" s="30"/>
     </row>
     <row r="72" spans="1:38" ht="12" customHeight="1">
-      <c r="A72" s="68">
-        <v>6</v>
+      <c r="A72" s="71">
+        <v>2</v>
       </c>
-      <c r="B72" s="66" t="s">
-        <v>58</v>
+      <c r="B72" s="76" t="s">
+        <v>54</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C72" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="73" t="s">
         <v>51</v>
       </c>
       <c r="F72" s="31" t="s">
@@ -5032,7 +5069,7 @@
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
       <c r="O72" s="57"/>
-      <c r="P72" s="23"/>
+      <c r="P72" s="57"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
       <c r="S72" s="52"/>
@@ -5057,11 +5094,11 @@
       <c r="AL72" s="10"/>
     </row>
     <row r="73" spans="1:38" ht="12" customHeight="1">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
       <c r="F73" s="34" t="s">
         <v>14</v>
       </c>
@@ -5099,19 +5136,19 @@
       <c r="AL73" s="37"/>
     </row>
     <row r="74" spans="1:38" ht="12" customHeight="1">
-      <c r="A74" s="68">
-        <v>7</v>
+      <c r="A74" s="71">
+        <v>3</v>
       </c>
-      <c r="B74" s="71" t="s">
-        <v>59</v>
+      <c r="B74" s="76" t="s">
+        <v>52</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="66" t="s">
+      <c r="D74" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="66" t="s">
+      <c r="E74" s="73" t="s">
         <v>51</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -5125,7 +5162,7 @@
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24"/>
-      <c r="O74" s="57"/>
+      <c r="O74" s="56"/>
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
@@ -5151,11 +5188,11 @@
       <c r="AL74" s="26"/>
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
-      <c r="A75" s="67"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
       <c r="F75" s="38" t="s">
         <v>14</v>
       </c>
@@ -5167,7 +5204,7 @@
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
       <c r="N75" s="40"/>
-      <c r="O75" s="65"/>
+      <c r="O75" s="63"/>
       <c r="P75" s="40"/>
       <c r="Q75" s="40"/>
       <c r="R75" s="54"/>
@@ -5193,128 +5230,128 @@
       <c r="AL75" s="30"/>
     </row>
     <row r="76" spans="1:38" ht="12" customHeight="1">
-      <c r="A76" s="68">
-        <v>8</v>
+      <c r="A76" s="71">
+        <v>4</v>
       </c>
-      <c r="B76" s="66" t="s">
-        <v>62</v>
+      <c r="B76" s="76" t="s">
+        <v>53</v>
       </c>
-      <c r="C76" s="66" t="s">
+      <c r="C76" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="66" t="s">
+      <c r="D76" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="66" t="s">
+      <c r="E76" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="24"/>
-      <c r="AB76" s="24"/>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="24"/>
-      <c r="AE76" s="24"/>
-      <c r="AF76" s="24"/>
-      <c r="AG76" s="24"/>
-      <c r="AH76" s="24"/>
-      <c r="AI76" s="26"/>
-      <c r="AJ76" s="26"/>
-      <c r="AK76" s="26"/>
-      <c r="AL76" s="26"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="32"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="32"/>
+      <c r="Z76" s="32"/>
+      <c r="AA76" s="32"/>
+      <c r="AB76" s="32"/>
+      <c r="AC76" s="32"/>
+      <c r="AD76" s="32"/>
+      <c r="AE76" s="32"/>
+      <c r="AF76" s="32"/>
+      <c r="AG76" s="32"/>
+      <c r="AH76" s="32"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="27" t="s">
+      <c r="A77" s="72"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-      <c r="AE77" s="29"/>
-      <c r="AF77" s="29"/>
-      <c r="AG77" s="29"/>
-      <c r="AH77" s="29"/>
-      <c r="AI77" s="30"/>
-      <c r="AJ77" s="30"/>
-      <c r="AK77" s="30"/>
-      <c r="AL77" s="30"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="53"/>
+      <c r="S77" s="49"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="36"/>
+      <c r="AB77" s="36"/>
+      <c r="AC77" s="36"/>
+      <c r="AD77" s="36"/>
+      <c r="AE77" s="36"/>
+      <c r="AF77" s="36"/>
+      <c r="AG77" s="36"/>
+      <c r="AH77" s="36"/>
+      <c r="AI77" s="37"/>
+      <c r="AJ77" s="37"/>
+      <c r="AK77" s="37"/>
+      <c r="AL77" s="37"/>
     </row>
     <row r="78" spans="1:38" ht="12" customHeight="1">
-      <c r="A78" s="68">
-        <v>9</v>
+      <c r="A78" s="71">
+        <v>5</v>
       </c>
-      <c r="B78" s="71" t="s">
-        <v>60</v>
+      <c r="B78" s="76" t="s">
+        <v>57</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="66" t="s">
+      <c r="D78" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="66" t="s">
+      <c r="E78" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="23"/>
       <c r="Q78" s="23"/>
       <c r="R78" s="23"/>
       <c r="S78" s="52"/>
@@ -5323,853 +5360,873 @@
       <c r="V78" s="23"/>
       <c r="W78" s="23"/>
       <c r="X78" s="23"/>
-      <c r="Y78" s="32"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="32"/>
-      <c r="AB78" s="32"/>
-      <c r="AC78" s="32"/>
-      <c r="AD78" s="32"/>
-      <c r="AE78" s="32"/>
-      <c r="AF78" s="32"/>
-      <c r="AG78" s="32"/>
-      <c r="AH78" s="32"/>
-      <c r="AI78" s="10"/>
-      <c r="AJ78" s="10"/>
-      <c r="AK78" s="10"/>
-      <c r="AL78" s="10"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="26"/>
+      <c r="AJ78" s="26"/>
+      <c r="AK78" s="26"/>
+      <c r="AL78" s="26"/>
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
-      <c r="A79" s="67"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="34" t="s">
+      <c r="A79" s="72"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
-      <c r="AB79" s="36"/>
-      <c r="AC79" s="36"/>
-      <c r="AD79" s="36"/>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="36"/>
-      <c r="AH79" s="36"/>
-      <c r="AI79" s="37"/>
-      <c r="AJ79" s="37"/>
-      <c r="AK79" s="37"/>
-      <c r="AL79" s="37"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="29"/>
+      <c r="AH79" s="29"/>
+      <c r="AI79" s="30"/>
+      <c r="AJ79" s="30"/>
+      <c r="AK79" s="30"/>
+      <c r="AL79" s="30"/>
     </row>
     <row r="80" spans="1:38" ht="12" customHeight="1">
-      <c r="A80" s="68">
+      <c r="A80" s="71">
+        <v>6</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="33"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="52"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
+      <c r="AD80" s="32"/>
+      <c r="AE80" s="32"/>
+      <c r="AF80" s="32"/>
+      <c r="AG80" s="32"/>
+      <c r="AH80" s="32"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+    </row>
+    <row r="81" spans="1:38" ht="12" customHeight="1">
+      <c r="A81" s="72"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="35"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="53"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
+      <c r="Z81" s="36"/>
+      <c r="AA81" s="36"/>
+      <c r="AB81" s="36"/>
+      <c r="AC81" s="36"/>
+      <c r="AD81" s="36"/>
+      <c r="AE81" s="36"/>
+      <c r="AF81" s="36"/>
+      <c r="AG81" s="36"/>
+      <c r="AH81" s="36"/>
+      <c r="AI81" s="37"/>
+      <c r="AJ81" s="37"/>
+      <c r="AK81" s="37"/>
+      <c r="AL81" s="37"/>
+    </row>
+    <row r="82" spans="1:38" ht="12" customHeight="1">
+      <c r="A82" s="71">
+        <v>7</v>
+      </c>
+      <c r="B82" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="25"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="24"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="24"/>
+      <c r="AB82" s="24"/>
+      <c r="AC82" s="24"/>
+      <c r="AD82" s="24"/>
+      <c r="AE82" s="24"/>
+      <c r="AF82" s="24"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="24"/>
+      <c r="AI82" s="26"/>
+      <c r="AJ82" s="26"/>
+      <c r="AK82" s="26"/>
+      <c r="AL82" s="26"/>
+    </row>
+    <row r="83" spans="1:38" ht="12" customHeight="1">
+      <c r="A83" s="72"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="39"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="54"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
+      <c r="AA83" s="40"/>
+      <c r="AB83" s="40"/>
+      <c r="AC83" s="40"/>
+      <c r="AD83" s="40"/>
+      <c r="AE83" s="40"/>
+      <c r="AF83" s="40"/>
+      <c r="AG83" s="40"/>
+      <c r="AH83" s="40"/>
+      <c r="AI83" s="30"/>
+      <c r="AJ83" s="30"/>
+      <c r="AK83" s="30"/>
+      <c r="AL83" s="30"/>
+    </row>
+    <row r="84" spans="1:38" ht="12" customHeight="1">
+      <c r="A84" s="71">
+        <v>8</v>
+      </c>
+      <c r="B84" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="52"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="24"/>
+      <c r="AI84" s="26"/>
+      <c r="AJ84" s="26"/>
+      <c r="AK84" s="26"/>
+      <c r="AL84" s="26"/>
+    </row>
+    <row r="85" spans="1:38" ht="12" customHeight="1">
+      <c r="A85" s="72"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="30"/>
+      <c r="AJ85" s="30"/>
+      <c r="AK85" s="30"/>
+      <c r="AL85" s="30"/>
+    </row>
+    <row r="86" spans="1:38" ht="12" customHeight="1">
+      <c r="A86" s="71">
+        <v>9</v>
+      </c>
+      <c r="B86" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="52"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="32"/>
+      <c r="Z86" s="32"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
+      <c r="AD86" s="32"/>
+      <c r="AE86" s="32"/>
+      <c r="AF86" s="32"/>
+      <c r="AG86" s="32"/>
+      <c r="AH86" s="32"/>
+      <c r="AI86" s="10"/>
+      <c r="AJ86" s="10"/>
+      <c r="AK86" s="10"/>
+      <c r="AL86" s="10"/>
+    </row>
+    <row r="87" spans="1:38" ht="12" customHeight="1">
+      <c r="A87" s="72"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="53"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
+      <c r="AC87" s="36"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
+      <c r="AG87" s="36"/>
+      <c r="AH87" s="36"/>
+      <c r="AI87" s="37"/>
+      <c r="AJ87" s="37"/>
+      <c r="AK87" s="37"/>
+      <c r="AL87" s="37"/>
+    </row>
+    <row r="88" spans="1:38" ht="12" customHeight="1">
+      <c r="A88" s="71">
         <v>10</v>
       </c>
-      <c r="B80" s="71" t="s">
+      <c r="B88" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="25"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="24"/>
+      <c r="AI88" s="26"/>
+      <c r="AJ88" s="26"/>
+      <c r="AK88" s="26"/>
+      <c r="AL88" s="26"/>
+    </row>
+    <row r="89" spans="1:38" ht="12" customHeight="1">
+      <c r="A89" s="72"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="39"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="54"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
+      <c r="AA89" s="40"/>
+      <c r="AB89" s="40"/>
+      <c r="AC89" s="40"/>
+      <c r="AD89" s="40"/>
+      <c r="AE89" s="40"/>
+      <c r="AF89" s="40"/>
+      <c r="AG89" s="40"/>
+      <c r="AH89" s="40"/>
+      <c r="AI89" s="30"/>
+      <c r="AJ89" s="30"/>
+      <c r="AK89" s="30"/>
+      <c r="AL89" s="30"/>
+    </row>
+    <row r="90" spans="1:38" ht="12" customHeight="1">
+      <c r="A90" s="71">
+        <v>11</v>
+      </c>
+      <c r="B90" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="66" t="s">
-        <v>48</v>
+      <c r="C90" s="73" t="s">
+        <v>64</v>
       </c>
-      <c r="D80" s="66" t="s">
+      <c r="D90" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="66" t="s">
+      <c r="E90" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F90" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-      <c r="AI80" s="26"/>
-      <c r="AJ80" s="26"/>
-      <c r="AK80" s="26"/>
-      <c r="AL80" s="26"/>
-    </row>
-    <row r="81" spans="1:38" ht="12" customHeight="1">
-      <c r="A81" s="67"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="38" t="s">
+      <c r="G90" s="33"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="32"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="24"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="32"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="32"/>
+      <c r="AE90" s="32"/>
+      <c r="AF90" s="32"/>
+      <c r="AG90" s="32"/>
+      <c r="AH90" s="32"/>
+      <c r="AI90" s="10"/>
+      <c r="AJ90" s="10"/>
+      <c r="AK90" s="10"/>
+      <c r="AL90" s="10"/>
+    </row>
+    <row r="91" spans="1:38" ht="12" customHeight="1">
+      <c r="A91" s="72"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="40"/>
-      <c r="AA81" s="40"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="40"/>
-      <c r="AD81" s="40"/>
-      <c r="AE81" s="40"/>
-      <c r="AF81" s="40"/>
-      <c r="AG81" s="40"/>
-      <c r="AH81" s="40"/>
-      <c r="AI81" s="30"/>
-      <c r="AJ81" s="30"/>
-      <c r="AK81" s="30"/>
-      <c r="AL81" s="30"/>
-    </row>
-    <row r="82" spans="1:38" ht="12" customHeight="1">
-      <c r="A82" s="68">
+      <c r="G91" s="66"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
+      <c r="Q91" s="67"/>
+      <c r="R91" s="69"/>
+      <c r="S91" s="68"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="67"/>
+      <c r="X91" s="67"/>
+      <c r="Y91" s="67"/>
+      <c r="Z91" s="67"/>
+      <c r="AA91" s="67"/>
+      <c r="AB91" s="67"/>
+      <c r="AC91" s="67"/>
+      <c r="AD91" s="67"/>
+      <c r="AE91" s="67"/>
+      <c r="AF91" s="67"/>
+      <c r="AG91" s="67"/>
+      <c r="AH91" s="67"/>
+      <c r="AI91" s="37"/>
+      <c r="AJ91" s="37"/>
+      <c r="AK91" s="37"/>
+      <c r="AL91" s="37"/>
+    </row>
+    <row r="92" spans="1:38" ht="12" customHeight="1">
+      <c r="A92" s="71">
         <v>11</v>
       </c>
-      <c r="B82" s="66" t="s">
+      <c r="B92" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="66" t="s">
+      <c r="D92" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="66" t="s">
+      <c r="E92" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F92" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="24"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="32"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="32"/>
-      <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
-      <c r="AG82" s="32"/>
-      <c r="AH82" s="32"/>
-      <c r="AI82" s="10"/>
-      <c r="AJ82" s="10"/>
-      <c r="AK82" s="10"/>
-      <c r="AL82" s="10"/>
-    </row>
-    <row r="83" spans="1:38" ht="12" customHeight="1">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="34" t="s">
+      <c r="G92" s="33"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="61"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
+      <c r="AI92" s="10"/>
+      <c r="AJ92" s="10"/>
+      <c r="AK92" s="10"/>
+      <c r="AL92" s="10"/>
+    </row>
+    <row r="93" spans="1:38" ht="12" customHeight="1">
+      <c r="A93" s="72"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="92"/>
-      <c r="H83" s="93"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="93"/>
-      <c r="L83" s="93"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="93"/>
-      <c r="O83" s="93"/>
-      <c r="P83" s="93"/>
-      <c r="Q83" s="93"/>
-      <c r="R83" s="95"/>
-      <c r="S83" s="94"/>
-      <c r="T83" s="93"/>
-      <c r="U83" s="93"/>
-      <c r="V83" s="93"/>
-      <c r="W83" s="93"/>
-      <c r="X83" s="93"/>
-      <c r="Y83" s="93"/>
-      <c r="Z83" s="93"/>
-      <c r="AA83" s="93"/>
-      <c r="AB83" s="93"/>
-      <c r="AC83" s="93"/>
-      <c r="AD83" s="93"/>
-      <c r="AE83" s="93"/>
-      <c r="AF83" s="93"/>
-      <c r="AG83" s="93"/>
-      <c r="AH83" s="93"/>
-      <c r="AI83" s="37"/>
-      <c r="AJ83" s="37"/>
-      <c r="AK83" s="37"/>
-      <c r="AL83" s="37"/>
-    </row>
-    <row r="84" spans="1:38" ht="12" customHeight="1">
-      <c r="A84" s="68">
-        <v>11</v>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="70"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="36"/>
+      <c r="Y93" s="36"/>
+      <c r="Z93" s="36"/>
+      <c r="AA93" s="36"/>
+      <c r="AB93" s="36"/>
+      <c r="AC93" s="36"/>
+      <c r="AD93" s="36"/>
+      <c r="AE93" s="36"/>
+      <c r="AF93" s="36"/>
+      <c r="AG93" s="36"/>
+      <c r="AH93" s="36"/>
+      <c r="AI93" s="37"/>
+      <c r="AJ93" s="37"/>
+      <c r="AK93" s="37"/>
+      <c r="AL93" s="37"/>
+    </row>
+    <row r="94" spans="1:38" ht="12" customHeight="1">
+      <c r="A94" s="71">
+        <v>12</v>
       </c>
-      <c r="B84" s="71" t="s">
-        <v>66</v>
+      <c r="B94" s="76" t="s">
+        <v>50</v>
       </c>
-      <c r="C84" s="66" t="s">
-        <v>65</v>
+      <c r="C94" s="73" t="s">
+        <v>55</v>
       </c>
-      <c r="D84" s="66" t="s">
+      <c r="D94" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="66" t="s">
+      <c r="E94" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="46"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
+      <c r="V94" s="24"/>
+      <c r="W94" s="24"/>
+      <c r="X94" s="24"/>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="56"/>
+      <c r="AA94" s="24"/>
+      <c r="AB94" s="24"/>
+      <c r="AC94" s="24"/>
+      <c r="AD94" s="24"/>
+      <c r="AE94" s="24"/>
+      <c r="AF94" s="24"/>
+      <c r="AG94" s="24"/>
+      <c r="AH94" s="24"/>
+      <c r="AI94" s="26"/>
+      <c r="AJ94" s="26"/>
+      <c r="AK94" s="26"/>
+      <c r="AL94" s="26"/>
+    </row>
+    <row r="95" spans="1:38" ht="12" customHeight="1">
+      <c r="A95" s="72"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="59"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
+      <c r="AE95" s="29"/>
+      <c r="AF95" s="29"/>
+      <c r="AG95" s="29"/>
+      <c r="AH95" s="29"/>
+      <c r="AI95" s="41"/>
+      <c r="AJ95" s="41"/>
+      <c r="AK95" s="41"/>
+      <c r="AL95" s="41"/>
+    </row>
+    <row r="96" spans="1:38" ht="12" customHeight="1">
+      <c r="A96" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="16"/>
+      <c r="Z96" s="16"/>
+      <c r="AA96" s="16"/>
+      <c r="AB96" s="16"/>
+      <c r="AC96" s="16"/>
+      <c r="AD96" s="16"/>
+      <c r="AE96" s="16"/>
+      <c r="AF96" s="16"/>
+      <c r="AG96" s="16"/>
+      <c r="AH96" s="16"/>
+      <c r="AI96" s="20"/>
+      <c r="AJ96" s="20"/>
+      <c r="AK96" s="20"/>
+      <c r="AL96" s="20"/>
+    </row>
+    <row r="97" spans="1:38" ht="12" customHeight="1">
+      <c r="A97" s="71">
+        <v>1</v>
+      </c>
+      <c r="B97" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F84" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="48"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="32"/>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="32"/>
-      <c r="AI84" s="10"/>
-      <c r="AJ84" s="10"/>
-      <c r="AK84" s="10"/>
-      <c r="AL84" s="10"/>
-    </row>
-    <row r="85" spans="1:38" ht="12" customHeight="1">
-      <c r="A85" s="67"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="35"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="96"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
-      <c r="AB85" s="36"/>
-      <c r="AC85" s="36"/>
-      <c r="AD85" s="36"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="36"/>
-      <c r="AH85" s="36"/>
-      <c r="AI85" s="37"/>
-      <c r="AJ85" s="37"/>
-      <c r="AK85" s="37"/>
-      <c r="AL85" s="37"/>
-    </row>
-    <row r="86" spans="1:38" ht="12" customHeight="1">
-      <c r="A86" s="68">
-        <v>12</v>
-      </c>
-      <c r="B86" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="46"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
-      <c r="AB86" s="24"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="24"/>
-      <c r="AI86" s="26"/>
-      <c r="AJ86" s="26"/>
-      <c r="AK86" s="26"/>
-      <c r="AL86" s="26"/>
-    </row>
-    <row r="87" spans="1:38" ht="12" customHeight="1">
-      <c r="A87" s="67"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
-      <c r="AE87" s="29"/>
-      <c r="AF87" s="29"/>
-      <c r="AG87" s="29"/>
-      <c r="AH87" s="29"/>
-      <c r="AI87" s="41"/>
-      <c r="AJ87" s="41"/>
-      <c r="AK87" s="41"/>
-      <c r="AL87" s="41"/>
-    </row>
-    <row r="88" spans="1:38" ht="12" customHeight="1">
-      <c r="A88" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="16"/>
-      <c r="AD88" s="16"/>
-      <c r="AE88" s="16"/>
-      <c r="AF88" s="16"/>
-      <c r="AG88" s="16"/>
-      <c r="AH88" s="16"/>
-      <c r="AI88" s="20"/>
-      <c r="AJ88" s="20"/>
-      <c r="AK88" s="20"/>
-      <c r="AL88" s="20"/>
-    </row>
-    <row r="89" spans="1:38" ht="12" customHeight="1">
-      <c r="A89" s="68">
-        <v>1</v>
-      </c>
-      <c r="B89" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="24"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="57"/>
-      <c r="Z89" s="57"/>
-      <c r="AA89" s="56"/>
-      <c r="AB89" s="56"/>
-      <c r="AC89" s="24"/>
-      <c r="AD89" s="24"/>
-      <c r="AE89" s="23"/>
-      <c r="AF89" s="23"/>
-      <c r="AG89" s="24"/>
-      <c r="AH89" s="24"/>
-      <c r="AI89" s="26"/>
-      <c r="AJ89" s="26"/>
-      <c r="AK89" s="26"/>
-      <c r="AL89" s="26"/>
-    </row>
-    <row r="90" spans="1:38" ht="12" customHeight="1">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29"/>
-      <c r="AE90" s="29"/>
-      <c r="AF90" s="29"/>
-      <c r="AG90" s="29"/>
-      <c r="AH90" s="29"/>
-      <c r="AI90" s="30"/>
-      <c r="AJ90" s="30"/>
-      <c r="AK90" s="30"/>
-      <c r="AL90" s="30"/>
-    </row>
-    <row r="91" spans="1:38" ht="12" customHeight="1">
-      <c r="A91" s="68">
-        <v>2</v>
-      </c>
-      <c r="B91" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="32"/>
-      <c r="O91" s="32"/>
-      <c r="P91" s="32"/>
-      <c r="Q91" s="32"/>
-      <c r="R91" s="32"/>
-      <c r="S91" s="48"/>
-      <c r="T91" s="32"/>
-      <c r="U91" s="32"/>
-      <c r="V91" s="32"/>
-      <c r="W91" s="32"/>
-      <c r="X91" s="32"/>
-      <c r="Y91" s="57"/>
-      <c r="Z91" s="57"/>
-      <c r="AA91" s="61"/>
-      <c r="AB91" s="61"/>
-      <c r="AC91" s="32"/>
-      <c r="AD91" s="32"/>
-      <c r="AE91" s="23"/>
-      <c r="AF91" s="23"/>
-      <c r="AG91" s="32"/>
-      <c r="AH91" s="32"/>
-      <c r="AI91" s="10"/>
-      <c r="AJ91" s="10"/>
-      <c r="AK91" s="10"/>
-      <c r="AL91" s="10"/>
-    </row>
-    <row r="92" spans="1:38" ht="12" customHeight="1">
-      <c r="A92" s="67"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="53"/>
-      <c r="S92" s="49"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
-      <c r="AB92" s="36"/>
-      <c r="AC92" s="36"/>
-      <c r="AD92" s="36"/>
-      <c r="AE92" s="36"/>
-      <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="36"/>
-      <c r="AI92" s="37"/>
-      <c r="AJ92" s="37"/>
-      <c r="AK92" s="37"/>
-      <c r="AL92" s="37"/>
-    </row>
-    <row r="93" spans="1:38" ht="12" customHeight="1">
-      <c r="A93" s="68">
-        <v>3</v>
-      </c>
-      <c r="B93" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="24"/>
-      <c r="U93" s="24"/>
-      <c r="V93" s="24"/>
-      <c r="W93" s="24"/>
-      <c r="X93" s="24"/>
-      <c r="Y93" s="57"/>
-      <c r="Z93" s="57"/>
-      <c r="AA93" s="56"/>
-      <c r="AB93" s="56"/>
-      <c r="AC93" s="24"/>
-      <c r="AD93" s="24"/>
-      <c r="AE93" s="23"/>
-      <c r="AF93" s="23"/>
-      <c r="AG93" s="24"/>
-      <c r="AH93" s="24"/>
-      <c r="AI93" s="26"/>
-      <c r="AJ93" s="26"/>
-      <c r="AK93" s="26"/>
-      <c r="AL93" s="26"/>
-    </row>
-    <row r="94" spans="1:38" ht="12" customHeight="1">
-      <c r="A94" s="67"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="54"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="30"/>
-      <c r="AJ94" s="30"/>
-      <c r="AK94" s="30"/>
-      <c r="AL94" s="30"/>
-    </row>
-    <row r="95" spans="1:38" ht="12" customHeight="1">
-      <c r="A95" s="68">
-        <v>4</v>
-      </c>
-      <c r="B95" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="33"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="48"/>
-      <c r="T95" s="32"/>
-      <c r="U95" s="32"/>
-      <c r="V95" s="32"/>
-      <c r="W95" s="32"/>
-      <c r="X95" s="32"/>
-      <c r="Y95" s="61"/>
-      <c r="Z95" s="61"/>
-      <c r="AA95" s="61"/>
-      <c r="AB95" s="61"/>
-      <c r="AC95" s="32"/>
-      <c r="AD95" s="32"/>
-      <c r="AE95" s="32"/>
-      <c r="AF95" s="32"/>
-      <c r="AG95" s="32"/>
-      <c r="AH95" s="32"/>
-      <c r="AI95" s="10"/>
-      <c r="AJ95" s="10"/>
-      <c r="AK95" s="10"/>
-      <c r="AL95" s="10"/>
-    </row>
-    <row r="96" spans="1:38" ht="12" customHeight="1">
-      <c r="A96" s="67"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="49"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="36"/>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="36"/>
-      <c r="AI96" s="37"/>
-      <c r="AJ96" s="37"/>
-      <c r="AK96" s="37"/>
-      <c r="AL96" s="37"/>
-    </row>
-    <row r="97" spans="1:38" ht="12" customHeight="1">
-      <c r="A97" s="68">
-        <v>5</v>
-      </c>
-      <c r="B97" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
       <c r="F97" s="21" t="s">
         <v>13</v>
       </c>
@@ -6191,14 +6248,14 @@
       <c r="V97" s="24"/>
       <c r="W97" s="24"/>
       <c r="X97" s="24"/>
-      <c r="Y97" s="24"/>
-      <c r="Z97" s="24"/>
-      <c r="AA97" s="24"/>
-      <c r="AB97" s="24"/>
-      <c r="AC97" s="56"/>
-      <c r="AD97" s="56"/>
-      <c r="AE97" s="56"/>
-      <c r="AF97" s="56"/>
+      <c r="Y97" s="57"/>
+      <c r="Z97" s="57"/>
+      <c r="AA97" s="56"/>
+      <c r="AB97" s="56"/>
+      <c r="AC97" s="24"/>
+      <c r="AD97" s="24"/>
+      <c r="AE97" s="23"/>
+      <c r="AF97" s="23"/>
       <c r="AG97" s="24"/>
       <c r="AH97" s="24"/>
       <c r="AI97" s="26"/>
@@ -6207,12 +6264,12 @@
       <c r="AL97" s="26"/>
     </row>
     <row r="98" spans="1:38" ht="12" customHeight="1">
-      <c r="A98" s="67"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="38" t="s">
+      <c r="A98" s="72"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="28"/>
@@ -6235,7 +6292,7 @@
       <c r="X98" s="29"/>
       <c r="Y98" s="29"/>
       <c r="Z98" s="29"/>
-      <c r="AA98" s="29"/>
+      <c r="AA98" s="59"/>
       <c r="AB98" s="29"/>
       <c r="AC98" s="29"/>
       <c r="AD98" s="29"/>
@@ -6243,19 +6300,27 @@
       <c r="AF98" s="29"/>
       <c r="AG98" s="29"/>
       <c r="AH98" s="29"/>
-      <c r="AI98" s="41"/>
-      <c r="AJ98" s="41"/>
-      <c r="AK98" s="41"/>
-      <c r="AL98" s="41"/>
+      <c r="AI98" s="30"/>
+      <c r="AJ98" s="30"/>
+      <c r="AK98" s="30"/>
+      <c r="AL98" s="30"/>
     </row>
     <row r="99" spans="1:38" ht="12" customHeight="1">
-      <c r="A99" s="68">
-        <v>6</v>
+      <c r="A99" s="71">
+        <v>2</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
+      <c r="B99" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="73" t="s">
+        <v>70</v>
+      </c>
       <c r="F99" s="31" t="s">
         <v>13</v>
       </c>
@@ -6277,14 +6342,14 @@
       <c r="V99" s="32"/>
       <c r="W99" s="32"/>
       <c r="X99" s="32"/>
-      <c r="Y99" s="32"/>
-      <c r="Z99" s="32"/>
-      <c r="AA99" s="32"/>
-      <c r="AB99" s="32"/>
+      <c r="Y99" s="57"/>
+      <c r="Z99" s="57"/>
+      <c r="AA99" s="61"/>
+      <c r="AB99" s="61"/>
       <c r="AC99" s="32"/>
       <c r="AD99" s="32"/>
-      <c r="AE99" s="32"/>
-      <c r="AF99" s="32"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
       <c r="AG99" s="32"/>
       <c r="AH99" s="32"/>
       <c r="AI99" s="10"/>
@@ -6293,441 +6358,465 @@
       <c r="AL99" s="10"/>
     </row>
     <row r="100" spans="1:38" ht="12" customHeight="1">
-      <c r="A100" s="67"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
       <c r="F100" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
-      <c r="R100" s="43"/>
-      <c r="S100" s="51"/>
-      <c r="T100" s="43"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="43"/>
-      <c r="W100" s="43"/>
-      <c r="X100" s="43"/>
-      <c r="Y100" s="43"/>
-      <c r="Z100" s="43"/>
-      <c r="AA100" s="43"/>
-      <c r="AB100" s="43"/>
-      <c r="AC100" s="43"/>
-      <c r="AD100" s="43"/>
-      <c r="AE100" s="43"/>
-      <c r="AF100" s="43"/>
-      <c r="AG100" s="43"/>
-      <c r="AH100" s="43"/>
-      <c r="AI100" s="12"/>
-      <c r="AJ100" s="12"/>
-      <c r="AK100" s="12"/>
-      <c r="AL100" s="12"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="53"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="65"/>
+      <c r="AB100" s="36"/>
+      <c r="AC100" s="36"/>
+      <c r="AD100" s="36"/>
+      <c r="AE100" s="36"/>
+      <c r="AF100" s="36"/>
+      <c r="AG100" s="36"/>
+      <c r="AH100" s="36"/>
+      <c r="AI100" s="37"/>
+      <c r="AJ100" s="37"/>
+      <c r="AK100" s="37"/>
+      <c r="AL100" s="37"/>
     </row>
     <row r="101" spans="1:38" ht="12" customHeight="1">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="71">
+        <v>3</v>
+      </c>
+      <c r="B101" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="25"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="46"/>
+      <c r="T101" s="24"/>
+      <c r="U101" s="24"/>
+      <c r="V101" s="24"/>
+      <c r="W101" s="24"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="57"/>
+      <c r="Z101" s="57"/>
+      <c r="AA101" s="56"/>
+      <c r="AB101" s="56"/>
+      <c r="AC101" s="24"/>
+      <c r="AD101" s="24"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="24"/>
+      <c r="AH101" s="24"/>
+      <c r="AI101" s="26"/>
+      <c r="AJ101" s="26"/>
+      <c r="AK101" s="26"/>
+      <c r="AL101" s="26"/>
+    </row>
+    <row r="102" spans="1:38" ht="12" customHeight="1">
+      <c r="A102" s="72"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="39"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="54"/>
+      <c r="S102" s="50"/>
+      <c r="T102" s="40"/>
+      <c r="U102" s="40"/>
+      <c r="V102" s="40"/>
+      <c r="W102" s="40"/>
+      <c r="X102" s="40"/>
+      <c r="Y102" s="40"/>
+      <c r="Z102" s="40"/>
+      <c r="AA102" s="63"/>
+      <c r="AB102" s="40"/>
+      <c r="AC102" s="40"/>
+      <c r="AD102" s="40"/>
+      <c r="AE102" s="40"/>
+      <c r="AF102" s="40"/>
+      <c r="AG102" s="40"/>
+      <c r="AH102" s="40"/>
+      <c r="AI102" s="30"/>
+      <c r="AJ102" s="30"/>
+      <c r="AK102" s="30"/>
+      <c r="AL102" s="30"/>
+    </row>
+    <row r="103" spans="1:38" ht="12" customHeight="1">
+      <c r="A103" s="71">
+        <v>4</v>
+      </c>
+      <c r="B103" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="33"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="48"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="32"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="61"/>
+      <c r="Z103" s="61"/>
+      <c r="AA103" s="61"/>
+      <c r="AB103" s="61"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="32"/>
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="32"/>
+      <c r="AI103" s="10"/>
+      <c r="AJ103" s="10"/>
+      <c r="AK103" s="10"/>
+      <c r="AL103" s="10"/>
+    </row>
+    <row r="104" spans="1:38" ht="12" customHeight="1">
+      <c r="A104" s="72"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="35"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="53"/>
+      <c r="S104" s="49"/>
+      <c r="T104" s="36"/>
+      <c r="U104" s="36"/>
+      <c r="V104" s="36"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="65"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36"/>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="36"/>
+      <c r="AH104" s="36"/>
+      <c r="AI104" s="37"/>
+      <c r="AJ104" s="37"/>
+      <c r="AK104" s="37"/>
+      <c r="AL104" s="37"/>
+    </row>
+    <row r="105" spans="1:38" ht="12" customHeight="1">
+      <c r="A105" s="71">
+        <v>5</v>
+      </c>
+      <c r="B105" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="25"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="46"/>
+      <c r="T105" s="24"/>
+      <c r="U105" s="24"/>
+      <c r="V105" s="24"/>
+      <c r="W105" s="24"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="24"/>
+      <c r="AB105" s="24"/>
+      <c r="AC105" s="56"/>
+      <c r="AD105" s="56"/>
+      <c r="AE105" s="56"/>
+      <c r="AF105" s="56"/>
+      <c r="AG105" s="24"/>
+      <c r="AH105" s="24"/>
+      <c r="AI105" s="26"/>
+      <c r="AJ105" s="26"/>
+      <c r="AK105" s="26"/>
+      <c r="AL105" s="26"/>
+    </row>
+    <row r="106" spans="1:38" ht="12" customHeight="1">
+      <c r="A106" s="72"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="28"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="47"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="29"/>
+      <c r="AE106" s="29"/>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="29"/>
+      <c r="AH106" s="29"/>
+      <c r="AI106" s="41"/>
+      <c r="AJ106" s="41"/>
+      <c r="AK106" s="41"/>
+      <c r="AL106" s="41"/>
+    </row>
+    <row r="107" spans="1:38" ht="12" customHeight="1">
+      <c r="A107" s="71">
+        <v>6</v>
+      </c>
+      <c r="B107" s="73"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="33"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="48"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="32"/>
+      <c r="X107" s="32"/>
+      <c r="Y107" s="32"/>
+      <c r="Z107" s="32"/>
+      <c r="AA107" s="32"/>
+      <c r="AB107" s="32"/>
+      <c r="AC107" s="32"/>
+      <c r="AD107" s="32"/>
+      <c r="AE107" s="32"/>
+      <c r="AF107" s="32"/>
+      <c r="AG107" s="32"/>
+      <c r="AH107" s="32"/>
+      <c r="AI107" s="10"/>
+      <c r="AJ107" s="10"/>
+      <c r="AK107" s="10"/>
+      <c r="AL107" s="10"/>
+    </row>
+    <row r="108" spans="1:38" ht="12" customHeight="1">
+      <c r="A108" s="72"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="42"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
+      <c r="Q108" s="43"/>
+      <c r="R108" s="43"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="43"/>
+      <c r="U108" s="43"/>
+      <c r="V108" s="43"/>
+      <c r="W108" s="43"/>
+      <c r="X108" s="43"/>
+      <c r="Y108" s="43"/>
+      <c r="Z108" s="43"/>
+      <c r="AA108" s="43"/>
+      <c r="AB108" s="43"/>
+      <c r="AC108" s="43"/>
+      <c r="AD108" s="43"/>
+      <c r="AE108" s="43"/>
+      <c r="AF108" s="43"/>
+      <c r="AG108" s="43"/>
+      <c r="AH108" s="43"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+    </row>
+    <row r="109" spans="1:38" ht="12" customHeight="1">
+      <c r="A109" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
-      <c r="Z101" s="16"/>
-      <c r="AA101" s="16"/>
-      <c r="AB101" s="16"/>
-      <c r="AC101" s="16"/>
-      <c r="AD101" s="16"/>
-      <c r="AE101" s="16"/>
-      <c r="AF101" s="16"/>
-      <c r="AG101" s="16"/>
-      <c r="AH101" s="16"/>
-      <c r="AI101" s="20"/>
-      <c r="AJ101" s="20"/>
-      <c r="AK101" s="20"/>
-      <c r="AL101" s="20"/>
-    </row>
-    <row r="102" spans="1:38" ht="12" customHeight="1">
-      <c r="A102" s="68">
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="16"/>
+      <c r="Y109" s="16"/>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="16"/>
+      <c r="AC109" s="16"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="16"/>
+      <c r="AF109" s="16"/>
+      <c r="AG109" s="16"/>
+      <c r="AH109" s="16"/>
+      <c r="AI109" s="20"/>
+      <c r="AJ109" s="20"/>
+      <c r="AK109" s="20"/>
+      <c r="AL109" s="20"/>
+    </row>
+    <row r="110" spans="1:38" ht="12" customHeight="1">
+      <c r="A110" s="71">
         <v>1</v>
       </c>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="46"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24"/>
-      <c r="Y102" s="24"/>
-      <c r="Z102" s="24"/>
-      <c r="AA102" s="23"/>
-      <c r="AB102" s="23"/>
-      <c r="AC102" s="24"/>
-      <c r="AD102" s="24"/>
-      <c r="AE102" s="24"/>
-      <c r="AF102" s="24"/>
-      <c r="AG102" s="23"/>
-      <c r="AH102" s="23"/>
-      <c r="AI102" s="26"/>
-      <c r="AJ102" s="26"/>
-      <c r="AK102" s="26"/>
-      <c r="AL102" s="26"/>
-    </row>
-    <row r="103" spans="1:38" ht="12" customHeight="1">
-      <c r="A103" s="67"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="47"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="29"/>
-      <c r="AE103" s="29"/>
-      <c r="AF103" s="29"/>
-      <c r="AG103" s="29"/>
-      <c r="AH103" s="29"/>
-      <c r="AI103" s="30"/>
-      <c r="AJ103" s="30"/>
-      <c r="AK103" s="30"/>
-      <c r="AL103" s="30"/>
-    </row>
-    <row r="104" spans="1:38" ht="12" customHeight="1">
-      <c r="A104" s="68">
-        <v>2</v>
-      </c>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="33"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="48"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="32"/>
-      <c r="AA104" s="44"/>
-      <c r="AB104" s="44"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="32"/>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="44"/>
-      <c r="AH104" s="44"/>
-      <c r="AI104" s="10"/>
-      <c r="AJ104" s="10"/>
-      <c r="AK104" s="10"/>
-      <c r="AL104" s="10"/>
-    </row>
-    <row r="105" spans="1:38" ht="12" customHeight="1">
-      <c r="A105" s="67"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="35"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="53"/>
-      <c r="S105" s="49"/>
-      <c r="T105" s="36"/>
-      <c r="U105" s="36"/>
-      <c r="V105" s="36"/>
-      <c r="W105" s="36"/>
-      <c r="X105" s="36"/>
-      <c r="Y105" s="36"/>
-      <c r="Z105" s="36"/>
-      <c r="AA105" s="36"/>
-      <c r="AB105" s="36"/>
-      <c r="AC105" s="36"/>
-      <c r="AD105" s="36"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
-      <c r="AI105" s="37"/>
-      <c r="AJ105" s="37"/>
-      <c r="AK105" s="37"/>
-      <c r="AL105" s="37"/>
-    </row>
-    <row r="106" spans="1:38" ht="12" customHeight="1">
-      <c r="A106" s="68">
-        <v>3</v>
-      </c>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="25"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="46"/>
-      <c r="T106" s="24"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-      <c r="W106" s="24"/>
-      <c r="X106" s="24"/>
-      <c r="Y106" s="24"/>
-      <c r="Z106" s="24"/>
-      <c r="AA106" s="23"/>
-      <c r="AB106" s="23"/>
-      <c r="AC106" s="24"/>
-      <c r="AD106" s="24"/>
-      <c r="AE106" s="24"/>
-      <c r="AF106" s="24"/>
-      <c r="AG106" s="23"/>
-      <c r="AH106" s="23"/>
-      <c r="AI106" s="26"/>
-      <c r="AJ106" s="26"/>
-      <c r="AK106" s="26"/>
-      <c r="AL106" s="26"/>
-    </row>
-    <row r="107" spans="1:38" ht="12" customHeight="1">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="39"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
-      <c r="Q107" s="40"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="50"/>
-      <c r="T107" s="40"/>
-      <c r="U107" s="40"/>
-      <c r="V107" s="40"/>
-      <c r="W107" s="40"/>
-      <c r="X107" s="40"/>
-      <c r="Y107" s="40"/>
-      <c r="Z107" s="40"/>
-      <c r="AA107" s="40"/>
-      <c r="AB107" s="40"/>
-      <c r="AC107" s="40"/>
-      <c r="AD107" s="40"/>
-      <c r="AE107" s="40"/>
-      <c r="AF107" s="40"/>
-      <c r="AG107" s="40"/>
-      <c r="AH107" s="40"/>
-      <c r="AI107" s="30"/>
-      <c r="AJ107" s="30"/>
-      <c r="AK107" s="30"/>
-      <c r="AL107" s="30"/>
-    </row>
-    <row r="108" spans="1:38" ht="12" customHeight="1">
-      <c r="A108" s="68">
-        <v>4</v>
-      </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="33"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="48"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32"/>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="32"/>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32"/>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="32"/>
-      <c r="AI108" s="10"/>
-      <c r="AJ108" s="10"/>
-      <c r="AK108" s="10"/>
-      <c r="AL108" s="10"/>
-    </row>
-    <row r="109" spans="1:38" ht="12" customHeight="1">
-      <c r="A109" s="67"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="36"/>
-      <c r="P109" s="36"/>
-      <c r="Q109" s="36"/>
-      <c r="R109" s="53"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="36"/>
-      <c r="U109" s="36"/>
-      <c r="V109" s="36"/>
-      <c r="W109" s="36"/>
-      <c r="X109" s="36"/>
-      <c r="Y109" s="36"/>
-      <c r="Z109" s="36"/>
-      <c r="AA109" s="36"/>
-      <c r="AB109" s="36"/>
-      <c r="AC109" s="36"/>
-      <c r="AD109" s="36"/>
-      <c r="AE109" s="36"/>
-      <c r="AF109" s="36"/>
-      <c r="AG109" s="36"/>
-      <c r="AH109" s="36"/>
-      <c r="AI109" s="37"/>
-      <c r="AJ109" s="37"/>
-      <c r="AK109" s="37"/>
-      <c r="AL109" s="37"/>
-    </row>
-    <row r="110" spans="1:38" ht="12" customHeight="1">
-      <c r="A110" s="68">
-        <v>5</v>
-      </c>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
       <c r="F110" s="21" t="s">
         <v>13</v>
       </c>
@@ -6751,26 +6840,26 @@
       <c r="X110" s="24"/>
       <c r="Y110" s="24"/>
       <c r="Z110" s="24"/>
-      <c r="AA110" s="24"/>
-      <c r="AB110" s="24"/>
-      <c r="AC110" s="23"/>
-      <c r="AD110" s="23"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="23"/>
+      <c r="AC110" s="24"/>
+      <c r="AD110" s="24"/>
       <c r="AE110" s="24"/>
       <c r="AF110" s="24"/>
-      <c r="AG110" s="24"/>
-      <c r="AH110" s="24"/>
+      <c r="AG110" s="23"/>
+      <c r="AH110" s="23"/>
       <c r="AI110" s="26"/>
       <c r="AJ110" s="26"/>
       <c r="AK110" s="26"/>
       <c r="AL110" s="26"/>
     </row>
     <row r="111" spans="1:38" ht="12" customHeight="1">
-      <c r="A111" s="67"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="38" t="s">
+      <c r="A111" s="72"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="28"/>
@@ -6801,19 +6890,19 @@
       <c r="AF111" s="29"/>
       <c r="AG111" s="29"/>
       <c r="AH111" s="29"/>
-      <c r="AI111" s="41"/>
-      <c r="AJ111" s="41"/>
-      <c r="AK111" s="41"/>
-      <c r="AL111" s="41"/>
+      <c r="AI111" s="30"/>
+      <c r="AJ111" s="30"/>
+      <c r="AK111" s="30"/>
+      <c r="AL111" s="30"/>
     </row>
     <row r="112" spans="1:38" ht="12" customHeight="1">
-      <c r="A112" s="68">
-        <v>6</v>
+      <c r="A112" s="71">
+        <v>2</v>
       </c>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
       <c r="F112" s="31" t="s">
         <v>13</v>
       </c>
@@ -6837,764 +6926,788 @@
       <c r="X112" s="32"/>
       <c r="Y112" s="32"/>
       <c r="Z112" s="32"/>
-      <c r="AA112" s="32"/>
-      <c r="AB112" s="32"/>
+      <c r="AA112" s="44"/>
+      <c r="AB112" s="44"/>
       <c r="AC112" s="32"/>
       <c r="AD112" s="32"/>
       <c r="AE112" s="32"/>
       <c r="AF112" s="32"/>
-      <c r="AG112" s="32"/>
-      <c r="AH112" s="32"/>
+      <c r="AG112" s="44"/>
+      <c r="AH112" s="44"/>
       <c r="AI112" s="10"/>
       <c r="AJ112" s="10"/>
       <c r="AK112" s="10"/>
       <c r="AL112" s="10"/>
     </row>
     <row r="113" spans="1:38" ht="12" customHeight="1">
-      <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
+      <c r="A113" s="72"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
       <c r="F113" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="43"/>
-      <c r="M113" s="43"/>
-      <c r="N113" s="43"/>
-      <c r="O113" s="43"/>
-      <c r="P113" s="43"/>
-      <c r="Q113" s="43"/>
-      <c r="R113" s="43"/>
-      <c r="S113" s="51"/>
-      <c r="T113" s="43"/>
-      <c r="U113" s="43"/>
-      <c r="V113" s="43"/>
-      <c r="W113" s="43"/>
-      <c r="X113" s="43"/>
-      <c r="Y113" s="43"/>
-      <c r="Z113" s="43"/>
-      <c r="AA113" s="43"/>
-      <c r="AB113" s="43"/>
-      <c r="AC113" s="43"/>
-      <c r="AD113" s="43"/>
-      <c r="AE113" s="43"/>
-      <c r="AF113" s="43"/>
-      <c r="AG113" s="43"/>
-      <c r="AH113" s="43"/>
-      <c r="AI113" s="12"/>
-      <c r="AJ113" s="12"/>
-      <c r="AK113" s="12"/>
-      <c r="AL113" s="12"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="53"/>
+      <c r="S113" s="49"/>
+      <c r="T113" s="36"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="36"/>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
+      <c r="AE113" s="36"/>
+      <c r="AF113" s="36"/>
+      <c r="AG113" s="36"/>
+      <c r="AH113" s="36"/>
+      <c r="AI113" s="37"/>
+      <c r="AJ113" s="37"/>
+      <c r="AK113" s="37"/>
+      <c r="AL113" s="37"/>
     </row>
     <row r="114" spans="1:38" ht="12" customHeight="1">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="45"/>
-      <c r="T114" s="16"/>
-      <c r="U114" s="16"/>
-      <c r="V114" s="16"/>
-      <c r="W114" s="16"/>
-      <c r="X114" s="16"/>
-      <c r="Y114" s="16"/>
-      <c r="Z114" s="16"/>
-      <c r="AA114" s="16"/>
-      <c r="AB114" s="16"/>
-      <c r="AC114" s="16"/>
-      <c r="AD114" s="16"/>
-      <c r="AE114" s="16"/>
-      <c r="AF114" s="16"/>
-      <c r="AG114" s="16"/>
-      <c r="AH114" s="16"/>
-      <c r="AI114" s="20"/>
-      <c r="AJ114" s="20"/>
-      <c r="AK114" s="20"/>
-      <c r="AL114" s="20"/>
+      <c r="A114" s="71">
+        <v>3</v>
+      </c>
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="25"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
+      <c r="R114" s="24"/>
+      <c r="S114" s="46"/>
+      <c r="T114" s="24"/>
+      <c r="U114" s="24"/>
+      <c r="V114" s="24"/>
+      <c r="W114" s="24"/>
+      <c r="X114" s="24"/>
+      <c r="Y114" s="24"/>
+      <c r="Z114" s="24"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="24"/>
+      <c r="AD114" s="24"/>
+      <c r="AE114" s="24"/>
+      <c r="AF114" s="24"/>
+      <c r="AG114" s="23"/>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="26"/>
+      <c r="AJ114" s="26"/>
+      <c r="AK114" s="26"/>
+      <c r="AL114" s="26"/>
     </row>
     <row r="115" spans="1:38" ht="12" customHeight="1">
-      <c r="A115" s="68">
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="39"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="40"/>
+      <c r="R115" s="54"/>
+      <c r="S115" s="50"/>
+      <c r="T115" s="40"/>
+      <c r="U115" s="40"/>
+      <c r="V115" s="40"/>
+      <c r="W115" s="40"/>
+      <c r="X115" s="40"/>
+      <c r="Y115" s="40"/>
+      <c r="Z115" s="40"/>
+      <c r="AA115" s="40"/>
+      <c r="AB115" s="40"/>
+      <c r="AC115" s="40"/>
+      <c r="AD115" s="40"/>
+      <c r="AE115" s="40"/>
+      <c r="AF115" s="40"/>
+      <c r="AG115" s="40"/>
+      <c r="AH115" s="40"/>
+      <c r="AI115" s="30"/>
+      <c r="AJ115" s="30"/>
+      <c r="AK115" s="30"/>
+      <c r="AL115" s="30"/>
+    </row>
+    <row r="116" spans="1:38" ht="12" customHeight="1">
+      <c r="A116" s="71">
+        <v>4</v>
+      </c>
+      <c r="B116" s="73"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="33"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="48"/>
+      <c r="T116" s="32"/>
+      <c r="U116" s="32"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="32"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="32"/>
+      <c r="Z116" s="32"/>
+      <c r="AA116" s="32"/>
+      <c r="AB116" s="32"/>
+      <c r="AC116" s="32"/>
+      <c r="AD116" s="32"/>
+      <c r="AE116" s="32"/>
+      <c r="AF116" s="32"/>
+      <c r="AG116" s="32"/>
+      <c r="AH116" s="32"/>
+      <c r="AI116" s="10"/>
+      <c r="AJ116" s="10"/>
+      <c r="AK116" s="10"/>
+      <c r="AL116" s="10"/>
+    </row>
+    <row r="117" spans="1:38" ht="12" customHeight="1">
+      <c r="A117" s="72"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="35"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="36"/>
+      <c r="R117" s="53"/>
+      <c r="S117" s="49"/>
+      <c r="T117" s="36"/>
+      <c r="U117" s="36"/>
+      <c r="V117" s="36"/>
+      <c r="W117" s="36"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="36"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="36"/>
+      <c r="AE117" s="36"/>
+      <c r="AF117" s="36"/>
+      <c r="AG117" s="36"/>
+      <c r="AH117" s="36"/>
+      <c r="AI117" s="37"/>
+      <c r="AJ117" s="37"/>
+      <c r="AK117" s="37"/>
+      <c r="AL117" s="37"/>
+    </row>
+    <row r="118" spans="1:38" ht="12" customHeight="1">
+      <c r="A118" s="71">
+        <v>5</v>
+      </c>
+      <c r="B118" s="73"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="25"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="46"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="24"/>
+      <c r="W118" s="24"/>
+      <c r="X118" s="24"/>
+      <c r="Y118" s="24"/>
+      <c r="Z118" s="24"/>
+      <c r="AA118" s="24"/>
+      <c r="AB118" s="24"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="23"/>
+      <c r="AE118" s="24"/>
+      <c r="AF118" s="24"/>
+      <c r="AG118" s="24"/>
+      <c r="AH118" s="24"/>
+      <c r="AI118" s="26"/>
+      <c r="AJ118" s="26"/>
+      <c r="AK118" s="26"/>
+      <c r="AL118" s="26"/>
+    </row>
+    <row r="119" spans="1:38" ht="12" customHeight="1">
+      <c r="A119" s="72"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="28"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="29"/>
+      <c r="Q119" s="29"/>
+      <c r="R119" s="29"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="29"/>
+      <c r="U119" s="29"/>
+      <c r="V119" s="29"/>
+      <c r="W119" s="29"/>
+      <c r="X119" s="29"/>
+      <c r="Y119" s="29"/>
+      <c r="Z119" s="29"/>
+      <c r="AA119" s="29"/>
+      <c r="AB119" s="29"/>
+      <c r="AC119" s="29"/>
+      <c r="AD119" s="29"/>
+      <c r="AE119" s="29"/>
+      <c r="AF119" s="29"/>
+      <c r="AG119" s="29"/>
+      <c r="AH119" s="29"/>
+      <c r="AI119" s="41"/>
+      <c r="AJ119" s="41"/>
+      <c r="AK119" s="41"/>
+      <c r="AL119" s="41"/>
+    </row>
+    <row r="120" spans="1:38" ht="12" customHeight="1">
+      <c r="A120" s="71">
+        <v>6</v>
+      </c>
+      <c r="B120" s="73"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="33"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="32"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="32"/>
+      <c r="P120" s="32"/>
+      <c r="Q120" s="32"/>
+      <c r="R120" s="32"/>
+      <c r="S120" s="48"/>
+      <c r="T120" s="32"/>
+      <c r="U120" s="32"/>
+      <c r="V120" s="32"/>
+      <c r="W120" s="32"/>
+      <c r="X120" s="32"/>
+      <c r="Y120" s="32"/>
+      <c r="Z120" s="32"/>
+      <c r="AA120" s="32"/>
+      <c r="AB120" s="32"/>
+      <c r="AC120" s="32"/>
+      <c r="AD120" s="32"/>
+      <c r="AE120" s="32"/>
+      <c r="AF120" s="32"/>
+      <c r="AG120" s="32"/>
+      <c r="AH120" s="32"/>
+      <c r="AI120" s="10"/>
+      <c r="AJ120" s="10"/>
+      <c r="AK120" s="10"/>
+      <c r="AL120" s="10"/>
+    </row>
+    <row r="121" spans="1:38" ht="12" customHeight="1">
+      <c r="A121" s="72"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="42"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
+      <c r="O121" s="43"/>
+      <c r="P121" s="43"/>
+      <c r="Q121" s="43"/>
+      <c r="R121" s="43"/>
+      <c r="S121" s="51"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="43"/>
+      <c r="X121" s="43"/>
+      <c r="Y121" s="43"/>
+      <c r="Z121" s="43"/>
+      <c r="AA121" s="43"/>
+      <c r="AB121" s="43"/>
+      <c r="AC121" s="43"/>
+      <c r="AD121" s="43"/>
+      <c r="AE121" s="43"/>
+      <c r="AF121" s="43"/>
+      <c r="AG121" s="43"/>
+      <c r="AH121" s="43"/>
+      <c r="AI121" s="12"/>
+      <c r="AJ121" s="12"/>
+      <c r="AK121" s="12"/>
+      <c r="AL121" s="12"/>
+    </row>
+    <row r="122" spans="1:38" ht="12" customHeight="1">
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="45"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="16"/>
+      <c r="W122" s="16"/>
+      <c r="X122" s="16"/>
+      <c r="Y122" s="16"/>
+      <c r="Z122" s="16"/>
+      <c r="AA122" s="16"/>
+      <c r="AB122" s="16"/>
+      <c r="AC122" s="16"/>
+      <c r="AD122" s="16"/>
+      <c r="AE122" s="16"/>
+      <c r="AF122" s="16"/>
+      <c r="AG122" s="16"/>
+      <c r="AH122" s="16"/>
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="20"/>
+    </row>
+    <row r="123" spans="1:38" ht="12" customHeight="1">
+      <c r="A123" s="71">
         <v>1</v>
       </c>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="21" t="s">
+      <c r="B123" s="73"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="24"/>
-      <c r="R115" s="24"/>
-      <c r="S115" s="46"/>
-      <c r="T115" s="24"/>
-      <c r="U115" s="24"/>
-      <c r="V115" s="24"/>
-      <c r="W115" s="24"/>
-      <c r="X115" s="24"/>
-      <c r="Y115" s="24"/>
-      <c r="Z115" s="24"/>
-      <c r="AA115" s="24"/>
-      <c r="AB115" s="24"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="24"/>
-      <c r="AG115" s="24"/>
-      <c r="AH115" s="24"/>
-      <c r="AI115" s="26"/>
-      <c r="AJ115" s="26"/>
-      <c r="AK115" s="26"/>
-      <c r="AL115" s="26"/>
-    </row>
-    <row r="116" spans="1:38" ht="12" customHeight="1">
-      <c r="A116" s="67"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="27" t="s">
+      <c r="G123" s="25"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
+      <c r="S123" s="46"/>
+      <c r="T123" s="24"/>
+      <c r="U123" s="24"/>
+      <c r="V123" s="24"/>
+      <c r="W123" s="24"/>
+      <c r="X123" s="24"/>
+      <c r="Y123" s="24"/>
+      <c r="Z123" s="24"/>
+      <c r="AA123" s="24"/>
+      <c r="AB123" s="24"/>
+      <c r="AC123" s="24"/>
+      <c r="AD123" s="24"/>
+      <c r="AE123" s="24"/>
+      <c r="AF123" s="24"/>
+      <c r="AG123" s="24"/>
+      <c r="AH123" s="24"/>
+      <c r="AI123" s="26"/>
+      <c r="AJ123" s="26"/>
+      <c r="AK123" s="26"/>
+      <c r="AL123" s="26"/>
+    </row>
+    <row r="124" spans="1:38" ht="12" customHeight="1">
+      <c r="A124" s="72"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="28"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="47"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="29"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
-      <c r="X116" s="29"/>
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="29"/>
-      <c r="AA116" s="29"/>
-      <c r="AB116" s="29"/>
-      <c r="AC116" s="29"/>
-      <c r="AD116" s="29"/>
-      <c r="AE116" s="29"/>
-      <c r="AF116" s="29"/>
-      <c r="AG116" s="29"/>
-      <c r="AH116" s="29"/>
-      <c r="AI116" s="30"/>
-      <c r="AJ116" s="30"/>
-      <c r="AK116" s="30"/>
-      <c r="AL116" s="30"/>
-    </row>
-    <row r="117" spans="1:38" ht="12" customHeight="1">
-      <c r="A117" s="68">
+      <c r="G124" s="28"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
+      <c r="R124" s="29"/>
+      <c r="S124" s="47"/>
+      <c r="T124" s="29"/>
+      <c r="U124" s="29"/>
+      <c r="V124" s="29"/>
+      <c r="W124" s="29"/>
+      <c r="X124" s="29"/>
+      <c r="Y124" s="29"/>
+      <c r="Z124" s="29"/>
+      <c r="AA124" s="29"/>
+      <c r="AB124" s="29"/>
+      <c r="AC124" s="29"/>
+      <c r="AD124" s="29"/>
+      <c r="AE124" s="29"/>
+      <c r="AF124" s="29"/>
+      <c r="AG124" s="29"/>
+      <c r="AH124" s="29"/>
+      <c r="AI124" s="30"/>
+      <c r="AJ124" s="30"/>
+      <c r="AK124" s="30"/>
+      <c r="AL124" s="30"/>
+    </row>
+    <row r="125" spans="1:38" ht="12" customHeight="1">
+      <c r="A125" s="71">
         <v>2</v>
       </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="31" t="s">
+      <c r="B125" s="73"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="32"/>
-      <c r="L117" s="32"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="32"/>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="32"/>
-      <c r="S117" s="48"/>
-      <c r="T117" s="32"/>
-      <c r="U117" s="32"/>
-      <c r="V117" s="32"/>
-      <c r="W117" s="32"/>
-      <c r="X117" s="32"/>
-      <c r="Y117" s="32"/>
-      <c r="Z117" s="32"/>
-      <c r="AA117" s="32"/>
-      <c r="AB117" s="32"/>
-      <c r="AC117" s="32"/>
-      <c r="AD117" s="32"/>
-      <c r="AE117" s="32"/>
-      <c r="AF117" s="32"/>
-      <c r="AG117" s="32"/>
-      <c r="AH117" s="32"/>
-      <c r="AI117" s="10"/>
-      <c r="AJ117" s="10"/>
-      <c r="AK117" s="10"/>
-      <c r="AL117" s="10"/>
-    </row>
-    <row r="118" spans="1:38" ht="12" customHeight="1">
-      <c r="A118" s="67"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="34" t="s">
+      <c r="G125" s="33"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="48"/>
+      <c r="T125" s="32"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="32"/>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="32"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="32"/>
+      <c r="AD125" s="32"/>
+      <c r="AE125" s="32"/>
+      <c r="AF125" s="32"/>
+      <c r="AG125" s="32"/>
+      <c r="AH125" s="32"/>
+      <c r="AI125" s="10"/>
+      <c r="AJ125" s="10"/>
+      <c r="AK125" s="10"/>
+      <c r="AL125" s="10"/>
+    </row>
+    <row r="126" spans="1:38" ht="12" customHeight="1">
+      <c r="A126" s="72"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="35"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="53"/>
-      <c r="S118" s="49"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="36"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
-      <c r="AI118" s="37"/>
-      <c r="AJ118" s="37"/>
-      <c r="AK118" s="37"/>
-      <c r="AL118" s="37"/>
-    </row>
-    <row r="119" spans="1:38" ht="12" customHeight="1">
-      <c r="A119" s="68">
+      <c r="G126" s="35"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="36"/>
+      <c r="Q126" s="36"/>
+      <c r="R126" s="53"/>
+      <c r="S126" s="49"/>
+      <c r="T126" s="36"/>
+      <c r="U126" s="36"/>
+      <c r="V126" s="36"/>
+      <c r="W126" s="36"/>
+      <c r="X126" s="36"/>
+      <c r="Y126" s="36"/>
+      <c r="Z126" s="36"/>
+      <c r="AA126" s="36"/>
+      <c r="AB126" s="36"/>
+      <c r="AC126" s="36"/>
+      <c r="AD126" s="36"/>
+      <c r="AE126" s="36"/>
+      <c r="AF126" s="36"/>
+      <c r="AG126" s="36"/>
+      <c r="AH126" s="36"/>
+      <c r="AI126" s="37"/>
+      <c r="AJ126" s="37"/>
+      <c r="AK126" s="37"/>
+      <c r="AL126" s="37"/>
+    </row>
+    <row r="127" spans="1:38" ht="12" customHeight="1">
+      <c r="A127" s="71">
         <v>3</v>
       </c>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="21" t="s">
+      <c r="B127" s="73"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="25"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="46"/>
-      <c r="T119" s="24"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="24"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
-      <c r="AA119" s="24"/>
-      <c r="AB119" s="24"/>
-      <c r="AC119" s="24"/>
-      <c r="AD119" s="24"/>
-      <c r="AE119" s="24"/>
-      <c r="AF119" s="24"/>
-      <c r="AG119" s="24"/>
-      <c r="AH119" s="24"/>
-      <c r="AI119" s="26"/>
-      <c r="AJ119" s="26"/>
-      <c r="AK119" s="26"/>
-      <c r="AL119" s="26"/>
-    </row>
-    <row r="120" spans="1:38" ht="12" customHeight="1">
-      <c r="A120" s="67"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="38" t="s">
+      <c r="G127" s="25"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="46"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="24"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="24"/>
+      <c r="AI127" s="26"/>
+      <c r="AJ127" s="26"/>
+      <c r="AK127" s="26"/>
+      <c r="AL127" s="26"/>
+    </row>
+    <row r="128" spans="1:38" ht="12" customHeight="1">
+      <c r="A128" s="72"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="39"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
-      <c r="N120" s="40"/>
-      <c r="O120" s="40"/>
-      <c r="P120" s="40"/>
-      <c r="Q120" s="40"/>
-      <c r="R120" s="54"/>
-      <c r="S120" s="50"/>
-      <c r="T120" s="40"/>
-      <c r="U120" s="40"/>
-      <c r="V120" s="40"/>
-      <c r="W120" s="40"/>
-      <c r="X120" s="40"/>
-      <c r="Y120" s="40"/>
-      <c r="Z120" s="40"/>
-      <c r="AA120" s="40"/>
-      <c r="AB120" s="40"/>
-      <c r="AC120" s="40"/>
-      <c r="AD120" s="40"/>
-      <c r="AE120" s="40"/>
-      <c r="AF120" s="40"/>
-      <c r="AG120" s="40"/>
-      <c r="AH120" s="40"/>
-      <c r="AI120" s="30"/>
-      <c r="AJ120" s="30"/>
-      <c r="AK120" s="30"/>
-      <c r="AL120" s="30"/>
-    </row>
-    <row r="121" spans="1:38" ht="12" customHeight="1">
-      <c r="A121" s="68">
+      <c r="G128" s="39"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="40"/>
+      <c r="O128" s="40"/>
+      <c r="P128" s="40"/>
+      <c r="Q128" s="40"/>
+      <c r="R128" s="54"/>
+      <c r="S128" s="50"/>
+      <c r="T128" s="40"/>
+      <c r="U128" s="40"/>
+      <c r="V128" s="40"/>
+      <c r="W128" s="40"/>
+      <c r="X128" s="40"/>
+      <c r="Y128" s="40"/>
+      <c r="Z128" s="40"/>
+      <c r="AA128" s="40"/>
+      <c r="AB128" s="40"/>
+      <c r="AC128" s="40"/>
+      <c r="AD128" s="40"/>
+      <c r="AE128" s="40"/>
+      <c r="AF128" s="40"/>
+      <c r="AG128" s="40"/>
+      <c r="AH128" s="40"/>
+      <c r="AI128" s="30"/>
+      <c r="AJ128" s="30"/>
+      <c r="AK128" s="30"/>
+      <c r="AL128" s="30"/>
+    </row>
+    <row r="129" spans="1:38" ht="12" customHeight="1">
+      <c r="A129" s="71">
         <v>4</v>
       </c>
-      <c r="B121" s="66"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="31" t="s">
+      <c r="B129" s="73"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="73"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G121" s="33"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32"/>
-      <c r="R121" s="32"/>
-      <c r="S121" s="48"/>
-      <c r="T121" s="32"/>
-      <c r="U121" s="32"/>
-      <c r="V121" s="32"/>
-      <c r="W121" s="32"/>
-      <c r="X121" s="32"/>
-      <c r="Y121" s="32"/>
-      <c r="Z121" s="32"/>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
-      <c r="AD121" s="32"/>
-      <c r="AE121" s="32"/>
-      <c r="AF121" s="32"/>
-      <c r="AG121" s="32"/>
-      <c r="AH121" s="32"/>
-      <c r="AI121" s="10"/>
-      <c r="AJ121" s="10"/>
-      <c r="AK121" s="10"/>
-      <c r="AL121" s="10"/>
-    </row>
-    <row r="122" spans="1:38" ht="12" customHeight="1">
-      <c r="A122" s="67"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="38" t="s">
+      <c r="G129" s="33"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="48"/>
+      <c r="T129" s="32"/>
+      <c r="U129" s="32"/>
+      <c r="V129" s="32"/>
+      <c r="W129" s="32"/>
+      <c r="X129" s="32"/>
+      <c r="Y129" s="32"/>
+      <c r="Z129" s="32"/>
+      <c r="AA129" s="32"/>
+      <c r="AB129" s="32"/>
+      <c r="AC129" s="32"/>
+      <c r="AD129" s="32"/>
+      <c r="AE129" s="32"/>
+      <c r="AF129" s="32"/>
+      <c r="AG129" s="32"/>
+      <c r="AH129" s="32"/>
+      <c r="AI129" s="10"/>
+      <c r="AJ129" s="10"/>
+      <c r="AK129" s="10"/>
+      <c r="AL129" s="10"/>
+    </row>
+    <row r="130" spans="1:38" ht="12" customHeight="1">
+      <c r="A130" s="72"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="39"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="40"/>
-      <c r="L122" s="40"/>
-      <c r="M122" s="40"/>
-      <c r="N122" s="40"/>
-      <c r="O122" s="40"/>
-      <c r="P122" s="40"/>
-      <c r="Q122" s="40"/>
-      <c r="R122" s="54"/>
-      <c r="S122" s="50"/>
-      <c r="T122" s="40"/>
-      <c r="U122" s="40"/>
-      <c r="V122" s="40"/>
-      <c r="W122" s="40"/>
-      <c r="X122" s="40"/>
-      <c r="Y122" s="40"/>
-      <c r="Z122" s="40"/>
-      <c r="AA122" s="40"/>
-      <c r="AB122" s="40"/>
-      <c r="AC122" s="40"/>
-      <c r="AD122" s="40"/>
-      <c r="AE122" s="40"/>
-      <c r="AF122" s="40"/>
-      <c r="AG122" s="40"/>
-      <c r="AH122" s="40"/>
-      <c r="AI122" s="30"/>
-      <c r="AJ122" s="30"/>
-      <c r="AK122" s="30"/>
-      <c r="AL122" s="30"/>
-    </row>
-    <row r="123" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A123" s="6"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
-      <c r="AB123" s="2"/>
-      <c r="AC123" s="2"/>
-      <c r="AD123" s="2"/>
-      <c r="AE123" s="2"/>
-      <c r="AF123" s="2"/>
-      <c r="AG123" s="2"/>
-      <c r="AH123" s="2"/>
-      <c r="AI123" s="2"/>
-      <c r="AJ123" s="2"/>
-      <c r="AK123" s="2"/>
-      <c r="AL123" s="2"/>
-    </row>
-    <row r="124" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-      <c r="AB124" s="2"/>
-      <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="2"/>
-      <c r="AF124" s="2"/>
-      <c r="AG124" s="2"/>
-      <c r="AH124" s="2"/>
-      <c r="AI124" s="2"/>
-      <c r="AJ124" s="2"/>
-      <c r="AK124" s="2"/>
-      <c r="AL124" s="2"/>
-    </row>
-    <row r="125" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
-      <c r="AB125" s="2"/>
-      <c r="AC125" s="2"/>
-      <c r="AD125" s="2"/>
-      <c r="AE125" s="2"/>
-      <c r="AF125" s="2"/>
-      <c r="AG125" s="2"/>
-      <c r="AH125" s="2"/>
-      <c r="AI125" s="2"/>
-      <c r="AJ125" s="2"/>
-      <c r="AK125" s="2"/>
-      <c r="AL125" s="2"/>
-    </row>
-    <row r="126" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-      <c r="AB126" s="2"/>
-      <c r="AC126" s="2"/>
-      <c r="AD126" s="2"/>
-      <c r="AE126" s="2"/>
-      <c r="AF126" s="2"/>
-      <c r="AG126" s="2"/>
-      <c r="AH126" s="2"/>
-      <c r="AI126" s="2"/>
-      <c r="AJ126" s="2"/>
-      <c r="AK126" s="2"/>
-      <c r="AL126" s="2"/>
-    </row>
-    <row r="127" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A127" s="6"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
-      <c r="AC127" s="2"/>
-      <c r="AD127" s="2"/>
-      <c r="AE127" s="2"/>
-      <c r="AF127" s="2"/>
-      <c r="AG127" s="2"/>
-      <c r="AH127" s="2"/>
-      <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
-      <c r="AK127" s="2"/>
-      <c r="AL127" s="2"/>
-    </row>
-    <row r="128" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A128" s="6"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
-      <c r="AA128" s="2"/>
-      <c r="AB128" s="2"/>
-      <c r="AC128" s="2"/>
-      <c r="AD128" s="2"/>
-      <c r="AE128" s="2"/>
-      <c r="AF128" s="2"/>
-      <c r="AG128" s="2"/>
-      <c r="AH128" s="2"/>
-      <c r="AI128" s="2"/>
-      <c r="AJ128" s="2"/>
-      <c r="AK128" s="2"/>
-      <c r="AL128" s="2"/>
-    </row>
-    <row r="129" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
-      <c r="AA129" s="2"/>
-      <c r="AB129" s="2"/>
-      <c r="AC129" s="2"/>
-      <c r="AD129" s="2"/>
-      <c r="AE129" s="2"/>
-      <c r="AF129" s="2"/>
-      <c r="AG129" s="2"/>
-      <c r="AH129" s="2"/>
-      <c r="AI129" s="2"/>
-      <c r="AJ129" s="2"/>
-      <c r="AK129" s="2"/>
-      <c r="AL129" s="2"/>
-    </row>
-    <row r="130" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A130" s="6"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
-      <c r="AA130" s="2"/>
-      <c r="AB130" s="2"/>
-      <c r="AC130" s="2"/>
-      <c r="AD130" s="2"/>
-      <c r="AE130" s="2"/>
-      <c r="AF130" s="2"/>
-      <c r="AG130" s="2"/>
-      <c r="AH130" s="2"/>
-      <c r="AI130" s="2"/>
-      <c r="AJ130" s="2"/>
-      <c r="AK130" s="2"/>
-      <c r="AL130" s="2"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="54"/>
+      <c r="S130" s="50"/>
+      <c r="T130" s="40"/>
+      <c r="U130" s="40"/>
+      <c r="V130" s="40"/>
+      <c r="W130" s="40"/>
+      <c r="X130" s="40"/>
+      <c r="Y130" s="40"/>
+      <c r="Z130" s="40"/>
+      <c r="AA130" s="40"/>
+      <c r="AB130" s="40"/>
+      <c r="AC130" s="40"/>
+      <c r="AD130" s="40"/>
+      <c r="AE130" s="40"/>
+      <c r="AF130" s="40"/>
+      <c r="AG130" s="40"/>
+      <c r="AH130" s="40"/>
+      <c r="AI130" s="30"/>
+      <c r="AJ130" s="30"/>
+      <c r="AK130" s="30"/>
+      <c r="AL130" s="30"/>
     </row>
     <row r="131" spans="1:38" ht="13.5" customHeight="1">
       <c r="A131" s="6"/>
@@ -43916,18 +44029,372 @@
       <c r="AK1038" s="2"/>
       <c r="AL1038" s="2"/>
     </row>
+    <row r="1039" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1039" s="6"/>
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="3"/>
+      <c r="D1039" s="4"/>
+      <c r="E1039" s="4"/>
+      <c r="F1039" s="4"/>
+      <c r="G1039" s="2"/>
+      <c r="H1039" s="2"/>
+      <c r="I1039" s="2"/>
+      <c r="J1039" s="2"/>
+      <c r="K1039" s="2"/>
+      <c r="L1039" s="2"/>
+      <c r="M1039" s="2"/>
+      <c r="N1039" s="2"/>
+      <c r="O1039" s="2"/>
+      <c r="P1039" s="2"/>
+      <c r="Q1039" s="2"/>
+      <c r="R1039" s="2"/>
+      <c r="S1039" s="2"/>
+      <c r="T1039" s="2"/>
+      <c r="U1039" s="2"/>
+      <c r="V1039" s="2"/>
+      <c r="W1039" s="2"/>
+      <c r="X1039" s="2"/>
+      <c r="Y1039" s="2"/>
+      <c r="Z1039" s="2"/>
+      <c r="AA1039" s="2"/>
+      <c r="AB1039" s="2"/>
+      <c r="AC1039" s="2"/>
+      <c r="AD1039" s="2"/>
+      <c r="AE1039" s="2"/>
+      <c r="AF1039" s="2"/>
+      <c r="AG1039" s="2"/>
+      <c r="AH1039" s="2"/>
+      <c r="AI1039" s="2"/>
+      <c r="AJ1039" s="2"/>
+      <c r="AK1039" s="2"/>
+      <c r="AL1039" s="2"/>
+    </row>
+    <row r="1040" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1040" s="6"/>
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="3"/>
+      <c r="D1040" s="4"/>
+      <c r="E1040" s="4"/>
+      <c r="F1040" s="4"/>
+      <c r="G1040" s="2"/>
+      <c r="H1040" s="2"/>
+      <c r="I1040" s="2"/>
+      <c r="J1040" s="2"/>
+      <c r="K1040" s="2"/>
+      <c r="L1040" s="2"/>
+      <c r="M1040" s="2"/>
+      <c r="N1040" s="2"/>
+      <c r="O1040" s="2"/>
+      <c r="P1040" s="2"/>
+      <c r="Q1040" s="2"/>
+      <c r="R1040" s="2"/>
+      <c r="S1040" s="2"/>
+      <c r="T1040" s="2"/>
+      <c r="U1040" s="2"/>
+      <c r="V1040" s="2"/>
+      <c r="W1040" s="2"/>
+      <c r="X1040" s="2"/>
+      <c r="Y1040" s="2"/>
+      <c r="Z1040" s="2"/>
+      <c r="AA1040" s="2"/>
+      <c r="AB1040" s="2"/>
+      <c r="AC1040" s="2"/>
+      <c r="AD1040" s="2"/>
+      <c r="AE1040" s="2"/>
+      <c r="AF1040" s="2"/>
+      <c r="AG1040" s="2"/>
+      <c r="AH1040" s="2"/>
+      <c r="AI1040" s="2"/>
+      <c r="AJ1040" s="2"/>
+      <c r="AK1040" s="2"/>
+      <c r="AL1040" s="2"/>
+    </row>
+    <row r="1041" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1041" s="6"/>
+      <c r="B1041" s="2"/>
+      <c r="C1041" s="3"/>
+      <c r="D1041" s="4"/>
+      <c r="E1041" s="4"/>
+      <c r="F1041" s="4"/>
+      <c r="G1041" s="2"/>
+      <c r="H1041" s="2"/>
+      <c r="I1041" s="2"/>
+      <c r="J1041" s="2"/>
+      <c r="K1041" s="2"/>
+      <c r="L1041" s="2"/>
+      <c r="M1041" s="2"/>
+      <c r="N1041" s="2"/>
+      <c r="O1041" s="2"/>
+      <c r="P1041" s="2"/>
+      <c r="Q1041" s="2"/>
+      <c r="R1041" s="2"/>
+      <c r="S1041" s="2"/>
+      <c r="T1041" s="2"/>
+      <c r="U1041" s="2"/>
+      <c r="V1041" s="2"/>
+      <c r="W1041" s="2"/>
+      <c r="X1041" s="2"/>
+      <c r="Y1041" s="2"/>
+      <c r="Z1041" s="2"/>
+      <c r="AA1041" s="2"/>
+      <c r="AB1041" s="2"/>
+      <c r="AC1041" s="2"/>
+      <c r="AD1041" s="2"/>
+      <c r="AE1041" s="2"/>
+      <c r="AF1041" s="2"/>
+      <c r="AG1041" s="2"/>
+      <c r="AH1041" s="2"/>
+      <c r="AI1041" s="2"/>
+      <c r="AJ1041" s="2"/>
+      <c r="AK1041" s="2"/>
+      <c r="AL1041" s="2"/>
+    </row>
+    <row r="1042" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1042" s="6"/>
+      <c r="B1042" s="2"/>
+      <c r="C1042" s="3"/>
+      <c r="D1042" s="4"/>
+      <c r="E1042" s="4"/>
+      <c r="F1042" s="4"/>
+      <c r="G1042" s="2"/>
+      <c r="H1042" s="2"/>
+      <c r="I1042" s="2"/>
+      <c r="J1042" s="2"/>
+      <c r="K1042" s="2"/>
+      <c r="L1042" s="2"/>
+      <c r="M1042" s="2"/>
+      <c r="N1042" s="2"/>
+      <c r="O1042" s="2"/>
+      <c r="P1042" s="2"/>
+      <c r="Q1042" s="2"/>
+      <c r="R1042" s="2"/>
+      <c r="S1042" s="2"/>
+      <c r="T1042" s="2"/>
+      <c r="U1042" s="2"/>
+      <c r="V1042" s="2"/>
+      <c r="W1042" s="2"/>
+      <c r="X1042" s="2"/>
+      <c r="Y1042" s="2"/>
+      <c r="Z1042" s="2"/>
+      <c r="AA1042" s="2"/>
+      <c r="AB1042" s="2"/>
+      <c r="AC1042" s="2"/>
+      <c r="AD1042" s="2"/>
+      <c r="AE1042" s="2"/>
+      <c r="AF1042" s="2"/>
+      <c r="AG1042" s="2"/>
+      <c r="AH1042" s="2"/>
+      <c r="AI1042" s="2"/>
+      <c r="AJ1042" s="2"/>
+      <c r="AK1042" s="2"/>
+      <c r="AL1042" s="2"/>
+    </row>
+    <row r="1043" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1043" s="6"/>
+      <c r="B1043" s="2"/>
+      <c r="C1043" s="3"/>
+      <c r="D1043" s="4"/>
+      <c r="E1043" s="4"/>
+      <c r="F1043" s="4"/>
+      <c r="G1043" s="2"/>
+      <c r="H1043" s="2"/>
+      <c r="I1043" s="2"/>
+      <c r="J1043" s="2"/>
+      <c r="K1043" s="2"/>
+      <c r="L1043" s="2"/>
+      <c r="M1043" s="2"/>
+      <c r="N1043" s="2"/>
+      <c r="O1043" s="2"/>
+      <c r="P1043" s="2"/>
+      <c r="Q1043" s="2"/>
+      <c r="R1043" s="2"/>
+      <c r="S1043" s="2"/>
+      <c r="T1043" s="2"/>
+      <c r="U1043" s="2"/>
+      <c r="V1043" s="2"/>
+      <c r="W1043" s="2"/>
+      <c r="X1043" s="2"/>
+      <c r="Y1043" s="2"/>
+      <c r="Z1043" s="2"/>
+      <c r="AA1043" s="2"/>
+      <c r="AB1043" s="2"/>
+      <c r="AC1043" s="2"/>
+      <c r="AD1043" s="2"/>
+      <c r="AE1043" s="2"/>
+      <c r="AF1043" s="2"/>
+      <c r="AG1043" s="2"/>
+      <c r="AH1043" s="2"/>
+      <c r="AI1043" s="2"/>
+      <c r="AJ1043" s="2"/>
+      <c r="AK1043" s="2"/>
+      <c r="AL1043" s="2"/>
+    </row>
+    <row r="1044" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1044" s="6"/>
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="3"/>
+      <c r="D1044" s="4"/>
+      <c r="E1044" s="4"/>
+      <c r="F1044" s="4"/>
+      <c r="G1044" s="2"/>
+      <c r="H1044" s="2"/>
+      <c r="I1044" s="2"/>
+      <c r="J1044" s="2"/>
+      <c r="K1044" s="2"/>
+      <c r="L1044" s="2"/>
+      <c r="M1044" s="2"/>
+      <c r="N1044" s="2"/>
+      <c r="O1044" s="2"/>
+      <c r="P1044" s="2"/>
+      <c r="Q1044" s="2"/>
+      <c r="R1044" s="2"/>
+      <c r="S1044" s="2"/>
+      <c r="T1044" s="2"/>
+      <c r="U1044" s="2"/>
+      <c r="V1044" s="2"/>
+      <c r="W1044" s="2"/>
+      <c r="X1044" s="2"/>
+      <c r="Y1044" s="2"/>
+      <c r="Z1044" s="2"/>
+      <c r="AA1044" s="2"/>
+      <c r="AB1044" s="2"/>
+      <c r="AC1044" s="2"/>
+      <c r="AD1044" s="2"/>
+      <c r="AE1044" s="2"/>
+      <c r="AF1044" s="2"/>
+      <c r="AG1044" s="2"/>
+      <c r="AH1044" s="2"/>
+      <c r="AI1044" s="2"/>
+      <c r="AJ1044" s="2"/>
+      <c r="AK1044" s="2"/>
+      <c r="AL1044" s="2"/>
+    </row>
+    <row r="1045" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1045" s="6"/>
+      <c r="B1045" s="2"/>
+      <c r="C1045" s="3"/>
+      <c r="D1045" s="4"/>
+      <c r="E1045" s="4"/>
+      <c r="F1045" s="4"/>
+      <c r="G1045" s="2"/>
+      <c r="H1045" s="2"/>
+      <c r="I1045" s="2"/>
+      <c r="J1045" s="2"/>
+      <c r="K1045" s="2"/>
+      <c r="L1045" s="2"/>
+      <c r="M1045" s="2"/>
+      <c r="N1045" s="2"/>
+      <c r="O1045" s="2"/>
+      <c r="P1045" s="2"/>
+      <c r="Q1045" s="2"/>
+      <c r="R1045" s="2"/>
+      <c r="S1045" s="2"/>
+      <c r="T1045" s="2"/>
+      <c r="U1045" s="2"/>
+      <c r="V1045" s="2"/>
+      <c r="W1045" s="2"/>
+      <c r="X1045" s="2"/>
+      <c r="Y1045" s="2"/>
+      <c r="Z1045" s="2"/>
+      <c r="AA1045" s="2"/>
+      <c r="AB1045" s="2"/>
+      <c r="AC1045" s="2"/>
+      <c r="AD1045" s="2"/>
+      <c r="AE1045" s="2"/>
+      <c r="AF1045" s="2"/>
+      <c r="AG1045" s="2"/>
+      <c r="AH1045" s="2"/>
+      <c r="AI1045" s="2"/>
+      <c r="AJ1045" s="2"/>
+      <c r="AK1045" s="2"/>
+      <c r="AL1045" s="2"/>
+    </row>
+    <row r="1046" spans="1:38" ht="13.5" customHeight="1">
+      <c r="A1046" s="6"/>
+      <c r="B1046" s="2"/>
+      <c r="C1046" s="3"/>
+      <c r="D1046" s="4"/>
+      <c r="E1046" s="4"/>
+      <c r="F1046" s="4"/>
+      <c r="G1046" s="2"/>
+      <c r="H1046" s="2"/>
+      <c r="I1046" s="2"/>
+      <c r="J1046" s="2"/>
+      <c r="K1046" s="2"/>
+      <c r="L1046" s="2"/>
+      <c r="M1046" s="2"/>
+      <c r="N1046" s="2"/>
+      <c r="O1046" s="2"/>
+      <c r="P1046" s="2"/>
+      <c r="Q1046" s="2"/>
+      <c r="R1046" s="2"/>
+      <c r="S1046" s="2"/>
+      <c r="T1046" s="2"/>
+      <c r="U1046" s="2"/>
+      <c r="V1046" s="2"/>
+      <c r="W1046" s="2"/>
+      <c r="X1046" s="2"/>
+      <c r="Y1046" s="2"/>
+      <c r="Z1046" s="2"/>
+      <c r="AA1046" s="2"/>
+      <c r="AB1046" s="2"/>
+      <c r="AC1046" s="2"/>
+      <c r="AD1046" s="2"/>
+      <c r="AE1046" s="2"/>
+      <c r="AF1046" s="2"/>
+      <c r="AG1046" s="2"/>
+      <c r="AH1046" s="2"/>
+      <c r="AI1046" s="2"/>
+      <c r="AJ1046" s="2"/>
+      <c r="AK1046" s="2"/>
+      <c r="AL1046" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="310">
+  <mergeCells count="330">
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
@@ -43938,7 +44405,6 @@
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
@@ -43948,81 +44414,63 @@
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
     <mergeCell ref="G3:AL4"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="I6:J6"/>
@@ -44033,6 +44481,12 @@
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -44057,7 +44511,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -44078,8 +44531,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A93:A94"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D22:D23"/>
@@ -44099,91 +44550,72 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
     <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E72:E73"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -44204,7 +44636,7 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E88:E89"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -44215,23 +44647,44 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E49 E37 E39 E62 E27 E29 E31 E86 E89 E91 E93 E95 E97 E99 E102 E104 E106 E108 E110 E112 E115 E117 E119 E121 E33 E35 E74 E82 E41 E43 E45 E51 E53 E55 E57 E59 E47 E25 E64 E66 E68 E70 E72 E76 E78 E80 E84" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E10 E12 E14 E16 E18 E20 E22 E57 E37 E39 E70 E27 E29 E31 E94 E97 E99 E101 E103 E105 E107 E110 E112 E114 E116 E118 E120 E123 E125 E127 E129 E33 E35 E82 E90 E41 E51 E53 E59 E61 E63 E65 E67 E55 E25 E72 E74 E76 E78 E80 E84 E86 E88 E92 E43 E45 E47 E49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未着手,作成中,作成完了,レビュー中,レビュー完了,FIX"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
+++ b/進捗管理表/Oishi/進捗管理表_ProjectX_大石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA37441-1D45-4467-B09C-E2BFB1A8DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469C55D-AD56-45F4-83B1-4D5C885E542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="72">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -83,16 +83,6 @@
     <t>大石</t>
     <rPh sb="0" eb="2">
       <t>オオイシ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>仕様書作成</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -477,10 +467,34 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>作成中</t>
+    <t>単体テスト仕様書作成</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>未着手</t>
+    <t>結合テスト仕様書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>8h</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -493,7 +507,7 @@
     <numFmt numFmtId="178" formatCode="[$-411]yyyy&quot;年&quot;mm&quot;月&quot;"/>
     <numFmt numFmtId="179" formatCode="0&quot; &quot;;[Red]&quot;(&quot;0&quot;)&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -561,8 +575,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Ｍｓ ｐゴシック1"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +623,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1447,51 +1474,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,7 +1503,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1736,10 +1769,10 @@
   <dimension ref="A1:AL1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AB104" sqref="AB104"/>
+      <selection pane="bottomRight" activeCell="AG108" sqref="AG108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1836,162 +1869,162 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="89" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="89">
+      <c r="G3" s="76">
         <v>45627</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="91"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="78"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="83" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="94"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="81"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="96">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="87">
         <v>3</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="78">
+      <c r="H5" s="85"/>
+      <c r="I5" s="86">
         <v>4</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="78">
+      <c r="J5" s="91"/>
+      <c r="K5" s="86">
         <v>5</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="78">
+      <c r="L5" s="91"/>
+      <c r="M5" s="86">
         <v>6</v>
       </c>
-      <c r="N5" s="84"/>
-      <c r="O5" s="78">
+      <c r="N5" s="91"/>
+      <c r="O5" s="86">
         <v>9</v>
       </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="78">
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86">
         <v>10</v>
       </c>
-      <c r="R5" s="84"/>
-      <c r="S5" s="78">
+      <c r="R5" s="91"/>
+      <c r="S5" s="86">
         <v>11</v>
       </c>
-      <c r="T5" s="84"/>
-      <c r="U5" s="78">
+      <c r="T5" s="91"/>
+      <c r="U5" s="86">
         <v>12</v>
       </c>
-      <c r="V5" s="84"/>
-      <c r="W5" s="78">
+      <c r="V5" s="91"/>
+      <c r="W5" s="86">
         <v>13</v>
       </c>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="78">
+      <c r="X5" s="91"/>
+      <c r="Y5" s="86">
         <v>16</v>
       </c>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="78">
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="86">
         <v>17</v>
       </c>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="78">
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="86">
         <v>18</v>
       </c>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="78">
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="86">
         <v>19</v>
       </c>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="78">
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="86">
         <v>20</v>
       </c>
-      <c r="AH5" s="79"/>
+      <c r="AH5" s="85"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10"/>
@@ -2003,63 +2036,63 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="85" t="s">
+      <c r="F6" s="94"/>
+      <c r="G6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="85" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="85" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="85" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="78" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="78" t="s">
+      <c r="P6" s="85"/>
+      <c r="Q6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="79"/>
-      <c r="S6" s="78" t="s">
+      <c r="R6" s="85"/>
+      <c r="S6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="79"/>
-      <c r="U6" s="78" t="s">
+      <c r="T6" s="85"/>
+      <c r="U6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="79"/>
-      <c r="W6" s="78" t="s">
+      <c r="V6" s="85"/>
+      <c r="W6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="78" t="s">
+      <c r="X6" s="85"/>
+      <c r="Y6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="78" t="s">
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="78" t="s">
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="78" t="s">
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="78" t="s">
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="79"/>
+      <c r="AH6" s="85"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
@@ -2111,10 +2144,10 @@
       <c r="A8" s="71">
         <v>1</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
@@ -2197,10 +2230,10 @@
       <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="31" t="s">
         <v>13</v>
       </c>
@@ -2283,10 +2316,10 @@
       <c r="A12" s="71">
         <v>3</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
@@ -2369,10 +2402,10 @@
       <c r="A14" s="71">
         <v>4</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="31" t="s">
         <v>13</v>
       </c>
@@ -2455,10 +2488,10 @@
       <c r="A16" s="71">
         <v>5</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
@@ -2541,10 +2574,10 @@
       <c r="A18" s="71">
         <v>6</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="31" t="s">
         <v>13</v>
       </c>
@@ -2627,10 +2660,10 @@
       <c r="A20" s="71">
         <v>7</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2713,10 +2746,10 @@
       <c r="A22" s="71">
         <v>8</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
@@ -2841,17 +2874,17 @@
       <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
-        <v>25</v>
+      <c r="B25" s="95" t="s">
+        <v>24</v>
       </c>
-      <c r="C25" s="73" t="s">
-        <v>34</v>
+      <c r="C25" s="75" t="s">
+        <v>33</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="73" t="s">
-        <v>49</v>
+      <c r="E25" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>13</v>
@@ -2891,7 +2924,7 @@
     </row>
     <row r="26" spans="1:38" ht="12" customHeight="1">
       <c r="A26" s="72"/>
-      <c r="B26" s="75"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
@@ -2935,17 +2968,17 @@
       <c r="A27" s="71">
         <v>2</v>
       </c>
-      <c r="B27" s="74" t="s">
-        <v>26</v>
+      <c r="B27" s="95" t="s">
+        <v>25</v>
       </c>
-      <c r="C27" s="73" t="s">
-        <v>34</v>
+      <c r="C27" s="75" t="s">
+        <v>33</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="73" t="s">
-        <v>49</v>
+      <c r="E27" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>13</v>
@@ -2985,7 +3018,7 @@
     </row>
     <row r="28" spans="1:38" ht="12" customHeight="1">
       <c r="A28" s="72"/>
-      <c r="B28" s="75"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
@@ -3029,17 +3062,17 @@
       <c r="A29" s="71">
         <v>3</v>
       </c>
-      <c r="B29" s="76" t="s">
-        <v>27</v>
+      <c r="B29" s="73" t="s">
+        <v>26</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>34</v>
+      <c r="C29" s="75" t="s">
+        <v>33</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="73" t="s">
-        <v>49</v>
+      <c r="E29" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>13</v>
@@ -3079,7 +3112,7 @@
     </row>
     <row r="30" spans="1:38" ht="12" customHeight="1">
       <c r="A30" s="72"/>
-      <c r="B30" s="77"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
@@ -3123,17 +3156,17 @@
       <c r="A31" s="71">
         <v>4</v>
       </c>
-      <c r="B31" s="74" t="s">
-        <v>28</v>
+      <c r="B31" s="95" t="s">
+        <v>27</v>
       </c>
-      <c r="C31" s="73" t="s">
-        <v>35</v>
+      <c r="C31" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="73" t="s">
-        <v>49</v>
+      <c r="E31" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>13</v>
@@ -3173,7 +3206,7 @@
     </row>
     <row r="32" spans="1:38" ht="12" customHeight="1">
       <c r="A32" s="72"/>
-      <c r="B32" s="75"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
@@ -3217,17 +3250,17 @@
       <c r="A33" s="71">
         <v>5</v>
       </c>
-      <c r="B33" s="74" t="s">
-        <v>29</v>
+      <c r="B33" s="95" t="s">
+        <v>28</v>
       </c>
-      <c r="C33" s="73" t="s">
-        <v>35</v>
+      <c r="C33" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="73" t="s">
-        <v>49</v>
+      <c r="E33" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>13</v>
@@ -3267,7 +3300,7 @@
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="75"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
@@ -3311,17 +3344,17 @@
       <c r="A35" s="71">
         <v>6</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>30</v>
+      <c r="B35" s="73" t="s">
+        <v>29</v>
       </c>
-      <c r="C35" s="73" t="s">
-        <v>35</v>
+      <c r="C35" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="73" t="s">
-        <v>49</v>
+      <c r="E35" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>13</v>
@@ -3361,7 +3394,7 @@
     </row>
     <row r="36" spans="1:38" ht="12" customHeight="1">
       <c r="A36" s="72"/>
-      <c r="B36" s="77"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
@@ -3405,17 +3438,17 @@
       <c r="A37" s="71">
         <v>7</v>
       </c>
-      <c r="B37" s="74" t="s">
-        <v>31</v>
+      <c r="B37" s="95" t="s">
+        <v>30</v>
       </c>
-      <c r="C37" s="73" t="s">
-        <v>35</v>
+      <c r="C37" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="73" t="s">
-        <v>49</v>
+      <c r="E37" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>13</v>
@@ -3455,7 +3488,7 @@
     </row>
     <row r="38" spans="1:38" ht="12" customHeight="1">
       <c r="A38" s="72"/>
-      <c r="B38" s="75"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
@@ -3499,17 +3532,17 @@
       <c r="A39" s="71">
         <v>8</v>
       </c>
-      <c r="B39" s="74" t="s">
-        <v>32</v>
+      <c r="B39" s="95" t="s">
+        <v>31</v>
       </c>
-      <c r="C39" s="73" t="s">
-        <v>35</v>
+      <c r="C39" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="73" t="s">
-        <v>49</v>
+      <c r="E39" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>13</v>
@@ -3549,7 +3582,7 @@
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
       <c r="A40" s="72"/>
-      <c r="B40" s="75"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
@@ -3593,17 +3626,17 @@
       <c r="A41" s="71">
         <v>9</v>
       </c>
-      <c r="B41" s="76" t="s">
-        <v>33</v>
+      <c r="B41" s="73" t="s">
+        <v>32</v>
       </c>
-      <c r="C41" s="73" t="s">
-        <v>35</v>
+      <c r="C41" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="73" t="s">
-        <v>49</v>
+      <c r="E41" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>13</v>
@@ -3643,7 +3676,7 @@
     </row>
     <row r="42" spans="1:38" ht="12" customHeight="1">
       <c r="A42" s="72"/>
-      <c r="B42" s="77"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="72"/>
@@ -3687,17 +3720,17 @@
       <c r="A43" s="71">
         <v>8</v>
       </c>
-      <c r="B43" s="74" t="s">
-        <v>66</v>
+      <c r="B43" s="95" t="s">
+        <v>65</v>
       </c>
-      <c r="C43" s="73" t="s">
-        <v>35</v>
+      <c r="C43" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="73" t="s">
-        <v>49</v>
+      <c r="E43" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>13</v>
@@ -3737,7 +3770,7 @@
     </row>
     <row r="44" spans="1:38" ht="12" customHeight="1">
       <c r="A44" s="72"/>
-      <c r="B44" s="75"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
@@ -3781,17 +3814,17 @@
       <c r="A45" s="71">
         <v>9</v>
       </c>
-      <c r="B45" s="76" t="s">
-        <v>67</v>
+      <c r="B45" s="73" t="s">
+        <v>66</v>
       </c>
-      <c r="C45" s="73" t="s">
-        <v>35</v>
+      <c r="C45" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D45" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="73" t="s">
-        <v>49</v>
+      <c r="E45" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>13</v>
@@ -3831,7 +3864,7 @@
     </row>
     <row r="46" spans="1:38" ht="12" customHeight="1">
       <c r="A46" s="72"/>
-      <c r="B46" s="77"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
       <c r="E46" s="72"/>
@@ -3875,17 +3908,17 @@
       <c r="A47" s="71">
         <v>8</v>
       </c>
-      <c r="B47" s="74" t="s">
-        <v>68</v>
+      <c r="B47" s="95" t="s">
+        <v>67</v>
       </c>
-      <c r="C47" s="73" t="s">
-        <v>35</v>
+      <c r="C47" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="73" t="s">
-        <v>49</v>
+      <c r="E47" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>13</v>
@@ -3925,7 +3958,7 @@
     </row>
     <row r="48" spans="1:38" ht="12" customHeight="1">
       <c r="A48" s="72"/>
-      <c r="B48" s="75"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="72"/>
@@ -3969,17 +4002,17 @@
       <c r="A49" s="71">
         <v>9</v>
       </c>
-      <c r="B49" s="76" t="s">
-        <v>69</v>
+      <c r="B49" s="73" t="s">
+        <v>68</v>
       </c>
-      <c r="C49" s="73" t="s">
-        <v>35</v>
+      <c r="C49" s="75" t="s">
+        <v>34</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="73" t="s">
-        <v>49</v>
+      <c r="E49" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>13</v>
@@ -4019,7 +4052,7 @@
     </row>
     <row r="50" spans="1:38" ht="12" customHeight="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="77"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
       <c r="E50" s="72"/>
@@ -4063,17 +4096,17 @@
       <c r="A51" s="71">
         <v>10</v>
       </c>
-      <c r="B51" s="76" t="s">
-        <v>37</v>
+      <c r="B51" s="73" t="s">
+        <v>36</v>
       </c>
-      <c r="C51" s="73" t="s">
-        <v>46</v>
+      <c r="C51" s="75" t="s">
+        <v>45</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="73" t="s">
-        <v>49</v>
+      <c r="E51" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>13</v>
@@ -4113,7 +4146,7 @@
     </row>
     <row r="52" spans="1:38" ht="12" customHeight="1">
       <c r="A52" s="72"/>
-      <c r="B52" s="77"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
       <c r="E52" s="72"/>
@@ -4157,17 +4190,17 @@
       <c r="A53" s="71">
         <v>11</v>
       </c>
-      <c r="B53" s="76" t="s">
-        <v>38</v>
+      <c r="B53" s="73" t="s">
+        <v>37</v>
       </c>
-      <c r="C53" s="73" t="s">
-        <v>46</v>
+      <c r="C53" s="75" t="s">
+        <v>45</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="73" t="s">
-        <v>49</v>
+      <c r="E53" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>13</v>
@@ -4207,7 +4240,7 @@
     </row>
     <row r="54" spans="1:38" ht="12" customHeight="1">
       <c r="A54" s="72"/>
-      <c r="B54" s="77"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
@@ -4251,17 +4284,17 @@
       <c r="A55" s="71">
         <v>12</v>
       </c>
-      <c r="B55" s="76" t="s">
-        <v>39</v>
+      <c r="B55" s="73" t="s">
+        <v>38</v>
       </c>
-      <c r="C55" s="73" t="s">
-        <v>46</v>
+      <c r="C55" s="75" t="s">
+        <v>45</v>
       </c>
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="73" t="s">
-        <v>49</v>
+      <c r="E55" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>13</v>
@@ -4301,7 +4334,7 @@
     </row>
     <row r="56" spans="1:38" ht="12" customHeight="1">
       <c r="A56" s="72"/>
-      <c r="B56" s="77"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="72"/>
       <c r="D56" s="72"/>
       <c r="E56" s="72"/>
@@ -4345,17 +4378,17 @@
       <c r="A57" s="71">
         <v>12</v>
       </c>
-      <c r="B57" s="76" t="s">
-        <v>40</v>
+      <c r="B57" s="73" t="s">
+        <v>39</v>
       </c>
-      <c r="C57" s="73" t="s">
-        <v>47</v>
+      <c r="C57" s="75" t="s">
+        <v>46</v>
       </c>
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="73" t="s">
-        <v>51</v>
+      <c r="E57" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>13</v>
@@ -4395,7 +4428,7 @@
     </row>
     <row r="58" spans="1:38" ht="12" customHeight="1">
       <c r="A58" s="72"/>
-      <c r="B58" s="77"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="72"/>
       <c r="D58" s="72"/>
       <c r="E58" s="72"/>
@@ -4439,17 +4472,17 @@
       <c r="A59" s="71">
         <v>12</v>
       </c>
-      <c r="B59" s="76" t="s">
-        <v>41</v>
+      <c r="B59" s="73" t="s">
+        <v>40</v>
       </c>
-      <c r="C59" s="73" t="s">
-        <v>47</v>
+      <c r="C59" s="75" t="s">
+        <v>46</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="73" t="s">
-        <v>51</v>
+      <c r="E59" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>13</v>
@@ -4489,7 +4522,7 @@
     </row>
     <row r="60" spans="1:38" ht="12" customHeight="1">
       <c r="A60" s="72"/>
-      <c r="B60" s="77"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="72"/>
       <c r="D60" s="72"/>
       <c r="E60" s="72"/>
@@ -4533,17 +4566,17 @@
       <c r="A61" s="71">
         <v>12</v>
       </c>
-      <c r="B61" s="76" t="s">
-        <v>42</v>
+      <c r="B61" s="73" t="s">
+        <v>41</v>
       </c>
-      <c r="C61" s="73" t="s">
-        <v>47</v>
+      <c r="C61" s="75" t="s">
+        <v>46</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="73" t="s">
-        <v>51</v>
+      <c r="E61" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>13</v>
@@ -4583,7 +4616,7 @@
     </row>
     <row r="62" spans="1:38" ht="12" customHeight="1">
       <c r="A62" s="72"/>
-      <c r="B62" s="77"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="72"/>
       <c r="D62" s="72"/>
       <c r="E62" s="72"/>
@@ -4627,17 +4660,17 @@
       <c r="A63" s="71">
         <v>12</v>
       </c>
-      <c r="B63" s="76" t="s">
-        <v>43</v>
+      <c r="B63" s="73" t="s">
+        <v>42</v>
       </c>
-      <c r="C63" s="73" t="s">
-        <v>48</v>
+      <c r="C63" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="73" t="s">
-        <v>49</v>
+      <c r="E63" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>13</v>
@@ -4677,7 +4710,7 @@
     </row>
     <row r="64" spans="1:38" ht="12" customHeight="1">
       <c r="A64" s="72"/>
-      <c r="B64" s="77"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
@@ -4721,17 +4754,17 @@
       <c r="A65" s="71">
         <v>12</v>
       </c>
-      <c r="B65" s="76" t="s">
-        <v>44</v>
+      <c r="B65" s="73" t="s">
+        <v>43</v>
       </c>
-      <c r="C65" s="73" t="s">
-        <v>48</v>
+      <c r="C65" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D65" s="73" t="s">
+      <c r="D65" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="73" t="s">
-        <v>49</v>
+      <c r="E65" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>13</v>
@@ -4771,7 +4804,7 @@
     </row>
     <row r="66" spans="1:38" ht="12" customHeight="1">
       <c r="A66" s="72"/>
-      <c r="B66" s="77"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="72"/>
       <c r="D66" s="72"/>
       <c r="E66" s="72"/>
@@ -4815,17 +4848,17 @@
       <c r="A67" s="71">
         <v>12</v>
       </c>
-      <c r="B67" s="76" t="s">
-        <v>45</v>
+      <c r="B67" s="73" t="s">
+        <v>44</v>
       </c>
-      <c r="C67" s="73" t="s">
-        <v>48</v>
+      <c r="C67" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D67" s="73" t="s">
+      <c r="D67" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="73" t="s">
-        <v>49</v>
+      <c r="E67" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>13</v>
@@ -4865,7 +4898,7 @@
     </row>
     <row r="68" spans="1:38" ht="12" customHeight="1">
       <c r="A68" s="72"/>
-      <c r="B68" s="77"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="72"/>
       <c r="D68" s="72"/>
       <c r="E68" s="72"/>
@@ -4951,17 +4984,17 @@
       <c r="A70" s="71">
         <v>1</v>
       </c>
-      <c r="B70" s="73" t="s">
-        <v>56</v>
+      <c r="B70" s="75" t="s">
+        <v>55</v>
       </c>
-      <c r="C70" s="73" t="s">
-        <v>48</v>
+      <c r="C70" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D70" s="73" t="s">
+      <c r="D70" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="73" t="s">
-        <v>51</v>
+      <c r="E70" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>13</v>
@@ -5045,17 +5078,17 @@
       <c r="A72" s="71">
         <v>2</v>
       </c>
-      <c r="B72" s="76" t="s">
-        <v>54</v>
+      <c r="B72" s="73" t="s">
+        <v>53</v>
       </c>
-      <c r="C72" s="73" t="s">
-        <v>48</v>
+      <c r="C72" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="73" t="s">
-        <v>51</v>
+      <c r="E72" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F72" s="31" t="s">
         <v>13</v>
@@ -5095,7 +5128,7 @@
     </row>
     <row r="73" spans="1:38" ht="12" customHeight="1">
       <c r="A73" s="72"/>
-      <c r="B73" s="77"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="72"/>
       <c r="D73" s="72"/>
       <c r="E73" s="72"/>
@@ -5139,17 +5172,17 @@
       <c r="A74" s="71">
         <v>3</v>
       </c>
-      <c r="B74" s="76" t="s">
-        <v>52</v>
+      <c r="B74" s="73" t="s">
+        <v>51</v>
       </c>
-      <c r="C74" s="73" t="s">
-        <v>48</v>
+      <c r="C74" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D74" s="73" t="s">
+      <c r="D74" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="73" t="s">
-        <v>51</v>
+      <c r="E74" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F74" s="21" t="s">
         <v>13</v>
@@ -5189,7 +5222,7 @@
     </row>
     <row r="75" spans="1:38" ht="12" customHeight="1">
       <c r="A75" s="72"/>
-      <c r="B75" s="77"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="E75" s="72"/>
@@ -5233,17 +5266,17 @@
       <c r="A76" s="71">
         <v>4</v>
       </c>
-      <c r="B76" s="76" t="s">
-        <v>53</v>
+      <c r="B76" s="73" t="s">
+        <v>52</v>
       </c>
-      <c r="C76" s="73" t="s">
-        <v>48</v>
+      <c r="C76" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D76" s="73" t="s">
+      <c r="D76" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="73" t="s">
-        <v>51</v>
+      <c r="E76" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>13</v>
@@ -5283,7 +5316,7 @@
     </row>
     <row r="77" spans="1:38" ht="12" customHeight="1">
       <c r="A77" s="72"/>
-      <c r="B77" s="77"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="72"/>
       <c r="D77" s="72"/>
       <c r="E77" s="72"/>
@@ -5327,17 +5360,17 @@
       <c r="A78" s="71">
         <v>5</v>
       </c>
-      <c r="B78" s="76" t="s">
-        <v>57</v>
+      <c r="B78" s="73" t="s">
+        <v>56</v>
       </c>
-      <c r="C78" s="73" t="s">
-        <v>48</v>
+      <c r="C78" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D78" s="73" t="s">
+      <c r="D78" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="73" t="s">
-        <v>51</v>
+      <c r="E78" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>13</v>
@@ -5377,7 +5410,7 @@
     </row>
     <row r="79" spans="1:38" ht="12" customHeight="1">
       <c r="A79" s="72"/>
-      <c r="B79" s="77"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="72"/>
       <c r="D79" s="72"/>
       <c r="E79" s="72"/>
@@ -5421,17 +5454,17 @@
       <c r="A80" s="71">
         <v>6</v>
       </c>
-      <c r="B80" s="73" t="s">
-        <v>58</v>
+      <c r="B80" s="75" t="s">
+        <v>57</v>
       </c>
-      <c r="C80" s="73" t="s">
-        <v>48</v>
+      <c r="C80" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D80" s="73" t="s">
+      <c r="D80" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="73" t="s">
-        <v>51</v>
+      <c r="E80" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>13</v>
@@ -5515,17 +5548,17 @@
       <c r="A82" s="71">
         <v>7</v>
       </c>
-      <c r="B82" s="76" t="s">
-        <v>59</v>
+      <c r="B82" s="73" t="s">
+        <v>58</v>
       </c>
-      <c r="C82" s="73" t="s">
-        <v>48</v>
+      <c r="C82" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D82" s="73" t="s">
+      <c r="D82" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="73" t="s">
-        <v>51</v>
+      <c r="E82" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>13</v>
@@ -5565,7 +5598,7 @@
     </row>
     <row r="83" spans="1:38" ht="12" customHeight="1">
       <c r="A83" s="72"/>
-      <c r="B83" s="77"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="72"/>
       <c r="D83" s="72"/>
       <c r="E83" s="72"/>
@@ -5609,17 +5642,17 @@
       <c r="A84" s="71">
         <v>8</v>
       </c>
-      <c r="B84" s="73" t="s">
-        <v>61</v>
+      <c r="B84" s="75" t="s">
+        <v>60</v>
       </c>
-      <c r="C84" s="73" t="s">
-        <v>48</v>
+      <c r="C84" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="73" t="s">
-        <v>51</v>
+      <c r="E84" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F84" s="21" t="s">
         <v>13</v>
@@ -5703,17 +5736,17 @@
       <c r="A86" s="71">
         <v>9</v>
       </c>
-      <c r="B86" s="76" t="s">
-        <v>60</v>
+      <c r="B86" s="73" t="s">
+        <v>59</v>
       </c>
-      <c r="C86" s="73" t="s">
-        <v>48</v>
+      <c r="C86" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D86" s="73" t="s">
+      <c r="D86" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="73" t="s">
-        <v>51</v>
+      <c r="E86" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F86" s="31" t="s">
         <v>13</v>
@@ -5753,7 +5786,7 @@
     </row>
     <row r="87" spans="1:38" ht="12" customHeight="1">
       <c r="A87" s="72"/>
-      <c r="B87" s="77"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="72"/>
       <c r="D87" s="72"/>
       <c r="E87" s="72"/>
@@ -5797,17 +5830,17 @@
       <c r="A88" s="71">
         <v>10</v>
       </c>
-      <c r="B88" s="76" t="s">
-        <v>62</v>
+      <c r="B88" s="73" t="s">
+        <v>61</v>
       </c>
-      <c r="C88" s="73" t="s">
-        <v>48</v>
+      <c r="C88" s="75" t="s">
+        <v>47</v>
       </c>
-      <c r="D88" s="73" t="s">
+      <c r="D88" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="73" t="s">
-        <v>51</v>
+      <c r="E88" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F88" s="21" t="s">
         <v>13</v>
@@ -5847,7 +5880,7 @@
     </row>
     <row r="89" spans="1:38" ht="12" customHeight="1">
       <c r="A89" s="72"/>
-      <c r="B89" s="77"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="72"/>
       <c r="D89" s="72"/>
       <c r="E89" s="72"/>
@@ -5891,17 +5924,17 @@
       <c r="A90" s="71">
         <v>11</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="73" t="s">
+      <c r="D90" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="73" t="s">
-        <v>51</v>
+      <c r="E90" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F90" s="31" t="s">
         <v>13</v>
@@ -5985,17 +6018,17 @@
       <c r="A92" s="71">
         <v>11</v>
       </c>
-      <c r="B92" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="73" t="s">
+      <c r="B92" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="73" t="s">
+      <c r="C92" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="73" t="s">
-        <v>51</v>
+      <c r="E92" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F92" s="31" t="s">
         <v>13</v>
@@ -6035,7 +6068,7 @@
     </row>
     <row r="93" spans="1:38" ht="12" customHeight="1">
       <c r="A93" s="72"/>
-      <c r="B93" s="77"/>
+      <c r="B93" s="74"/>
       <c r="C93" s="72"/>
       <c r="D93" s="72"/>
       <c r="E93" s="72"/>
@@ -6079,17 +6112,17 @@
       <c r="A94" s="71">
         <v>12</v>
       </c>
-      <c r="B94" s="76" t="s">
-        <v>50</v>
+      <c r="B94" s="73" t="s">
+        <v>49</v>
       </c>
-      <c r="C94" s="73" t="s">
-        <v>55</v>
+      <c r="C94" s="75" t="s">
+        <v>54</v>
       </c>
-      <c r="D94" s="73" t="s">
+      <c r="D94" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E94" s="73" t="s">
-        <v>49</v>
+      <c r="E94" s="75" t="s">
+        <v>48</v>
       </c>
       <c r="F94" s="21" t="s">
         <v>13</v>
@@ -6129,7 +6162,7 @@
     </row>
     <row r="95" spans="1:38" ht="12" customHeight="1">
       <c r="A95" s="72"/>
-      <c r="B95" s="77"/>
+      <c r="B95" s="74"/>
       <c r="C95" s="72"/>
       <c r="D95" s="72"/>
       <c r="E95" s="72"/>
@@ -6215,17 +6248,17 @@
       <c r="A97" s="71">
         <v>1</v>
       </c>
-      <c r="B97" s="73" t="s">
-        <v>20</v>
+      <c r="B97" s="75" t="s">
+        <v>69</v>
       </c>
-      <c r="C97" s="73" t="s">
-        <v>36</v>
+      <c r="C97" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="D97" s="73" t="s">
+      <c r="D97" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="73" t="s">
-        <v>51</v>
+      <c r="E97" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F97" s="21" t="s">
         <v>13</v>
@@ -6293,8 +6326,8 @@
       <c r="Y98" s="29"/>
       <c r="Z98" s="29"/>
       <c r="AA98" s="59"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
+      <c r="AB98" s="59"/>
+      <c r="AC98" s="59"/>
       <c r="AD98" s="29"/>
       <c r="AE98" s="29"/>
       <c r="AF98" s="29"/>
@@ -6309,17 +6342,17 @@
       <c r="A99" s="71">
         <v>2</v>
       </c>
-      <c r="B99" s="76" t="s">
-        <v>22</v>
+      <c r="B99" s="73" t="s">
+        <v>21</v>
       </c>
-      <c r="C99" s="73" t="s">
-        <v>36</v>
+      <c r="C99" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="D99" s="73" t="s">
+      <c r="D99" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="73" t="s">
-        <v>70</v>
+      <c r="E99" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F99" s="31" t="s">
         <v>13</v>
@@ -6359,7 +6392,7 @@
     </row>
     <row r="100" spans="1:38" ht="12" customHeight="1">
       <c r="A100" s="72"/>
-      <c r="B100" s="77"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
       <c r="E100" s="72"/>
@@ -6387,8 +6420,8 @@
       <c r="Y100" s="36"/>
       <c r="Z100" s="36"/>
       <c r="AA100" s="65"/>
-      <c r="AB100" s="36"/>
-      <c r="AC100" s="36"/>
+      <c r="AB100" s="65"/>
+      <c r="AC100" s="65"/>
       <c r="AD100" s="36"/>
       <c r="AE100" s="36"/>
       <c r="AF100" s="36"/>
@@ -6403,17 +6436,17 @@
       <c r="A101" s="71">
         <v>3</v>
       </c>
-      <c r="B101" s="76" t="s">
-        <v>23</v>
+      <c r="B101" s="73" t="s">
+        <v>22</v>
       </c>
-      <c r="C101" s="73" t="s">
-        <v>36</v>
+      <c r="C101" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="D101" s="73" t="s">
+      <c r="D101" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="73" t="s">
-        <v>70</v>
+      <c r="E101" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F101" s="21" t="s">
         <v>13</v>
@@ -6453,7 +6486,7 @@
     </row>
     <row r="102" spans="1:38" ht="12" customHeight="1">
       <c r="A102" s="72"/>
-      <c r="B102" s="77"/>
+      <c r="B102" s="74"/>
       <c r="C102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="72"/>
@@ -6481,8 +6514,8 @@
       <c r="Y102" s="40"/>
       <c r="Z102" s="40"/>
       <c r="AA102" s="63"/>
-      <c r="AB102" s="40"/>
-      <c r="AC102" s="40"/>
+      <c r="AB102" s="63"/>
+      <c r="AC102" s="63"/>
       <c r="AD102" s="40"/>
       <c r="AE102" s="40"/>
       <c r="AF102" s="40"/>
@@ -6497,17 +6530,17 @@
       <c r="A103" s="71">
         <v>4</v>
       </c>
-      <c r="B103" s="76" t="s">
-        <v>24</v>
+      <c r="B103" s="73" t="s">
+        <v>23</v>
       </c>
-      <c r="C103" s="73" t="s">
-        <v>36</v>
+      <c r="C103" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="D103" s="73" t="s">
+      <c r="D103" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="73" t="s">
-        <v>70</v>
+      <c r="E103" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F103" s="31" t="s">
         <v>13</v>
@@ -6547,7 +6580,7 @@
     </row>
     <row r="104" spans="1:38" ht="12" customHeight="1">
       <c r="A104" s="72"/>
-      <c r="B104" s="77"/>
+      <c r="B104" s="74"/>
       <c r="C104" s="72"/>
       <c r="D104" s="72"/>
       <c r="E104" s="72"/>
@@ -6575,8 +6608,8 @@
       <c r="Y104" s="36"/>
       <c r="Z104" s="36"/>
       <c r="AA104" s="65"/>
-      <c r="AB104" s="36"/>
-      <c r="AC104" s="36"/>
+      <c r="AB104" s="65"/>
+      <c r="AC104" s="65"/>
       <c r="AD104" s="36"/>
       <c r="AE104" s="36"/>
       <c r="AF104" s="36"/>
@@ -6591,17 +6624,17 @@
       <c r="A105" s="71">
         <v>5</v>
       </c>
-      <c r="B105" s="73" t="s">
-        <v>21</v>
+      <c r="B105" s="75" t="s">
+        <v>70</v>
       </c>
-      <c r="C105" s="73" t="s">
-        <v>36</v>
+      <c r="C105" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="D105" s="73" t="s">
+      <c r="D105" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="73" t="s">
-        <v>71</v>
+      <c r="E105" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="F105" s="21" t="s">
         <v>13</v>
@@ -6672,8 +6705,8 @@
       <c r="AB106" s="29"/>
       <c r="AC106" s="29"/>
       <c r="AD106" s="29"/>
-      <c r="AE106" s="29"/>
-      <c r="AF106" s="29"/>
+      <c r="AE106" s="97"/>
+      <c r="AF106" s="97"/>
       <c r="AG106" s="29"/>
       <c r="AH106" s="29"/>
       <c r="AI106" s="41"/>
@@ -6685,10 +6718,18 @@
       <c r="A107" s="71">
         <v>6</v>
       </c>
-      <c r="B107" s="73"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
+      <c r="B107" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="75" t="s">
+        <v>50</v>
+      </c>
       <c r="F107" s="31" t="s">
         <v>13</v>
       </c>
@@ -6718,8 +6759,8 @@
       <c r="AD107" s="32"/>
       <c r="AE107" s="32"/>
       <c r="AF107" s="32"/>
-      <c r="AG107" s="32"/>
-      <c r="AH107" s="32"/>
+      <c r="AG107" s="98"/>
+      <c r="AH107" s="98"/>
       <c r="AI107" s="10"/>
       <c r="AJ107" s="10"/>
       <c r="AK107" s="10"/>
@@ -6813,10 +6854,10 @@
       <c r="A110" s="71">
         <v>1</v>
       </c>
-      <c r="B110" s="73"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="75"/>
+      <c r="D110" s="75"/>
+      <c r="E110" s="75"/>
       <c r="F110" s="21" t="s">
         <v>13</v>
       </c>
@@ -6899,10 +6940,10 @@
       <c r="A112" s="71">
         <v>2</v>
       </c>
-      <c r="B112" s="73"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
       <c r="F112" s="31" t="s">
         <v>13</v>
       </c>
@@ -6985,10 +7026,10 @@
       <c r="A114" s="71">
         <v>3</v>
       </c>
-      <c r="B114" s="73"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="75"/>
+      <c r="E114" s="75"/>
       <c r="F114" s="21" t="s">
         <v>13</v>
       </c>
@@ -7071,10 +7112,10 @@
       <c r="A116" s="71">
         <v>4</v>
       </c>
-      <c r="B116" s="73"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="75"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
       <c r="F116" s="31" t="s">
         <v>13</v>
       </c>
@@ -7157,10 +7198,10 @@
       <c r="A118" s="71">
         <v>5</v>
       </c>
-      <c r="B118" s="73"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
+      <c r="B118" s="75"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75"/>
       <c r="F118" s="21" t="s">
         <v>13</v>
       </c>
@@ -7243,10 +7284,10 @@
       <c r="A120" s="71">
         <v>6</v>
       </c>
-      <c r="B120" s="73"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="75"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="75"/>
       <c r="F120" s="31" t="s">
         <v>13</v>
       </c>
@@ -7369,10 +7410,10 @@
       <c r="A123" s="71">
         <v>1</v>
       </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
+      <c r="B123" s="75"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
       <c r="F123" s="21" t="s">
         <v>13</v>
       </c>
@@ -7455,10 +7496,10 @@
       <c r="A125" s="71">
         <v>2</v>
       </c>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
       <c r="F125" s="31" t="s">
         <v>13</v>
       </c>
@@ -7541,10 +7582,10 @@
       <c r="A127" s="71">
         <v>3</v>
       </c>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75"/>
       <c r="F127" s="21" t="s">
         <v>13</v>
       </c>
@@ -7627,10 +7668,10 @@
       <c r="A129" s="71">
         <v>4</v>
       </c>
-      <c r="B129" s="73"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
+      <c r="B129" s="75"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75"/>
       <c r="F129" s="31" t="s">
         <v>13</v>
       </c>
@@ -44351,6 +44392,312 @@
     </row>
   </sheetData>
   <mergeCells count="330">
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G3:AL4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
@@ -44375,312 +44722,6 @@
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="G3:AL4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
